--- a/AAII_Financials/Quarterly/BILI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BILI_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="92">
   <si>
     <t>BILI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,206 +665,231 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43008</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>42916</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42825</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42735</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>266700</v>
+        <v>324100</v>
       </c>
       <c r="E8" s="3">
-        <v>220600</v>
+        <v>281000</v>
       </c>
       <c r="F8" s="3">
-        <v>197100</v>
+        <v>260200</v>
       </c>
       <c r="G8" s="3">
-        <v>165800</v>
+        <v>215200</v>
       </c>
       <c r="H8" s="3">
-        <v>154800</v>
+        <v>192200</v>
       </c>
       <c r="I8" s="3">
+        <v>161700</v>
+      </c>
+      <c r="J8" s="3">
+        <v>151000</v>
+      </c>
+      <c r="K8" s="3">
         <v>147300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>124500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>108900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>108000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>86500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>61700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>31600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>44500</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>216300</v>
+        <v>249800</v>
       </c>
       <c r="E9" s="3">
-        <v>184500</v>
+        <v>225300</v>
       </c>
       <c r="F9" s="3">
-        <v>169900</v>
+        <v>211000</v>
       </c>
       <c r="G9" s="3">
-        <v>137500</v>
+        <v>180000</v>
       </c>
       <c r="H9" s="3">
-        <v>126900</v>
+        <v>165700</v>
       </c>
       <c r="I9" s="3">
+        <v>134200</v>
+      </c>
+      <c r="J9" s="3">
+        <v>123800</v>
+      </c>
+      <c r="K9" s="3">
         <v>111300</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>94000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>82800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>82100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>66100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>52800</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>35200</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>77100</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>50400</v>
+        <v>74200</v>
       </c>
       <c r="E10" s="3">
-        <v>36100</v>
+        <v>55700</v>
       </c>
       <c r="F10" s="3">
+        <v>49200</v>
+      </c>
+      <c r="G10" s="3">
+        <v>35200</v>
+      </c>
+      <c r="H10" s="3">
+        <v>26500</v>
+      </c>
+      <c r="I10" s="3">
+        <v>27600</v>
+      </c>
+      <c r="J10" s="3">
         <v>27200</v>
       </c>
-      <c r="G10" s="3">
-        <v>28300</v>
-      </c>
-      <c r="H10" s="3">
-        <v>27900</v>
-      </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>36000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>30600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>26100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>25900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>20400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>8900</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>-3600</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>-32700</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -881,52 +906,60 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>35500</v>
+        <v>41600</v>
       </c>
       <c r="E12" s="3">
-        <v>31000</v>
+        <v>34300</v>
       </c>
       <c r="F12" s="3">
-        <v>26700</v>
+        <v>34600</v>
       </c>
       <c r="G12" s="3">
-        <v>22000</v>
+        <v>30200</v>
       </c>
       <c r="H12" s="3">
-        <v>21000</v>
+        <v>26000</v>
       </c>
       <c r="I12" s="3">
+        <v>21500</v>
+      </c>
+      <c r="J12" s="3">
+        <v>20500</v>
+      </c>
+      <c r="K12" s="3">
         <v>18900</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>15200</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>12900</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>11100</v>
       </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
         <v>9400</v>
       </c>
-      <c r="N12" s="3">
+      <c r="P12" s="3">
         <v>8000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="Q12" s="3">
         <v>4300</v>
       </c>
-      <c r="P12" s="3">
+      <c r="R12" s="3">
         <v>9000</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -969,8 +1002,14 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1013,8 +1052,14 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1057,8 +1102,14 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,96 +1123,110 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>327400</v>
+        <v>400200</v>
       </c>
       <c r="E17" s="3">
-        <v>270200</v>
+        <v>339800</v>
       </c>
       <c r="F17" s="3">
-        <v>241100</v>
+        <v>319400</v>
       </c>
       <c r="G17" s="3">
-        <v>207200</v>
+        <v>263600</v>
       </c>
       <c r="H17" s="3">
-        <v>192000</v>
+        <v>235200</v>
       </c>
       <c r="I17" s="3">
+        <v>202100</v>
+      </c>
+      <c r="J17" s="3">
+        <v>187200</v>
+      </c>
+      <c r="K17" s="3">
         <v>162600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>135200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>118100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>112700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>94300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>73000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>87300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>118900</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>-60700</v>
+        <v>-76200</v>
       </c>
       <c r="E18" s="3">
-        <v>-49600</v>
+        <v>-58800</v>
       </c>
       <c r="F18" s="3">
-        <v>-44000</v>
+        <v>-59200</v>
       </c>
       <c r="G18" s="3">
-        <v>-41400</v>
+        <v>-48300</v>
       </c>
       <c r="H18" s="3">
-        <v>-37200</v>
+        <v>-42900</v>
       </c>
       <c r="I18" s="3">
+        <v>-40400</v>
+      </c>
+      <c r="J18" s="3">
+        <v>-36300</v>
+      </c>
+      <c r="K18" s="3">
         <v>-15300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-10700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-9200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-4700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-7800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-11300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-55700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-74500</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1178,57 +1243,65 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>6000</v>
+        <v>4200</v>
       </c>
       <c r="E20" s="3">
-        <v>8400</v>
+        <v>7600</v>
       </c>
       <c r="F20" s="3">
-        <v>17100</v>
+        <v>5800</v>
       </c>
       <c r="G20" s="3">
-        <v>15400</v>
+        <v>8200</v>
       </c>
       <c r="H20" s="3">
-        <v>3500</v>
+        <v>16700</v>
       </c>
       <c r="I20" s="3">
+        <v>15000</v>
+      </c>
+      <c r="J20" s="3">
+        <v>3400</v>
+      </c>
+      <c r="K20" s="3">
         <v>5600</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>2800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>1900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>2900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>700</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>1800</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>-1900</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>16</v>
+      <c r="D21" s="3">
+        <v>-23900</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>16</v>
@@ -1248,40 +1321,46 @@
       <c r="J21" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="K21" s="3">
+      <c r="K21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M21" s="3">
         <v>37900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>27000</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="N21" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="O21" s="3">
+      <c r="O21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="P21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q21" s="3">
         <v>-34100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>-58200</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>2300</v>
+        <v>2100</v>
       </c>
       <c r="E22" s="3">
+        <v>2100</v>
+      </c>
+      <c r="F22" s="3">
         <v>2200</v>
       </c>
-      <c r="F22" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>16</v>
+      <c r="G22" s="3">
+        <v>2200</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>16</v>
@@ -1292,11 +1371,11 @@
       <c r="J22" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="K22" s="3">
-        <v>0</v>
-      </c>
-      <c r="L22" s="3">
-        <v>0</v>
+      <c r="K22" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L22" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="M22" s="3">
         <v>0</v>
@@ -1310,96 +1389,114 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-57100</v>
+        <v>-74100</v>
       </c>
       <c r="E23" s="3">
-        <v>-43400</v>
+        <v>-53200</v>
       </c>
       <c r="F23" s="3">
-        <v>-26900</v>
+        <v>-55700</v>
       </c>
       <c r="G23" s="3">
-        <v>-26100</v>
+        <v>-42300</v>
       </c>
       <c r="H23" s="3">
-        <v>-33700</v>
+        <v>-26200</v>
       </c>
       <c r="I23" s="3">
+        <v>-25400</v>
+      </c>
+      <c r="J23" s="3">
+        <v>-32900</v>
+      </c>
+      <c r="K23" s="3">
         <v>-9700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-7800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-7300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-1800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-7100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-9500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-57600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-74500</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="E24" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F24" s="3">
+        <v>1100</v>
+      </c>
+      <c r="G24" s="3">
         <v>1800</v>
       </c>
-      <c r="F24" s="3">
-        <v>1200</v>
-      </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
+        <v>1100</v>
+      </c>
+      <c r="I24" s="3">
         <v>1300</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>1600</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>300</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>400</v>
-      </c>
-      <c r="L24" s="3">
-        <v>300</v>
-      </c>
-      <c r="M24" s="3">
-        <v>300</v>
       </c>
       <c r="N24" s="3">
         <v>300</v>
       </c>
       <c r="O24" s="3">
+        <v>300</v>
+      </c>
+      <c r="P24" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q24" s="3">
         <v>500</v>
       </c>
-      <c r="P24" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,96 +1539,114 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-58200</v>
+        <v>-75400</v>
       </c>
       <c r="E26" s="3">
-        <v>-45200</v>
+        <v>-54200</v>
       </c>
       <c r="F26" s="3">
-        <v>-28100</v>
+        <v>-56800</v>
       </c>
       <c r="G26" s="3">
+        <v>-44100</v>
+      </c>
+      <c r="H26" s="3">
         <v>-27400</v>
       </c>
-      <c r="H26" s="3">
-        <v>-35300</v>
-      </c>
       <c r="I26" s="3">
+        <v>-26700</v>
+      </c>
+      <c r="J26" s="3">
+        <v>-34400</v>
+      </c>
+      <c r="K26" s="3">
         <v>-10100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-8300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-7600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-2200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-7500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-9800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-58000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-74500</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-58400</v>
+        <v>-74900</v>
       </c>
       <c r="E27" s="3">
-        <v>-44900</v>
+        <v>-53600</v>
       </c>
       <c r="F27" s="3">
-        <v>-26700</v>
+        <v>-57000</v>
       </c>
       <c r="G27" s="3">
-        <v>-25800</v>
+        <v>-43800</v>
       </c>
       <c r="H27" s="3">
-        <v>-35100</v>
+        <v>-26000</v>
       </c>
       <c r="I27" s="3">
+        <v>-25200</v>
+      </c>
+      <c r="J27" s="3">
+        <v>-34300</v>
+      </c>
+      <c r="K27" s="3">
         <v>-10200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-17200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-17800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-12200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-36900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-17500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-65400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-107000</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,8 +1689,14 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1618,8 +1739,14 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1789,14 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,96 +1839,114 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-6000</v>
+        <v>-4200</v>
       </c>
       <c r="E32" s="3">
-        <v>-8400</v>
+        <v>-7600</v>
       </c>
       <c r="F32" s="3">
-        <v>-17100</v>
+        <v>-5800</v>
       </c>
       <c r="G32" s="3">
-        <v>-15400</v>
+        <v>-8200</v>
       </c>
       <c r="H32" s="3">
-        <v>-3500</v>
+        <v>-16700</v>
       </c>
       <c r="I32" s="3">
+        <v>-15000</v>
+      </c>
+      <c r="J32" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="K32" s="3">
         <v>-5600</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-2800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-1900</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-2900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-700</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-1800</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>1900</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-58400</v>
+        <v>-74900</v>
       </c>
       <c r="E33" s="3">
-        <v>-44900</v>
+        <v>-53600</v>
       </c>
       <c r="F33" s="3">
-        <v>-26700</v>
+        <v>-57000</v>
       </c>
       <c r="G33" s="3">
-        <v>-25800</v>
+        <v>-43800</v>
       </c>
       <c r="H33" s="3">
-        <v>-35100</v>
+        <v>-26000</v>
       </c>
       <c r="I33" s="3">
+        <v>-25200</v>
+      </c>
+      <c r="J33" s="3">
+        <v>-34300</v>
+      </c>
+      <c r="K33" s="3">
         <v>-10200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-17200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-17800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-12200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-36900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-17500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-65400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-107000</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,101 +1989,119 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-58400</v>
+        <v>-74900</v>
       </c>
       <c r="E35" s="3">
-        <v>-44900</v>
+        <v>-53600</v>
       </c>
       <c r="F35" s="3">
-        <v>-26700</v>
+        <v>-57000</v>
       </c>
       <c r="G35" s="3">
-        <v>-25800</v>
+        <v>-43800</v>
       </c>
       <c r="H35" s="3">
-        <v>-35100</v>
+        <v>-26000</v>
       </c>
       <c r="I35" s="3">
+        <v>-25200</v>
+      </c>
+      <c r="J35" s="3">
+        <v>-34300</v>
+      </c>
+      <c r="K35" s="3">
         <v>-10200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-17200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-17800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-12200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-36900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-17500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-65400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-107000</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43008</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>42916</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42825</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42735</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2118,10 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,145 +2138,165 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>599700</v>
+        <v>622200</v>
       </c>
       <c r="E41" s="3">
-        <v>668500</v>
+        <v>694600</v>
       </c>
       <c r="F41" s="3">
-        <v>389500</v>
+        <v>584900</v>
       </c>
       <c r="G41" s="3">
-        <v>507900</v>
+        <v>652100</v>
       </c>
       <c r="H41" s="3">
-        <v>345500</v>
+        <v>379900</v>
       </c>
       <c r="I41" s="3">
+        <v>495500</v>
+      </c>
+      <c r="J41" s="3">
+        <v>337000</v>
+      </c>
+      <c r="K41" s="3">
         <v>520100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>150800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>113200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>58700</v>
       </c>
-      <c r="M41" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="N41" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="O41" s="3" t="s">
         <v>16</v>
       </c>
       <c r="P41" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q41" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="R41" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>604700</v>
+        <v>494400</v>
       </c>
       <c r="E42" s="3">
-        <v>560100</v>
+        <v>434600</v>
       </c>
       <c r="F42" s="3">
-        <v>262400</v>
+        <v>589900</v>
       </c>
       <c r="G42" s="3">
-        <v>243200</v>
+        <v>546400</v>
       </c>
       <c r="H42" s="3">
-        <v>154300</v>
+        <v>256000</v>
       </c>
       <c r="I42" s="3">
+        <v>237200</v>
+      </c>
+      <c r="J42" s="3">
+        <v>150600</v>
+      </c>
+      <c r="K42" s="3">
         <v>49900</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>32800</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>75000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>159200</v>
       </c>
-      <c r="M42" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="N42" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="O42" s="3" t="s">
         <v>16</v>
       </c>
       <c r="P42" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="R42" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>102700</v>
+        <v>155300</v>
       </c>
       <c r="E43" s="3">
-        <v>66400</v>
+        <v>131600</v>
       </c>
       <c r="F43" s="3">
-        <v>81100</v>
+        <v>100200</v>
       </c>
       <c r="G43" s="3">
-        <v>46500</v>
+        <v>64700</v>
       </c>
       <c r="H43" s="3">
-        <v>57300</v>
+        <v>79100</v>
       </c>
       <c r="I43" s="3">
+        <v>45400</v>
+      </c>
+      <c r="J43" s="3">
+        <v>55900</v>
+      </c>
+      <c r="K43" s="3">
         <v>54500</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>65400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>67500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>61600</v>
       </c>
-      <c r="M43" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="N43" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="O43" s="3" t="s">
         <v>16</v>
       </c>
       <c r="P43" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="R43" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D44" s="3" t="s">
-        <v>16</v>
+      <c r="D44" s="3">
+        <v>5900</v>
       </c>
       <c r="E44" s="3" t="s">
         <v>16</v>
@@ -2125,246 +2316,282 @@
       <c r="J44" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="K44" s="3">
+      <c r="K44" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L44" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M44" s="3">
         <v>1500</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>1300</v>
       </c>
-      <c r="M44" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="N44" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="O44" s="3" t="s">
         <v>16</v>
       </c>
       <c r="P44" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="R44" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>233800</v>
+        <v>154500</v>
       </c>
       <c r="E45" s="3">
-        <v>236600</v>
+        <v>184200</v>
       </c>
       <c r="F45" s="3">
-        <v>171900</v>
+        <v>228100</v>
       </c>
       <c r="G45" s="3">
-        <v>142200</v>
+        <v>230800</v>
       </c>
       <c r="H45" s="3">
-        <v>114700</v>
+        <v>167700</v>
       </c>
       <c r="I45" s="3">
+        <v>138700</v>
+      </c>
+      <c r="J45" s="3">
+        <v>111900</v>
+      </c>
+      <c r="K45" s="3">
         <v>103000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>104400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>62300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>58500</v>
       </c>
-      <c r="M45" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="N45" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="O45" s="3" t="s">
         <v>16</v>
       </c>
       <c r="P45" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="R45" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1541000</v>
+        <v>1432300</v>
       </c>
       <c r="E46" s="3">
-        <v>1531600</v>
+        <v>1445000</v>
       </c>
       <c r="F46" s="3">
-        <v>904900</v>
+        <v>1503200</v>
       </c>
       <c r="G46" s="3">
-        <v>939800</v>
+        <v>1494100</v>
       </c>
       <c r="H46" s="3">
-        <v>671900</v>
+        <v>882700</v>
       </c>
       <c r="I46" s="3">
+        <v>916700</v>
+      </c>
+      <c r="J46" s="3">
+        <v>655400</v>
+      </c>
+      <c r="K46" s="3">
         <v>727500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>353400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>319500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>339400</v>
       </c>
-      <c r="M46" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="N46" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="O46" s="3" t="s">
         <v>16</v>
       </c>
       <c r="P46" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="R46" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>203900</v>
+        <v>202400</v>
       </c>
       <c r="E47" s="3">
-        <v>229700</v>
+        <v>175100</v>
       </c>
       <c r="F47" s="3">
-        <v>176200</v>
+        <v>198900</v>
       </c>
       <c r="G47" s="3">
-        <v>140600</v>
+        <v>224000</v>
       </c>
       <c r="H47" s="3">
-        <v>143900</v>
+        <v>171900</v>
       </c>
       <c r="I47" s="3">
+        <v>137200</v>
+      </c>
+      <c r="J47" s="3">
+        <v>140400</v>
+      </c>
+      <c r="K47" s="3">
         <v>117600</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>106800</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>94400</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>80100</v>
       </c>
-      <c r="M47" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="N47" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="O47" s="3" t="s">
         <v>16</v>
       </c>
       <c r="P47" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="R47" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>67800</v>
+        <v>67300</v>
       </c>
       <c r="E48" s="3">
-        <v>65500</v>
+        <v>72200</v>
       </c>
       <c r="F48" s="3">
-        <v>52100</v>
+        <v>66100</v>
       </c>
       <c r="G48" s="3">
-        <v>56700</v>
+        <v>63900</v>
       </c>
       <c r="H48" s="3">
-        <v>46000</v>
+        <v>50800</v>
       </c>
       <c r="I48" s="3">
+        <v>55300</v>
+      </c>
+      <c r="J48" s="3">
+        <v>44900</v>
+      </c>
+      <c r="K48" s="3">
         <v>35600</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>28700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>27700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>20000</v>
       </c>
-      <c r="M48" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="N48" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="O48" s="3" t="s">
         <v>16</v>
       </c>
       <c r="P48" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="R48" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>364000</v>
+        <v>395700</v>
       </c>
       <c r="E49" s="3">
-        <v>358900</v>
+        <v>373600</v>
       </c>
       <c r="F49" s="3">
-        <v>330700</v>
+        <v>355100</v>
       </c>
       <c r="G49" s="3">
-        <v>338700</v>
+        <v>350100</v>
       </c>
       <c r="H49" s="3">
-        <v>223600</v>
+        <v>322600</v>
       </c>
       <c r="I49" s="3">
+        <v>330400</v>
+      </c>
+      <c r="J49" s="3">
+        <v>218100</v>
+      </c>
+      <c r="K49" s="3">
         <v>131900</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>105700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>70800</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>64200</v>
       </c>
-      <c r="M49" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="N49" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="O49" s="3" t="s">
         <v>16</v>
       </c>
       <c r="P49" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="R49" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2634,14 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,52 +2684,64 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>97600</v>
+        <v>109700</v>
       </c>
       <c r="E52" s="3">
-        <v>81200</v>
+        <v>105800</v>
       </c>
       <c r="F52" s="3">
-        <v>67600</v>
+        <v>95200</v>
       </c>
       <c r="G52" s="3">
-        <v>29300</v>
+        <v>79200</v>
       </c>
       <c r="H52" s="3">
-        <v>10500</v>
+        <v>65900</v>
       </c>
       <c r="I52" s="3">
+        <v>28600</v>
+      </c>
+      <c r="J52" s="3">
+        <v>10200</v>
+      </c>
+      <c r="K52" s="3">
         <v>7600</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>4400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>3100</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>1800</v>
       </c>
-      <c r="M52" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="N52" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="O52" s="3" t="s">
         <v>16</v>
       </c>
       <c r="P52" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="R52" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,52 +2784,64 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>2274300</v>
+        <v>2207400</v>
       </c>
       <c r="E54" s="3">
-        <v>2266900</v>
+        <v>2171700</v>
       </c>
       <c r="F54" s="3">
-        <v>1531500</v>
+        <v>2218500</v>
       </c>
       <c r="G54" s="3">
-        <v>1505100</v>
+        <v>2211300</v>
       </c>
       <c r="H54" s="3">
-        <v>1095900</v>
+        <v>1493900</v>
       </c>
       <c r="I54" s="3">
+        <v>1468200</v>
+      </c>
+      <c r="J54" s="3">
+        <v>1069000</v>
+      </c>
+      <c r="K54" s="3">
         <v>1020200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>598900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>515500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>505500</v>
       </c>
-      <c r="M54" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="N54" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="O54" s="3" t="s">
         <v>16</v>
       </c>
       <c r="P54" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q54" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="R54" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2858,10 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,69 +2878,77 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>272700</v>
+        <v>298400</v>
       </c>
       <c r="E57" s="3">
-        <v>246600</v>
+        <v>266500</v>
       </c>
       <c r="F57" s="3">
-        <v>204400</v>
+        <v>266000</v>
       </c>
       <c r="G57" s="3">
-        <v>187600</v>
+        <v>240500</v>
       </c>
       <c r="H57" s="3">
-        <v>150600</v>
+        <v>199400</v>
       </c>
       <c r="I57" s="3">
+        <v>183000</v>
+      </c>
+      <c r="J57" s="3">
+        <v>146900</v>
+      </c>
+      <c r="K57" s="3">
         <v>135800</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>124500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>88500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>81100</v>
       </c>
-      <c r="M57" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="N57" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="O57" s="3" t="s">
         <v>16</v>
       </c>
       <c r="P57" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="R57" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E58" s="3">
-        <v>14300</v>
-      </c>
-      <c r="F58" s="3">
-        <v>14300</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>16</v>
+      <c r="D58" s="3">
+        <v>14000</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G58" s="3">
+        <v>14000</v>
+      </c>
+      <c r="H58" s="3">
+        <v>14000</v>
       </c>
       <c r="I58" s="3" t="s">
         <v>16</v>
@@ -2689,11 +2956,11 @@
       <c r="J58" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="K58" s="3">
-        <v>0</v>
-      </c>
-      <c r="L58" s="3">
-        <v>0</v>
+      <c r="K58" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L58" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="M58" s="3">
         <v>0</v>
@@ -2707,110 +2974,128 @@
       <c r="P58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+      <c r="R58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>316700</v>
+        <v>359700</v>
       </c>
       <c r="E59" s="3">
-        <v>285900</v>
+        <v>331500</v>
       </c>
       <c r="F59" s="3">
-        <v>317200</v>
+        <v>308900</v>
       </c>
       <c r="G59" s="3">
-        <v>285700</v>
+        <v>278900</v>
       </c>
       <c r="H59" s="3">
-        <v>220900</v>
+        <v>309400</v>
       </c>
       <c r="I59" s="3">
+        <v>278700</v>
+      </c>
+      <c r="J59" s="3">
+        <v>215500</v>
+      </c>
+      <c r="K59" s="3">
         <v>172600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>184600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>118900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>106700</v>
       </c>
-      <c r="M59" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="N59" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="O59" s="3" t="s">
         <v>16</v>
       </c>
       <c r="P59" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q59" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="R59" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>589300</v>
+        <v>672200</v>
       </c>
       <c r="E60" s="3">
-        <v>546800</v>
+        <v>598000</v>
       </c>
       <c r="F60" s="3">
-        <v>535900</v>
+        <v>574900</v>
       </c>
       <c r="G60" s="3">
-        <v>473300</v>
+        <v>533400</v>
       </c>
       <c r="H60" s="3">
-        <v>371500</v>
+        <v>522800</v>
       </c>
       <c r="I60" s="3">
+        <v>461700</v>
+      </c>
+      <c r="J60" s="3">
+        <v>362400</v>
+      </c>
+      <c r="K60" s="3">
         <v>308400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>309100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>207500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>187800</v>
       </c>
-      <c r="M60" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="N60" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="O60" s="3" t="s">
         <v>16</v>
       </c>
       <c r="P60" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q60" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="R60" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>496300</v>
+        <v>485800</v>
       </c>
       <c r="E61" s="3">
-        <v>481900</v>
+        <v>477900</v>
       </c>
       <c r="F61" s="3">
-        <v>0</v>
+        <v>484100</v>
       </c>
       <c r="G61" s="3">
-        <v>0</v>
+        <v>470100</v>
       </c>
       <c r="H61" s="3">
         <v>0</v>
@@ -2839,22 +3124,28 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>29200</v>
+        <v>24300</v>
       </c>
       <c r="E62" s="3">
-        <v>24400</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G62" s="3" t="s">
-        <v>16</v>
+        <v>27000</v>
+      </c>
+      <c r="F62" s="3">
+        <v>28400</v>
+      </c>
+      <c r="G62" s="3">
+        <v>23800</v>
       </c>
       <c r="H62" s="3" t="s">
         <v>16</v>
@@ -2865,11 +3156,11 @@
       <c r="J62" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="K62" s="3">
-        <v>0</v>
-      </c>
-      <c r="L62" s="3">
-        <v>0</v>
+      <c r="K62" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L62" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="M62" s="3">
         <v>0</v>
@@ -2883,8 +3174,14 @@
       <c r="P62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3">
+        <v>0</v>
+      </c>
+      <c r="R62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3224,14 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3274,14 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,52 +3324,64 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1191800</v>
+        <v>1283800</v>
       </c>
       <c r="E66" s="3">
-        <v>1086500</v>
+        <v>1184600</v>
       </c>
       <c r="F66" s="3">
-        <v>569600</v>
+        <v>1162500</v>
       </c>
       <c r="G66" s="3">
-        <v>507800</v>
+        <v>1059900</v>
       </c>
       <c r="H66" s="3">
-        <v>391400</v>
+        <v>555700</v>
       </c>
       <c r="I66" s="3">
+        <v>495400</v>
+      </c>
+      <c r="J66" s="3">
+        <v>381800</v>
+      </c>
+      <c r="K66" s="3">
         <v>308300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>308900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>207500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>187800</v>
       </c>
-      <c r="M66" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="N66" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="O66" s="3" t="s">
         <v>16</v>
       </c>
       <c r="P66" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q66" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="R66" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3398,10 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3444,14 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3494,14 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3192,25 +3527,31 @@
         <v>0</v>
       </c>
       <c r="K70" s="3">
+        <v>0</v>
+      </c>
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3">
         <v>595900</v>
       </c>
-      <c r="L70" s="3">
+      <c r="N70" s="3">
         <v>585800</v>
       </c>
-      <c r="M70" s="3">
-        <v>0</v>
-      </c>
-      <c r="N70" s="3">
-        <v>0</v>
-      </c>
       <c r="O70" s="3">
         <v>0</v>
       </c>
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,52 +3594,64 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D72" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E72" s="3" t="s">
-        <v>16</v>
+      <c r="D72" s="3">
+        <v>-655600</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-578300</v>
       </c>
       <c r="F72" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G72" s="3">
-        <v>-406800</v>
+      <c r="G72" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="H72" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="I72" s="3" t="s">
-        <v>16</v>
+      <c r="I72" s="3">
+        <v>-396800</v>
       </c>
       <c r="J72" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="K72" s="3">
+      <c r="K72" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L72" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M72" s="3">
         <v>-329300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-311600</v>
       </c>
-      <c r="M72" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="N72" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="O72" s="3" t="s">
         <v>16</v>
       </c>
       <c r="P72" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q72" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="R72" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3694,14 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3744,14 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,52 +3794,64 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1082500</v>
+        <v>923500</v>
       </c>
       <c r="E76" s="3">
-        <v>1180400</v>
+        <v>987100</v>
       </c>
       <c r="F76" s="3">
-        <v>961900</v>
+        <v>1056000</v>
       </c>
       <c r="G76" s="3">
-        <v>997300</v>
+        <v>1151400</v>
       </c>
       <c r="H76" s="3">
-        <v>704500</v>
+        <v>938300</v>
       </c>
       <c r="I76" s="3">
+        <v>972800</v>
+      </c>
+      <c r="J76" s="3">
+        <v>687300</v>
+      </c>
+      <c r="K76" s="3">
         <v>711900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>290000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>-287800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>-268000</v>
       </c>
-      <c r="M76" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="N76" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="O76" s="3" t="s">
         <v>16</v>
       </c>
       <c r="P76" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q76" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="R76" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,101 +3894,119 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43008</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>42916</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42825</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42735</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-58400</v>
+        <v>-74900</v>
       </c>
       <c r="E81" s="3">
-        <v>-44900</v>
+        <v>-53600</v>
       </c>
       <c r="F81" s="3">
-        <v>-26700</v>
+        <v>-57000</v>
       </c>
       <c r="G81" s="3">
-        <v>-25800</v>
+        <v>-43800</v>
       </c>
       <c r="H81" s="3">
-        <v>-35100</v>
+        <v>-26000</v>
       </c>
       <c r="I81" s="3">
+        <v>-25200</v>
+      </c>
+      <c r="J81" s="3">
+        <v>-34300</v>
+      </c>
+      <c r="K81" s="3">
         <v>-10200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-17200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-17800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-12200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-36900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-17500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-65400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-107000</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,31 +4023,33 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>0</v>
-      </c>
-      <c r="E83" s="3">
-        <v>0</v>
-      </c>
-      <c r="F83" s="3">
-        <v>0</v>
-      </c>
-      <c r="G83" s="3">
-        <v>0</v>
-      </c>
-      <c r="H83" s="3">
-        <v>0</v>
-      </c>
-      <c r="I83" s="3">
-        <v>0</v>
-      </c>
-      <c r="J83" s="3">
-        <v>0</v>
+        <v>48000</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F83" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G83" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H83" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I83" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="K83" s="3">
         <v>0</v>
@@ -3663,17 +4060,23 @@
       <c r="M83" s="3">
         <v>0</v>
       </c>
-      <c r="N83" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="O83" s="3" t="s">
-        <v>16</v>
+      <c r="N83" s="3">
+        <v>0</v>
+      </c>
+      <c r="O83" s="3">
+        <v>0</v>
       </c>
       <c r="P83" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="R83" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +4119,14 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +4169,14 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4219,14 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4269,14 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,31 +4319,37 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>0</v>
-      </c>
-      <c r="E89" s="3">
-        <v>0</v>
-      </c>
-      <c r="F89" s="3">
-        <v>0</v>
-      </c>
-      <c r="G89" s="3">
-        <v>0</v>
-      </c>
-      <c r="H89" s="3">
-        <v>0</v>
-      </c>
-      <c r="I89" s="3">
-        <v>0</v>
-      </c>
-      <c r="J89" s="3">
-        <v>0</v>
+        <v>40400</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F89" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G89" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H89" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I89" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J89" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="K89" s="3">
         <v>0</v>
@@ -3927,17 +4360,23 @@
       <c r="M89" s="3">
         <v>0</v>
       </c>
-      <c r="N89" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="O89" s="3" t="s">
-        <v>16</v>
+      <c r="N89" s="3">
+        <v>0</v>
+      </c>
+      <c r="O89" s="3">
+        <v>0</v>
       </c>
       <c r="P89" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q89" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="R89" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,31 +4393,33 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
-      </c>
-      <c r="E91" s="3">
-        <v>0</v>
-      </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
-      <c r="J91" s="3">
-        <v>0</v>
+        <v>-9400</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I91" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J91" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="K91" s="3">
         <v>0</v>
@@ -3989,17 +4430,23 @@
       <c r="M91" s="3">
         <v>0</v>
       </c>
-      <c r="N91" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="O91" s="3" t="s">
-        <v>16</v>
+      <c r="N91" s="3">
+        <v>0</v>
+      </c>
+      <c r="O91" s="3">
+        <v>0</v>
       </c>
       <c r="P91" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="R91" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4489,14 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,31 +4539,37 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
-      </c>
-      <c r="E94" s="3">
-        <v>0</v>
-      </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
-      <c r="J94" s="3">
-        <v>0</v>
+        <v>-145100</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F94" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G94" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H94" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I94" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="K94" s="3">
         <v>0</v>
@@ -4121,17 +4580,23 @@
       <c r="M94" s="3">
         <v>0</v>
       </c>
-      <c r="N94" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="O94" s="3" t="s">
-        <v>16</v>
+      <c r="N94" s="3">
+        <v>0</v>
+      </c>
+      <c r="O94" s="3">
+        <v>0</v>
       </c>
       <c r="P94" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="R94" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,8 +4613,10 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4192,8 +4659,14 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4709,14 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4759,14 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,31 +4809,37 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
-      </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
-      <c r="J100" s="3">
-        <v>0</v>
+        <v>26400</v>
+      </c>
+      <c r="E100" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F100" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G100" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H100" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I100" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J100" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="K100" s="3">
         <v>0</v>
@@ -4359,40 +4850,46 @@
       <c r="M100" s="3">
         <v>0</v>
       </c>
-      <c r="N100" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="O100" s="3" t="s">
-        <v>16</v>
+      <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
+        <v>0</v>
       </c>
       <c r="P100" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q100" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="R100" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>0</v>
-      </c>
-      <c r="E101" s="3">
-        <v>0</v>
-      </c>
-      <c r="F101" s="3">
-        <v>0</v>
-      </c>
-      <c r="G101" s="3">
-        <v>0</v>
-      </c>
-      <c r="H101" s="3">
-        <v>0</v>
-      </c>
-      <c r="I101" s="3">
-        <v>0</v>
-      </c>
-      <c r="J101" s="3">
-        <v>0</v>
+        <v>5900</v>
+      </c>
+      <c r="E101" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F101" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G101" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H101" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I101" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J101" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="K101" s="3">
         <v>0</v>
@@ -4403,40 +4900,46 @@
       <c r="M101" s="3">
         <v>0</v>
       </c>
-      <c r="N101" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="O101" s="3" t="s">
-        <v>16</v>
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+      <c r="O101" s="3">
+        <v>0</v>
       </c>
       <c r="P101" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="R101" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>0</v>
-      </c>
-      <c r="E102" s="3">
-        <v>0</v>
-      </c>
-      <c r="F102" s="3">
-        <v>0</v>
-      </c>
-      <c r="G102" s="3">
-        <v>0</v>
-      </c>
-      <c r="H102" s="3">
-        <v>0</v>
-      </c>
-      <c r="I102" s="3">
-        <v>0</v>
-      </c>
-      <c r="J102" s="3">
-        <v>0</v>
+        <v>-72400</v>
+      </c>
+      <c r="E102" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F102" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G102" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H102" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I102" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J102" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="K102" s="3">
         <v>0</v>
@@ -4447,13 +4950,19 @@
       <c r="M102" s="3">
         <v>0</v>
       </c>
-      <c r="N102" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="O102" s="3" t="s">
-        <v>16</v>
+      <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3">
+        <v>0</v>
       </c>
       <c r="P102" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q102" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="R102" s="3" t="s">
         <v>16</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BILI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BILI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="92">
   <si>
     <t>BILI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,231 +665,244 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42916</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42825</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42735</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>324100</v>
+        <v>380200</v>
       </c>
       <c r="E8" s="3">
-        <v>281000</v>
+        <v>336300</v>
       </c>
       <c r="F8" s="3">
-        <v>260200</v>
+        <v>291600</v>
       </c>
       <c r="G8" s="3">
-        <v>215200</v>
+        <v>270000</v>
       </c>
       <c r="H8" s="3">
-        <v>192200</v>
+        <v>223300</v>
       </c>
       <c r="I8" s="3">
-        <v>161700</v>
+        <v>199500</v>
       </c>
       <c r="J8" s="3">
+        <v>167800</v>
+      </c>
+      <c r="K8" s="3">
         <v>151000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>147300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>124500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>108900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>108000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>86500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>61700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>31600</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>44500</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>249800</v>
+        <v>292400</v>
       </c>
       <c r="E9" s="3">
-        <v>225300</v>
+        <v>259200</v>
       </c>
       <c r="F9" s="3">
-        <v>211000</v>
+        <v>233800</v>
       </c>
       <c r="G9" s="3">
-        <v>180000</v>
+        <v>219000</v>
       </c>
       <c r="H9" s="3">
-        <v>165700</v>
+        <v>186800</v>
       </c>
       <c r="I9" s="3">
-        <v>134200</v>
+        <v>172000</v>
       </c>
       <c r="J9" s="3">
+        <v>139200</v>
+      </c>
+      <c r="K9" s="3">
         <v>123800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>111300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>94000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>82800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>82100</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>66100</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>52800</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>35200</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>77100</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>74200</v>
+        <v>87700</v>
       </c>
       <c r="E10" s="3">
-        <v>55700</v>
+        <v>77000</v>
       </c>
       <c r="F10" s="3">
-        <v>49200</v>
+        <v>57800</v>
       </c>
       <c r="G10" s="3">
-        <v>35200</v>
+        <v>51000</v>
       </c>
       <c r="H10" s="3">
-        <v>26500</v>
+        <v>36600</v>
       </c>
       <c r="I10" s="3">
-        <v>27600</v>
+        <v>27500</v>
       </c>
       <c r="J10" s="3">
+        <v>28600</v>
+      </c>
+      <c r="K10" s="3">
         <v>27200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>36000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>30600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>26100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>25900</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>20400</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>8900</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>-3600</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>-32700</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -908,58 +921,62 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>41600</v>
+        <v>48000</v>
       </c>
       <c r="E12" s="3">
-        <v>34300</v>
+        <v>43200</v>
       </c>
       <c r="F12" s="3">
-        <v>34600</v>
+        <v>35600</v>
       </c>
       <c r="G12" s="3">
-        <v>30200</v>
+        <v>35900</v>
       </c>
       <c r="H12" s="3">
-        <v>26000</v>
+        <v>31300</v>
       </c>
       <c r="I12" s="3">
-        <v>21500</v>
+        <v>27000</v>
       </c>
       <c r="J12" s="3">
+        <v>22300</v>
+      </c>
+      <c r="K12" s="3">
         <v>20500</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>18900</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>15200</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>12900</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>11100</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>9400</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>8000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>4300</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>9000</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1008,8 +1025,11 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1058,8 +1078,11 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1108,8 +1131,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1125,108 +1151,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>400200</v>
+        <v>468800</v>
       </c>
       <c r="E17" s="3">
-        <v>339800</v>
+        <v>415300</v>
       </c>
       <c r="F17" s="3">
-        <v>319400</v>
+        <v>352600</v>
       </c>
       <c r="G17" s="3">
-        <v>263600</v>
+        <v>331400</v>
       </c>
       <c r="H17" s="3">
-        <v>235200</v>
+        <v>273500</v>
       </c>
       <c r="I17" s="3">
-        <v>202100</v>
+        <v>244000</v>
       </c>
       <c r="J17" s="3">
+        <v>209800</v>
+      </c>
+      <c r="K17" s="3">
         <v>187200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>162600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>135200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>118100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>112700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>94300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>73000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>87300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>118900</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>-76200</v>
+        <v>-88600</v>
       </c>
       <c r="E18" s="3">
-        <v>-58800</v>
+        <v>-79000</v>
       </c>
       <c r="F18" s="3">
-        <v>-59200</v>
+        <v>-61000</v>
       </c>
       <c r="G18" s="3">
-        <v>-48300</v>
+        <v>-61400</v>
       </c>
       <c r="H18" s="3">
-        <v>-42900</v>
+        <v>-50200</v>
       </c>
       <c r="I18" s="3">
-        <v>-40400</v>
+        <v>-44500</v>
       </c>
       <c r="J18" s="3">
+        <v>-41900</v>
+      </c>
+      <c r="K18" s="3">
         <v>-36300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-15300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-10700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-9200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-4700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-7800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-11300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-55700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-74500</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1245,66 +1278,70 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>4200</v>
+        <v>10700</v>
       </c>
       <c r="E20" s="3">
-        <v>7600</v>
+        <v>4400</v>
       </c>
       <c r="F20" s="3">
-        <v>5800</v>
+        <v>7900</v>
       </c>
       <c r="G20" s="3">
-        <v>8200</v>
+        <v>6000</v>
       </c>
       <c r="H20" s="3">
-        <v>16700</v>
+        <v>8500</v>
       </c>
       <c r="I20" s="3">
-        <v>15000</v>
+        <v>17300</v>
       </c>
       <c r="J20" s="3">
+        <v>15500</v>
+      </c>
+      <c r="K20" s="3">
         <v>3400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>5600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>2800</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>1900</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>2900</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>700</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>1800</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-1900</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D21" s="3">
-        <v>-23900</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>16</v>
+      <c r="D21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-24800</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>16</v>
@@ -1327,43 +1364,46 @@
       <c r="L21" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="M21" s="3">
+      <c r="M21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N21" s="3">
         <v>37900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>27000</v>
       </c>
-      <c r="O21" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="P21" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="Q21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="R21" s="3">
         <v>-34100</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-58200</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>2100</v>
+        <v>3300</v>
       </c>
       <c r="E22" s="3">
-        <v>2100</v>
+        <v>2200</v>
       </c>
       <c r="F22" s="3">
         <v>2200</v>
       </c>
       <c r="G22" s="3">
-        <v>2200</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>16</v>
+        <v>2300</v>
+      </c>
+      <c r="H22" s="3">
+        <v>2300</v>
       </c>
       <c r="I22" s="3" t="s">
         <v>16</v>
@@ -1377,8 +1417,8 @@
       <c r="L22" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="M22" s="3">
-        <v>0</v>
+      <c r="M22" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="N22" s="3">
         <v>0</v>
@@ -1395,93 +1435,99 @@
       <c r="R22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-74100</v>
+        <v>-81200</v>
       </c>
       <c r="E23" s="3">
-        <v>-53200</v>
+        <v>-76900</v>
       </c>
       <c r="F23" s="3">
-        <v>-55700</v>
+        <v>-55200</v>
       </c>
       <c r="G23" s="3">
-        <v>-42300</v>
+        <v>-57700</v>
       </c>
       <c r="H23" s="3">
-        <v>-26200</v>
+        <v>-43900</v>
       </c>
       <c r="I23" s="3">
-        <v>-25400</v>
+        <v>-27200</v>
       </c>
       <c r="J23" s="3">
+        <v>-26400</v>
+      </c>
+      <c r="K23" s="3">
         <v>-32900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-9700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-7800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-7300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-1800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-7100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-9500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-57600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-74500</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E24" s="3">
+        <v>1400</v>
+      </c>
+      <c r="F24" s="3">
+        <v>1000</v>
+      </c>
+      <c r="G24" s="3">
+        <v>1200</v>
+      </c>
+      <c r="H24" s="3">
+        <v>1800</v>
+      </c>
+      <c r="I24" s="3">
+        <v>1200</v>
+      </c>
+      <c r="J24" s="3">
         <v>1300</v>
       </c>
-      <c r="E24" s="3">
-        <v>1000</v>
-      </c>
-      <c r="F24" s="3">
-        <v>1100</v>
-      </c>
-      <c r="G24" s="3">
-        <v>1800</v>
-      </c>
-      <c r="H24" s="3">
-        <v>1100</v>
-      </c>
-      <c r="I24" s="3">
-        <v>1300</v>
-      </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>1600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>500</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>400</v>
-      </c>
-      <c r="N24" s="3">
-        <v>300</v>
       </c>
       <c r="O24" s="3">
         <v>300</v>
@@ -1490,13 +1536,16 @@
         <v>300</v>
       </c>
       <c r="Q24" s="3">
+        <v>300</v>
+      </c>
+      <c r="R24" s="3">
         <v>500</v>
       </c>
-      <c r="R24" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1545,108 +1594,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-75400</v>
+        <v>-82900</v>
       </c>
       <c r="E26" s="3">
-        <v>-54200</v>
+        <v>-78200</v>
       </c>
       <c r="F26" s="3">
-        <v>-56800</v>
+        <v>-56200</v>
       </c>
       <c r="G26" s="3">
-        <v>-44100</v>
+        <v>-58900</v>
       </c>
       <c r="H26" s="3">
-        <v>-27400</v>
+        <v>-45700</v>
       </c>
       <c r="I26" s="3">
-        <v>-26700</v>
+        <v>-28400</v>
       </c>
       <c r="J26" s="3">
+        <v>-27700</v>
+      </c>
+      <c r="K26" s="3">
         <v>-34400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-10100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-8300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-7600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-2200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-7500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-9800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-58000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-74500</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-74900</v>
+        <v>-82300</v>
       </c>
       <c r="E27" s="3">
-        <v>-53600</v>
+        <v>-77700</v>
       </c>
       <c r="F27" s="3">
-        <v>-57000</v>
+        <v>-55600</v>
       </c>
       <c r="G27" s="3">
-        <v>-43800</v>
+        <v>-59200</v>
       </c>
       <c r="H27" s="3">
-        <v>-26000</v>
+        <v>-45400</v>
       </c>
       <c r="I27" s="3">
-        <v>-25200</v>
+        <v>-27000</v>
       </c>
       <c r="J27" s="3">
+        <v>-26100</v>
+      </c>
+      <c r="K27" s="3">
         <v>-34300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-10200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-17200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-17800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-12200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-36900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-17500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-65400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-107000</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1695,8 +1753,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1745,8 +1806,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1795,8 +1859,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1845,108 +1912,117 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-4200</v>
+        <v>-10700</v>
       </c>
       <c r="E32" s="3">
-        <v>-7600</v>
+        <v>-4400</v>
       </c>
       <c r="F32" s="3">
-        <v>-5800</v>
+        <v>-7900</v>
       </c>
       <c r="G32" s="3">
-        <v>-8200</v>
+        <v>-6000</v>
       </c>
       <c r="H32" s="3">
-        <v>-16700</v>
+        <v>-8500</v>
       </c>
       <c r="I32" s="3">
-        <v>-15000</v>
+        <v>-17300</v>
       </c>
       <c r="J32" s="3">
+        <v>-15500</v>
+      </c>
+      <c r="K32" s="3">
         <v>-3400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-5600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-2800</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-1900</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-2900</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-700</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-1800</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>1900</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-74900</v>
+        <v>-82300</v>
       </c>
       <c r="E33" s="3">
-        <v>-53600</v>
+        <v>-77700</v>
       </c>
       <c r="F33" s="3">
-        <v>-57000</v>
+        <v>-55600</v>
       </c>
       <c r="G33" s="3">
-        <v>-43800</v>
+        <v>-59200</v>
       </c>
       <c r="H33" s="3">
-        <v>-26000</v>
+        <v>-45400</v>
       </c>
       <c r="I33" s="3">
-        <v>-25200</v>
+        <v>-27000</v>
       </c>
       <c r="J33" s="3">
+        <v>-26100</v>
+      </c>
+      <c r="K33" s="3">
         <v>-34300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-10200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-17200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-17800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-12200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-36900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-17500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-65400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-107000</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1995,113 +2071,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-74900</v>
+        <v>-82300</v>
       </c>
       <c r="E35" s="3">
-        <v>-53600</v>
+        <v>-77700</v>
       </c>
       <c r="F35" s="3">
-        <v>-57000</v>
+        <v>-55600</v>
       </c>
       <c r="G35" s="3">
-        <v>-43800</v>
+        <v>-59200</v>
       </c>
       <c r="H35" s="3">
-        <v>-26000</v>
+        <v>-45400</v>
       </c>
       <c r="I35" s="3">
-        <v>-25200</v>
+        <v>-27000</v>
       </c>
       <c r="J35" s="3">
+        <v>-26100</v>
+      </c>
+      <c r="K35" s="3">
         <v>-34300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-10200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-17200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-17800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-12200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-36900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-17500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-65400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-107000</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42916</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42825</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42735</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2120,8 +2205,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2140,47 +2226,48 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>622200</v>
+        <v>885100</v>
       </c>
       <c r="E41" s="3">
-        <v>694600</v>
+        <v>645600</v>
       </c>
       <c r="F41" s="3">
-        <v>584900</v>
+        <v>720700</v>
       </c>
       <c r="G41" s="3">
-        <v>652100</v>
+        <v>607000</v>
       </c>
       <c r="H41" s="3">
-        <v>379900</v>
+        <v>676700</v>
       </c>
       <c r="I41" s="3">
-        <v>495500</v>
+        <v>394200</v>
       </c>
       <c r="J41" s="3">
+        <v>514100</v>
+      </c>
+      <c r="K41" s="3">
         <v>337000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>520100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>150800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>113200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>58700</v>
       </c>
-      <c r="O41" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="P41" s="3" t="s">
         <v>16</v>
       </c>
@@ -2190,47 +2277,50 @@
       <c r="R41" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S41" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>494400</v>
+        <v>1374100</v>
       </c>
       <c r="E42" s="3">
-        <v>434600</v>
+        <v>513000</v>
       </c>
       <c r="F42" s="3">
-        <v>589900</v>
+        <v>451000</v>
       </c>
       <c r="G42" s="3">
-        <v>546400</v>
+        <v>612100</v>
       </c>
       <c r="H42" s="3">
-        <v>256000</v>
+        <v>566900</v>
       </c>
       <c r="I42" s="3">
-        <v>237200</v>
+        <v>265600</v>
       </c>
       <c r="J42" s="3">
+        <v>246100</v>
+      </c>
+      <c r="K42" s="3">
         <v>150600</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>49900</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>32800</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>75000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>159200</v>
       </c>
-      <c r="O42" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="P42" s="3" t="s">
         <v>16</v>
       </c>
@@ -2240,47 +2330,50 @@
       <c r="R42" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>155300</v>
+        <v>112300</v>
       </c>
       <c r="E43" s="3">
-        <v>131600</v>
+        <v>161200</v>
       </c>
       <c r="F43" s="3">
-        <v>100200</v>
+        <v>136500</v>
       </c>
       <c r="G43" s="3">
-        <v>64700</v>
+        <v>104000</v>
       </c>
       <c r="H43" s="3">
-        <v>79100</v>
+        <v>67200</v>
       </c>
       <c r="I43" s="3">
-        <v>45400</v>
+        <v>82100</v>
       </c>
       <c r="J43" s="3">
+        <v>47100</v>
+      </c>
+      <c r="K43" s="3">
         <v>55900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>54500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>65400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>67500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>61600</v>
       </c>
-      <c r="O43" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="P43" s="3" t="s">
         <v>16</v>
       </c>
@@ -2290,16 +2383,19 @@
       <c r="R43" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D44" s="3">
-        <v>5900</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>16</v>
+      <c r="D44" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E44" s="3">
+        <v>6200</v>
       </c>
       <c r="F44" s="3" t="s">
         <v>16</v>
@@ -2322,15 +2418,15 @@
       <c r="L44" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="M44" s="3">
+      <c r="M44" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N44" s="3">
         <v>1500</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1300</v>
       </c>
-      <c r="O44" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="P44" s="3" t="s">
         <v>16</v>
       </c>
@@ -2340,47 +2436,50 @@
       <c r="R44" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>154500</v>
+        <v>281100</v>
       </c>
       <c r="E45" s="3">
-        <v>184200</v>
+        <v>160300</v>
       </c>
       <c r="F45" s="3">
-        <v>228100</v>
+        <v>191100</v>
       </c>
       <c r="G45" s="3">
-        <v>230800</v>
+        <v>236700</v>
       </c>
       <c r="H45" s="3">
-        <v>167700</v>
+        <v>239500</v>
       </c>
       <c r="I45" s="3">
-        <v>138700</v>
+        <v>174000</v>
       </c>
       <c r="J45" s="3">
+        <v>143900</v>
+      </c>
+      <c r="K45" s="3">
         <v>111900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>103000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>104400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>62300</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>58500</v>
       </c>
-      <c r="O45" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="P45" s="3" t="s">
         <v>16</v>
       </c>
@@ -2390,47 +2489,50 @@
       <c r="R45" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1432300</v>
+        <v>2652600</v>
       </c>
       <c r="E46" s="3">
-        <v>1445000</v>
+        <v>1486200</v>
       </c>
       <c r="F46" s="3">
-        <v>1503200</v>
+        <v>1499400</v>
       </c>
       <c r="G46" s="3">
-        <v>1494100</v>
+        <v>1559800</v>
       </c>
       <c r="H46" s="3">
-        <v>882700</v>
+        <v>1550300</v>
       </c>
       <c r="I46" s="3">
-        <v>916700</v>
+        <v>916000</v>
       </c>
       <c r="J46" s="3">
+        <v>951300</v>
+      </c>
+      <c r="K46" s="3">
         <v>655400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>727500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>353400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>319500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>339400</v>
       </c>
-      <c r="O46" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="P46" s="3" t="s">
         <v>16</v>
       </c>
@@ -2440,47 +2542,50 @@
       <c r="R46" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S46" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>202400</v>
+        <v>235600</v>
       </c>
       <c r="E47" s="3">
-        <v>175100</v>
+        <v>210000</v>
       </c>
       <c r="F47" s="3">
-        <v>198900</v>
+        <v>181700</v>
       </c>
       <c r="G47" s="3">
-        <v>224000</v>
+        <v>206400</v>
       </c>
       <c r="H47" s="3">
-        <v>171900</v>
+        <v>232500</v>
       </c>
       <c r="I47" s="3">
-        <v>137200</v>
+        <v>178400</v>
       </c>
       <c r="J47" s="3">
+        <v>142300</v>
+      </c>
+      <c r="K47" s="3">
         <v>140400</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>117600</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>106800</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>94400</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>80100</v>
       </c>
-      <c r="O47" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="P47" s="3" t="s">
         <v>16</v>
       </c>
@@ -2490,47 +2595,50 @@
       <c r="R47" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>67300</v>
+        <v>101500</v>
       </c>
       <c r="E48" s="3">
-        <v>72200</v>
+        <v>69900</v>
       </c>
       <c r="F48" s="3">
-        <v>66100</v>
+        <v>75000</v>
       </c>
       <c r="G48" s="3">
-        <v>63900</v>
+        <v>68600</v>
       </c>
       <c r="H48" s="3">
-        <v>50800</v>
+        <v>66300</v>
       </c>
       <c r="I48" s="3">
-        <v>55300</v>
+        <v>52700</v>
       </c>
       <c r="J48" s="3">
+        <v>57400</v>
+      </c>
+      <c r="K48" s="3">
         <v>44900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>35600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>28700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>27700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>20000</v>
       </c>
-      <c r="O48" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="P48" s="3" t="s">
         <v>16</v>
       </c>
@@ -2540,47 +2648,50 @@
       <c r="R48" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S48" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>395700</v>
+        <v>435800</v>
       </c>
       <c r="E49" s="3">
-        <v>373600</v>
+        <v>410600</v>
       </c>
       <c r="F49" s="3">
-        <v>355100</v>
+        <v>387700</v>
       </c>
       <c r="G49" s="3">
-        <v>350100</v>
+        <v>368500</v>
       </c>
       <c r="H49" s="3">
-        <v>322600</v>
+        <v>363300</v>
       </c>
       <c r="I49" s="3">
-        <v>330400</v>
+        <v>334800</v>
       </c>
       <c r="J49" s="3">
+        <v>342900</v>
+      </c>
+      <c r="K49" s="3">
         <v>218100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>131900</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>105700</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>70800</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>64200</v>
       </c>
-      <c r="O49" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="P49" s="3" t="s">
         <v>16</v>
       </c>
@@ -2590,8 +2701,11 @@
       <c r="R49" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2640,8 +2754,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2690,47 +2807,50 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>109700</v>
+        <v>128600</v>
       </c>
       <c r="E52" s="3">
-        <v>105800</v>
+        <v>113800</v>
       </c>
       <c r="F52" s="3">
-        <v>95200</v>
+        <v>109800</v>
       </c>
       <c r="G52" s="3">
-        <v>79200</v>
+        <v>98800</v>
       </c>
       <c r="H52" s="3">
-        <v>65900</v>
+        <v>82200</v>
       </c>
       <c r="I52" s="3">
-        <v>28600</v>
+        <v>68400</v>
       </c>
       <c r="J52" s="3">
+        <v>29700</v>
+      </c>
+      <c r="K52" s="3">
         <v>10200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>7600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>4400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>3100</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>1800</v>
       </c>
-      <c r="O52" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="P52" s="3" t="s">
         <v>16</v>
       </c>
@@ -2740,8 +2860,11 @@
       <c r="R52" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2790,47 +2913,50 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>2207400</v>
+        <v>3554100</v>
       </c>
       <c r="E54" s="3">
-        <v>2171700</v>
+        <v>2290500</v>
       </c>
       <c r="F54" s="3">
-        <v>2218500</v>
+        <v>2253500</v>
       </c>
       <c r="G54" s="3">
-        <v>2211300</v>
+        <v>2302000</v>
       </c>
       <c r="H54" s="3">
-        <v>1493900</v>
+        <v>2294600</v>
       </c>
       <c r="I54" s="3">
-        <v>1468200</v>
+        <v>1550200</v>
       </c>
       <c r="J54" s="3">
+        <v>1523500</v>
+      </c>
+      <c r="K54" s="3">
         <v>1069000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1020200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>598900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>515500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>505500</v>
       </c>
-      <c r="O54" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="P54" s="3" t="s">
         <v>16</v>
       </c>
@@ -2840,8 +2966,11 @@
       <c r="R54" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S54" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2860,8 +2989,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2880,47 +3010,48 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>298400</v>
+        <v>381600</v>
       </c>
       <c r="E57" s="3">
-        <v>266500</v>
+        <v>309700</v>
       </c>
       <c r="F57" s="3">
-        <v>266000</v>
+        <v>276500</v>
       </c>
       <c r="G57" s="3">
-        <v>240500</v>
+        <v>276000</v>
       </c>
       <c r="H57" s="3">
-        <v>199400</v>
+        <v>249600</v>
       </c>
       <c r="I57" s="3">
-        <v>183000</v>
+        <v>206900</v>
       </c>
       <c r="J57" s="3">
+        <v>189900</v>
+      </c>
+      <c r="K57" s="3">
         <v>146900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>135800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>124500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>88500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>81100</v>
       </c>
-      <c r="O57" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="P57" s="3" t="s">
         <v>16</v>
       </c>
@@ -2930,28 +3061,31 @@
       <c r="R57" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S57" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>14000</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>16</v>
+        <v>14500</v>
+      </c>
+      <c r="E58" s="3">
+        <v>14500</v>
       </c>
       <c r="F58" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G58" s="3">
-        <v>14000</v>
+      <c r="G58" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="H58" s="3">
-        <v>14000</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>16</v>
+        <v>14500</v>
+      </c>
+      <c r="I58" s="3">
+        <v>14500</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>16</v>
@@ -2962,8 +3096,8 @@
       <c r="L58" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="M58" s="3">
-        <v>0</v>
+      <c r="M58" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="N58" s="3">
         <v>0</v>
@@ -2980,47 +3114,50 @@
       <c r="R58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>359700</v>
+        <v>413600</v>
       </c>
       <c r="E59" s="3">
-        <v>331500</v>
+        <v>373300</v>
       </c>
       <c r="F59" s="3">
-        <v>308900</v>
+        <v>344000</v>
       </c>
       <c r="G59" s="3">
-        <v>278900</v>
+        <v>320500</v>
       </c>
       <c r="H59" s="3">
-        <v>309400</v>
+        <v>289400</v>
       </c>
       <c r="I59" s="3">
-        <v>278700</v>
+        <v>321100</v>
       </c>
       <c r="J59" s="3">
+        <v>289200</v>
+      </c>
+      <c r="K59" s="3">
         <v>215500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>172600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>184600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>118900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>106700</v>
       </c>
-      <c r="O59" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="P59" s="3" t="s">
         <v>16</v>
       </c>
@@ -3030,47 +3167,50 @@
       <c r="R59" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S59" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>672200</v>
+        <v>809700</v>
       </c>
       <c r="E60" s="3">
-        <v>598000</v>
+        <v>697500</v>
       </c>
       <c r="F60" s="3">
-        <v>574900</v>
+        <v>620500</v>
       </c>
       <c r="G60" s="3">
-        <v>533400</v>
+        <v>596500</v>
       </c>
       <c r="H60" s="3">
-        <v>522800</v>
+        <v>553500</v>
       </c>
       <c r="I60" s="3">
-        <v>461700</v>
+        <v>542500</v>
       </c>
       <c r="J60" s="3">
+        <v>479100</v>
+      </c>
+      <c r="K60" s="3">
         <v>362400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>308400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>309100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>207500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>187800</v>
       </c>
-      <c r="O60" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="P60" s="3" t="s">
         <v>16</v>
       </c>
@@ -3080,25 +3220,28 @@
       <c r="R60" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S60" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>485800</v>
+        <v>1312500</v>
       </c>
       <c r="E61" s="3">
-        <v>477900</v>
+        <v>504100</v>
       </c>
       <c r="F61" s="3">
-        <v>484100</v>
+        <v>495900</v>
       </c>
       <c r="G61" s="3">
-        <v>470100</v>
+        <v>502400</v>
       </c>
       <c r="H61" s="3">
-        <v>0</v>
+        <v>487800</v>
       </c>
       <c r="I61" s="3">
         <v>0</v>
@@ -3130,25 +3273,28 @@
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>24300</v>
+        <v>28700</v>
       </c>
       <c r="E62" s="3">
-        <v>27000</v>
+        <v>25200</v>
       </c>
       <c r="F62" s="3">
-        <v>28400</v>
+        <v>28000</v>
       </c>
       <c r="G62" s="3">
-        <v>23800</v>
-      </c>
-      <c r="H62" s="3" t="s">
-        <v>16</v>
+        <v>29500</v>
+      </c>
+      <c r="H62" s="3">
+        <v>24700</v>
       </c>
       <c r="I62" s="3" t="s">
         <v>16</v>
@@ -3162,8 +3308,8 @@
       <c r="L62" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="M62" s="3">
-        <v>0</v>
+      <c r="M62" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="N62" s="3">
         <v>0</v>
@@ -3180,8 +3326,11 @@
       <c r="R62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3230,8 +3379,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3280,8 +3432,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3330,47 +3485,50 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1283800</v>
+        <v>2255700</v>
       </c>
       <c r="E66" s="3">
-        <v>1184600</v>
+        <v>1332200</v>
       </c>
       <c r="F66" s="3">
-        <v>1162500</v>
+        <v>1229200</v>
       </c>
       <c r="G66" s="3">
-        <v>1059900</v>
+        <v>1206300</v>
       </c>
       <c r="H66" s="3">
-        <v>555700</v>
+        <v>1099800</v>
       </c>
       <c r="I66" s="3">
-        <v>495400</v>
+        <v>576600</v>
       </c>
       <c r="J66" s="3">
+        <v>514000</v>
+      </c>
+      <c r="K66" s="3">
         <v>381800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>308300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>308900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>207500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>187800</v>
       </c>
-      <c r="O66" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="P66" s="3" t="s">
         <v>16</v>
       </c>
@@ -3380,8 +3538,11 @@
       <c r="R66" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S66" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3400,8 +3561,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3450,8 +3612,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3500,8 +3665,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3533,14 +3701,14 @@
         <v>0</v>
       </c>
       <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3">
         <v>595900</v>
       </c>
-      <c r="N70" s="3">
+      <c r="O70" s="3">
         <v>585800</v>
       </c>
-      <c r="O70" s="3">
-        <v>0</v>
-      </c>
       <c r="P70" s="3">
         <v>0</v>
       </c>
@@ -3550,8 +3718,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3600,19 +3771,22 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D72" s="3">
-        <v>-655600</v>
+      <c r="D72" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="E72" s="3">
-        <v>-578300</v>
-      </c>
-      <c r="F72" s="3" t="s">
-        <v>16</v>
+        <v>-680300</v>
+      </c>
+      <c r="F72" s="3">
+        <v>-600100</v>
       </c>
       <c r="G72" s="3" t="s">
         <v>16</v>
@@ -3620,11 +3794,11 @@
       <c r="H72" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="I72" s="3">
-        <v>-396800</v>
-      </c>
-      <c r="J72" s="3" t="s">
-        <v>16</v>
+      <c r="I72" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J72" s="3">
+        <v>-411700</v>
       </c>
       <c r="K72" s="3" t="s">
         <v>16</v>
@@ -3632,15 +3806,15 @@
       <c r="L72" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="M72" s="3">
+      <c r="M72" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N72" s="3">
         <v>-329300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-311600</v>
       </c>
-      <c r="O72" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="P72" s="3" t="s">
         <v>16</v>
       </c>
@@ -3650,8 +3824,11 @@
       <c r="R72" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S72" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3700,8 +3877,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3750,8 +3930,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3800,47 +3983,50 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>923500</v>
+        <v>1298400</v>
       </c>
       <c r="E76" s="3">
-        <v>987100</v>
+        <v>958300</v>
       </c>
       <c r="F76" s="3">
-        <v>1056000</v>
+        <v>1024200</v>
       </c>
       <c r="G76" s="3">
-        <v>1151400</v>
+        <v>1095800</v>
       </c>
       <c r="H76" s="3">
-        <v>938300</v>
+        <v>1194800</v>
       </c>
       <c r="I76" s="3">
-        <v>972800</v>
+        <v>973600</v>
       </c>
       <c r="J76" s="3">
+        <v>1009500</v>
+      </c>
+      <c r="K76" s="3">
         <v>687300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>711900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>290000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-287800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-268000</v>
       </c>
-      <c r="O76" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="P76" s="3" t="s">
         <v>16</v>
       </c>
@@ -3850,8 +4036,11 @@
       <c r="R76" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S76" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3900,113 +4089,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42916</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42825</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42735</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-74900</v>
+        <v>-82300</v>
       </c>
       <c r="E81" s="3">
-        <v>-53600</v>
+        <v>-77700</v>
       </c>
       <c r="F81" s="3">
-        <v>-57000</v>
+        <v>-55600</v>
       </c>
       <c r="G81" s="3">
-        <v>-43800</v>
+        <v>-59200</v>
       </c>
       <c r="H81" s="3">
-        <v>-26000</v>
+        <v>-45400</v>
       </c>
       <c r="I81" s="3">
-        <v>-25200</v>
+        <v>-27000</v>
       </c>
       <c r="J81" s="3">
+        <v>-26100</v>
+      </c>
+      <c r="K81" s="3">
         <v>-34300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-10200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-17200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-17800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-12200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-36900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-17500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-65400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-107000</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4025,16 +4223,17 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3">
-        <v>48000</v>
-      </c>
-      <c r="E83" s="3" t="s">
-        <v>16</v>
+      <c r="D83" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E83" s="3">
+        <v>49800</v>
       </c>
       <c r="F83" s="3" t="s">
         <v>16</v>
@@ -4051,8 +4250,8 @@
       <c r="J83" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="K83" s="3">
-        <v>0</v>
+      <c r="K83" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="L83" s="3">
         <v>0</v>
@@ -4066,8 +4265,8 @@
       <c r="O83" s="3">
         <v>0</v>
       </c>
-      <c r="P83" s="3" t="s">
-        <v>16</v>
+      <c r="P83" s="3">
+        <v>0</v>
       </c>
       <c r="Q83" s="3" t="s">
         <v>16</v>
@@ -4075,8 +4274,11 @@
       <c r="R83" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4125,8 +4327,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4175,8 +4380,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4225,8 +4433,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4275,8 +4486,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4325,16 +4539,19 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3">
-        <v>40400</v>
-      </c>
-      <c r="E89" s="3" t="s">
-        <v>16</v>
+      <c r="D89" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E89" s="3">
+        <v>41900</v>
       </c>
       <c r="F89" s="3" t="s">
         <v>16</v>
@@ -4351,8 +4568,8 @@
       <c r="J89" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="K89" s="3">
-        <v>0</v>
+      <c r="K89" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="L89" s="3">
         <v>0</v>
@@ -4366,8 +4583,8 @@
       <c r="O89" s="3">
         <v>0</v>
       </c>
-      <c r="P89" s="3" t="s">
-        <v>16</v>
+      <c r="P89" s="3">
+        <v>0</v>
       </c>
       <c r="Q89" s="3" t="s">
         <v>16</v>
@@ -4375,8 +4592,11 @@
       <c r="R89" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S89" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4395,16 +4615,17 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3">
-        <v>-9400</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>16</v>
+      <c r="D91" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-9700</v>
       </c>
       <c r="F91" s="3" t="s">
         <v>16</v>
@@ -4421,8 +4642,8 @@
       <c r="J91" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
+      <c r="K91" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="L91" s="3">
         <v>0</v>
@@ -4436,8 +4657,8 @@
       <c r="O91" s="3">
         <v>0</v>
       </c>
-      <c r="P91" s="3" t="s">
-        <v>16</v>
+      <c r="P91" s="3">
+        <v>0</v>
       </c>
       <c r="Q91" s="3" t="s">
         <v>16</v>
@@ -4445,8 +4666,11 @@
       <c r="R91" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4495,8 +4719,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4545,16 +4772,19 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3">
-        <v>-145100</v>
-      </c>
-      <c r="E94" s="3" t="s">
-        <v>16</v>
+      <c r="D94" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-150600</v>
       </c>
       <c r="F94" s="3" t="s">
         <v>16</v>
@@ -4571,8 +4801,8 @@
       <c r="J94" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
+      <c r="K94" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="L94" s="3">
         <v>0</v>
@@ -4586,8 +4816,8 @@
       <c r="O94" s="3">
         <v>0</v>
       </c>
-      <c r="P94" s="3" t="s">
-        <v>16</v>
+      <c r="P94" s="3">
+        <v>0</v>
       </c>
       <c r="Q94" s="3" t="s">
         <v>16</v>
@@ -4595,8 +4825,11 @@
       <c r="R94" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S94" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4615,8 +4848,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4665,8 +4899,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4715,8 +4952,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4765,8 +5005,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4815,16 +5058,19 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3">
-        <v>26400</v>
-      </c>
-      <c r="E100" s="3" t="s">
-        <v>16</v>
+      <c r="D100" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E100" s="3">
+        <v>27400</v>
       </c>
       <c r="F100" s="3" t="s">
         <v>16</v>
@@ -4841,8 +5087,8 @@
       <c r="J100" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
+      <c r="K100" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="L100" s="3">
         <v>0</v>
@@ -4856,8 +5102,8 @@
       <c r="O100" s="3">
         <v>0</v>
       </c>
-      <c r="P100" s="3" t="s">
-        <v>16</v>
+      <c r="P100" s="3">
+        <v>0</v>
       </c>
       <c r="Q100" s="3" t="s">
         <v>16</v>
@@ -4865,16 +5111,19 @@
       <c r="R100" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S100" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3">
-        <v>5900</v>
-      </c>
-      <c r="E101" s="3" t="s">
-        <v>16</v>
+      <c r="D101" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E101" s="3">
+        <v>6100</v>
       </c>
       <c r="F101" s="3" t="s">
         <v>16</v>
@@ -4891,8 +5140,8 @@
       <c r="J101" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="K101" s="3">
-        <v>0</v>
+      <c r="K101" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="L101" s="3">
         <v>0</v>
@@ -4906,8 +5155,8 @@
       <c r="O101" s="3">
         <v>0</v>
       </c>
-      <c r="P101" s="3" t="s">
-        <v>16</v>
+      <c r="P101" s="3">
+        <v>0</v>
       </c>
       <c r="Q101" s="3" t="s">
         <v>16</v>
@@ -4915,16 +5164,19 @@
       <c r="R101" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3">
-        <v>-72400</v>
-      </c>
-      <c r="E102" s="3" t="s">
-        <v>16</v>
+      <c r="D102" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-75100</v>
       </c>
       <c r="F102" s="3" t="s">
         <v>16</v>
@@ -4941,8 +5193,8 @@
       <c r="J102" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="K102" s="3">
-        <v>0</v>
+      <c r="K102" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="L102" s="3">
         <v>0</v>
@@ -4956,13 +5208,16 @@
       <c r="O102" s="3">
         <v>0</v>
       </c>
-      <c r="P102" s="3" t="s">
-        <v>16</v>
+      <c r="P102" s="3">
+        <v>0</v>
       </c>
       <c r="Q102" s="3" t="s">
         <v>16</v>
       </c>
       <c r="R102" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="S102" s="3" t="s">
         <v>16</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BILI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BILI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="92">
   <si>
     <t>BILI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,244 +665,257 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42916</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42825</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42735</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>380200</v>
+        <v>490700</v>
       </c>
       <c r="E8" s="3">
-        <v>336300</v>
+        <v>398200</v>
       </c>
       <c r="F8" s="3">
-        <v>291600</v>
+        <v>352200</v>
       </c>
       <c r="G8" s="3">
-        <v>270000</v>
+        <v>305400</v>
       </c>
       <c r="H8" s="3">
-        <v>223300</v>
+        <v>282800</v>
       </c>
       <c r="I8" s="3">
-        <v>199500</v>
+        <v>233900</v>
       </c>
       <c r="J8" s="3">
+        <v>208900</v>
+      </c>
+      <c r="K8" s="3">
         <v>167800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>151000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>147300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>124500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>108900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>108000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>86500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>61700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>31600</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>44500</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>292400</v>
+        <v>374800</v>
       </c>
       <c r="E9" s="3">
-        <v>259200</v>
+        <v>306300</v>
       </c>
       <c r="F9" s="3">
-        <v>233800</v>
+        <v>271500</v>
       </c>
       <c r="G9" s="3">
-        <v>219000</v>
+        <v>244900</v>
       </c>
       <c r="H9" s="3">
-        <v>186800</v>
+        <v>229300</v>
       </c>
       <c r="I9" s="3">
-        <v>172000</v>
+        <v>195600</v>
       </c>
       <c r="J9" s="3">
+        <v>180100</v>
+      </c>
+      <c r="K9" s="3">
         <v>139200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>123800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>111300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>94000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>82800</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>82100</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>66100</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>52800</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>35200</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>77100</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>87700</v>
+        <v>115800</v>
       </c>
       <c r="E10" s="3">
-        <v>77000</v>
+        <v>91900</v>
       </c>
       <c r="F10" s="3">
-        <v>57800</v>
+        <v>80700</v>
       </c>
       <c r="G10" s="3">
-        <v>51000</v>
+        <v>60500</v>
       </c>
       <c r="H10" s="3">
-        <v>36600</v>
+        <v>53400</v>
       </c>
       <c r="I10" s="3">
-        <v>27500</v>
+        <v>38300</v>
       </c>
       <c r="J10" s="3">
+        <v>28800</v>
+      </c>
+      <c r="K10" s="3">
         <v>28600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>27200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>36000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>30600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>26100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>25900</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>20400</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>8900</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>-3600</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>-32700</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -922,61 +935,65 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>48000</v>
+        <v>61000</v>
       </c>
       <c r="E12" s="3">
-        <v>43200</v>
+        <v>50300</v>
       </c>
       <c r="F12" s="3">
-        <v>35600</v>
+        <v>45200</v>
       </c>
       <c r="G12" s="3">
-        <v>35900</v>
+        <v>37300</v>
       </c>
       <c r="H12" s="3">
-        <v>31300</v>
+        <v>37600</v>
       </c>
       <c r="I12" s="3">
-        <v>27000</v>
+        <v>32800</v>
       </c>
       <c r="J12" s="3">
+        <v>28300</v>
+      </c>
+      <c r="K12" s="3">
         <v>22300</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>20500</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>18900</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>15200</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>12900</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>11100</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>9400</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>8000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>4300</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>9000</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1028,8 +1045,11 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1081,8 +1101,11 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1134,8 +1157,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,114 +1178,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>468800</v>
+        <v>655500</v>
       </c>
       <c r="E17" s="3">
-        <v>415300</v>
+        <v>491000</v>
       </c>
       <c r="F17" s="3">
-        <v>352600</v>
+        <v>435000</v>
       </c>
       <c r="G17" s="3">
-        <v>331400</v>
+        <v>369300</v>
       </c>
       <c r="H17" s="3">
-        <v>273500</v>
+        <v>347100</v>
       </c>
       <c r="I17" s="3">
-        <v>244000</v>
+        <v>286500</v>
       </c>
       <c r="J17" s="3">
+        <v>255600</v>
+      </c>
+      <c r="K17" s="3">
         <v>209800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>187200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>162600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>135200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>118100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>112700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>94300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>73000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>87300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>118900</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>-88600</v>
+        <v>-164800</v>
       </c>
       <c r="E18" s="3">
-        <v>-79000</v>
+        <v>-92800</v>
       </c>
       <c r="F18" s="3">
-        <v>-61000</v>
+        <v>-82800</v>
       </c>
       <c r="G18" s="3">
-        <v>-61400</v>
+        <v>-63900</v>
       </c>
       <c r="H18" s="3">
-        <v>-50200</v>
+        <v>-64400</v>
       </c>
       <c r="I18" s="3">
-        <v>-44500</v>
+        <v>-52500</v>
       </c>
       <c r="J18" s="3">
+        <v>-46700</v>
+      </c>
+      <c r="K18" s="3">
         <v>-41900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-36300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-15300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-10700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-9200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-4700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-7800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-11300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-55700</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-74500</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1279,72 +1312,76 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>10700</v>
+        <v>5400</v>
       </c>
       <c r="E20" s="3">
-        <v>4400</v>
+        <v>11200</v>
       </c>
       <c r="F20" s="3">
-        <v>7900</v>
+        <v>4600</v>
       </c>
       <c r="G20" s="3">
-        <v>6000</v>
+        <v>8300</v>
       </c>
       <c r="H20" s="3">
-        <v>8500</v>
+        <v>6300</v>
       </c>
       <c r="I20" s="3">
-        <v>17300</v>
+        <v>8900</v>
       </c>
       <c r="J20" s="3">
+        <v>18100</v>
+      </c>
+      <c r="K20" s="3">
         <v>15500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>3400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>5600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>2800</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>1900</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>2900</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>700</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>1800</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-1900</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E21" s="3">
-        <v>-24800</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>16</v>
+      <c r="E21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F21" s="3">
+        <v>-26000</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>16</v>
@@ -1367,46 +1404,49 @@
       <c r="M21" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="N21" s="3">
+      <c r="N21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="O21" s="3">
         <v>37900</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>27000</v>
       </c>
-      <c r="P21" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Q21" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="R21" s="3">
+      <c r="R21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="S21" s="3">
         <v>-34100</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-58200</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>3300</v>
+        <v>5500</v>
       </c>
       <c r="E22" s="3">
-        <v>2200</v>
+        <v>3400</v>
       </c>
       <c r="F22" s="3">
-        <v>2200</v>
+        <v>2300</v>
       </c>
       <c r="G22" s="3">
         <v>2300</v>
       </c>
       <c r="H22" s="3">
-        <v>2300</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>16</v>
+        <v>2400</v>
+      </c>
+      <c r="I22" s="3">
+        <v>2400</v>
       </c>
       <c r="J22" s="3" t="s">
         <v>16</v>
@@ -1420,8 +1460,8 @@
       <c r="M22" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="N22" s="3">
-        <v>0</v>
+      <c r="N22" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="O22" s="3">
         <v>0</v>
@@ -1438,99 +1478,105 @@
       <c r="S22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-81200</v>
+        <v>-164800</v>
       </c>
       <c r="E23" s="3">
-        <v>-76900</v>
+        <v>-85000</v>
       </c>
       <c r="F23" s="3">
-        <v>-55200</v>
+        <v>-80500</v>
       </c>
       <c r="G23" s="3">
-        <v>-57700</v>
+        <v>-57800</v>
       </c>
       <c r="H23" s="3">
-        <v>-43900</v>
+        <v>-60500</v>
       </c>
       <c r="I23" s="3">
-        <v>-27200</v>
+        <v>-46000</v>
       </c>
       <c r="J23" s="3">
+        <v>-28500</v>
+      </c>
+      <c r="K23" s="3">
         <v>-26400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-32900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-9700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-7800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-7300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-1800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-7100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-9500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-57600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-74500</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>1700</v>
+        <v>2600</v>
       </c>
       <c r="E24" s="3">
+        <v>1800</v>
+      </c>
+      <c r="F24" s="3">
         <v>1400</v>
       </c>
-      <c r="F24" s="3">
-        <v>1000</v>
-      </c>
       <c r="G24" s="3">
+        <v>1100</v>
+      </c>
+      <c r="H24" s="3">
         <v>1200</v>
       </c>
-      <c r="H24" s="3">
-        <v>1800</v>
-      </c>
       <c r="I24" s="3">
+        <v>1900</v>
+      </c>
+      <c r="J24" s="3">
         <v>1200</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>1300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>1600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>500</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>400</v>
-      </c>
-      <c r="O24" s="3">
-        <v>300</v>
       </c>
       <c r="P24" s="3">
         <v>300</v>
@@ -1539,13 +1585,16 @@
         <v>300</v>
       </c>
       <c r="R24" s="3">
+        <v>300</v>
+      </c>
+      <c r="S24" s="3">
         <v>500</v>
       </c>
-      <c r="S24" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,114 +1646,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-82900</v>
+        <v>-167500</v>
       </c>
       <c r="E26" s="3">
-        <v>-78200</v>
+        <v>-86800</v>
       </c>
       <c r="F26" s="3">
-        <v>-56200</v>
+        <v>-81900</v>
       </c>
       <c r="G26" s="3">
         <v>-58900</v>
       </c>
       <c r="H26" s="3">
-        <v>-45700</v>
+        <v>-61700</v>
       </c>
       <c r="I26" s="3">
-        <v>-28400</v>
+        <v>-47900</v>
       </c>
       <c r="J26" s="3">
+        <v>-29800</v>
+      </c>
+      <c r="K26" s="3">
         <v>-27700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-34400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-10100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-8300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-7600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-2200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-7500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-9800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-58000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-74500</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-82300</v>
+        <v>-164600</v>
       </c>
       <c r="E27" s="3">
-        <v>-77700</v>
+        <v>-86200</v>
       </c>
       <c r="F27" s="3">
-        <v>-55600</v>
+        <v>-81400</v>
       </c>
       <c r="G27" s="3">
-        <v>-59200</v>
+        <v>-58200</v>
       </c>
       <c r="H27" s="3">
-        <v>-45400</v>
+        <v>-62000</v>
       </c>
       <c r="I27" s="3">
-        <v>-27000</v>
+        <v>-47600</v>
       </c>
       <c r="J27" s="3">
+        <v>-28300</v>
+      </c>
+      <c r="K27" s="3">
         <v>-26100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-34300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-10200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-17200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-17800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-12200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-36900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-17500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-65400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-107000</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,8 +1814,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1809,8 +1870,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1926,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,114 +1982,123 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-10700</v>
+        <v>-5400</v>
       </c>
       <c r="E32" s="3">
-        <v>-4400</v>
+        <v>-11200</v>
       </c>
       <c r="F32" s="3">
-        <v>-7900</v>
+        <v>-4600</v>
       </c>
       <c r="G32" s="3">
-        <v>-6000</v>
+        <v>-8300</v>
       </c>
       <c r="H32" s="3">
-        <v>-8500</v>
+        <v>-6300</v>
       </c>
       <c r="I32" s="3">
-        <v>-17300</v>
+        <v>-8900</v>
       </c>
       <c r="J32" s="3">
+        <v>-18100</v>
+      </c>
+      <c r="K32" s="3">
         <v>-15500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-3400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-5600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-2800</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-1900</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-2900</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-700</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-1800</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>1900</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-82300</v>
+        <v>-164600</v>
       </c>
       <c r="E33" s="3">
-        <v>-77700</v>
+        <v>-86200</v>
       </c>
       <c r="F33" s="3">
-        <v>-55600</v>
+        <v>-81400</v>
       </c>
       <c r="G33" s="3">
-        <v>-59200</v>
+        <v>-58200</v>
       </c>
       <c r="H33" s="3">
-        <v>-45400</v>
+        <v>-62000</v>
       </c>
       <c r="I33" s="3">
-        <v>-27000</v>
+        <v>-47600</v>
       </c>
       <c r="J33" s="3">
+        <v>-28300</v>
+      </c>
+      <c r="K33" s="3">
         <v>-26100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-34300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-10200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-17200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-17800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-12200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-36900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-17500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-65400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-107000</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,119 +2150,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-82300</v>
+        <v>-164600</v>
       </c>
       <c r="E35" s="3">
-        <v>-77700</v>
+        <v>-86200</v>
       </c>
       <c r="F35" s="3">
-        <v>-55600</v>
+        <v>-81400</v>
       </c>
       <c r="G35" s="3">
-        <v>-59200</v>
+        <v>-58200</v>
       </c>
       <c r="H35" s="3">
-        <v>-45400</v>
+        <v>-62000</v>
       </c>
       <c r="I35" s="3">
-        <v>-27000</v>
+        <v>-47600</v>
       </c>
       <c r="J35" s="3">
+        <v>-28300</v>
+      </c>
+      <c r="K35" s="3">
         <v>-26100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-34300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-10200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-17200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-17800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-12200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-36900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-17500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-65400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-107000</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42916</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42825</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42735</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2291,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,50 +2313,51 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>885100</v>
+        <v>901700</v>
       </c>
       <c r="E41" s="3">
-        <v>645600</v>
+        <v>927100</v>
       </c>
       <c r="F41" s="3">
-        <v>720700</v>
+        <v>676200</v>
       </c>
       <c r="G41" s="3">
-        <v>607000</v>
+        <v>754900</v>
       </c>
       <c r="H41" s="3">
-        <v>676700</v>
+        <v>635800</v>
       </c>
       <c r="I41" s="3">
-        <v>394200</v>
+        <v>708800</v>
       </c>
       <c r="J41" s="3">
+        <v>412900</v>
+      </c>
+      <c r="K41" s="3">
         <v>514100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>337000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>520100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>150800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>113200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>58700</v>
       </c>
-      <c r="P41" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Q41" s="3" t="s">
         <v>16</v>
       </c>
@@ -2280,50 +2367,53 @@
       <c r="S41" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T41" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>1374100</v>
+        <v>1243100</v>
       </c>
       <c r="E42" s="3">
-        <v>513000</v>
+        <v>1439300</v>
       </c>
       <c r="F42" s="3">
-        <v>451000</v>
+        <v>537300</v>
       </c>
       <c r="G42" s="3">
-        <v>612100</v>
+        <v>472400</v>
       </c>
       <c r="H42" s="3">
-        <v>566900</v>
+        <v>641200</v>
       </c>
       <c r="I42" s="3">
-        <v>265600</v>
+        <v>593800</v>
       </c>
       <c r="J42" s="3">
+        <v>278200</v>
+      </c>
+      <c r="K42" s="3">
         <v>246100</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>150600</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>49900</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>32800</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>75000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>159200</v>
       </c>
-      <c r="P42" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Q42" s="3" t="s">
         <v>16</v>
       </c>
@@ -2333,50 +2423,53 @@
       <c r="S42" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>112300</v>
+        <v>180400</v>
       </c>
       <c r="E43" s="3">
-        <v>161200</v>
+        <v>117600</v>
       </c>
       <c r="F43" s="3">
-        <v>136500</v>
+        <v>168800</v>
       </c>
       <c r="G43" s="3">
-        <v>104000</v>
+        <v>143000</v>
       </c>
       <c r="H43" s="3">
-        <v>67200</v>
+        <v>108900</v>
       </c>
       <c r="I43" s="3">
-        <v>82100</v>
+        <v>70400</v>
       </c>
       <c r="J43" s="3">
+        <v>86000</v>
+      </c>
+      <c r="K43" s="3">
         <v>47100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>55900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>54500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>65400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>67500</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>61600</v>
       </c>
-      <c r="P43" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Q43" s="3" t="s">
         <v>16</v>
       </c>
@@ -2386,19 +2479,22 @@
       <c r="S43" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E44" s="3">
-        <v>6200</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>16</v>
+      <c r="E44" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F44" s="3">
+        <v>6500</v>
       </c>
       <c r="G44" s="3" t="s">
         <v>16</v>
@@ -2421,15 +2517,15 @@
       <c r="M44" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="N44" s="3">
+      <c r="N44" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="O44" s="3">
         <v>1500</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1300</v>
       </c>
-      <c r="P44" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Q44" s="3" t="s">
         <v>16</v>
       </c>
@@ -2439,50 +2535,53 @@
       <c r="S44" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>281100</v>
+        <v>275500</v>
       </c>
       <c r="E45" s="3">
-        <v>160300</v>
+        <v>294400</v>
       </c>
       <c r="F45" s="3">
-        <v>191100</v>
+        <v>167900</v>
       </c>
       <c r="G45" s="3">
-        <v>236700</v>
+        <v>200200</v>
       </c>
       <c r="H45" s="3">
-        <v>239500</v>
+        <v>247900</v>
       </c>
       <c r="I45" s="3">
-        <v>174000</v>
+        <v>250900</v>
       </c>
       <c r="J45" s="3">
+        <v>182300</v>
+      </c>
+      <c r="K45" s="3">
         <v>143900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>111900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>103000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>104400</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>62300</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>58500</v>
       </c>
-      <c r="P45" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Q45" s="3" t="s">
         <v>16</v>
       </c>
@@ -2492,50 +2591,53 @@
       <c r="S45" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>2652600</v>
+        <v>2600700</v>
       </c>
       <c r="E46" s="3">
-        <v>1486200</v>
+        <v>2778400</v>
       </c>
       <c r="F46" s="3">
-        <v>1499400</v>
+        <v>1556700</v>
       </c>
       <c r="G46" s="3">
-        <v>1559800</v>
+        <v>1570500</v>
       </c>
       <c r="H46" s="3">
-        <v>1550300</v>
+        <v>1633800</v>
       </c>
       <c r="I46" s="3">
-        <v>916000</v>
+        <v>1623900</v>
       </c>
       <c r="J46" s="3">
+        <v>959400</v>
+      </c>
+      <c r="K46" s="3">
         <v>951300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>655400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>727500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>353400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>319500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>339400</v>
       </c>
-      <c r="P46" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Q46" s="3" t="s">
         <v>16</v>
       </c>
@@ -2545,8 +2647,11 @@
       <c r="S46" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T46" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2554,41 +2659,41 @@
         <v>235600</v>
       </c>
       <c r="E47" s="3">
-        <v>210000</v>
+        <v>246800</v>
       </c>
       <c r="F47" s="3">
-        <v>181700</v>
+        <v>220000</v>
       </c>
       <c r="G47" s="3">
-        <v>206400</v>
+        <v>190300</v>
       </c>
       <c r="H47" s="3">
-        <v>232500</v>
+        <v>216200</v>
       </c>
       <c r="I47" s="3">
-        <v>178400</v>
+        <v>243500</v>
       </c>
       <c r="J47" s="3">
+        <v>186800</v>
+      </c>
+      <c r="K47" s="3">
         <v>142300</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>140400</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>117600</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>106800</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>94400</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>80100</v>
       </c>
-      <c r="P47" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Q47" s="3" t="s">
         <v>16</v>
       </c>
@@ -2598,50 +2703,53 @@
       <c r="S47" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>101500</v>
+        <v>119800</v>
       </c>
       <c r="E48" s="3">
-        <v>69900</v>
+        <v>106300</v>
       </c>
       <c r="F48" s="3">
-        <v>75000</v>
+        <v>73200</v>
       </c>
       <c r="G48" s="3">
-        <v>68600</v>
+        <v>78500</v>
       </c>
       <c r="H48" s="3">
-        <v>66300</v>
+        <v>71900</v>
       </c>
       <c r="I48" s="3">
-        <v>52700</v>
+        <v>69500</v>
       </c>
       <c r="J48" s="3">
+        <v>55200</v>
+      </c>
+      <c r="K48" s="3">
         <v>57400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>44900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>35600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>28700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>27700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>20000</v>
       </c>
-      <c r="P48" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Q48" s="3" t="s">
         <v>16</v>
       </c>
@@ -2651,50 +2759,53 @@
       <c r="S48" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>435800</v>
+        <v>557400</v>
       </c>
       <c r="E49" s="3">
-        <v>410600</v>
+        <v>456500</v>
       </c>
       <c r="F49" s="3">
-        <v>387700</v>
+        <v>430100</v>
       </c>
       <c r="G49" s="3">
-        <v>368500</v>
+        <v>406100</v>
       </c>
       <c r="H49" s="3">
-        <v>363300</v>
+        <v>385900</v>
       </c>
       <c r="I49" s="3">
-        <v>334800</v>
+        <v>380500</v>
       </c>
       <c r="J49" s="3">
+        <v>350600</v>
+      </c>
+      <c r="K49" s="3">
         <v>342900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>218100</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>131900</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>105700</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>70800</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>64200</v>
       </c>
-      <c r="P49" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Q49" s="3" t="s">
         <v>16</v>
       </c>
@@ -2704,8 +2815,11 @@
       <c r="S49" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2871,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,50 +2927,53 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>128600</v>
+        <v>190100</v>
       </c>
       <c r="E52" s="3">
-        <v>113800</v>
+        <v>134700</v>
       </c>
       <c r="F52" s="3">
-        <v>109800</v>
+        <v>119200</v>
       </c>
       <c r="G52" s="3">
-        <v>98800</v>
+        <v>115000</v>
       </c>
       <c r="H52" s="3">
-        <v>82200</v>
+        <v>103400</v>
       </c>
       <c r="I52" s="3">
-        <v>68400</v>
+        <v>86100</v>
       </c>
       <c r="J52" s="3">
+        <v>71700</v>
+      </c>
+      <c r="K52" s="3">
         <v>29700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>10200</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>7600</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>4400</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>3100</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>1800</v>
       </c>
-      <c r="P52" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Q52" s="3" t="s">
         <v>16</v>
       </c>
@@ -2863,8 +2983,11 @@
       <c r="S52" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,50 +3039,53 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>3554100</v>
+        <v>3703600</v>
       </c>
       <c r="E54" s="3">
-        <v>2290500</v>
+        <v>3722700</v>
       </c>
       <c r="F54" s="3">
-        <v>2253500</v>
+        <v>2399200</v>
       </c>
       <c r="G54" s="3">
-        <v>2302000</v>
+        <v>2360400</v>
       </c>
       <c r="H54" s="3">
-        <v>2294600</v>
+        <v>2411300</v>
       </c>
       <c r="I54" s="3">
-        <v>1550200</v>
+        <v>2403400</v>
       </c>
       <c r="J54" s="3">
+        <v>1623700</v>
+      </c>
+      <c r="K54" s="3">
         <v>1523500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1069000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1020200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>598900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>515500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>505500</v>
       </c>
-      <c r="P54" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Q54" s="3" t="s">
         <v>16</v>
       </c>
@@ -2969,8 +3095,11 @@
       <c r="S54" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T54" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3119,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,50 +3141,51 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>381600</v>
+        <v>446100</v>
       </c>
       <c r="E57" s="3">
-        <v>309700</v>
+        <v>399700</v>
       </c>
       <c r="F57" s="3">
-        <v>276500</v>
+        <v>324400</v>
       </c>
       <c r="G57" s="3">
-        <v>276000</v>
+        <v>289600</v>
       </c>
       <c r="H57" s="3">
-        <v>249600</v>
+        <v>289100</v>
       </c>
       <c r="I57" s="3">
-        <v>206900</v>
+        <v>261400</v>
       </c>
       <c r="J57" s="3">
+        <v>216700</v>
+      </c>
+      <c r="K57" s="3">
         <v>189900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>146900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>135800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>124500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>88500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>81100</v>
       </c>
-      <c r="P57" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Q57" s="3" t="s">
         <v>16</v>
       </c>
@@ -3064,31 +3195,34 @@
       <c r="S57" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T57" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>14500</v>
+        <v>15200</v>
       </c>
       <c r="E58" s="3">
-        <v>14500</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>16</v>
+        <v>15200</v>
+      </c>
+      <c r="F58" s="3">
+        <v>15200</v>
       </c>
       <c r="G58" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H58" s="3">
-        <v>14500</v>
+      <c r="H58" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="I58" s="3">
-        <v>14500</v>
-      </c>
-      <c r="J58" s="3" t="s">
-        <v>16</v>
+        <v>15200</v>
+      </c>
+      <c r="J58" s="3">
+        <v>15200</v>
       </c>
       <c r="K58" s="3" t="s">
         <v>16</v>
@@ -3099,8 +3233,8 @@
       <c r="M58" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="N58" s="3">
-        <v>0</v>
+      <c r="N58" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="O58" s="3">
         <v>0</v>
@@ -3117,50 +3251,53 @@
       <c r="S58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>413600</v>
+        <v>605000</v>
       </c>
       <c r="E59" s="3">
-        <v>373300</v>
+        <v>433200</v>
       </c>
       <c r="F59" s="3">
-        <v>344000</v>
+        <v>391000</v>
       </c>
       <c r="G59" s="3">
-        <v>320500</v>
+        <v>360300</v>
       </c>
       <c r="H59" s="3">
-        <v>289400</v>
+        <v>335800</v>
       </c>
       <c r="I59" s="3">
-        <v>321100</v>
+        <v>303100</v>
       </c>
       <c r="J59" s="3">
+        <v>336300</v>
+      </c>
+      <c r="K59" s="3">
         <v>289200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>215500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>172600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>184600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>118900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>106700</v>
       </c>
-      <c r="P59" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Q59" s="3" t="s">
         <v>16</v>
       </c>
@@ -3170,50 +3307,53 @@
       <c r="S59" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T59" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>809700</v>
+        <v>1066300</v>
       </c>
       <c r="E60" s="3">
-        <v>697500</v>
+        <v>848100</v>
       </c>
       <c r="F60" s="3">
-        <v>620500</v>
+        <v>730600</v>
       </c>
       <c r="G60" s="3">
-        <v>596500</v>
+        <v>649900</v>
       </c>
       <c r="H60" s="3">
-        <v>553500</v>
+        <v>624800</v>
       </c>
       <c r="I60" s="3">
-        <v>542500</v>
+        <v>579800</v>
       </c>
       <c r="J60" s="3">
+        <v>568200</v>
+      </c>
+      <c r="K60" s="3">
         <v>479100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>362400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>308400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>309100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>207500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>187800</v>
       </c>
-      <c r="P60" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Q60" s="3" t="s">
         <v>16</v>
       </c>
@@ -3223,28 +3363,31 @@
       <c r="S60" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T60" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1312500</v>
+        <v>1323400</v>
       </c>
       <c r="E61" s="3">
-        <v>504100</v>
+        <v>1374800</v>
       </c>
       <c r="F61" s="3">
-        <v>495900</v>
+        <v>528000</v>
       </c>
       <c r="G61" s="3">
-        <v>502400</v>
+        <v>519400</v>
       </c>
       <c r="H61" s="3">
-        <v>487800</v>
+        <v>526200</v>
       </c>
       <c r="I61" s="3">
-        <v>0</v>
+        <v>510900</v>
       </c>
       <c r="J61" s="3">
         <v>0</v>
@@ -3276,28 +3419,31 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>28700</v>
+        <v>34500</v>
       </c>
       <c r="E62" s="3">
-        <v>25200</v>
+        <v>30100</v>
       </c>
       <c r="F62" s="3">
-        <v>28000</v>
+        <v>26400</v>
       </c>
       <c r="G62" s="3">
-        <v>29500</v>
+        <v>29300</v>
       </c>
       <c r="H62" s="3">
-        <v>24700</v>
-      </c>
-      <c r="I62" s="3" t="s">
-        <v>16</v>
+        <v>30900</v>
+      </c>
+      <c r="I62" s="3">
+        <v>25900</v>
       </c>
       <c r="J62" s="3" t="s">
         <v>16</v>
@@ -3311,8 +3457,8 @@
       <c r="M62" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="N62" s="3">
-        <v>0</v>
+      <c r="N62" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="O62" s="3">
         <v>0</v>
@@ -3329,8 +3475,11 @@
       <c r="S62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3531,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3587,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,50 +3643,53 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>2255700</v>
+        <v>2454300</v>
       </c>
       <c r="E66" s="3">
-        <v>1332200</v>
+        <v>2362800</v>
       </c>
       <c r="F66" s="3">
-        <v>1229200</v>
+        <v>1395400</v>
       </c>
       <c r="G66" s="3">
-        <v>1206300</v>
+        <v>1287600</v>
       </c>
       <c r="H66" s="3">
-        <v>1099800</v>
+        <v>1263500</v>
       </c>
       <c r="I66" s="3">
-        <v>576600</v>
+        <v>1152000</v>
       </c>
       <c r="J66" s="3">
+        <v>603900</v>
+      </c>
+      <c r="K66" s="3">
         <v>514000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>381800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>308300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>308900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>207500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>187800</v>
       </c>
-      <c r="P66" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Q66" s="3" t="s">
         <v>16</v>
       </c>
@@ -3541,8 +3699,11 @@
       <c r="S66" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T66" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3723,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3777,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3833,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3704,14 +3872,14 @@
         <v>0</v>
       </c>
       <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3">
         <v>595900</v>
       </c>
-      <c r="O70" s="3">
+      <c r="P70" s="3">
         <v>585800</v>
       </c>
-      <c r="P70" s="3">
-        <v>0</v>
-      </c>
       <c r="Q70" s="3">
         <v>0</v>
       </c>
@@ -3721,8 +3889,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,22 +3945,25 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E72" s="3">
-        <v>-680300</v>
+      <c r="E72" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="F72" s="3">
-        <v>-600100</v>
-      </c>
-      <c r="G72" s="3" t="s">
-        <v>16</v>
+        <v>-712500</v>
+      </c>
+      <c r="G72" s="3">
+        <v>-628600</v>
       </c>
       <c r="H72" s="3" t="s">
         <v>16</v>
@@ -3797,27 +3971,27 @@
       <c r="I72" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="J72" s="3">
+      <c r="J72" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K72" s="3">
         <v>-411700</v>
       </c>
-      <c r="K72" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="L72" s="3" t="s">
         <v>16</v>
       </c>
       <c r="M72" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="N72" s="3">
+      <c r="N72" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="O72" s="3">
         <v>-329300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-311600</v>
       </c>
-      <c r="P72" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Q72" s="3" t="s">
         <v>16</v>
       </c>
@@ -3827,8 +4001,11 @@
       <c r="S72" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T72" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4057,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4113,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,50 +4169,53 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1298400</v>
+        <v>1249300</v>
       </c>
       <c r="E76" s="3">
-        <v>958300</v>
+        <v>1359900</v>
       </c>
       <c r="F76" s="3">
-        <v>1024200</v>
+        <v>1003800</v>
       </c>
       <c r="G76" s="3">
-        <v>1095800</v>
+        <v>1072800</v>
       </c>
       <c r="H76" s="3">
-        <v>1194800</v>
+        <v>1147700</v>
       </c>
       <c r="I76" s="3">
-        <v>973600</v>
+        <v>1251500</v>
       </c>
       <c r="J76" s="3">
+        <v>1019800</v>
+      </c>
+      <c r="K76" s="3">
         <v>1009500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>687300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>711900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>290000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-287800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-268000</v>
       </c>
-      <c r="P76" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Q76" s="3" t="s">
         <v>16</v>
       </c>
@@ -4039,8 +4225,11 @@
       <c r="S76" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T76" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,119 +4281,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42916</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42825</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42735</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-82300</v>
+        <v>-164600</v>
       </c>
       <c r="E81" s="3">
-        <v>-77700</v>
+        <v>-86200</v>
       </c>
       <c r="F81" s="3">
-        <v>-55600</v>
+        <v>-81400</v>
       </c>
       <c r="G81" s="3">
-        <v>-59200</v>
+        <v>-58200</v>
       </c>
       <c r="H81" s="3">
-        <v>-45400</v>
+        <v>-62000</v>
       </c>
       <c r="I81" s="3">
-        <v>-27000</v>
+        <v>-47600</v>
       </c>
       <c r="J81" s="3">
+        <v>-28300</v>
+      </c>
+      <c r="K81" s="3">
         <v>-26100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-34300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-10200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-17200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-17800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-12200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-36900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-17500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-65400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-107000</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,19 +4422,20 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E83" s="3">
-        <v>49800</v>
-      </c>
-      <c r="F83" s="3" t="s">
-        <v>16</v>
+      <c r="E83" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F83" s="3">
+        <v>52200</v>
       </c>
       <c r="G83" s="3" t="s">
         <v>16</v>
@@ -4253,8 +4452,8 @@
       <c r="K83" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="L83" s="3">
-        <v>0</v>
+      <c r="L83" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="M83" s="3">
         <v>0</v>
@@ -4268,8 +4467,8 @@
       <c r="P83" s="3">
         <v>0</v>
       </c>
-      <c r="Q83" s="3" t="s">
-        <v>16</v>
+      <c r="Q83" s="3">
+        <v>0</v>
       </c>
       <c r="R83" s="3" t="s">
         <v>16</v>
@@ -4277,8 +4476,11 @@
       <c r="S83" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4532,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4588,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4644,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4700,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,19 +4756,22 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E89" s="3">
-        <v>41900</v>
-      </c>
-      <c r="F89" s="3" t="s">
-        <v>16</v>
+      <c r="E89" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F89" s="3">
+        <v>43900</v>
       </c>
       <c r="G89" s="3" t="s">
         <v>16</v>
@@ -4571,8 +4788,8 @@
       <c r="K89" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="L89" s="3">
-        <v>0</v>
+      <c r="L89" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="M89" s="3">
         <v>0</v>
@@ -4586,8 +4803,8 @@
       <c r="P89" s="3">
         <v>0</v>
       </c>
-      <c r="Q89" s="3" t="s">
-        <v>16</v>
+      <c r="Q89" s="3">
+        <v>0</v>
       </c>
       <c r="R89" s="3" t="s">
         <v>16</v>
@@ -4595,8 +4812,11 @@
       <c r="S89" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T89" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,19 +4836,20 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E91" s="3">
-        <v>-9700</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>16</v>
+      <c r="E91" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F91" s="3">
+        <v>-10200</v>
       </c>
       <c r="G91" s="3" t="s">
         <v>16</v>
@@ -4645,8 +4866,8 @@
       <c r="K91" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="L91" s="3">
-        <v>0</v>
+      <c r="L91" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="M91" s="3">
         <v>0</v>
@@ -4660,8 +4881,8 @@
       <c r="P91" s="3">
         <v>0</v>
       </c>
-      <c r="Q91" s="3" t="s">
-        <v>16</v>
+      <c r="Q91" s="3">
+        <v>0</v>
       </c>
       <c r="R91" s="3" t="s">
         <v>16</v>
@@ -4669,8 +4890,11 @@
       <c r="S91" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +4946,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,19 +5002,22 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E94" s="3">
-        <v>-150600</v>
-      </c>
-      <c r="F94" s="3" t="s">
-        <v>16</v>
+      <c r="E94" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F94" s="3">
+        <v>-157800</v>
       </c>
       <c r="G94" s="3" t="s">
         <v>16</v>
@@ -4804,8 +5034,8 @@
       <c r="K94" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="L94" s="3">
-        <v>0</v>
+      <c r="L94" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="M94" s="3">
         <v>0</v>
@@ -4819,8 +5049,8 @@
       <c r="P94" s="3">
         <v>0</v>
       </c>
-      <c r="Q94" s="3" t="s">
-        <v>16</v>
+      <c r="Q94" s="3">
+        <v>0</v>
       </c>
       <c r="R94" s="3" t="s">
         <v>16</v>
@@ -4828,8 +5058,11 @@
       <c r="S94" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,8 +5082,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4902,8 +5136,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5192,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5248,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,19 +5304,22 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E100" s="3">
-        <v>27400</v>
-      </c>
-      <c r="F100" s="3" t="s">
-        <v>16</v>
+      <c r="E100" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F100" s="3">
+        <v>28700</v>
       </c>
       <c r="G100" s="3" t="s">
         <v>16</v>
@@ -5090,8 +5336,8 @@
       <c r="K100" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
+      <c r="L100" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="M100" s="3">
         <v>0</v>
@@ -5105,8 +5351,8 @@
       <c r="P100" s="3">
         <v>0</v>
       </c>
-      <c r="Q100" s="3" t="s">
-        <v>16</v>
+      <c r="Q100" s="3">
+        <v>0</v>
       </c>
       <c r="R100" s="3" t="s">
         <v>16</v>
@@ -5114,19 +5360,22 @@
       <c r="S100" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T100" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E101" s="3">
-        <v>6100</v>
-      </c>
-      <c r="F101" s="3" t="s">
-        <v>16</v>
+      <c r="E101" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F101" s="3">
+        <v>6400</v>
       </c>
       <c r="G101" s="3" t="s">
         <v>16</v>
@@ -5143,8 +5392,8 @@
       <c r="K101" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="L101" s="3">
-        <v>0</v>
+      <c r="L101" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="M101" s="3">
         <v>0</v>
@@ -5158,8 +5407,8 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-      <c r="Q101" s="3" t="s">
-        <v>16</v>
+      <c r="Q101" s="3">
+        <v>0</v>
       </c>
       <c r="R101" s="3" t="s">
         <v>16</v>
@@ -5167,19 +5416,22 @@
       <c r="S101" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E102" s="3">
-        <v>-75100</v>
-      </c>
-      <c r="F102" s="3" t="s">
-        <v>16</v>
+      <c r="E102" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F102" s="3">
+        <v>-78700</v>
       </c>
       <c r="G102" s="3" t="s">
         <v>16</v>
@@ -5196,8 +5448,8 @@
       <c r="K102" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="L102" s="3">
-        <v>0</v>
+      <c r="L102" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="M102" s="3">
         <v>0</v>
@@ -5211,13 +5463,16 @@
       <c r="P102" s="3">
         <v>0</v>
       </c>
-      <c r="Q102" s="3" t="s">
-        <v>16</v>
+      <c r="Q102" s="3">
+        <v>0</v>
       </c>
       <c r="R102" s="3" t="s">
         <v>16</v>
       </c>
       <c r="S102" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="T102" s="3" t="s">
         <v>16</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BILI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BILI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="92">
   <si>
     <t>BILI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,257 +665,269 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43008</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42916</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42825</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42735</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>490700</v>
+        <v>586700</v>
       </c>
       <c r="E8" s="3">
-        <v>398200</v>
+        <v>492800</v>
       </c>
       <c r="F8" s="3">
-        <v>352200</v>
+        <v>399900</v>
       </c>
       <c r="G8" s="3">
-        <v>305400</v>
+        <v>353800</v>
       </c>
       <c r="H8" s="3">
-        <v>282800</v>
+        <v>306800</v>
       </c>
       <c r="I8" s="3">
-        <v>233900</v>
+        <v>284000</v>
       </c>
       <c r="J8" s="3">
+        <v>234900</v>
+      </c>
+      <c r="K8" s="3">
         <v>208900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>167800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>151000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>147300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>124500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>108900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>108000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>86500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>61700</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>31600</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>44500</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>374800</v>
+        <v>442500</v>
       </c>
       <c r="E9" s="3">
-        <v>306300</v>
+        <v>376500</v>
       </c>
       <c r="F9" s="3">
-        <v>271500</v>
+        <v>307600</v>
       </c>
       <c r="G9" s="3">
-        <v>244900</v>
+        <v>272700</v>
       </c>
       <c r="H9" s="3">
-        <v>229300</v>
+        <v>246000</v>
       </c>
       <c r="I9" s="3">
-        <v>195600</v>
+        <v>230300</v>
       </c>
       <c r="J9" s="3">
+        <v>196500</v>
+      </c>
+      <c r="K9" s="3">
         <v>180100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>139200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>123800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>111300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>94000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>82800</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>82100</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>66100</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>52800</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>35200</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>77100</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>115800</v>
+        <v>144200</v>
       </c>
       <c r="E10" s="3">
-        <v>91900</v>
+        <v>116400</v>
       </c>
       <c r="F10" s="3">
-        <v>80700</v>
+        <v>92300</v>
       </c>
       <c r="G10" s="3">
-        <v>60500</v>
+        <v>81000</v>
       </c>
       <c r="H10" s="3">
-        <v>53400</v>
+        <v>60800</v>
       </c>
       <c r="I10" s="3">
-        <v>38300</v>
+        <v>53700</v>
       </c>
       <c r="J10" s="3">
+        <v>38500</v>
+      </c>
+      <c r="K10" s="3">
         <v>28800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>28600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>27200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>36000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>30600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>26100</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>25900</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>20400</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>8900</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>-3600</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>-32700</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -936,64 +948,68 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>61000</v>
+        <v>73900</v>
       </c>
       <c r="E12" s="3">
-        <v>50300</v>
+        <v>61300</v>
       </c>
       <c r="F12" s="3">
-        <v>45200</v>
+        <v>50500</v>
       </c>
       <c r="G12" s="3">
-        <v>37300</v>
+        <v>45400</v>
       </c>
       <c r="H12" s="3">
-        <v>37600</v>
+        <v>37500</v>
       </c>
       <c r="I12" s="3">
-        <v>32800</v>
+        <v>37800</v>
       </c>
       <c r="J12" s="3">
+        <v>33000</v>
+      </c>
+      <c r="K12" s="3">
         <v>28300</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>22300</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>20500</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>18900</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>15200</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>12900</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>11100</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>9400</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>8000</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>4300</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>9000</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1048,8 +1064,11 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1104,8 +1123,11 @@
       <c r="T14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1160,8 +1182,11 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,120 +1204,127 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>655500</v>
+        <v>724700</v>
       </c>
       <c r="E17" s="3">
-        <v>491000</v>
+        <v>658300</v>
       </c>
       <c r="F17" s="3">
-        <v>435000</v>
+        <v>493100</v>
       </c>
       <c r="G17" s="3">
-        <v>369300</v>
+        <v>436900</v>
       </c>
       <c r="H17" s="3">
-        <v>347100</v>
+        <v>370900</v>
       </c>
       <c r="I17" s="3">
-        <v>286500</v>
+        <v>348700</v>
       </c>
       <c r="J17" s="3">
+        <v>287700</v>
+      </c>
+      <c r="K17" s="3">
         <v>255600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>209800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>187200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>162600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>135200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>118100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>112700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>94300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>73000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>87300</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>118900</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>-164800</v>
+        <v>-138000</v>
       </c>
       <c r="E18" s="3">
-        <v>-92800</v>
+        <v>-165500</v>
       </c>
       <c r="F18" s="3">
-        <v>-82800</v>
+        <v>-93200</v>
       </c>
       <c r="G18" s="3">
-        <v>-63900</v>
+        <v>-83100</v>
       </c>
       <c r="H18" s="3">
-        <v>-64400</v>
+        <v>-64200</v>
       </c>
       <c r="I18" s="3">
-        <v>-52500</v>
+        <v>-64600</v>
       </c>
       <c r="J18" s="3">
+        <v>-52800</v>
+      </c>
+      <c r="K18" s="3">
         <v>-46700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-41900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-36300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-15300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-10700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-9200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-4700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-7800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-11300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-55700</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-74500</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1313,64 +1345,68 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>16700</v>
+      </c>
+      <c r="E20" s="3">
         <v>5400</v>
       </c>
-      <c r="E20" s="3">
-        <v>11200</v>
-      </c>
       <c r="F20" s="3">
+        <v>11300</v>
+      </c>
+      <c r="G20" s="3">
         <v>4600</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>8300</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>6300</v>
       </c>
-      <c r="I20" s="3">
-        <v>8900</v>
-      </c>
       <c r="J20" s="3">
+        <v>9000</v>
+      </c>
+      <c r="K20" s="3">
         <v>18100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>15500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>3400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>5600</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>2800</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>1900</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>2900</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>700</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>1800</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-1900</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
@@ -1380,11 +1416,11 @@
       <c r="E21" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F21" s="3">
-        <v>-26000</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>16</v>
+      <c r="F21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G21" s="3">
+        <v>-26100</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>16</v>
@@ -1407,50 +1443,53 @@
       <c r="N21" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="O21" s="3">
+      <c r="O21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="P21" s="3">
         <v>37900</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>27000</v>
       </c>
-      <c r="Q21" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="R21" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="S21" s="3">
+      <c r="S21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="T21" s="3">
         <v>-34100</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-58200</v>
       </c>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>5300</v>
+      </c>
+      <c r="E22" s="3">
         <v>5500</v>
       </c>
-      <c r="E22" s="3">
-        <v>3400</v>
-      </c>
       <c r="F22" s="3">
-        <v>2300</v>
+        <v>3500</v>
       </c>
       <c r="G22" s="3">
         <v>2300</v>
       </c>
       <c r="H22" s="3">
+        <v>2300</v>
+      </c>
+      <c r="I22" s="3">
+        <v>2500</v>
+      </c>
+      <c r="J22" s="3">
         <v>2400</v>
       </c>
-      <c r="I22" s="3">
-        <v>2400</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="K22" s="3" t="s">
         <v>16</v>
       </c>
@@ -1463,8 +1502,8 @@
       <c r="N22" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="O22" s="3">
-        <v>0</v>
+      <c r="O22" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="P22" s="3">
         <v>0</v>
@@ -1481,105 +1520,111 @@
       <c r="T22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-164800</v>
+        <v>-126600</v>
       </c>
       <c r="E23" s="3">
-        <v>-85000</v>
+        <v>-165600</v>
       </c>
       <c r="F23" s="3">
-        <v>-80500</v>
+        <v>-85400</v>
       </c>
       <c r="G23" s="3">
-        <v>-57800</v>
+        <v>-80800</v>
       </c>
       <c r="H23" s="3">
-        <v>-60500</v>
+        <v>-58100</v>
       </c>
       <c r="I23" s="3">
-        <v>-46000</v>
+        <v>-60700</v>
       </c>
       <c r="J23" s="3">
+        <v>-46200</v>
+      </c>
+      <c r="K23" s="3">
         <v>-28500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-26400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-32900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-9700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-7800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-7300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-1800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-7100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-9500</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-57600</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-74500</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E24" s="3">
         <v>2600</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>1800</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>1400</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>1100</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>1200</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>1900</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>1200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>1300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>1600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>500</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>400</v>
-      </c>
-      <c r="P24" s="3">
-        <v>300</v>
       </c>
       <c r="Q24" s="3">
         <v>300</v>
@@ -1588,13 +1633,16 @@
         <v>300</v>
       </c>
       <c r="S24" s="3">
+        <v>300</v>
+      </c>
+      <c r="T24" s="3">
         <v>500</v>
       </c>
-      <c r="T24" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,120 +1697,129 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-167500</v>
+        <v>-128900</v>
       </c>
       <c r="E26" s="3">
-        <v>-86800</v>
+        <v>-168200</v>
       </c>
       <c r="F26" s="3">
-        <v>-81900</v>
+        <v>-87200</v>
       </c>
       <c r="G26" s="3">
-        <v>-58900</v>
+        <v>-82300</v>
       </c>
       <c r="H26" s="3">
-        <v>-61700</v>
+        <v>-59200</v>
       </c>
       <c r="I26" s="3">
-        <v>-47900</v>
+        <v>-62000</v>
       </c>
       <c r="J26" s="3">
+        <v>-48100</v>
+      </c>
+      <c r="K26" s="3">
         <v>-29800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-27700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-34400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-10100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-8300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-7600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-2200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-7500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-9800</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-58000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-74500</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-164600</v>
+        <v>-126500</v>
       </c>
       <c r="E27" s="3">
-        <v>-86200</v>
+        <v>-165300</v>
       </c>
       <c r="F27" s="3">
-        <v>-81400</v>
+        <v>-86600</v>
       </c>
       <c r="G27" s="3">
-        <v>-58200</v>
+        <v>-81800</v>
       </c>
       <c r="H27" s="3">
-        <v>-62000</v>
+        <v>-58500</v>
       </c>
       <c r="I27" s="3">
-        <v>-47600</v>
+        <v>-62200</v>
       </c>
       <c r="J27" s="3">
+        <v>-47800</v>
+      </c>
+      <c r="K27" s="3">
         <v>-28300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-26100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-34300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-10200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-17200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-17800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-12200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-36900</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-17500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-65400</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-107000</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,8 +1874,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1873,8 +1933,11 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +1992,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,120 +2051,129 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-16700</v>
+      </c>
+      <c r="E32" s="3">
         <v>-5400</v>
       </c>
-      <c r="E32" s="3">
-        <v>-11200</v>
-      </c>
       <c r="F32" s="3">
+        <v>-11300</v>
+      </c>
+      <c r="G32" s="3">
         <v>-4600</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-8300</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-6300</v>
       </c>
-      <c r="I32" s="3">
-        <v>-8900</v>
-      </c>
       <c r="J32" s="3">
+        <v>-9000</v>
+      </c>
+      <c r="K32" s="3">
         <v>-18100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-15500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-3400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-5600</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-2800</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-1900</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-2900</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-700</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-1800</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>1900</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-164600</v>
+        <v>-126500</v>
       </c>
       <c r="E33" s="3">
-        <v>-86200</v>
+        <v>-165300</v>
       </c>
       <c r="F33" s="3">
-        <v>-81400</v>
+        <v>-86600</v>
       </c>
       <c r="G33" s="3">
-        <v>-58200</v>
+        <v>-81800</v>
       </c>
       <c r="H33" s="3">
-        <v>-62000</v>
+        <v>-58500</v>
       </c>
       <c r="I33" s="3">
-        <v>-47600</v>
+        <v>-62200</v>
       </c>
       <c r="J33" s="3">
+        <v>-47800</v>
+      </c>
+      <c r="K33" s="3">
         <v>-28300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-26100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-34300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-10200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-17200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-17800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-12200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-36900</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-17500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-65400</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-107000</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,125 +2228,134 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-164600</v>
+        <v>-126500</v>
       </c>
       <c r="E35" s="3">
-        <v>-86200</v>
+        <v>-165300</v>
       </c>
       <c r="F35" s="3">
-        <v>-81400</v>
+        <v>-86600</v>
       </c>
       <c r="G35" s="3">
-        <v>-58200</v>
+        <v>-81800</v>
       </c>
       <c r="H35" s="3">
-        <v>-62000</v>
+        <v>-58500</v>
       </c>
       <c r="I35" s="3">
-        <v>-47600</v>
+        <v>-62200</v>
       </c>
       <c r="J35" s="3">
+        <v>-47800</v>
+      </c>
+      <c r="K35" s="3">
         <v>-28300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-26100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-34300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-10200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-17200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-17800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-12200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-36900</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-17500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-65400</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-107000</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43008</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42916</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42825</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42735</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2376,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,53 +2399,54 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>901700</v>
+        <v>714700</v>
       </c>
       <c r="E41" s="3">
-        <v>927100</v>
+        <v>905600</v>
       </c>
       <c r="F41" s="3">
-        <v>676200</v>
+        <v>931100</v>
       </c>
       <c r="G41" s="3">
-        <v>754900</v>
+        <v>679100</v>
       </c>
       <c r="H41" s="3">
-        <v>635800</v>
+        <v>758200</v>
       </c>
       <c r="I41" s="3">
-        <v>708800</v>
+        <v>638500</v>
       </c>
       <c r="J41" s="3">
+        <v>711800</v>
+      </c>
+      <c r="K41" s="3">
         <v>412900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>514100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>337000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>520100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>150800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>113200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>58700</v>
       </c>
-      <c r="Q41" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="R41" s="3" t="s">
         <v>16</v>
       </c>
@@ -2370,53 +2456,56 @@
       <c r="T41" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U41" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>1243100</v>
+        <v>1241900</v>
       </c>
       <c r="E42" s="3">
-        <v>1439300</v>
+        <v>1248500</v>
       </c>
       <c r="F42" s="3">
-        <v>537300</v>
+        <v>1445600</v>
       </c>
       <c r="G42" s="3">
-        <v>472400</v>
+        <v>539600</v>
       </c>
       <c r="H42" s="3">
-        <v>641200</v>
+        <v>474400</v>
       </c>
       <c r="I42" s="3">
-        <v>593800</v>
+        <v>643900</v>
       </c>
       <c r="J42" s="3">
+        <v>596400</v>
+      </c>
+      <c r="K42" s="3">
         <v>278200</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>246100</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>150600</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>49900</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>32800</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>75000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>159200</v>
       </c>
-      <c r="Q42" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="R42" s="3" t="s">
         <v>16</v>
       </c>
@@ -2426,53 +2515,56 @@
       <c r="T42" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>180400</v>
+        <v>215800</v>
       </c>
       <c r="E43" s="3">
-        <v>117600</v>
+        <v>181200</v>
       </c>
       <c r="F43" s="3">
-        <v>168800</v>
+        <v>118100</v>
       </c>
       <c r="G43" s="3">
-        <v>143000</v>
+        <v>169500</v>
       </c>
       <c r="H43" s="3">
-        <v>108900</v>
+        <v>143600</v>
       </c>
       <c r="I43" s="3">
-        <v>70400</v>
+        <v>109400</v>
       </c>
       <c r="J43" s="3">
+        <v>70700</v>
+      </c>
+      <c r="K43" s="3">
         <v>86000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>47100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>55900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>54500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>65400</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>67500</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>61600</v>
       </c>
-      <c r="Q43" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="R43" s="3" t="s">
         <v>16</v>
       </c>
@@ -2482,23 +2574,26 @@
       <c r="T43" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U43" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D44" s="3" t="s">
-        <v>16</v>
+      <c r="D44" s="3">
+        <v>24400</v>
       </c>
       <c r="E44" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F44" s="3">
+      <c r="F44" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G44" s="3">
         <v>6500</v>
       </c>
-      <c r="G44" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="H44" s="3" t="s">
         <v>16</v>
       </c>
@@ -2520,15 +2615,15 @@
       <c r="N44" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="O44" s="3">
+      <c r="O44" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="P44" s="3">
         <v>1500</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>1300</v>
       </c>
-      <c r="Q44" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="R44" s="3" t="s">
         <v>16</v>
       </c>
@@ -2538,53 +2633,56 @@
       <c r="T44" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>275500</v>
+        <v>207800</v>
       </c>
       <c r="E45" s="3">
-        <v>294400</v>
+        <v>276700</v>
       </c>
       <c r="F45" s="3">
-        <v>167900</v>
+        <v>295700</v>
       </c>
       <c r="G45" s="3">
-        <v>200200</v>
+        <v>168600</v>
       </c>
       <c r="H45" s="3">
-        <v>247900</v>
+        <v>201000</v>
       </c>
       <c r="I45" s="3">
-        <v>250900</v>
+        <v>249000</v>
       </c>
       <c r="J45" s="3">
+        <v>252000</v>
+      </c>
+      <c r="K45" s="3">
         <v>182300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>143900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>111900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>103000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>104400</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>62300</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>58500</v>
       </c>
-      <c r="Q45" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="R45" s="3" t="s">
         <v>16</v>
       </c>
@@ -2594,53 +2692,56 @@
       <c r="T45" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U45" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>2600700</v>
+        <v>2404700</v>
       </c>
       <c r="E46" s="3">
-        <v>2778400</v>
+        <v>2612000</v>
       </c>
       <c r="F46" s="3">
-        <v>1556700</v>
+        <v>2790500</v>
       </c>
       <c r="G46" s="3">
-        <v>1570500</v>
+        <v>1563500</v>
       </c>
       <c r="H46" s="3">
-        <v>1633800</v>
+        <v>1577300</v>
       </c>
       <c r="I46" s="3">
-        <v>1623900</v>
+        <v>1640900</v>
       </c>
       <c r="J46" s="3">
+        <v>1630900</v>
+      </c>
+      <c r="K46" s="3">
         <v>959400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>951300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>655400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>727500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>353400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>319500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>339400</v>
       </c>
-      <c r="Q46" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="R46" s="3" t="s">
         <v>16</v>
       </c>
@@ -2650,53 +2751,56 @@
       <c r="T46" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U46" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>235600</v>
+        <v>341100</v>
       </c>
       <c r="E47" s="3">
-        <v>246800</v>
+        <v>236600</v>
       </c>
       <c r="F47" s="3">
-        <v>220000</v>
+        <v>247900</v>
       </c>
       <c r="G47" s="3">
-        <v>190300</v>
+        <v>220900</v>
       </c>
       <c r="H47" s="3">
-        <v>216200</v>
+        <v>191100</v>
       </c>
       <c r="I47" s="3">
-        <v>243500</v>
+        <v>217200</v>
       </c>
       <c r="J47" s="3">
+        <v>244600</v>
+      </c>
+      <c r="K47" s="3">
         <v>186800</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>142300</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>140400</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>117600</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>106800</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>94400</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>80100</v>
       </c>
-      <c r="Q47" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="R47" s="3" t="s">
         <v>16</v>
       </c>
@@ -2706,53 +2810,56 @@
       <c r="T47" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>119800</v>
+        <v>116400</v>
       </c>
       <c r="E48" s="3">
-        <v>106300</v>
+        <v>120300</v>
       </c>
       <c r="F48" s="3">
-        <v>73200</v>
+        <v>106800</v>
       </c>
       <c r="G48" s="3">
-        <v>78500</v>
+        <v>73500</v>
       </c>
       <c r="H48" s="3">
-        <v>71900</v>
+        <v>78800</v>
       </c>
       <c r="I48" s="3">
-        <v>69500</v>
+        <v>72200</v>
       </c>
       <c r="J48" s="3">
+        <v>69800</v>
+      </c>
+      <c r="K48" s="3">
         <v>55200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>57400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>44900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>35600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>28700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>27700</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>20000</v>
       </c>
-      <c r="Q48" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="R48" s="3" t="s">
         <v>16</v>
       </c>
@@ -2762,53 +2869,56 @@
       <c r="T48" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U48" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>557400</v>
+        <v>558100</v>
       </c>
       <c r="E49" s="3">
-        <v>456500</v>
+        <v>559800</v>
       </c>
       <c r="F49" s="3">
-        <v>430100</v>
+        <v>458400</v>
       </c>
       <c r="G49" s="3">
-        <v>406100</v>
+        <v>431900</v>
       </c>
       <c r="H49" s="3">
-        <v>385900</v>
+        <v>407800</v>
       </c>
       <c r="I49" s="3">
-        <v>380500</v>
+        <v>387600</v>
       </c>
       <c r="J49" s="3">
+        <v>382200</v>
+      </c>
+      <c r="K49" s="3">
         <v>350600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>342900</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>218100</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>131900</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>105700</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>70800</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>64200</v>
       </c>
-      <c r="Q49" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="R49" s="3" t="s">
         <v>16</v>
       </c>
@@ -2818,8 +2928,11 @@
       <c r="T49" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +2987,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,53 +3046,56 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>190100</v>
+        <v>225900</v>
       </c>
       <c r="E52" s="3">
-        <v>134700</v>
+        <v>190900</v>
       </c>
       <c r="F52" s="3">
-        <v>119200</v>
+        <v>135300</v>
       </c>
       <c r="G52" s="3">
-        <v>115000</v>
+        <v>119800</v>
       </c>
       <c r="H52" s="3">
-        <v>103400</v>
+        <v>115500</v>
       </c>
       <c r="I52" s="3">
-        <v>86100</v>
+        <v>103900</v>
       </c>
       <c r="J52" s="3">
+        <v>86500</v>
+      </c>
+      <c r="K52" s="3">
         <v>71700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>29700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>10200</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>7600</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>4400</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>3100</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>1800</v>
       </c>
-      <c r="Q52" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="R52" s="3" t="s">
         <v>16</v>
       </c>
@@ -2986,8 +3105,11 @@
       <c r="T52" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U52" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,53 +3164,56 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>3703600</v>
+        <v>3646200</v>
       </c>
       <c r="E54" s="3">
-        <v>3722700</v>
+        <v>3719700</v>
       </c>
       <c r="F54" s="3">
-        <v>2399200</v>
+        <v>3738900</v>
       </c>
       <c r="G54" s="3">
-        <v>2360400</v>
+        <v>2409600</v>
       </c>
       <c r="H54" s="3">
-        <v>2411300</v>
+        <v>2370600</v>
       </c>
       <c r="I54" s="3">
-        <v>2403400</v>
+        <v>2421700</v>
       </c>
       <c r="J54" s="3">
+        <v>2413900</v>
+      </c>
+      <c r="K54" s="3">
         <v>1623700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1523500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1069000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1020200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>598900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>515500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>505500</v>
       </c>
-      <c r="Q54" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="R54" s="3" t="s">
         <v>16</v>
       </c>
@@ -3098,8 +3223,11 @@
       <c r="T54" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U54" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3248,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,53 +3271,54 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>446100</v>
+        <v>469700</v>
       </c>
       <c r="E57" s="3">
-        <v>399700</v>
+        <v>448100</v>
       </c>
       <c r="F57" s="3">
-        <v>324400</v>
+        <v>401500</v>
       </c>
       <c r="G57" s="3">
-        <v>289600</v>
+        <v>325800</v>
       </c>
       <c r="H57" s="3">
-        <v>289100</v>
+        <v>290900</v>
       </c>
       <c r="I57" s="3">
-        <v>261400</v>
+        <v>290300</v>
       </c>
       <c r="J57" s="3">
+        <v>262500</v>
+      </c>
+      <c r="K57" s="3">
         <v>216700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>189900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>146900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>135800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>124500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>88500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>81100</v>
       </c>
-      <c r="Q57" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="R57" s="3" t="s">
         <v>16</v>
       </c>
@@ -3198,35 +3328,38 @@
       <c r="T57" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U57" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>15300</v>
+      </c>
+      <c r="E58" s="3">
+        <v>15300</v>
+      </c>
+      <c r="F58" s="3">
+        <v>15300</v>
+      </c>
+      <c r="G58" s="3">
+        <v>15300</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J58" s="3">
+        <v>15300</v>
+      </c>
+      <c r="K58" s="3">
         <v>15200</v>
       </c>
-      <c r="E58" s="3">
-        <v>15200</v>
-      </c>
-      <c r="F58" s="3">
-        <v>15200</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I58" s="3">
-        <v>15200</v>
-      </c>
-      <c r="J58" s="3">
-        <v>15200</v>
-      </c>
-      <c r="K58" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="L58" s="3" t="s">
         <v>16</v>
       </c>
@@ -3236,8 +3369,8 @@
       <c r="N58" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="O58" s="3">
-        <v>0</v>
+      <c r="O58" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="P58" s="3">
         <v>0</v>
@@ -3254,53 +3387,56 @@
       <c r="T58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>605000</v>
+        <v>644300</v>
       </c>
       <c r="E59" s="3">
-        <v>433200</v>
+        <v>607600</v>
       </c>
       <c r="F59" s="3">
-        <v>391000</v>
+        <v>435100</v>
       </c>
       <c r="G59" s="3">
-        <v>360300</v>
+        <v>392700</v>
       </c>
       <c r="H59" s="3">
-        <v>335800</v>
+        <v>361900</v>
       </c>
       <c r="I59" s="3">
-        <v>303100</v>
+        <v>337200</v>
       </c>
       <c r="J59" s="3">
+        <v>304500</v>
+      </c>
+      <c r="K59" s="3">
         <v>336300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>289200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>215500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>172600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>184600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>118900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>106700</v>
       </c>
-      <c r="Q59" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="R59" s="3" t="s">
         <v>16</v>
       </c>
@@ -3310,53 +3446,56 @@
       <c r="T59" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U59" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1066300</v>
+        <v>1129300</v>
       </c>
       <c r="E60" s="3">
-        <v>848100</v>
+        <v>1071000</v>
       </c>
       <c r="F60" s="3">
-        <v>730600</v>
+        <v>851800</v>
       </c>
       <c r="G60" s="3">
-        <v>649900</v>
+        <v>733800</v>
       </c>
       <c r="H60" s="3">
-        <v>624800</v>
+        <v>652800</v>
       </c>
       <c r="I60" s="3">
-        <v>579800</v>
+        <v>627500</v>
       </c>
       <c r="J60" s="3">
+        <v>582300</v>
+      </c>
+      <c r="K60" s="3">
         <v>568200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>479100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>362400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>308400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>309100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>207500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>187800</v>
       </c>
-      <c r="Q60" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="R60" s="3" t="s">
         <v>16</v>
       </c>
@@ -3366,31 +3505,34 @@
       <c r="T60" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U60" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1323400</v>
+        <v>1274300</v>
       </c>
       <c r="E61" s="3">
-        <v>1374800</v>
+        <v>1329100</v>
       </c>
       <c r="F61" s="3">
-        <v>528000</v>
+        <v>1380700</v>
       </c>
       <c r="G61" s="3">
-        <v>519400</v>
+        <v>530300</v>
       </c>
       <c r="H61" s="3">
-        <v>526200</v>
+        <v>521700</v>
       </c>
       <c r="I61" s="3">
-        <v>510900</v>
+        <v>528500</v>
       </c>
       <c r="J61" s="3">
-        <v>0</v>
+        <v>513200</v>
       </c>
       <c r="K61" s="3">
         <v>0</v>
@@ -3422,31 +3564,34 @@
       <c r="T61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>34500</v>
+        <v>53600</v>
       </c>
       <c r="E62" s="3">
-        <v>30100</v>
+        <v>34700</v>
       </c>
       <c r="F62" s="3">
-        <v>26400</v>
+        <v>30200</v>
       </c>
       <c r="G62" s="3">
-        <v>29300</v>
+        <v>26500</v>
       </c>
       <c r="H62" s="3">
-        <v>30900</v>
+        <v>29500</v>
       </c>
       <c r="I62" s="3">
-        <v>25900</v>
-      </c>
-      <c r="J62" s="3" t="s">
-        <v>16</v>
+        <v>31000</v>
+      </c>
+      <c r="J62" s="3">
+        <v>26000</v>
       </c>
       <c r="K62" s="3" t="s">
         <v>16</v>
@@ -3460,8 +3605,8 @@
       <c r="N62" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="O62" s="3">
-        <v>0</v>
+      <c r="O62" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="P62" s="3">
         <v>0</v>
@@ -3478,8 +3623,11 @@
       <c r="T62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3682,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +3741,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,53 +3800,56 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>2454300</v>
+        <v>2485000</v>
       </c>
       <c r="E66" s="3">
-        <v>2362800</v>
+        <v>2465000</v>
       </c>
       <c r="F66" s="3">
-        <v>1395400</v>
+        <v>2373000</v>
       </c>
       <c r="G66" s="3">
-        <v>1287600</v>
+        <v>1401400</v>
       </c>
       <c r="H66" s="3">
-        <v>1263500</v>
+        <v>1293100</v>
       </c>
       <c r="I66" s="3">
-        <v>1152000</v>
+        <v>1269000</v>
       </c>
       <c r="J66" s="3">
+        <v>1157000</v>
+      </c>
+      <c r="K66" s="3">
         <v>603900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>514000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>381800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>308300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>308900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>207500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>187800</v>
       </c>
-      <c r="Q66" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="R66" s="3" t="s">
         <v>16</v>
       </c>
@@ -3702,8 +3859,11 @@
       <c r="T66" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U66" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +3884,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +3941,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4000,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3875,14 +4042,14 @@
         <v>0</v>
       </c>
       <c r="O70" s="3">
+        <v>0</v>
+      </c>
+      <c r="P70" s="3">
         <v>595900</v>
       </c>
-      <c r="P70" s="3">
+      <c r="Q70" s="3">
         <v>585800</v>
       </c>
-      <c r="Q70" s="3">
-        <v>0</v>
-      </c>
       <c r="R70" s="3">
         <v>0</v>
       </c>
@@ -3892,8 +4059,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,25 +4118,28 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D72" s="3" t="s">
-        <v>16</v>
+      <c r="D72" s="3">
+        <v>-1093500</v>
       </c>
       <c r="E72" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F72" s="3">
-        <v>-712500</v>
+      <c r="F72" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="G72" s="3">
-        <v>-628600</v>
-      </c>
-      <c r="H72" s="3" t="s">
-        <v>16</v>
+        <v>-715600</v>
+      </c>
+      <c r="H72" s="3">
+        <v>-631300</v>
       </c>
       <c r="I72" s="3" t="s">
         <v>16</v>
@@ -3974,27 +4147,27 @@
       <c r="J72" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="K72" s="3">
+      <c r="K72" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L72" s="3">
         <v>-411700</v>
       </c>
-      <c r="L72" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="M72" s="3" t="s">
         <v>16</v>
       </c>
       <c r="N72" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="O72" s="3">
+      <c r="O72" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="P72" s="3">
         <v>-329300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-311600</v>
       </c>
-      <c r="Q72" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="R72" s="3" t="s">
         <v>16</v>
       </c>
@@ -4004,8 +4177,11 @@
       <c r="T72" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U72" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4236,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4295,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,53 +4354,56 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1249300</v>
+        <v>1161200</v>
       </c>
       <c r="E76" s="3">
-        <v>1359900</v>
+        <v>1254700</v>
       </c>
       <c r="F76" s="3">
-        <v>1003800</v>
+        <v>1365800</v>
       </c>
       <c r="G76" s="3">
-        <v>1072800</v>
+        <v>1008100</v>
       </c>
       <c r="H76" s="3">
-        <v>1147700</v>
+        <v>1077500</v>
       </c>
       <c r="I76" s="3">
-        <v>1251500</v>
+        <v>1152700</v>
       </c>
       <c r="J76" s="3">
+        <v>1256900</v>
+      </c>
+      <c r="K76" s="3">
         <v>1019800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1009500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>687300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>711900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>290000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-287800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-268000</v>
       </c>
-      <c r="Q76" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="R76" s="3" t="s">
         <v>16</v>
       </c>
@@ -4228,8 +4413,11 @@
       <c r="T76" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U76" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,125 +4472,134 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43008</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42916</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42825</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42735</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-164600</v>
+        <v>-126500</v>
       </c>
       <c r="E81" s="3">
-        <v>-86200</v>
+        <v>-165300</v>
       </c>
       <c r="F81" s="3">
-        <v>-81400</v>
+        <v>-86600</v>
       </c>
       <c r="G81" s="3">
-        <v>-58200</v>
+        <v>-81800</v>
       </c>
       <c r="H81" s="3">
-        <v>-62000</v>
+        <v>-58500</v>
       </c>
       <c r="I81" s="3">
-        <v>-47600</v>
+        <v>-62200</v>
       </c>
       <c r="J81" s="3">
+        <v>-47800</v>
+      </c>
+      <c r="K81" s="3">
         <v>-28300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-26100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-34300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-10200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-17200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-17800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-12200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-36900</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-17500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-65400</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-107000</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,8 +4620,9 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4434,11 +4632,11 @@
       <c r="E83" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F83" s="3">
-        <v>52200</v>
-      </c>
-      <c r="G83" s="3" t="s">
-        <v>16</v>
+      <c r="F83" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G83" s="3">
+        <v>52400</v>
       </c>
       <c r="H83" s="3" t="s">
         <v>16</v>
@@ -4455,8 +4653,8 @@
       <c r="L83" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="M83" s="3">
-        <v>0</v>
+      <c r="M83" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="N83" s="3">
         <v>0</v>
@@ -4470,8 +4668,8 @@
       <c r="Q83" s="3">
         <v>0</v>
       </c>
-      <c r="R83" s="3" t="s">
-        <v>16</v>
+      <c r="R83" s="3">
+        <v>0</v>
       </c>
       <c r="S83" s="3" t="s">
         <v>16</v>
@@ -4479,8 +4677,11 @@
       <c r="T83" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4736,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +4795,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +4854,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +4913,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,8 +4972,11 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4770,11 +4986,11 @@
       <c r="E89" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F89" s="3">
-        <v>43900</v>
-      </c>
-      <c r="G89" s="3" t="s">
-        <v>16</v>
+      <c r="F89" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G89" s="3">
+        <v>44100</v>
       </c>
       <c r="H89" s="3" t="s">
         <v>16</v>
@@ -4791,8 +5007,8 @@
       <c r="L89" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="M89" s="3">
-        <v>0</v>
+      <c r="M89" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="N89" s="3">
         <v>0</v>
@@ -4806,8 +5022,8 @@
       <c r="Q89" s="3">
         <v>0</v>
       </c>
-      <c r="R89" s="3" t="s">
-        <v>16</v>
+      <c r="R89" s="3">
+        <v>0</v>
       </c>
       <c r="S89" s="3" t="s">
         <v>16</v>
@@ -4815,8 +5031,11 @@
       <c r="T89" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U89" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,8 +5056,9 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4848,12 +5068,12 @@
       <c r="E91" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F91" s="3">
+      <c r="F91" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G91" s="3">
         <v>-10200</v>
       </c>
-      <c r="G91" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="H91" s="3" t="s">
         <v>16</v>
       </c>
@@ -4869,8 +5089,8 @@
       <c r="L91" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="M91" s="3">
-        <v>0</v>
+      <c r="M91" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="N91" s="3">
         <v>0</v>
@@ -4884,8 +5104,8 @@
       <c r="Q91" s="3">
         <v>0</v>
       </c>
-      <c r="R91" s="3" t="s">
-        <v>16</v>
+      <c r="R91" s="3">
+        <v>0</v>
       </c>
       <c r="S91" s="3" t="s">
         <v>16</v>
@@ -4893,8 +5113,11 @@
       <c r="T91" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U91" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5172,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,8 +5231,11 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5016,11 +5245,11 @@
       <c r="E94" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F94" s="3">
-        <v>-157800</v>
-      </c>
-      <c r="G94" s="3" t="s">
-        <v>16</v>
+      <c r="F94" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G94" s="3">
+        <v>-158400</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>16</v>
@@ -5037,8 +5266,8 @@
       <c r="L94" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="M94" s="3">
-        <v>0</v>
+      <c r="M94" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="N94" s="3">
         <v>0</v>
@@ -5052,8 +5281,8 @@
       <c r="Q94" s="3">
         <v>0</v>
       </c>
-      <c r="R94" s="3" t="s">
-        <v>16</v>
+      <c r="R94" s="3">
+        <v>0</v>
       </c>
       <c r="S94" s="3" t="s">
         <v>16</v>
@@ -5061,8 +5290,11 @@
       <c r="T94" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U94" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,8 +5315,9 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5139,8 +5372,11 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5431,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5490,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,8 +5549,11 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5318,11 +5563,11 @@
       <c r="E100" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F100" s="3">
-        <v>28700</v>
-      </c>
-      <c r="G100" s="3" t="s">
-        <v>16</v>
+      <c r="F100" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G100" s="3">
+        <v>28800</v>
       </c>
       <c r="H100" s="3" t="s">
         <v>16</v>
@@ -5339,8 +5584,8 @@
       <c r="L100" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
+      <c r="M100" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="N100" s="3">
         <v>0</v>
@@ -5354,8 +5599,8 @@
       <c r="Q100" s="3">
         <v>0</v>
       </c>
-      <c r="R100" s="3" t="s">
-        <v>16</v>
+      <c r="R100" s="3">
+        <v>0</v>
       </c>
       <c r="S100" s="3" t="s">
         <v>16</v>
@@ -5363,8 +5608,11 @@
       <c r="T100" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U100" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5374,12 +5622,12 @@
       <c r="E101" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F101" s="3">
+      <c r="F101" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G101" s="3">
         <v>6400</v>
       </c>
-      <c r="G101" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="H101" s="3" t="s">
         <v>16</v>
       </c>
@@ -5395,8 +5643,8 @@
       <c r="L101" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="M101" s="3">
-        <v>0</v>
+      <c r="M101" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="N101" s="3">
         <v>0</v>
@@ -5410,8 +5658,8 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-      <c r="R101" s="3" t="s">
-        <v>16</v>
+      <c r="R101" s="3">
+        <v>0</v>
       </c>
       <c r="S101" s="3" t="s">
         <v>16</v>
@@ -5419,8 +5667,11 @@
       <c r="T101" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5430,11 +5681,11 @@
       <c r="E102" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F102" s="3">
-        <v>-78700</v>
-      </c>
-      <c r="G102" s="3" t="s">
-        <v>16</v>
+      <c r="F102" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G102" s="3">
+        <v>-79100</v>
       </c>
       <c r="H102" s="3" t="s">
         <v>16</v>
@@ -5451,8 +5702,8 @@
       <c r="L102" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="M102" s="3">
-        <v>0</v>
+      <c r="M102" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="N102" s="3">
         <v>0</v>
@@ -5466,13 +5717,16 @@
       <c r="Q102" s="3">
         <v>0</v>
       </c>
-      <c r="R102" s="3" t="s">
-        <v>16</v>
+      <c r="R102" s="3">
+        <v>0</v>
       </c>
       <c r="S102" s="3" t="s">
         <v>16</v>
       </c>
       <c r="T102" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="U102" s="3" t="s">
         <v>16</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BILI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BILI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="92">
   <si>
     <t>BILI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,269 +665,282 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43008</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42916</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42825</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42735</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>586700</v>
+        <v>608600</v>
       </c>
       <c r="E8" s="3">
-        <v>492800</v>
+        <v>599100</v>
       </c>
       <c r="F8" s="3">
-        <v>399900</v>
+        <v>503200</v>
       </c>
       <c r="G8" s="3">
-        <v>353800</v>
+        <v>408400</v>
       </c>
       <c r="H8" s="3">
-        <v>306800</v>
+        <v>361200</v>
       </c>
       <c r="I8" s="3">
-        <v>284000</v>
+        <v>313200</v>
       </c>
       <c r="J8" s="3">
+        <v>290000</v>
+      </c>
+      <c r="K8" s="3">
         <v>234900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>208900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>167800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>151000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>147300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>124500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>108900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>108000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>86500</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>61700</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>31600</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>44500</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>442500</v>
+        <v>462300</v>
       </c>
       <c r="E9" s="3">
-        <v>376500</v>
+        <v>451800</v>
       </c>
       <c r="F9" s="3">
-        <v>307600</v>
+        <v>384400</v>
       </c>
       <c r="G9" s="3">
-        <v>272700</v>
+        <v>314100</v>
       </c>
       <c r="H9" s="3">
-        <v>246000</v>
+        <v>278500</v>
       </c>
       <c r="I9" s="3">
-        <v>230300</v>
+        <v>251200</v>
       </c>
       <c r="J9" s="3">
+        <v>235200</v>
+      </c>
+      <c r="K9" s="3">
         <v>196500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>180100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>139200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>123800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>111300</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>94000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>82800</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>82100</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>66100</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>52800</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>35200</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>77100</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>144200</v>
+        <v>146300</v>
       </c>
       <c r="E10" s="3">
-        <v>116400</v>
+        <v>147300</v>
       </c>
       <c r="F10" s="3">
-        <v>92300</v>
+        <v>118800</v>
       </c>
       <c r="G10" s="3">
-        <v>81000</v>
+        <v>94200</v>
       </c>
       <c r="H10" s="3">
-        <v>60800</v>
+        <v>82800</v>
       </c>
       <c r="I10" s="3">
-        <v>53700</v>
+        <v>62100</v>
       </c>
       <c r="J10" s="3">
+        <v>54800</v>
+      </c>
+      <c r="K10" s="3">
         <v>38500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>28800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>28600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>27200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>36000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>30600</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>26100</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>25900</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>20400</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>8900</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>-3600</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>-32700</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -949,67 +962,71 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>73900</v>
+        <v>90500</v>
       </c>
       <c r="E12" s="3">
-        <v>61300</v>
+        <v>75500</v>
       </c>
       <c r="F12" s="3">
-        <v>50500</v>
+        <v>62600</v>
       </c>
       <c r="G12" s="3">
-        <v>45400</v>
+        <v>51600</v>
       </c>
       <c r="H12" s="3">
-        <v>37500</v>
+        <v>46400</v>
       </c>
       <c r="I12" s="3">
-        <v>37800</v>
+        <v>38200</v>
       </c>
       <c r="J12" s="3">
+        <v>38600</v>
+      </c>
+      <c r="K12" s="3">
         <v>33000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>28300</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>22300</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>20500</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>18900</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>15200</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>12900</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>11100</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>9400</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>8000</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>4300</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>9000</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1067,8 +1084,11 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1126,8 +1146,11 @@
       <c r="U14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1185,8 +1208,11 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1205,126 +1231,133 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>724700</v>
+        <v>769400</v>
       </c>
       <c r="E17" s="3">
-        <v>658300</v>
+        <v>740000</v>
       </c>
       <c r="F17" s="3">
-        <v>493100</v>
+        <v>672200</v>
       </c>
       <c r="G17" s="3">
-        <v>436900</v>
+        <v>503600</v>
       </c>
       <c r="H17" s="3">
-        <v>370900</v>
+        <v>446100</v>
       </c>
       <c r="I17" s="3">
-        <v>348700</v>
+        <v>378700</v>
       </c>
       <c r="J17" s="3">
+        <v>356000</v>
+      </c>
+      <c r="K17" s="3">
         <v>287700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>255600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>209800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>187200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>162600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>135200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>118100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>112700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>94300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>73000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>87300</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>118900</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>-138000</v>
+        <v>-160800</v>
       </c>
       <c r="E18" s="3">
-        <v>-165500</v>
+        <v>-140900</v>
       </c>
       <c r="F18" s="3">
-        <v>-93200</v>
+        <v>-169000</v>
       </c>
       <c r="G18" s="3">
-        <v>-83100</v>
+        <v>-95200</v>
       </c>
       <c r="H18" s="3">
-        <v>-64200</v>
+        <v>-84900</v>
       </c>
       <c r="I18" s="3">
-        <v>-64600</v>
+        <v>-65500</v>
       </c>
       <c r="J18" s="3">
+        <v>-66000</v>
+      </c>
+      <c r="K18" s="3">
         <v>-52800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-46700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-41900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-36300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-15300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-10700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-9200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-4700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-7800</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-11300</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-55700</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-74500</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1346,67 +1379,71 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>16700</v>
+        <v>26800</v>
       </c>
       <c r="E20" s="3">
-        <v>5400</v>
+        <v>17000</v>
       </c>
       <c r="F20" s="3">
-        <v>11300</v>
+        <v>5600</v>
       </c>
       <c r="G20" s="3">
-        <v>4600</v>
+        <v>11500</v>
       </c>
       <c r="H20" s="3">
-        <v>8300</v>
+        <v>4700</v>
       </c>
       <c r="I20" s="3">
-        <v>6300</v>
+        <v>8500</v>
       </c>
       <c r="J20" s="3">
+        <v>6500</v>
+      </c>
+      <c r="K20" s="3">
         <v>9000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>18100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>15500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>3400</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>5600</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>2800</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>1900</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>2900</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>700</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>1800</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-1900</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
@@ -1419,11 +1456,11 @@
       <c r="F21" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G21" s="3">
-        <v>-26100</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>16</v>
+      <c r="G21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H21" s="3">
+        <v>-26700</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>16</v>
@@ -1446,53 +1483,56 @@
       <c r="O21" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="P21" s="3">
+      <c r="P21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q21" s="3">
         <v>37900</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>27000</v>
       </c>
-      <c r="R21" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="S21" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="T21" s="3">
+      <c r="T21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="U21" s="3">
         <v>-34100</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-58200</v>
       </c>
     </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>5300</v>
+        <v>5200</v>
       </c>
       <c r="E22" s="3">
-        <v>5500</v>
+        <v>5400</v>
       </c>
       <c r="F22" s="3">
+        <v>5600</v>
+      </c>
+      <c r="G22" s="3">
         <v>3500</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
+        <v>2400</v>
+      </c>
+      <c r="I22" s="3">
         <v>2300</v>
       </c>
-      <c r="H22" s="3">
-        <v>2300</v>
-      </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>2500</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>2400</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="L22" s="3" t="s">
         <v>16</v>
       </c>
@@ -1505,8 +1545,8 @@
       <c r="O22" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="P22" s="3">
-        <v>0</v>
+      <c r="P22" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="Q22" s="3">
         <v>0</v>
@@ -1523,111 +1563,117 @@
       <c r="U22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-126600</v>
+        <v>-139200</v>
       </c>
       <c r="E23" s="3">
-        <v>-165600</v>
+        <v>-129300</v>
       </c>
       <c r="F23" s="3">
-        <v>-85400</v>
+        <v>-169100</v>
       </c>
       <c r="G23" s="3">
-        <v>-80800</v>
+        <v>-87200</v>
       </c>
       <c r="H23" s="3">
-        <v>-58100</v>
+        <v>-82600</v>
       </c>
       <c r="I23" s="3">
-        <v>-60700</v>
+        <v>-59300</v>
       </c>
       <c r="J23" s="3">
+        <v>-62000</v>
+      </c>
+      <c r="K23" s="3">
         <v>-46200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-28500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-26400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-32900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-9700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-7800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-7300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-1800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-7100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-9500</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-57600</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-74500</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E24" s="3">
         <v>2300</v>
       </c>
-      <c r="E24" s="3">
-        <v>2600</v>
-      </c>
       <c r="F24" s="3">
-        <v>1800</v>
+        <v>2700</v>
       </c>
       <c r="G24" s="3">
-        <v>1400</v>
+        <v>1900</v>
       </c>
       <c r="H24" s="3">
+        <v>1500</v>
+      </c>
+      <c r="I24" s="3">
         <v>1100</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
+        <v>1300</v>
+      </c>
+      <c r="K24" s="3">
+        <v>1900</v>
+      </c>
+      <c r="L24" s="3">
         <v>1200</v>
       </c>
-      <c r="J24" s="3">
-        <v>1900</v>
-      </c>
-      <c r="K24" s="3">
-        <v>1200</v>
-      </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>1300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>1600</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>300</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>500</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>400</v>
-      </c>
-      <c r="Q24" s="3">
-        <v>300</v>
       </c>
       <c r="R24" s="3">
         <v>300</v>
@@ -1636,13 +1682,16 @@
         <v>300</v>
       </c>
       <c r="T24" s="3">
+        <v>300</v>
+      </c>
+      <c r="U24" s="3">
         <v>500</v>
       </c>
-      <c r="U24" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1700,126 +1749,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-128900</v>
+        <v>-141200</v>
       </c>
       <c r="E26" s="3">
-        <v>-168200</v>
+        <v>-131600</v>
       </c>
       <c r="F26" s="3">
-        <v>-87200</v>
+        <v>-171800</v>
       </c>
       <c r="G26" s="3">
-        <v>-82300</v>
+        <v>-89100</v>
       </c>
       <c r="H26" s="3">
-        <v>-59200</v>
+        <v>-84000</v>
       </c>
       <c r="I26" s="3">
-        <v>-62000</v>
+        <v>-60400</v>
       </c>
       <c r="J26" s="3">
+        <v>-63300</v>
+      </c>
+      <c r="K26" s="3">
         <v>-48100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-29800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-27700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-34400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-10100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-8300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-7600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-2200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-7500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-9800</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-58000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-74500</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-126500</v>
+        <v>-141000</v>
       </c>
       <c r="E27" s="3">
-        <v>-165300</v>
+        <v>-129100</v>
       </c>
       <c r="F27" s="3">
-        <v>-86600</v>
+        <v>-168800</v>
       </c>
       <c r="G27" s="3">
-        <v>-81800</v>
+        <v>-88400</v>
       </c>
       <c r="H27" s="3">
-        <v>-58500</v>
+        <v>-83500</v>
       </c>
       <c r="I27" s="3">
-        <v>-62200</v>
+        <v>-59700</v>
       </c>
       <c r="J27" s="3">
+        <v>-63600</v>
+      </c>
+      <c r="K27" s="3">
         <v>-47800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-28300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-26100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-34300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-10200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-17200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-17800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-12200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-36900</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-17500</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-65400</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-107000</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1877,8 +1935,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1936,8 +1997,11 @@
       <c r="U29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1995,8 +2059,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2054,126 +2121,135 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-16700</v>
+        <v>-26800</v>
       </c>
       <c r="E32" s="3">
-        <v>-5400</v>
+        <v>-17000</v>
       </c>
       <c r="F32" s="3">
-        <v>-11300</v>
+        <v>-5600</v>
       </c>
       <c r="G32" s="3">
-        <v>-4600</v>
+        <v>-11500</v>
       </c>
       <c r="H32" s="3">
-        <v>-8300</v>
+        <v>-4700</v>
       </c>
       <c r="I32" s="3">
-        <v>-6300</v>
+        <v>-8500</v>
       </c>
       <c r="J32" s="3">
+        <v>-6500</v>
+      </c>
+      <c r="K32" s="3">
         <v>-9000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-18100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-15500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-3400</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-5600</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-2800</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-1900</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-2900</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-700</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-1800</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>1900</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-126500</v>
+        <v>-141000</v>
       </c>
       <c r="E33" s="3">
-        <v>-165300</v>
+        <v>-129100</v>
       </c>
       <c r="F33" s="3">
-        <v>-86600</v>
+        <v>-168800</v>
       </c>
       <c r="G33" s="3">
-        <v>-81800</v>
+        <v>-88400</v>
       </c>
       <c r="H33" s="3">
-        <v>-58500</v>
+        <v>-83500</v>
       </c>
       <c r="I33" s="3">
-        <v>-62200</v>
+        <v>-59700</v>
       </c>
       <c r="J33" s="3">
+        <v>-63600</v>
+      </c>
+      <c r="K33" s="3">
         <v>-47800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-28300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-26100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-34300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-10200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-17200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-17800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-12200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-36900</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-17500</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-65400</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-107000</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2231,131 +2307,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-126500</v>
+        <v>-141000</v>
       </c>
       <c r="E35" s="3">
-        <v>-165300</v>
+        <v>-129100</v>
       </c>
       <c r="F35" s="3">
-        <v>-86600</v>
+        <v>-168800</v>
       </c>
       <c r="G35" s="3">
-        <v>-81800</v>
+        <v>-88400</v>
       </c>
       <c r="H35" s="3">
-        <v>-58500</v>
+        <v>-83500</v>
       </c>
       <c r="I35" s="3">
-        <v>-62200</v>
+        <v>-59700</v>
       </c>
       <c r="J35" s="3">
+        <v>-63600</v>
+      </c>
+      <c r="K35" s="3">
         <v>-47800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-28300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-26100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-34300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-10200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-17200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-17800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-12200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-36900</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-17500</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-65400</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-107000</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43008</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42916</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42825</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42735</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2377,8 +2462,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2400,56 +2486,57 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>714700</v>
+        <v>2746000</v>
       </c>
       <c r="E41" s="3">
-        <v>905600</v>
+        <v>729800</v>
       </c>
       <c r="F41" s="3">
-        <v>931100</v>
+        <v>924700</v>
       </c>
       <c r="G41" s="3">
-        <v>679100</v>
+        <v>950800</v>
       </c>
       <c r="H41" s="3">
-        <v>758200</v>
+        <v>693500</v>
       </c>
       <c r="I41" s="3">
-        <v>638500</v>
+        <v>774200</v>
       </c>
       <c r="J41" s="3">
+        <v>652000</v>
+      </c>
+      <c r="K41" s="3">
         <v>711800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>412900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>514100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>337000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>520100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>150800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>113200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>58700</v>
       </c>
-      <c r="R41" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="S41" s="3" t="s">
         <v>16</v>
       </c>
@@ -2459,56 +2546,59 @@
       <c r="U41" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V41" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>1241900</v>
+        <v>1472100</v>
       </c>
       <c r="E42" s="3">
-        <v>1248500</v>
+        <v>1268200</v>
       </c>
       <c r="F42" s="3">
-        <v>1445600</v>
+        <v>1274900</v>
       </c>
       <c r="G42" s="3">
-        <v>539600</v>
+        <v>1476100</v>
       </c>
       <c r="H42" s="3">
-        <v>474400</v>
+        <v>551100</v>
       </c>
       <c r="I42" s="3">
-        <v>643900</v>
+        <v>484500</v>
       </c>
       <c r="J42" s="3">
+        <v>657600</v>
+      </c>
+      <c r="K42" s="3">
         <v>596400</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>278200</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>246100</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>150600</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>49900</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>32800</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>75000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>159200</v>
       </c>
-      <c r="R42" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="S42" s="3" t="s">
         <v>16</v>
       </c>
@@ -2518,56 +2608,59 @@
       <c r="U42" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>215800</v>
+        <v>170500</v>
       </c>
       <c r="E43" s="3">
-        <v>181200</v>
+        <v>220400</v>
       </c>
       <c r="F43" s="3">
-        <v>118100</v>
+        <v>185100</v>
       </c>
       <c r="G43" s="3">
-        <v>169500</v>
+        <v>120600</v>
       </c>
       <c r="H43" s="3">
-        <v>143600</v>
+        <v>173100</v>
       </c>
       <c r="I43" s="3">
-        <v>109400</v>
+        <v>146700</v>
       </c>
       <c r="J43" s="3">
+        <v>111700</v>
+      </c>
+      <c r="K43" s="3">
         <v>70700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>86000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>47100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>55900</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>54500</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>65400</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>67500</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>61600</v>
       </c>
-      <c r="R43" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="S43" s="3" t="s">
         <v>16</v>
       </c>
@@ -2577,25 +2670,28 @@
       <c r="U43" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V43" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D44" s="3">
-        <v>24400</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>16</v>
+      <c r="D44" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E44" s="3">
+        <v>25000</v>
       </c>
       <c r="F44" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G44" s="3">
-        <v>6500</v>
-      </c>
-      <c r="H44" s="3" t="s">
-        <v>16</v>
+      <c r="G44" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H44" s="3">
+        <v>6600</v>
       </c>
       <c r="I44" s="3" t="s">
         <v>16</v>
@@ -2618,15 +2714,15 @@
       <c r="O44" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="P44" s="3">
+      <c r="P44" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q44" s="3">
         <v>1500</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>1300</v>
       </c>
-      <c r="R44" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="S44" s="3" t="s">
         <v>16</v>
       </c>
@@ -2636,56 +2732,59 @@
       <c r="U44" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V44" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>207800</v>
+        <v>532700</v>
       </c>
       <c r="E45" s="3">
-        <v>276700</v>
+        <v>212200</v>
       </c>
       <c r="F45" s="3">
-        <v>295700</v>
+        <v>282500</v>
       </c>
       <c r="G45" s="3">
-        <v>168600</v>
+        <v>301900</v>
       </c>
       <c r="H45" s="3">
-        <v>201000</v>
+        <v>172200</v>
       </c>
       <c r="I45" s="3">
-        <v>249000</v>
+        <v>205300</v>
       </c>
       <c r="J45" s="3">
+        <v>254300</v>
+      </c>
+      <c r="K45" s="3">
         <v>252000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>182300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>143900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>111900</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>103000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>104400</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>62300</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>58500</v>
       </c>
-      <c r="R45" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="S45" s="3" t="s">
         <v>16</v>
       </c>
@@ -2695,56 +2794,59 @@
       <c r="U45" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V45" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>2404700</v>
+        <v>4921300</v>
       </c>
       <c r="E46" s="3">
-        <v>2612000</v>
+        <v>2455500</v>
       </c>
       <c r="F46" s="3">
-        <v>2790500</v>
+        <v>2667200</v>
       </c>
       <c r="G46" s="3">
-        <v>1563500</v>
+        <v>2849500</v>
       </c>
       <c r="H46" s="3">
-        <v>1577300</v>
+        <v>1596500</v>
       </c>
       <c r="I46" s="3">
-        <v>1640900</v>
+        <v>1610700</v>
       </c>
       <c r="J46" s="3">
+        <v>1675500</v>
+      </c>
+      <c r="K46" s="3">
         <v>1630900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>959400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>951300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>655400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>727500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>353400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>319500</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>339400</v>
       </c>
-      <c r="R46" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="S46" s="3" t="s">
         <v>16</v>
       </c>
@@ -2754,56 +2856,59 @@
       <c r="U46" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V46" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>341100</v>
+        <v>338200</v>
       </c>
       <c r="E47" s="3">
-        <v>236600</v>
+        <v>348400</v>
       </c>
       <c r="F47" s="3">
-        <v>247900</v>
+        <v>241600</v>
       </c>
       <c r="G47" s="3">
-        <v>220900</v>
+        <v>253100</v>
       </c>
       <c r="H47" s="3">
-        <v>191100</v>
+        <v>225600</v>
       </c>
       <c r="I47" s="3">
-        <v>217200</v>
+        <v>195200</v>
       </c>
       <c r="J47" s="3">
+        <v>221700</v>
+      </c>
+      <c r="K47" s="3">
         <v>244600</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>186800</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>142300</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>140400</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>117600</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>106800</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>94400</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>80100</v>
       </c>
-      <c r="R47" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="S47" s="3" t="s">
         <v>16</v>
       </c>
@@ -2813,56 +2918,59 @@
       <c r="U47" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>116400</v>
+        <v>140600</v>
       </c>
       <c r="E48" s="3">
-        <v>120300</v>
+        <v>118900</v>
       </c>
       <c r="F48" s="3">
-        <v>106800</v>
+        <v>122900</v>
       </c>
       <c r="G48" s="3">
-        <v>73500</v>
+        <v>109000</v>
       </c>
       <c r="H48" s="3">
-        <v>78800</v>
+        <v>75100</v>
       </c>
       <c r="I48" s="3">
-        <v>72200</v>
+        <v>80500</v>
       </c>
       <c r="J48" s="3">
+        <v>73700</v>
+      </c>
+      <c r="K48" s="3">
         <v>69800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>55200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>57400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>44900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>35600</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>28700</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>27700</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>20000</v>
       </c>
-      <c r="R48" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="S48" s="3" t="s">
         <v>16</v>
       </c>
@@ -2872,56 +2980,59 @@
       <c r="U48" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V48" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>558100</v>
+        <v>688300</v>
       </c>
       <c r="E49" s="3">
-        <v>559800</v>
+        <v>569900</v>
       </c>
       <c r="F49" s="3">
-        <v>458400</v>
+        <v>571600</v>
       </c>
       <c r="G49" s="3">
-        <v>431900</v>
+        <v>468100</v>
       </c>
       <c r="H49" s="3">
-        <v>407800</v>
+        <v>441100</v>
       </c>
       <c r="I49" s="3">
-        <v>387600</v>
+        <v>416400</v>
       </c>
       <c r="J49" s="3">
+        <v>395800</v>
+      </c>
+      <c r="K49" s="3">
         <v>382200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>350600</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>342900</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>218100</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>131900</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>105700</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>70800</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>64200</v>
       </c>
-      <c r="R49" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="S49" s="3" t="s">
         <v>16</v>
       </c>
@@ -2931,8 +3042,11 @@
       <c r="U49" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V49" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2990,8 +3104,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3049,56 +3166,59 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>225900</v>
+        <v>215800</v>
       </c>
       <c r="E52" s="3">
-        <v>190900</v>
+        <v>230700</v>
       </c>
       <c r="F52" s="3">
-        <v>135300</v>
+        <v>195000</v>
       </c>
       <c r="G52" s="3">
-        <v>119800</v>
+        <v>138100</v>
       </c>
       <c r="H52" s="3">
-        <v>115500</v>
+        <v>122300</v>
       </c>
       <c r="I52" s="3">
-        <v>103900</v>
+        <v>117900</v>
       </c>
       <c r="J52" s="3">
+        <v>106100</v>
+      </c>
+      <c r="K52" s="3">
         <v>86500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>71700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>29700</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>10200</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>7600</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>4400</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>3100</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>1800</v>
       </c>
-      <c r="R52" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="S52" s="3" t="s">
         <v>16</v>
       </c>
@@ -3108,8 +3228,11 @@
       <c r="U52" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V52" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3167,56 +3290,59 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>3646200</v>
+        <v>6304200</v>
       </c>
       <c r="E54" s="3">
-        <v>3719700</v>
+        <v>3723300</v>
       </c>
       <c r="F54" s="3">
-        <v>3738900</v>
+        <v>3798300</v>
       </c>
       <c r="G54" s="3">
-        <v>2409600</v>
+        <v>3817900</v>
       </c>
       <c r="H54" s="3">
-        <v>2370600</v>
+        <v>2460500</v>
       </c>
       <c r="I54" s="3">
-        <v>2421700</v>
+        <v>2420700</v>
       </c>
       <c r="J54" s="3">
+        <v>2472900</v>
+      </c>
+      <c r="K54" s="3">
         <v>2413900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1623700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1523500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1069000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1020200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>598900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>515500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>505500</v>
       </c>
-      <c r="R54" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="S54" s="3" t="s">
         <v>16</v>
       </c>
@@ -3226,8 +3352,11 @@
       <c r="U54" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V54" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3249,8 +3378,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3272,56 +3402,57 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>469700</v>
+        <v>483600</v>
       </c>
       <c r="E57" s="3">
-        <v>448100</v>
+        <v>479600</v>
       </c>
       <c r="F57" s="3">
-        <v>401500</v>
+        <v>457500</v>
       </c>
       <c r="G57" s="3">
-        <v>325800</v>
+        <v>410000</v>
       </c>
       <c r="H57" s="3">
-        <v>290900</v>
+        <v>332700</v>
       </c>
       <c r="I57" s="3">
-        <v>290300</v>
+        <v>297000</v>
       </c>
       <c r="J57" s="3">
+        <v>296500</v>
+      </c>
+      <c r="K57" s="3">
         <v>262500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>216700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>189900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>146900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>135800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>124500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>88500</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>81100</v>
       </c>
-      <c r="R57" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="S57" s="3" t="s">
         <v>16</v>
       </c>
@@ -3331,38 +3462,41 @@
       <c r="U57" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V57" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>15600</v>
+      </c>
+      <c r="E58" s="3">
+        <v>15600</v>
+      </c>
+      <c r="F58" s="3">
+        <v>15600</v>
+      </c>
+      <c r="G58" s="3">
+        <v>15600</v>
+      </c>
+      <c r="H58" s="3">
+        <v>15600</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J58" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K58" s="3">
         <v>15300</v>
       </c>
-      <c r="E58" s="3">
-        <v>15300</v>
-      </c>
-      <c r="F58" s="3">
-        <v>15300</v>
-      </c>
-      <c r="G58" s="3">
-        <v>15300</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J58" s="3">
-        <v>15300</v>
-      </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>15200</v>
       </c>
-      <c r="L58" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="M58" s="3" t="s">
         <v>16</v>
       </c>
@@ -3372,8 +3506,8 @@
       <c r="O58" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="P58" s="3">
-        <v>0</v>
+      <c r="P58" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="Q58" s="3">
         <v>0</v>
@@ -3390,56 +3524,59 @@
       <c r="U58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>644300</v>
+        <v>677400</v>
       </c>
       <c r="E59" s="3">
-        <v>607600</v>
+        <v>657900</v>
       </c>
       <c r="F59" s="3">
-        <v>435100</v>
+        <v>620400</v>
       </c>
       <c r="G59" s="3">
-        <v>392700</v>
+        <v>444300</v>
       </c>
       <c r="H59" s="3">
-        <v>361900</v>
+        <v>401000</v>
       </c>
       <c r="I59" s="3">
-        <v>337200</v>
+        <v>369500</v>
       </c>
       <c r="J59" s="3">
+        <v>344300</v>
+      </c>
+      <c r="K59" s="3">
         <v>304500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>336300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>289200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>215500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>172600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>184600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>118900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>106700</v>
       </c>
-      <c r="R59" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="S59" s="3" t="s">
         <v>16</v>
       </c>
@@ -3449,56 +3586,59 @@
       <c r="U59" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V59" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1129300</v>
+        <v>1176600</v>
       </c>
       <c r="E60" s="3">
-        <v>1071000</v>
+        <v>1153200</v>
       </c>
       <c r="F60" s="3">
-        <v>851800</v>
+        <v>1093600</v>
       </c>
       <c r="G60" s="3">
-        <v>733800</v>
+        <v>869800</v>
       </c>
       <c r="H60" s="3">
-        <v>652800</v>
+        <v>749300</v>
       </c>
       <c r="I60" s="3">
-        <v>627500</v>
+        <v>666600</v>
       </c>
       <c r="J60" s="3">
+        <v>640800</v>
+      </c>
+      <c r="K60" s="3">
         <v>582300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>568200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>479100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>362400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>308400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>309100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>207500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>187800</v>
       </c>
-      <c r="R60" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="S60" s="3" t="s">
         <v>16</v>
       </c>
@@ -3508,35 +3648,38 @@
       <c r="U60" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V60" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1274300</v>
+        <v>1296800</v>
       </c>
       <c r="E61" s="3">
-        <v>1329100</v>
+        <v>1301300</v>
       </c>
       <c r="F61" s="3">
-        <v>1380700</v>
+        <v>1357200</v>
       </c>
       <c r="G61" s="3">
-        <v>530300</v>
+        <v>1409900</v>
       </c>
       <c r="H61" s="3">
-        <v>521700</v>
+        <v>541500</v>
       </c>
       <c r="I61" s="3">
-        <v>528500</v>
+        <v>532700</v>
       </c>
       <c r="J61" s="3">
+        <v>539700</v>
+      </c>
+      <c r="K61" s="3">
         <v>513200</v>
       </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
       <c r="L61" s="3">
         <v>0</v>
       </c>
@@ -3567,35 +3710,38 @@
       <c r="U61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>53600</v>
+        <v>49200</v>
       </c>
       <c r="E62" s="3">
-        <v>34700</v>
+        <v>54700</v>
       </c>
       <c r="F62" s="3">
-        <v>30200</v>
+        <v>35400</v>
       </c>
       <c r="G62" s="3">
-        <v>26500</v>
+        <v>30800</v>
       </c>
       <c r="H62" s="3">
-        <v>29500</v>
+        <v>27100</v>
       </c>
       <c r="I62" s="3">
-        <v>31000</v>
+        <v>30100</v>
       </c>
       <c r="J62" s="3">
+        <v>31700</v>
+      </c>
+      <c r="K62" s="3">
         <v>26000</v>
       </c>
-      <c r="K62" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="L62" s="3" t="s">
         <v>16</v>
       </c>
@@ -3608,8 +3754,8 @@
       <c r="O62" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="P62" s="3">
-        <v>0</v>
+      <c r="P62" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="Q62" s="3">
         <v>0</v>
@@ -3626,8 +3772,11 @@
       <c r="U62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3685,8 +3834,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3744,8 +3896,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3803,56 +3958,59 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>2485000</v>
+        <v>2548800</v>
       </c>
       <c r="E66" s="3">
-        <v>2465000</v>
+        <v>2537600</v>
       </c>
       <c r="F66" s="3">
-        <v>2373000</v>
+        <v>2517100</v>
       </c>
       <c r="G66" s="3">
-        <v>1401400</v>
+        <v>2423200</v>
       </c>
       <c r="H66" s="3">
-        <v>1293100</v>
+        <v>1431100</v>
       </c>
       <c r="I66" s="3">
-        <v>1269000</v>
+        <v>1320500</v>
       </c>
       <c r="J66" s="3">
+        <v>1295800</v>
+      </c>
+      <c r="K66" s="3">
         <v>1157000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>603900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>514000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>381800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>308300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>308900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>207500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>187800</v>
       </c>
-      <c r="R66" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="S66" s="3" t="s">
         <v>16</v>
       </c>
@@ -3862,8 +4020,11 @@
       <c r="U66" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V66" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3885,8 +4046,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3944,8 +4106,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4003,8 +4168,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4045,14 +4213,14 @@
         <v>0</v>
       </c>
       <c r="P70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q70" s="3">
         <v>595900</v>
       </c>
-      <c r="Q70" s="3">
+      <c r="R70" s="3">
         <v>585800</v>
       </c>
-      <c r="R70" s="3">
-        <v>0</v>
-      </c>
       <c r="S70" s="3">
         <v>0</v>
       </c>
@@ -4062,8 +4230,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4121,28 +4292,31 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D72" s="3">
-        <v>-1093500</v>
-      </c>
-      <c r="E72" s="3" t="s">
-        <v>16</v>
+      <c r="D72" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-1116600</v>
       </c>
       <c r="F72" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G72" s="3">
-        <v>-715600</v>
+      <c r="G72" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="H72" s="3">
-        <v>-631300</v>
-      </c>
-      <c r="I72" s="3" t="s">
-        <v>16</v>
+        <v>-730800</v>
+      </c>
+      <c r="I72" s="3">
+        <v>-644700</v>
       </c>
       <c r="J72" s="3" t="s">
         <v>16</v>
@@ -4150,27 +4324,27 @@
       <c r="K72" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="L72" s="3">
+      <c r="L72" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M72" s="3">
         <v>-411700</v>
       </c>
-      <c r="M72" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="N72" s="3" t="s">
         <v>16</v>
       </c>
       <c r="O72" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="P72" s="3">
+      <c r="P72" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q72" s="3">
         <v>-329300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-311600</v>
       </c>
-      <c r="R72" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="S72" s="3" t="s">
         <v>16</v>
       </c>
@@ -4180,8 +4354,11 @@
       <c r="U72" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V72" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4239,8 +4416,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4298,8 +4478,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4357,56 +4540,59 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1161200</v>
+        <v>3755300</v>
       </c>
       <c r="E76" s="3">
-        <v>1254700</v>
+        <v>1185700</v>
       </c>
       <c r="F76" s="3">
-        <v>1365800</v>
+        <v>1281200</v>
       </c>
       <c r="G76" s="3">
-        <v>1008100</v>
+        <v>1394700</v>
       </c>
       <c r="H76" s="3">
-        <v>1077500</v>
+        <v>1029500</v>
       </c>
       <c r="I76" s="3">
-        <v>1152700</v>
+        <v>1100300</v>
       </c>
       <c r="J76" s="3">
+        <v>1177100</v>
+      </c>
+      <c r="K76" s="3">
         <v>1256900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1019800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1009500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>687300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>711900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>290000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-287800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-268000</v>
       </c>
-      <c r="R76" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="S76" s="3" t="s">
         <v>16</v>
       </c>
@@ -4416,8 +4602,11 @@
       <c r="U76" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V76" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4475,131 +4664,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43008</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42916</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42825</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42735</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-126500</v>
+        <v>-141000</v>
       </c>
       <c r="E81" s="3">
-        <v>-165300</v>
+        <v>-129100</v>
       </c>
       <c r="F81" s="3">
-        <v>-86600</v>
+        <v>-168800</v>
       </c>
       <c r="G81" s="3">
-        <v>-81800</v>
+        <v>-88400</v>
       </c>
       <c r="H81" s="3">
-        <v>-58500</v>
+        <v>-83500</v>
       </c>
       <c r="I81" s="3">
-        <v>-62200</v>
+        <v>-59700</v>
       </c>
       <c r="J81" s="3">
+        <v>-63600</v>
+      </c>
+      <c r="K81" s="3">
         <v>-47800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-28300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-26100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-34300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-10200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-17200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-17800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-12200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-36900</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-17500</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-65400</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-107000</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4621,8 +4819,9 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4635,11 +4834,11 @@
       <c r="F83" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G83" s="3">
-        <v>52400</v>
-      </c>
-      <c r="H83" s="3" t="s">
-        <v>16</v>
+      <c r="G83" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H83" s="3">
+        <v>53500</v>
       </c>
       <c r="I83" s="3" t="s">
         <v>16</v>
@@ -4656,8 +4855,8 @@
       <c r="M83" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="N83" s="3">
-        <v>0</v>
+      <c r="N83" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="O83" s="3">
         <v>0</v>
@@ -4671,8 +4870,8 @@
       <c r="R83" s="3">
         <v>0</v>
       </c>
-      <c r="S83" s="3" t="s">
-        <v>16</v>
+      <c r="S83" s="3">
+        <v>0</v>
       </c>
       <c r="T83" s="3" t="s">
         <v>16</v>
@@ -4680,8 +4879,11 @@
       <c r="U83" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V83" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4739,8 +4941,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4798,8 +5003,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4857,8 +5065,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4916,8 +5127,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4975,8 +5189,11 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4989,11 +5206,11 @@
       <c r="F89" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G89" s="3">
-        <v>44100</v>
-      </c>
-      <c r="H89" s="3" t="s">
-        <v>16</v>
+      <c r="G89" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H89" s="3">
+        <v>45000</v>
       </c>
       <c r="I89" s="3" t="s">
         <v>16</v>
@@ -5010,8 +5227,8 @@
       <c r="M89" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="N89" s="3">
-        <v>0</v>
+      <c r="N89" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="O89" s="3">
         <v>0</v>
@@ -5025,8 +5242,8 @@
       <c r="R89" s="3">
         <v>0</v>
       </c>
-      <c r="S89" s="3" t="s">
-        <v>16</v>
+      <c r="S89" s="3">
+        <v>0</v>
       </c>
       <c r="T89" s="3" t="s">
         <v>16</v>
@@ -5034,8 +5251,11 @@
       <c r="U89" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V89" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5057,8 +5277,9 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5071,11 +5292,11 @@
       <c r="F91" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G91" s="3">
-        <v>-10200</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>16</v>
+      <c r="G91" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H91" s="3">
+        <v>-10400</v>
       </c>
       <c r="I91" s="3" t="s">
         <v>16</v>
@@ -5092,8 +5313,8 @@
       <c r="M91" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="N91" s="3">
-        <v>0</v>
+      <c r="N91" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="O91" s="3">
         <v>0</v>
@@ -5107,8 +5328,8 @@
       <c r="R91" s="3">
         <v>0</v>
       </c>
-      <c r="S91" s="3" t="s">
-        <v>16</v>
+      <c r="S91" s="3">
+        <v>0</v>
       </c>
       <c r="T91" s="3" t="s">
         <v>16</v>
@@ -5116,8 +5337,11 @@
       <c r="U91" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V91" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5175,8 +5399,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5234,8 +5461,11 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5248,11 +5478,11 @@
       <c r="F94" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G94" s="3">
-        <v>-158400</v>
-      </c>
-      <c r="H94" s="3" t="s">
-        <v>16</v>
+      <c r="G94" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H94" s="3">
+        <v>-161800</v>
       </c>
       <c r="I94" s="3" t="s">
         <v>16</v>
@@ -5269,8 +5499,8 @@
       <c r="M94" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="N94" s="3">
-        <v>0</v>
+      <c r="N94" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="O94" s="3">
         <v>0</v>
@@ -5284,8 +5514,8 @@
       <c r="R94" s="3">
         <v>0</v>
       </c>
-      <c r="S94" s="3" t="s">
-        <v>16</v>
+      <c r="S94" s="3">
+        <v>0</v>
       </c>
       <c r="T94" s="3" t="s">
         <v>16</v>
@@ -5293,8 +5523,11 @@
       <c r="U94" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V94" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5316,8 +5549,9 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5375,8 +5609,11 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5434,8 +5671,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5493,8 +5733,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5552,8 +5795,11 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5566,11 +5812,11 @@
       <c r="F100" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G100" s="3">
-        <v>28800</v>
-      </c>
-      <c r="H100" s="3" t="s">
-        <v>16</v>
+      <c r="G100" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H100" s="3">
+        <v>29500</v>
       </c>
       <c r="I100" s="3" t="s">
         <v>16</v>
@@ -5587,8 +5833,8 @@
       <c r="M100" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
+      <c r="N100" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="O100" s="3">
         <v>0</v>
@@ -5602,8 +5848,8 @@
       <c r="R100" s="3">
         <v>0</v>
       </c>
-      <c r="S100" s="3" t="s">
-        <v>16</v>
+      <c r="S100" s="3">
+        <v>0</v>
       </c>
       <c r="T100" s="3" t="s">
         <v>16</v>
@@ -5611,8 +5857,11 @@
       <c r="U100" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V100" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5625,11 +5874,11 @@
       <c r="F101" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G101" s="3">
-        <v>6400</v>
-      </c>
-      <c r="H101" s="3" t="s">
-        <v>16</v>
+      <c r="G101" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H101" s="3">
+        <v>6600</v>
       </c>
       <c r="I101" s="3" t="s">
         <v>16</v>
@@ -5646,8 +5895,8 @@
       <c r="M101" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="N101" s="3">
-        <v>0</v>
+      <c r="N101" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="O101" s="3">
         <v>0</v>
@@ -5661,8 +5910,8 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-      <c r="S101" s="3" t="s">
-        <v>16</v>
+      <c r="S101" s="3">
+        <v>0</v>
       </c>
       <c r="T101" s="3" t="s">
         <v>16</v>
@@ -5670,8 +5919,11 @@
       <c r="U101" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5684,11 +5936,11 @@
       <c r="F102" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G102" s="3">
-        <v>-79100</v>
-      </c>
-      <c r="H102" s="3" t="s">
-        <v>16</v>
+      <c r="G102" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H102" s="3">
+        <v>-80700</v>
       </c>
       <c r="I102" s="3" t="s">
         <v>16</v>
@@ -5705,8 +5957,8 @@
       <c r="M102" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="N102" s="3">
-        <v>0</v>
+      <c r="N102" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="O102" s="3">
         <v>0</v>
@@ -5720,13 +5972,16 @@
       <c r="R102" s="3">
         <v>0</v>
       </c>
-      <c r="S102" s="3" t="s">
-        <v>16</v>
+      <c r="S102" s="3">
+        <v>0</v>
       </c>
       <c r="T102" s="3" t="s">
         <v>16</v>
       </c>
       <c r="U102" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="V102" s="3" t="s">
         <v>16</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BILI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BILI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="92">
   <si>
     <t>BILI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,282 +665,295 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43100</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43008</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42916</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42825</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42735</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>608600</v>
+        <v>692200</v>
       </c>
       <c r="E8" s="3">
-        <v>599100</v>
+        <v>600700</v>
       </c>
       <c r="F8" s="3">
-        <v>503200</v>
+        <v>591300</v>
       </c>
       <c r="G8" s="3">
-        <v>408400</v>
+        <v>496700</v>
       </c>
       <c r="H8" s="3">
-        <v>361200</v>
+        <v>403100</v>
       </c>
       <c r="I8" s="3">
-        <v>313200</v>
+        <v>356500</v>
       </c>
       <c r="J8" s="3">
+        <v>309200</v>
+      </c>
+      <c r="K8" s="3">
         <v>290000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>234900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>208900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>167800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>151000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>147300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>124500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>108900</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>108000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>86500</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>61700</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>31600</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>44500</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>462300</v>
+        <v>539900</v>
       </c>
       <c r="E9" s="3">
-        <v>451800</v>
+        <v>456300</v>
       </c>
       <c r="F9" s="3">
-        <v>384400</v>
+        <v>445900</v>
       </c>
       <c r="G9" s="3">
-        <v>314100</v>
+        <v>379400</v>
       </c>
       <c r="H9" s="3">
-        <v>278500</v>
+        <v>310100</v>
       </c>
       <c r="I9" s="3">
-        <v>251200</v>
+        <v>274900</v>
       </c>
       <c r="J9" s="3">
+        <v>247900</v>
+      </c>
+      <c r="K9" s="3">
         <v>235200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>196500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>180100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>139200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>123800</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>111300</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>94000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>82800</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>82100</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>66100</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>52800</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>35200</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>77100</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>146300</v>
+        <v>152300</v>
       </c>
       <c r="E10" s="3">
-        <v>147300</v>
+        <v>144400</v>
       </c>
       <c r="F10" s="3">
-        <v>118800</v>
+        <v>145400</v>
       </c>
       <c r="G10" s="3">
-        <v>94200</v>
+        <v>117300</v>
       </c>
       <c r="H10" s="3">
-        <v>82800</v>
+        <v>93000</v>
       </c>
       <c r="I10" s="3">
-        <v>62100</v>
+        <v>81700</v>
       </c>
       <c r="J10" s="3">
+        <v>61300</v>
+      </c>
+      <c r="K10" s="3">
         <v>54800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>38500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>28800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>28600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>27200</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>36000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>30600</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>26100</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>25900</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>20400</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>8900</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>-3600</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>-32700</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -963,70 +976,74 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>90500</v>
+        <v>103700</v>
       </c>
       <c r="E12" s="3">
-        <v>75500</v>
+        <v>89300</v>
       </c>
       <c r="F12" s="3">
-        <v>62600</v>
+        <v>74500</v>
       </c>
       <c r="G12" s="3">
-        <v>51600</v>
+        <v>61800</v>
       </c>
       <c r="H12" s="3">
-        <v>46400</v>
+        <v>50900</v>
       </c>
       <c r="I12" s="3">
-        <v>38200</v>
+        <v>45800</v>
       </c>
       <c r="J12" s="3">
+        <v>37800</v>
+      </c>
+      <c r="K12" s="3">
         <v>38600</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>33000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>28300</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>22300</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>20500</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>18900</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>15200</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>12900</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>11100</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>9400</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>8000</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>4300</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>9000</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1087,8 +1104,11 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1149,8 +1169,11 @@
       <c r="V14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1211,8 +1234,11 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1232,132 +1258,139 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>769400</v>
+        <v>926300</v>
       </c>
       <c r="E17" s="3">
-        <v>740000</v>
+        <v>759400</v>
       </c>
       <c r="F17" s="3">
-        <v>672200</v>
+        <v>730400</v>
       </c>
       <c r="G17" s="3">
-        <v>503600</v>
+        <v>663500</v>
       </c>
       <c r="H17" s="3">
-        <v>446100</v>
+        <v>497000</v>
       </c>
       <c r="I17" s="3">
-        <v>378700</v>
+        <v>440300</v>
       </c>
       <c r="J17" s="3">
+        <v>373800</v>
+      </c>
+      <c r="K17" s="3">
         <v>356000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>287700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>255600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>209800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>187200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>162600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>135200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>118100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>112700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>94300</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>73000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>87300</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>118900</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>-160800</v>
+        <v>-234100</v>
       </c>
       <c r="E18" s="3">
-        <v>-140900</v>
+        <v>-158700</v>
       </c>
       <c r="F18" s="3">
-        <v>-169000</v>
+        <v>-139100</v>
       </c>
       <c r="G18" s="3">
-        <v>-95200</v>
+        <v>-166800</v>
       </c>
       <c r="H18" s="3">
-        <v>-84900</v>
+        <v>-93900</v>
       </c>
       <c r="I18" s="3">
-        <v>-65500</v>
+        <v>-83800</v>
       </c>
       <c r="J18" s="3">
+        <v>-64700</v>
+      </c>
+      <c r="K18" s="3">
         <v>-66000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-52800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-46700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-41900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-36300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-15300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-10700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-9200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-4700</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-7800</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-11300</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-55700</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-74500</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1380,70 +1413,74 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>26800</v>
+        <v>70200</v>
       </c>
       <c r="E20" s="3">
-        <v>17000</v>
+        <v>26500</v>
       </c>
       <c r="F20" s="3">
+        <v>16800</v>
+      </c>
+      <c r="G20" s="3">
+        <v>5500</v>
+      </c>
+      <c r="H20" s="3">
+        <v>11400</v>
+      </c>
+      <c r="I20" s="3">
+        <v>4700</v>
+      </c>
+      <c r="J20" s="3">
+        <v>8400</v>
+      </c>
+      <c r="K20" s="3">
+        <v>6500</v>
+      </c>
+      <c r="L20" s="3">
+        <v>9000</v>
+      </c>
+      <c r="M20" s="3">
+        <v>18100</v>
+      </c>
+      <c r="N20" s="3">
+        <v>15500</v>
+      </c>
+      <c r="O20" s="3">
+        <v>3400</v>
+      </c>
+      <c r="P20" s="3">
         <v>5600</v>
       </c>
-      <c r="G20" s="3">
-        <v>11500</v>
-      </c>
-      <c r="H20" s="3">
-        <v>4700</v>
-      </c>
-      <c r="I20" s="3">
-        <v>8500</v>
-      </c>
-      <c r="J20" s="3">
-        <v>6500</v>
-      </c>
-      <c r="K20" s="3">
-        <v>9000</v>
-      </c>
-      <c r="L20" s="3">
-        <v>18100</v>
-      </c>
-      <c r="M20" s="3">
-        <v>15500</v>
-      </c>
-      <c r="N20" s="3">
-        <v>3400</v>
-      </c>
-      <c r="O20" s="3">
-        <v>5600</v>
-      </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>2800</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>1900</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>2900</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>700</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>1800</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-1900</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
@@ -1459,11 +1496,11 @@
       <c r="G21" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H21" s="3">
-        <v>-26700</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>16</v>
+      <c r="H21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I21" s="3">
+        <v>-26300</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>16</v>
@@ -1486,56 +1523,59 @@
       <c r="P21" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="Q21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="R21" s="3">
         <v>37900</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>27000</v>
       </c>
-      <c r="S21" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="T21" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="U21" s="3">
+      <c r="U21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="V21" s="3">
         <v>-34100</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-58200</v>
       </c>
     </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>5200</v>
+        <v>5500</v>
       </c>
       <c r="E22" s="3">
-        <v>5400</v>
+        <v>5100</v>
       </c>
       <c r="F22" s="3">
-        <v>5600</v>
+        <v>5300</v>
       </c>
       <c r="G22" s="3">
+        <v>5500</v>
+      </c>
+      <c r="H22" s="3">
         <v>3500</v>
-      </c>
-      <c r="H22" s="3">
-        <v>2400</v>
       </c>
       <c r="I22" s="3">
         <v>2300</v>
       </c>
       <c r="J22" s="3">
+        <v>2300</v>
+      </c>
+      <c r="K22" s="3">
         <v>2500</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>2400</v>
       </c>
-      <c r="L22" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="M22" s="3" t="s">
         <v>16</v>
       </c>
@@ -1548,8 +1588,8 @@
       <c r="P22" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="Q22" s="3">
-        <v>0</v>
+      <c r="Q22" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="R22" s="3">
         <v>0</v>
@@ -1566,117 +1606,123 @@
       <c r="V22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-139200</v>
+        <v>-169400</v>
       </c>
       <c r="E23" s="3">
-        <v>-129300</v>
+        <v>-137400</v>
       </c>
       <c r="F23" s="3">
-        <v>-169100</v>
+        <v>-127600</v>
       </c>
       <c r="G23" s="3">
-        <v>-87200</v>
+        <v>-166900</v>
       </c>
       <c r="H23" s="3">
-        <v>-82600</v>
+        <v>-86100</v>
       </c>
       <c r="I23" s="3">
-        <v>-59300</v>
+        <v>-81500</v>
       </c>
       <c r="J23" s="3">
+        <v>-58600</v>
+      </c>
+      <c r="K23" s="3">
         <v>-62000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-46200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-28500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-26400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-32900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-9700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-7800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-7300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-1800</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-7100</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-9500</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-57600</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-74500</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E24" s="3">
         <v>1900</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>2300</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>2700</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
+        <v>1800</v>
+      </c>
+      <c r="I24" s="3">
+        <v>1400</v>
+      </c>
+      <c r="J24" s="3">
+        <v>1100</v>
+      </c>
+      <c r="K24" s="3">
+        <v>1300</v>
+      </c>
+      <c r="L24" s="3">
         <v>1900</v>
       </c>
-      <c r="H24" s="3">
-        <v>1500</v>
-      </c>
-      <c r="I24" s="3">
-        <v>1100</v>
-      </c>
-      <c r="J24" s="3">
+      <c r="M24" s="3">
+        <v>1200</v>
+      </c>
+      <c r="N24" s="3">
         <v>1300</v>
       </c>
-      <c r="K24" s="3">
-        <v>1900</v>
-      </c>
-      <c r="L24" s="3">
-        <v>1200</v>
-      </c>
-      <c r="M24" s="3">
-        <v>1300</v>
-      </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>1600</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>300</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>500</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>400</v>
-      </c>
-      <c r="R24" s="3">
-        <v>300</v>
       </c>
       <c r="S24" s="3">
         <v>300</v>
@@ -1685,13 +1731,16 @@
         <v>300</v>
       </c>
       <c r="U24" s="3">
+        <v>300</v>
+      </c>
+      <c r="V24" s="3">
         <v>500</v>
       </c>
-      <c r="V24" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1752,132 +1801,141 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-141200</v>
+        <v>-172700</v>
       </c>
       <c r="E26" s="3">
-        <v>-131600</v>
+        <v>-139300</v>
       </c>
       <c r="F26" s="3">
-        <v>-171800</v>
+        <v>-129900</v>
       </c>
       <c r="G26" s="3">
-        <v>-89100</v>
+        <v>-169500</v>
       </c>
       <c r="H26" s="3">
-        <v>-84000</v>
+        <v>-87900</v>
       </c>
       <c r="I26" s="3">
-        <v>-60400</v>
+        <v>-82900</v>
       </c>
       <c r="J26" s="3">
+        <v>-59600</v>
+      </c>
+      <c r="K26" s="3">
         <v>-63300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-48100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-29800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-27700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-34400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-10100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-8300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-7600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-2200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-7500</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-9800</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-58000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-74500</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-141000</v>
+        <v>-172500</v>
       </c>
       <c r="E27" s="3">
-        <v>-129100</v>
+        <v>-139100</v>
       </c>
       <c r="F27" s="3">
-        <v>-168800</v>
+        <v>-127500</v>
       </c>
       <c r="G27" s="3">
-        <v>-88400</v>
+        <v>-166600</v>
       </c>
       <c r="H27" s="3">
-        <v>-83500</v>
+        <v>-87300</v>
       </c>
       <c r="I27" s="3">
-        <v>-59700</v>
+        <v>-82400</v>
       </c>
       <c r="J27" s="3">
+        <v>-58900</v>
+      </c>
+      <c r="K27" s="3">
         <v>-63600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-47800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-28300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-26100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-34300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-10200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-17200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-17800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-12200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-36900</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-17500</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-65400</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-107000</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1938,8 +1996,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2000,8 +2061,11 @@
       <c r="V29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2062,8 +2126,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2124,132 +2191,141 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-26800</v>
+        <v>-70200</v>
       </c>
       <c r="E32" s="3">
-        <v>-17000</v>
+        <v>-26500</v>
       </c>
       <c r="F32" s="3">
+        <v>-16800</v>
+      </c>
+      <c r="G32" s="3">
+        <v>-5500</v>
+      </c>
+      <c r="H32" s="3">
+        <v>-11400</v>
+      </c>
+      <c r="I32" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="J32" s="3">
+        <v>-8400</v>
+      </c>
+      <c r="K32" s="3">
+        <v>-6500</v>
+      </c>
+      <c r="L32" s="3">
+        <v>-9000</v>
+      </c>
+      <c r="M32" s="3">
+        <v>-18100</v>
+      </c>
+      <c r="N32" s="3">
+        <v>-15500</v>
+      </c>
+      <c r="O32" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="P32" s="3">
         <v>-5600</v>
       </c>
-      <c r="G32" s="3">
-        <v>-11500</v>
-      </c>
-      <c r="H32" s="3">
-        <v>-4700</v>
-      </c>
-      <c r="I32" s="3">
-        <v>-8500</v>
-      </c>
-      <c r="J32" s="3">
-        <v>-6500</v>
-      </c>
-      <c r="K32" s="3">
-        <v>-9000</v>
-      </c>
-      <c r="L32" s="3">
-        <v>-18100</v>
-      </c>
-      <c r="M32" s="3">
-        <v>-15500</v>
-      </c>
-      <c r="N32" s="3">
-        <v>-3400</v>
-      </c>
-      <c r="O32" s="3">
-        <v>-5600</v>
-      </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-2800</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-1900</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-2900</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-700</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-1800</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>1900</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-141000</v>
+        <v>-172500</v>
       </c>
       <c r="E33" s="3">
-        <v>-129100</v>
+        <v>-139100</v>
       </c>
       <c r="F33" s="3">
-        <v>-168800</v>
+        <v>-127500</v>
       </c>
       <c r="G33" s="3">
-        <v>-88400</v>
+        <v>-166600</v>
       </c>
       <c r="H33" s="3">
-        <v>-83500</v>
+        <v>-87300</v>
       </c>
       <c r="I33" s="3">
-        <v>-59700</v>
+        <v>-82400</v>
       </c>
       <c r="J33" s="3">
+        <v>-58900</v>
+      </c>
+      <c r="K33" s="3">
         <v>-63600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-47800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-28300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-26100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-34300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-10200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-17200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-17800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-12200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-36900</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-17500</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-65400</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-107000</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2310,137 +2386,146 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-141000</v>
+        <v>-172500</v>
       </c>
       <c r="E35" s="3">
-        <v>-129100</v>
+        <v>-139100</v>
       </c>
       <c r="F35" s="3">
-        <v>-168800</v>
+        <v>-127500</v>
       </c>
       <c r="G35" s="3">
-        <v>-88400</v>
+        <v>-166600</v>
       </c>
       <c r="H35" s="3">
-        <v>-83500</v>
+        <v>-87300</v>
       </c>
       <c r="I35" s="3">
-        <v>-59700</v>
+        <v>-82400</v>
       </c>
       <c r="J35" s="3">
+        <v>-58900</v>
+      </c>
+      <c r="K35" s="3">
         <v>-63600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-47800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-28300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-26100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-34300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-10200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-17200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-17800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-12200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-36900</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-17500</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-65400</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-107000</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43100</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43008</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42916</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42825</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42735</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2463,8 +2548,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2487,59 +2573,60 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2746000</v>
+        <v>1769800</v>
       </c>
       <c r="E41" s="3">
-        <v>729800</v>
+        <v>2710300</v>
       </c>
       <c r="F41" s="3">
-        <v>924700</v>
+        <v>720300</v>
       </c>
       <c r="G41" s="3">
-        <v>950800</v>
+        <v>912700</v>
       </c>
       <c r="H41" s="3">
-        <v>693500</v>
+        <v>938400</v>
       </c>
       <c r="I41" s="3">
-        <v>774200</v>
+        <v>684500</v>
       </c>
       <c r="J41" s="3">
+        <v>764200</v>
+      </c>
+      <c r="K41" s="3">
         <v>652000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>711800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>412900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>514100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>337000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>520100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>150800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>113200</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>58700</v>
       </c>
-      <c r="S41" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="T41" s="3" t="s">
         <v>16</v>
       </c>
@@ -2549,59 +2636,62 @@
       <c r="V41" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W41" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>1472100</v>
+        <v>2475800</v>
       </c>
       <c r="E42" s="3">
-        <v>1268200</v>
+        <v>1452900</v>
       </c>
       <c r="F42" s="3">
-        <v>1274900</v>
+        <v>1251700</v>
       </c>
       <c r="G42" s="3">
-        <v>1476100</v>
+        <v>1258300</v>
       </c>
       <c r="H42" s="3">
-        <v>551100</v>
+        <v>1456900</v>
       </c>
       <c r="I42" s="3">
-        <v>484500</v>
+        <v>543900</v>
       </c>
       <c r="J42" s="3">
+        <v>478200</v>
+      </c>
+      <c r="K42" s="3">
         <v>657600</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>596400</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>278200</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>246100</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>150600</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>49900</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>32800</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>75000</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>159200</v>
       </c>
-      <c r="S42" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="T42" s="3" t="s">
         <v>16</v>
       </c>
@@ -2611,59 +2701,62 @@
       <c r="V42" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>170500</v>
+        <v>212200</v>
       </c>
       <c r="E43" s="3">
-        <v>220400</v>
+        <v>168300</v>
       </c>
       <c r="F43" s="3">
-        <v>185100</v>
+        <v>217500</v>
       </c>
       <c r="G43" s="3">
-        <v>120600</v>
+        <v>182600</v>
       </c>
       <c r="H43" s="3">
-        <v>173100</v>
+        <v>119100</v>
       </c>
       <c r="I43" s="3">
-        <v>146700</v>
+        <v>170900</v>
       </c>
       <c r="J43" s="3">
+        <v>144800</v>
+      </c>
+      <c r="K43" s="3">
         <v>111700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>70700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>86000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>47100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>55900</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>54500</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>65400</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>67500</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>61600</v>
       </c>
-      <c r="S43" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="T43" s="3" t="s">
         <v>16</v>
       </c>
@@ -2673,28 +2766,31 @@
       <c r="V43" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W43" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E44" s="3">
-        <v>25000</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>16</v>
+      <c r="E44" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F44" s="3">
+        <v>24600</v>
       </c>
       <c r="G44" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H44" s="3">
-        <v>6600</v>
-      </c>
-      <c r="I44" s="3" t="s">
-        <v>16</v>
+      <c r="H44" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I44" s="3">
+        <v>6500</v>
       </c>
       <c r="J44" s="3" t="s">
         <v>16</v>
@@ -2717,15 +2813,15 @@
       <c r="P44" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="Q44" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="R44" s="3">
         <v>1500</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>1300</v>
       </c>
-      <c r="S44" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="T44" s="3" t="s">
         <v>16</v>
       </c>
@@ -2735,59 +2831,62 @@
       <c r="V44" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W44" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>532700</v>
+        <v>607400</v>
       </c>
       <c r="E45" s="3">
-        <v>212200</v>
+        <v>525800</v>
       </c>
       <c r="F45" s="3">
-        <v>282500</v>
+        <v>209400</v>
       </c>
       <c r="G45" s="3">
-        <v>301900</v>
+        <v>278800</v>
       </c>
       <c r="H45" s="3">
-        <v>172200</v>
+        <v>298000</v>
       </c>
       <c r="I45" s="3">
-        <v>205300</v>
+        <v>170000</v>
       </c>
       <c r="J45" s="3">
+        <v>202600</v>
+      </c>
+      <c r="K45" s="3">
         <v>254300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>252000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>182300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>143900</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>111900</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>103000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>104400</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>62300</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>58500</v>
       </c>
-      <c r="S45" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="T45" s="3" t="s">
         <v>16</v>
       </c>
@@ -2797,59 +2896,62 @@
       <c r="V45" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W45" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>4921300</v>
+        <v>5065100</v>
       </c>
       <c r="E46" s="3">
-        <v>2455500</v>
+        <v>4857300</v>
       </c>
       <c r="F46" s="3">
-        <v>2667200</v>
+        <v>2423600</v>
       </c>
       <c r="G46" s="3">
-        <v>2849500</v>
+        <v>2632500</v>
       </c>
       <c r="H46" s="3">
-        <v>1596500</v>
+        <v>2812400</v>
       </c>
       <c r="I46" s="3">
-        <v>1610700</v>
+        <v>1575700</v>
       </c>
       <c r="J46" s="3">
+        <v>1589700</v>
+      </c>
+      <c r="K46" s="3">
         <v>1675500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1630900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>959400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>951300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>655400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>727500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>353400</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>319500</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>339400</v>
       </c>
-      <c r="S46" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="T46" s="3" t="s">
         <v>16</v>
       </c>
@@ -2859,59 +2961,62 @@
       <c r="V46" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W46" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>338200</v>
+        <v>474300</v>
       </c>
       <c r="E47" s="3">
-        <v>348400</v>
+        <v>333800</v>
       </c>
       <c r="F47" s="3">
-        <v>241600</v>
+        <v>343800</v>
       </c>
       <c r="G47" s="3">
-        <v>253100</v>
+        <v>238500</v>
       </c>
       <c r="H47" s="3">
-        <v>225600</v>
+        <v>249800</v>
       </c>
       <c r="I47" s="3">
-        <v>195200</v>
+        <v>222700</v>
       </c>
       <c r="J47" s="3">
+        <v>192600</v>
+      </c>
+      <c r="K47" s="3">
         <v>221700</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>244600</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>186800</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>142300</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>140400</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>117600</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>106800</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>94400</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>80100</v>
       </c>
-      <c r="S47" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="T47" s="3" t="s">
         <v>16</v>
       </c>
@@ -2921,59 +3026,62 @@
       <c r="V47" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>140600</v>
+        <v>167400</v>
       </c>
       <c r="E48" s="3">
-        <v>118900</v>
+        <v>138700</v>
       </c>
       <c r="F48" s="3">
-        <v>122900</v>
+        <v>117300</v>
       </c>
       <c r="G48" s="3">
-        <v>109000</v>
+        <v>121300</v>
       </c>
       <c r="H48" s="3">
-        <v>75100</v>
+        <v>107600</v>
       </c>
       <c r="I48" s="3">
-        <v>80500</v>
+        <v>74100</v>
       </c>
       <c r="J48" s="3">
+        <v>79500</v>
+      </c>
+      <c r="K48" s="3">
         <v>73700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>69800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>55200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>57400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>44900</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>35600</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>28700</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>27700</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>20000</v>
       </c>
-      <c r="S48" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="T48" s="3" t="s">
         <v>16</v>
       </c>
@@ -2983,59 +3091,62 @@
       <c r="V48" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W48" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>688300</v>
+        <v>689300</v>
       </c>
       <c r="E49" s="3">
-        <v>569900</v>
+        <v>679400</v>
       </c>
       <c r="F49" s="3">
-        <v>571600</v>
+        <v>562400</v>
       </c>
       <c r="G49" s="3">
-        <v>468100</v>
+        <v>564200</v>
       </c>
       <c r="H49" s="3">
-        <v>441100</v>
+        <v>462000</v>
       </c>
       <c r="I49" s="3">
-        <v>416400</v>
+        <v>435300</v>
       </c>
       <c r="J49" s="3">
+        <v>411000</v>
+      </c>
+      <c r="K49" s="3">
         <v>395800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>382200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>350600</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>342900</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>218100</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>131900</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>105700</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>70800</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>64200</v>
       </c>
-      <c r="S49" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="T49" s="3" t="s">
         <v>16</v>
       </c>
@@ -3045,8 +3156,11 @@
       <c r="V49" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W49" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3107,8 +3221,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3169,59 +3286,62 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>215800</v>
+        <v>270100</v>
       </c>
       <c r="E52" s="3">
-        <v>230700</v>
+        <v>213000</v>
       </c>
       <c r="F52" s="3">
-        <v>195000</v>
+        <v>227600</v>
       </c>
       <c r="G52" s="3">
-        <v>138100</v>
+        <v>192400</v>
       </c>
       <c r="H52" s="3">
-        <v>122300</v>
+        <v>136300</v>
       </c>
       <c r="I52" s="3">
-        <v>117900</v>
+        <v>120700</v>
       </c>
       <c r="J52" s="3">
+        <v>116400</v>
+      </c>
+      <c r="K52" s="3">
         <v>106100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>86500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>71700</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>29700</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>10200</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>7600</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>4400</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>3100</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>1800</v>
       </c>
-      <c r="S52" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="T52" s="3" t="s">
         <v>16</v>
       </c>
@@ -3231,8 +3351,11 @@
       <c r="V52" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W52" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3293,59 +3416,62 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>6304200</v>
+        <v>6666300</v>
       </c>
       <c r="E54" s="3">
-        <v>3723300</v>
+        <v>6222100</v>
       </c>
       <c r="F54" s="3">
-        <v>3798300</v>
+        <v>3674800</v>
       </c>
       <c r="G54" s="3">
-        <v>3817900</v>
+        <v>3748900</v>
       </c>
       <c r="H54" s="3">
-        <v>2460500</v>
+        <v>3768200</v>
       </c>
       <c r="I54" s="3">
-        <v>2420700</v>
+        <v>2428500</v>
       </c>
       <c r="J54" s="3">
+        <v>2389200</v>
+      </c>
+      <c r="K54" s="3">
         <v>2472900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>2413900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1623700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1523500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1069000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1020200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>598900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>515500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>505500</v>
       </c>
-      <c r="S54" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="T54" s="3" t="s">
         <v>16</v>
       </c>
@@ -3355,8 +3481,11 @@
       <c r="V54" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W54" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3379,8 +3508,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3403,59 +3533,60 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>483600</v>
+        <v>558600</v>
       </c>
       <c r="E57" s="3">
-        <v>479600</v>
+        <v>477300</v>
       </c>
       <c r="F57" s="3">
-        <v>457500</v>
+        <v>473400</v>
       </c>
       <c r="G57" s="3">
-        <v>410000</v>
+        <v>451600</v>
       </c>
       <c r="H57" s="3">
-        <v>332700</v>
+        <v>404600</v>
       </c>
       <c r="I57" s="3">
-        <v>297000</v>
+        <v>328300</v>
       </c>
       <c r="J57" s="3">
+        <v>293200</v>
+      </c>
+      <c r="K57" s="3">
         <v>296500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>262500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>216700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>189900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>146900</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>135800</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>124500</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>88500</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>81100</v>
       </c>
-      <c r="S57" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="T57" s="3" t="s">
         <v>16</v>
       </c>
@@ -3465,41 +3596,44 @@
       <c r="V57" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W57" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>15600</v>
+        <v>59800</v>
       </c>
       <c r="E58" s="3">
-        <v>15600</v>
+        <v>15400</v>
       </c>
       <c r="F58" s="3">
-        <v>15600</v>
+        <v>15400</v>
       </c>
       <c r="G58" s="3">
-        <v>15600</v>
+        <v>15400</v>
       </c>
       <c r="H58" s="3">
-        <v>15600</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>16</v>
+        <v>15400</v>
+      </c>
+      <c r="I58" s="3">
+        <v>15400</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="K58" s="3">
+      <c r="K58" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L58" s="3">
         <v>15300</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>15200</v>
       </c>
-      <c r="M58" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="N58" s="3" t="s">
         <v>16</v>
       </c>
@@ -3509,8 +3643,8 @@
       <c r="P58" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="Q58" s="3">
-        <v>0</v>
+      <c r="Q58" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="R58" s="3">
         <v>0</v>
@@ -3527,59 +3661,62 @@
       <c r="V58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>677400</v>
+        <v>828800</v>
       </c>
       <c r="E59" s="3">
-        <v>657900</v>
+        <v>668600</v>
       </c>
       <c r="F59" s="3">
-        <v>620400</v>
+        <v>649400</v>
       </c>
       <c r="G59" s="3">
-        <v>444300</v>
+        <v>612400</v>
       </c>
       <c r="H59" s="3">
-        <v>401000</v>
+        <v>438500</v>
       </c>
       <c r="I59" s="3">
-        <v>369500</v>
+        <v>395800</v>
       </c>
       <c r="J59" s="3">
+        <v>364700</v>
+      </c>
+      <c r="K59" s="3">
         <v>344300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>304500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>336300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>289200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>215500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>172600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>184600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>118900</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>106700</v>
       </c>
-      <c r="S59" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="T59" s="3" t="s">
         <v>16</v>
       </c>
@@ -3589,59 +3726,62 @@
       <c r="V59" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W59" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1176600</v>
+        <v>1447200</v>
       </c>
       <c r="E60" s="3">
-        <v>1153200</v>
+        <v>1161300</v>
       </c>
       <c r="F60" s="3">
-        <v>1093600</v>
+        <v>1138200</v>
       </c>
       <c r="G60" s="3">
-        <v>869800</v>
+        <v>1079400</v>
       </c>
       <c r="H60" s="3">
-        <v>749300</v>
+        <v>858500</v>
       </c>
       <c r="I60" s="3">
-        <v>666600</v>
+        <v>739500</v>
       </c>
       <c r="J60" s="3">
+        <v>657900</v>
+      </c>
+      <c r="K60" s="3">
         <v>640800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>582300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>568200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>479100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>362400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>308400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>309100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>207500</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>187800</v>
       </c>
-      <c r="S60" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="T60" s="3" t="s">
         <v>16</v>
       </c>
@@ -3651,38 +3791,41 @@
       <c r="V60" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W60" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1296800</v>
+        <v>1258700</v>
       </c>
       <c r="E61" s="3">
-        <v>1301300</v>
+        <v>1280000</v>
       </c>
       <c r="F61" s="3">
-        <v>1357200</v>
+        <v>1284300</v>
       </c>
       <c r="G61" s="3">
-        <v>1409900</v>
+        <v>1339500</v>
       </c>
       <c r="H61" s="3">
-        <v>541500</v>
+        <v>1391600</v>
       </c>
       <c r="I61" s="3">
-        <v>532700</v>
+        <v>534400</v>
       </c>
       <c r="J61" s="3">
+        <v>525800</v>
+      </c>
+      <c r="K61" s="3">
         <v>539700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>513200</v>
       </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
       <c r="M61" s="3">
         <v>0</v>
       </c>
@@ -3713,38 +3856,41 @@
       <c r="V61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>49200</v>
+        <v>44000</v>
       </c>
       <c r="E62" s="3">
-        <v>54700</v>
+        <v>48500</v>
       </c>
       <c r="F62" s="3">
-        <v>35400</v>
+        <v>54000</v>
       </c>
       <c r="G62" s="3">
-        <v>30800</v>
+        <v>34900</v>
       </c>
       <c r="H62" s="3">
-        <v>27100</v>
+        <v>30400</v>
       </c>
       <c r="I62" s="3">
-        <v>30100</v>
+        <v>26700</v>
       </c>
       <c r="J62" s="3">
+        <v>29700</v>
+      </c>
+      <c r="K62" s="3">
         <v>31700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>26000</v>
       </c>
-      <c r="L62" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="M62" s="3" t="s">
         <v>16</v>
       </c>
@@ -3757,8 +3903,8 @@
       <c r="P62" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="Q62" s="3">
-        <v>0</v>
+      <c r="Q62" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="R62" s="3">
         <v>0</v>
@@ -3775,8 +3921,11 @@
       <c r="V62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3837,8 +3986,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3899,8 +4051,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3961,59 +4116,62 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>2548800</v>
+        <v>2756900</v>
       </c>
       <c r="E66" s="3">
-        <v>2537600</v>
+        <v>2515700</v>
       </c>
       <c r="F66" s="3">
-        <v>2517100</v>
+        <v>2504500</v>
       </c>
       <c r="G66" s="3">
-        <v>2423200</v>
+        <v>2484300</v>
       </c>
       <c r="H66" s="3">
-        <v>1431100</v>
+        <v>2391600</v>
       </c>
       <c r="I66" s="3">
-        <v>1320500</v>
+        <v>1412500</v>
       </c>
       <c r="J66" s="3">
+        <v>1303300</v>
+      </c>
+      <c r="K66" s="3">
         <v>1295800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1157000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>603900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>514000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>381800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>308300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>308900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>207500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>187800</v>
       </c>
-      <c r="S66" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="T66" s="3" t="s">
         <v>16</v>
       </c>
@@ -4023,8 +4181,11 @@
       <c r="V66" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W66" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4047,8 +4208,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4109,8 +4271,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4171,8 +4336,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4216,14 +4384,14 @@
         <v>0</v>
       </c>
       <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+      <c r="R70" s="3">
         <v>595900</v>
       </c>
-      <c r="R70" s="3">
+      <c r="S70" s="3">
         <v>585800</v>
       </c>
-      <c r="S70" s="3">
-        <v>0</v>
-      </c>
       <c r="T70" s="3">
         <v>0</v>
       </c>
@@ -4233,8 +4401,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4295,31 +4466,34 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E72" s="3">
-        <v>-1116600</v>
-      </c>
-      <c r="F72" s="3" t="s">
-        <v>16</v>
+      <c r="E72" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F72" s="3">
+        <v>-1102100</v>
       </c>
       <c r="G72" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H72" s="3">
-        <v>-730800</v>
+      <c r="H72" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="I72" s="3">
-        <v>-644700</v>
-      </c>
-      <c r="J72" s="3" t="s">
-        <v>16</v>
+        <v>-721200</v>
+      </c>
+      <c r="J72" s="3">
+        <v>-636300</v>
       </c>
       <c r="K72" s="3" t="s">
         <v>16</v>
@@ -4327,27 +4501,27 @@
       <c r="L72" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="M72" s="3">
+      <c r="M72" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N72" s="3">
         <v>-411700</v>
       </c>
-      <c r="N72" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="O72" s="3" t="s">
         <v>16</v>
       </c>
       <c r="P72" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="Q72" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="R72" s="3">
         <v>-329300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-311600</v>
       </c>
-      <c r="S72" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="T72" s="3" t="s">
         <v>16</v>
       </c>
@@ -4357,8 +4531,11 @@
       <c r="V72" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W72" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4419,8 +4596,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4481,8 +4661,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4543,59 +4726,62 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>3755300</v>
+        <v>3909400</v>
       </c>
       <c r="E76" s="3">
-        <v>1185700</v>
+        <v>3706500</v>
       </c>
       <c r="F76" s="3">
-        <v>1281200</v>
+        <v>1170300</v>
       </c>
       <c r="G76" s="3">
-        <v>1394700</v>
+        <v>1264500</v>
       </c>
       <c r="H76" s="3">
-        <v>1029500</v>
+        <v>1376600</v>
       </c>
       <c r="I76" s="3">
-        <v>1100300</v>
+        <v>1016100</v>
       </c>
       <c r="J76" s="3">
+        <v>1085900</v>
+      </c>
+      <c r="K76" s="3">
         <v>1177100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1256900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1019800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1009500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>687300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>711900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>290000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-287800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-268000</v>
       </c>
-      <c r="S76" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="T76" s="3" t="s">
         <v>16</v>
       </c>
@@ -4605,8 +4791,11 @@
       <c r="V76" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W76" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4667,137 +4856,146 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43100</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43008</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42916</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42825</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42735</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-141000</v>
+        <v>-172500</v>
       </c>
       <c r="E81" s="3">
-        <v>-129100</v>
+        <v>-139100</v>
       </c>
       <c r="F81" s="3">
-        <v>-168800</v>
+        <v>-127500</v>
       </c>
       <c r="G81" s="3">
-        <v>-88400</v>
+        <v>-166600</v>
       </c>
       <c r="H81" s="3">
-        <v>-83500</v>
+        <v>-87300</v>
       </c>
       <c r="I81" s="3">
-        <v>-59700</v>
+        <v>-82400</v>
       </c>
       <c r="J81" s="3">
+        <v>-58900</v>
+      </c>
+      <c r="K81" s="3">
         <v>-63600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-47800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-28300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-26100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-34300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-10200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-17200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-17800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-12200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-36900</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-17500</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-65400</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-107000</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4820,8 +5018,9 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4837,11 +5036,11 @@
       <c r="G83" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H83" s="3">
-        <v>53500</v>
-      </c>
-      <c r="I83" s="3" t="s">
-        <v>16</v>
+      <c r="H83" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I83" s="3">
+        <v>52800</v>
       </c>
       <c r="J83" s="3" t="s">
         <v>16</v>
@@ -4858,8 +5057,8 @@
       <c r="N83" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="O83" s="3">
-        <v>0</v>
+      <c r="O83" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="P83" s="3">
         <v>0</v>
@@ -4873,8 +5072,8 @@
       <c r="S83" s="3">
         <v>0</v>
       </c>
-      <c r="T83" s="3" t="s">
-        <v>16</v>
+      <c r="T83" s="3">
+        <v>0</v>
       </c>
       <c r="U83" s="3" t="s">
         <v>16</v>
@@ -4882,8 +5081,11 @@
       <c r="V83" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W83" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4944,8 +5146,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5006,8 +5211,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5068,8 +5276,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5130,8 +5341,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5192,8 +5406,11 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -5209,11 +5426,11 @@
       <c r="G89" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H89" s="3">
-        <v>45000</v>
-      </c>
-      <c r="I89" s="3" t="s">
-        <v>16</v>
+      <c r="H89" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I89" s="3">
+        <v>44400</v>
       </c>
       <c r="J89" s="3" t="s">
         <v>16</v>
@@ -5230,8 +5447,8 @@
       <c r="N89" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="O89" s="3">
-        <v>0</v>
+      <c r="O89" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="P89" s="3">
         <v>0</v>
@@ -5245,8 +5462,8 @@
       <c r="S89" s="3">
         <v>0</v>
       </c>
-      <c r="T89" s="3" t="s">
-        <v>16</v>
+      <c r="T89" s="3">
+        <v>0</v>
       </c>
       <c r="U89" s="3" t="s">
         <v>16</v>
@@ -5254,8 +5471,11 @@
       <c r="V89" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W89" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5278,8 +5498,9 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5295,11 +5516,11 @@
       <c r="G91" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H91" s="3">
-        <v>-10400</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>16</v>
+      <c r="H91" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I91" s="3">
+        <v>-10300</v>
       </c>
       <c r="J91" s="3" t="s">
         <v>16</v>
@@ -5316,8 +5537,8 @@
       <c r="N91" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="O91" s="3">
-        <v>0</v>
+      <c r="O91" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="P91" s="3">
         <v>0</v>
@@ -5331,8 +5552,8 @@
       <c r="S91" s="3">
         <v>0</v>
       </c>
-      <c r="T91" s="3" t="s">
-        <v>16</v>
+      <c r="T91" s="3">
+        <v>0</v>
       </c>
       <c r="U91" s="3" t="s">
         <v>16</v>
@@ -5340,8 +5561,11 @@
       <c r="V91" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W91" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5402,8 +5626,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5464,8 +5691,11 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5481,11 +5711,11 @@
       <c r="G94" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H94" s="3">
-        <v>-161800</v>
-      </c>
-      <c r="I94" s="3" t="s">
-        <v>16</v>
+      <c r="H94" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I94" s="3">
+        <v>-159700</v>
       </c>
       <c r="J94" s="3" t="s">
         <v>16</v>
@@ -5502,8 +5732,8 @@
       <c r="N94" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="O94" s="3">
-        <v>0</v>
+      <c r="O94" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="P94" s="3">
         <v>0</v>
@@ -5517,8 +5747,8 @@
       <c r="S94" s="3">
         <v>0</v>
       </c>
-      <c r="T94" s="3" t="s">
-        <v>16</v>
+      <c r="T94" s="3">
+        <v>0</v>
       </c>
       <c r="U94" s="3" t="s">
         <v>16</v>
@@ -5526,8 +5756,11 @@
       <c r="V94" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W94" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5550,8 +5783,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5612,8 +5846,11 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5674,8 +5911,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5736,8 +5976,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5798,8 +6041,11 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5815,11 +6061,11 @@
       <c r="G100" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H100" s="3">
-        <v>29500</v>
-      </c>
-      <c r="I100" s="3" t="s">
-        <v>16</v>
+      <c r="H100" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I100" s="3">
+        <v>29100</v>
       </c>
       <c r="J100" s="3" t="s">
         <v>16</v>
@@ -5836,8 +6082,8 @@
       <c r="N100" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="O100" s="3">
-        <v>0</v>
+      <c r="O100" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="P100" s="3">
         <v>0</v>
@@ -5851,8 +6097,8 @@
       <c r="S100" s="3">
         <v>0</v>
       </c>
-      <c r="T100" s="3" t="s">
-        <v>16</v>
+      <c r="T100" s="3">
+        <v>0</v>
       </c>
       <c r="U100" s="3" t="s">
         <v>16</v>
@@ -5860,8 +6106,11 @@
       <c r="V100" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W100" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5877,11 +6126,11 @@
       <c r="G101" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H101" s="3">
-        <v>6600</v>
-      </c>
-      <c r="I101" s="3" t="s">
-        <v>16</v>
+      <c r="H101" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I101" s="3">
+        <v>6500</v>
       </c>
       <c r="J101" s="3" t="s">
         <v>16</v>
@@ -5898,8 +6147,8 @@
       <c r="N101" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="O101" s="3">
-        <v>0</v>
+      <c r="O101" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="P101" s="3">
         <v>0</v>
@@ -5913,8 +6162,8 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-      <c r="T101" s="3" t="s">
-        <v>16</v>
+      <c r="T101" s="3">
+        <v>0</v>
       </c>
       <c r="U101" s="3" t="s">
         <v>16</v>
@@ -5922,8 +6171,11 @@
       <c r="V101" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5939,11 +6191,11 @@
       <c r="G102" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H102" s="3">
-        <v>-80700</v>
-      </c>
-      <c r="I102" s="3" t="s">
-        <v>16</v>
+      <c r="H102" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I102" s="3">
+        <v>-79700</v>
       </c>
       <c r="J102" s="3" t="s">
         <v>16</v>
@@ -5960,8 +6212,8 @@
       <c r="N102" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="O102" s="3">
-        <v>0</v>
+      <c r="O102" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="P102" s="3">
         <v>0</v>
@@ -5975,13 +6227,16 @@
       <c r="S102" s="3">
         <v>0</v>
       </c>
-      <c r="T102" s="3" t="s">
-        <v>16</v>
+      <c r="T102" s="3">
+        <v>0</v>
       </c>
       <c r="U102" s="3" t="s">
         <v>16</v>
       </c>
       <c r="V102" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="W102" s="3" t="s">
         <v>16</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BILI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BILI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="92">
   <si>
     <t>BILI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,295 +665,308 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42916</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42825</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42735</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>692200</v>
+        <v>815100</v>
       </c>
       <c r="E8" s="3">
-        <v>600700</v>
+        <v>703800</v>
       </c>
       <c r="F8" s="3">
-        <v>591300</v>
+        <v>610800</v>
       </c>
       <c r="G8" s="3">
-        <v>496700</v>
+        <v>601200</v>
       </c>
       <c r="H8" s="3">
-        <v>403100</v>
+        <v>505000</v>
       </c>
       <c r="I8" s="3">
-        <v>356500</v>
+        <v>409800</v>
       </c>
       <c r="J8" s="3">
+        <v>362500</v>
+      </c>
+      <c r="K8" s="3">
         <v>309200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>290000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>234900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>208900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>167800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>151000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>147300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>124500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>108900</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>108000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>86500</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>61700</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>31600</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>44500</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>539900</v>
+        <v>655700</v>
       </c>
       <c r="E9" s="3">
-        <v>456300</v>
+        <v>548900</v>
       </c>
       <c r="F9" s="3">
-        <v>445900</v>
+        <v>463900</v>
       </c>
       <c r="G9" s="3">
-        <v>379400</v>
+        <v>453400</v>
       </c>
       <c r="H9" s="3">
-        <v>310100</v>
+        <v>385800</v>
       </c>
       <c r="I9" s="3">
-        <v>274900</v>
+        <v>315200</v>
       </c>
       <c r="J9" s="3">
+        <v>279500</v>
+      </c>
+      <c r="K9" s="3">
         <v>247900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>235200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>196500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>180100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>139200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>123800</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>111300</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>94000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>82800</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>82100</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>66100</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>52800</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>35200</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>77100</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>152300</v>
+        <v>159500</v>
       </c>
       <c r="E10" s="3">
-        <v>144400</v>
+        <v>154800</v>
       </c>
       <c r="F10" s="3">
-        <v>145400</v>
+        <v>146800</v>
       </c>
       <c r="G10" s="3">
-        <v>117300</v>
+        <v>147800</v>
       </c>
       <c r="H10" s="3">
-        <v>93000</v>
+        <v>119200</v>
       </c>
       <c r="I10" s="3">
-        <v>81700</v>
+        <v>94600</v>
       </c>
       <c r="J10" s="3">
+        <v>83000</v>
+      </c>
+      <c r="K10" s="3">
         <v>61300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>54800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>38500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>28800</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>28600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>27200</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>36000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>30600</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>26100</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>25900</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>20400</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>8900</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>-3600</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>-32700</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -977,73 +990,77 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>103700</v>
+        <v>123400</v>
       </c>
       <c r="E12" s="3">
-        <v>89300</v>
+        <v>105500</v>
       </c>
       <c r="F12" s="3">
-        <v>74500</v>
+        <v>90800</v>
       </c>
       <c r="G12" s="3">
-        <v>61800</v>
+        <v>75800</v>
       </c>
       <c r="H12" s="3">
-        <v>50900</v>
+        <v>62800</v>
       </c>
       <c r="I12" s="3">
-        <v>45800</v>
+        <v>51800</v>
       </c>
       <c r="J12" s="3">
+        <v>46600</v>
+      </c>
+      <c r="K12" s="3">
         <v>37800</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>38600</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>33000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>28300</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>22300</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>20500</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>18900</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>15200</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>12900</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>11100</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>9400</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>8000</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>4300</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>9000</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1107,8 +1124,11 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1172,8 +1192,11 @@
       <c r="W14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1237,8 +1260,11 @@
       <c r="W15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1259,138 +1285,145 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>926300</v>
+        <v>1109200</v>
       </c>
       <c r="E17" s="3">
-        <v>759400</v>
+        <v>941800</v>
       </c>
       <c r="F17" s="3">
-        <v>730400</v>
+        <v>772200</v>
       </c>
       <c r="G17" s="3">
-        <v>663500</v>
+        <v>742600</v>
       </c>
       <c r="H17" s="3">
-        <v>497000</v>
+        <v>674600</v>
       </c>
       <c r="I17" s="3">
-        <v>440300</v>
+        <v>505300</v>
       </c>
       <c r="J17" s="3">
+        <v>447700</v>
+      </c>
+      <c r="K17" s="3">
         <v>373800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>356000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>287700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>255600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>209800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>187200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>162600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>135200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>118100</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>112700</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>94300</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>73000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>87300</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>118900</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>-234100</v>
+        <v>-294000</v>
       </c>
       <c r="E18" s="3">
-        <v>-158700</v>
+        <v>-238100</v>
       </c>
       <c r="F18" s="3">
-        <v>-139100</v>
+        <v>-161400</v>
       </c>
       <c r="G18" s="3">
-        <v>-166800</v>
+        <v>-141400</v>
       </c>
       <c r="H18" s="3">
-        <v>-93900</v>
+        <v>-169600</v>
       </c>
       <c r="I18" s="3">
-        <v>-83800</v>
+        <v>-95500</v>
       </c>
       <c r="J18" s="3">
+        <v>-85200</v>
+      </c>
+      <c r="K18" s="3">
         <v>-64700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-66000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-52800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-46700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-41900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-36300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-15300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-10700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-9200</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-4700</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-7800</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-11300</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-55700</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-74500</v>
       </c>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1414,73 +1447,77 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>70200</v>
+        <v>-116400</v>
       </c>
       <c r="E20" s="3">
-        <v>26500</v>
+        <v>71400</v>
       </c>
       <c r="F20" s="3">
-        <v>16800</v>
+        <v>26900</v>
       </c>
       <c r="G20" s="3">
-        <v>5500</v>
+        <v>17100</v>
       </c>
       <c r="H20" s="3">
-        <v>11400</v>
+        <v>5600</v>
       </c>
       <c r="I20" s="3">
+        <v>11600</v>
+      </c>
+      <c r="J20" s="3">
         <v>4700</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>8400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>6500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>9000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>18100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>15500</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>3400</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>5600</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>2800</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>1900</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>2900</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>700</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>1800</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-1900</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
@@ -1493,17 +1530,17 @@
       <c r="F21" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G21" s="3" t="s">
-        <v>16</v>
+      <c r="G21" s="3">
+        <v>145200</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="I21" s="3">
-        <v>-26300</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>16</v>
+      <c r="I21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J21" s="3">
+        <v>-26800</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>16</v>
@@ -1526,59 +1563,62 @@
       <c r="Q21" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="R21" s="3">
+      <c r="R21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="S21" s="3">
         <v>37900</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>27000</v>
       </c>
-      <c r="T21" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="U21" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="V21" s="3">
+      <c r="V21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="W21" s="3">
         <v>-34100</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-58200</v>
       </c>
     </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>5500</v>
+        <v>5700</v>
       </c>
       <c r="E22" s="3">
-        <v>5100</v>
+        <v>5600</v>
       </c>
       <c r="F22" s="3">
-        <v>5300</v>
+        <v>5200</v>
       </c>
       <c r="G22" s="3">
-        <v>5500</v>
+        <v>5400</v>
       </c>
       <c r="H22" s="3">
+        <v>5600</v>
+      </c>
+      <c r="I22" s="3">
         <v>3500</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
+        <v>2400</v>
+      </c>
+      <c r="K22" s="3">
         <v>2300</v>
       </c>
-      <c r="J22" s="3">
-        <v>2300</v>
-      </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>2500</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>2400</v>
       </c>
-      <c r="M22" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="N22" s="3" t="s">
         <v>16</v>
       </c>
@@ -1591,8 +1631,8 @@
       <c r="Q22" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="R22" s="3">
-        <v>0</v>
+      <c r="R22" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="S22" s="3">
         <v>0</v>
@@ -1609,123 +1649,129 @@
       <c r="W22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-169400</v>
+        <v>-416100</v>
       </c>
       <c r="E23" s="3">
-        <v>-137400</v>
+        <v>-172200</v>
       </c>
       <c r="F23" s="3">
-        <v>-127600</v>
+        <v>-139700</v>
       </c>
       <c r="G23" s="3">
-        <v>-166900</v>
+        <v>-129800</v>
       </c>
       <c r="H23" s="3">
-        <v>-86100</v>
+        <v>-169700</v>
       </c>
       <c r="I23" s="3">
-        <v>-81500</v>
+        <v>-87500</v>
       </c>
       <c r="J23" s="3">
+        <v>-82800</v>
+      </c>
+      <c r="K23" s="3">
         <v>-58600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-62000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-46200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-28500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-26400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-32900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-9700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-7800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-7300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-1800</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-7100</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-9500</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-57600</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-74500</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>3300</v>
+        <v>4400</v>
       </c>
       <c r="E24" s="3">
+        <v>3400</v>
+      </c>
+      <c r="F24" s="3">
+        <v>2000</v>
+      </c>
+      <c r="G24" s="3">
+        <v>2300</v>
+      </c>
+      <c r="H24" s="3">
+        <v>2700</v>
+      </c>
+      <c r="I24" s="3">
         <v>1900</v>
       </c>
-      <c r="F24" s="3">
-        <v>2300</v>
-      </c>
-      <c r="G24" s="3">
-        <v>2700</v>
-      </c>
-      <c r="H24" s="3">
-        <v>1800</v>
-      </c>
-      <c r="I24" s="3">
-        <v>1400</v>
-      </c>
       <c r="J24" s="3">
+        <v>1500</v>
+      </c>
+      <c r="K24" s="3">
         <v>1100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>1300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>1900</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>1200</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>1300</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>1600</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>300</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>500</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>400</v>
-      </c>
-      <c r="S24" s="3">
-        <v>300</v>
       </c>
       <c r="T24" s="3">
         <v>300</v>
@@ -1734,13 +1780,16 @@
         <v>300</v>
       </c>
       <c r="V24" s="3">
+        <v>300</v>
+      </c>
+      <c r="W24" s="3">
         <v>500</v>
       </c>
-      <c r="W24" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1804,138 +1853,147 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-172700</v>
+        <v>-420600</v>
       </c>
       <c r="E26" s="3">
-        <v>-139300</v>
+        <v>-175600</v>
       </c>
       <c r="F26" s="3">
-        <v>-129900</v>
+        <v>-141700</v>
       </c>
       <c r="G26" s="3">
-        <v>-169500</v>
+        <v>-132100</v>
       </c>
       <c r="H26" s="3">
-        <v>-87900</v>
+        <v>-172400</v>
       </c>
       <c r="I26" s="3">
-        <v>-82900</v>
+        <v>-89400</v>
       </c>
       <c r="J26" s="3">
+        <v>-84300</v>
+      </c>
+      <c r="K26" s="3">
         <v>-59600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-63300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-48100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-29800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-27700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-34400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-10100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-8300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-7600</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-2200</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-7500</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-9800</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-58000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-74500</v>
       </c>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-172500</v>
+        <v>-419100</v>
       </c>
       <c r="E27" s="3">
-        <v>-139100</v>
+        <v>-175400</v>
       </c>
       <c r="F27" s="3">
-        <v>-127500</v>
+        <v>-141500</v>
       </c>
       <c r="G27" s="3">
-        <v>-166600</v>
+        <v>-129600</v>
       </c>
       <c r="H27" s="3">
-        <v>-87300</v>
+        <v>-169400</v>
       </c>
       <c r="I27" s="3">
-        <v>-82400</v>
+        <v>-88700</v>
       </c>
       <c r="J27" s="3">
+        <v>-83800</v>
+      </c>
+      <c r="K27" s="3">
         <v>-58900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-63600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-47800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-28300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-26100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-34300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-10200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-17200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-17800</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-12200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-36900</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-17500</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-65400</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-107000</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1999,8 +2057,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2064,8 +2125,11 @@
       <c r="W29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2129,8 +2193,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2194,138 +2261,147 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-70200</v>
+        <v>116400</v>
       </c>
       <c r="E32" s="3">
-        <v>-26500</v>
+        <v>-71400</v>
       </c>
       <c r="F32" s="3">
-        <v>-16800</v>
+        <v>-26900</v>
       </c>
       <c r="G32" s="3">
-        <v>-5500</v>
+        <v>-17100</v>
       </c>
       <c r="H32" s="3">
-        <v>-11400</v>
+        <v>-5600</v>
       </c>
       <c r="I32" s="3">
+        <v>-11600</v>
+      </c>
+      <c r="J32" s="3">
         <v>-4700</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-8400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-6500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-9000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-18100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-15500</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-3400</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-5600</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-2800</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-1900</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-2900</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-700</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-1800</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>1900</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-172500</v>
+        <v>-419100</v>
       </c>
       <c r="E33" s="3">
-        <v>-139100</v>
+        <v>-175400</v>
       </c>
       <c r="F33" s="3">
-        <v>-127500</v>
+        <v>-141500</v>
       </c>
       <c r="G33" s="3">
-        <v>-166600</v>
+        <v>-129600</v>
       </c>
       <c r="H33" s="3">
-        <v>-87300</v>
+        <v>-169400</v>
       </c>
       <c r="I33" s="3">
-        <v>-82400</v>
+        <v>-88700</v>
       </c>
       <c r="J33" s="3">
+        <v>-83800</v>
+      </c>
+      <c r="K33" s="3">
         <v>-58900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-63600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-47800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-28300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-26100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-34300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-10200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-17200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-17800</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-12200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-36900</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-17500</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-65400</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-107000</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2389,143 +2465,152 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-172500</v>
+        <v>-419100</v>
       </c>
       <c r="E35" s="3">
-        <v>-139100</v>
+        <v>-175400</v>
       </c>
       <c r="F35" s="3">
-        <v>-127500</v>
+        <v>-141500</v>
       </c>
       <c r="G35" s="3">
-        <v>-166600</v>
+        <v>-129600</v>
       </c>
       <c r="H35" s="3">
-        <v>-87300</v>
+        <v>-169400</v>
       </c>
       <c r="I35" s="3">
-        <v>-82400</v>
+        <v>-88700</v>
       </c>
       <c r="J35" s="3">
+        <v>-83800</v>
+      </c>
+      <c r="K35" s="3">
         <v>-58900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-63600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-47800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-28300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-26100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-34300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-10200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-17200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-17800</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-12200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-36900</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-17500</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-65400</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-107000</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42916</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42825</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42735</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2549,8 +2634,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2574,62 +2660,63 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1769800</v>
+        <v>1639200</v>
       </c>
       <c r="E41" s="3">
-        <v>2710300</v>
+        <v>1799400</v>
       </c>
       <c r="F41" s="3">
-        <v>720300</v>
+        <v>2755700</v>
       </c>
       <c r="G41" s="3">
-        <v>912700</v>
+        <v>732400</v>
       </c>
       <c r="H41" s="3">
-        <v>938400</v>
+        <v>928000</v>
       </c>
       <c r="I41" s="3">
-        <v>684500</v>
+        <v>954100</v>
       </c>
       <c r="J41" s="3">
+        <v>695900</v>
+      </c>
+      <c r="K41" s="3">
         <v>764200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>652000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>711800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>412900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>514100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>337000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>520100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>150800</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>113200</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>58700</v>
       </c>
-      <c r="T41" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="U41" s="3" t="s">
         <v>16</v>
       </c>
@@ -2639,62 +2726,65 @@
       <c r="W41" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X41" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>2475800</v>
+        <v>2185600</v>
       </c>
       <c r="E42" s="3">
-        <v>1452900</v>
+        <v>2517300</v>
       </c>
       <c r="F42" s="3">
-        <v>1251700</v>
+        <v>1477300</v>
       </c>
       <c r="G42" s="3">
-        <v>1258300</v>
+        <v>1272700</v>
       </c>
       <c r="H42" s="3">
-        <v>1456900</v>
+        <v>1279400</v>
       </c>
       <c r="I42" s="3">
-        <v>543900</v>
+        <v>1481300</v>
       </c>
       <c r="J42" s="3">
+        <v>553000</v>
+      </c>
+      <c r="K42" s="3">
         <v>478200</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>657600</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>596400</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>278200</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>246100</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>150600</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>49900</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>32800</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>75000</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>159200</v>
       </c>
-      <c r="T42" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="U42" s="3" t="s">
         <v>16</v>
       </c>
@@ -2704,62 +2794,65 @@
       <c r="W42" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>212200</v>
+        <v>211000</v>
       </c>
       <c r="E43" s="3">
-        <v>168300</v>
+        <v>215700</v>
       </c>
       <c r="F43" s="3">
-        <v>217500</v>
+        <v>171100</v>
       </c>
       <c r="G43" s="3">
-        <v>182600</v>
+        <v>221100</v>
       </c>
       <c r="H43" s="3">
-        <v>119100</v>
+        <v>185700</v>
       </c>
       <c r="I43" s="3">
-        <v>170900</v>
+        <v>121100</v>
       </c>
       <c r="J43" s="3">
+        <v>173700</v>
+      </c>
+      <c r="K43" s="3">
         <v>144800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>111700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>70700</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>86000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>47100</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>55900</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>54500</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>65400</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>67500</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>61600</v>
       </c>
-      <c r="T43" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="U43" s="3" t="s">
         <v>16</v>
       </c>
@@ -2769,8 +2862,11 @@
       <c r="W43" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X43" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2780,20 +2876,20 @@
       <c r="E44" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F44" s="3">
-        <v>24600</v>
-      </c>
-      <c r="G44" s="3" t="s">
-        <v>16</v>
+      <c r="F44" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G44" s="3">
+        <v>25100</v>
       </c>
       <c r="H44" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="I44" s="3">
-        <v>6500</v>
-      </c>
-      <c r="J44" s="3" t="s">
-        <v>16</v>
+      <c r="I44" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J44" s="3">
+        <v>6700</v>
       </c>
       <c r="K44" s="3" t="s">
         <v>16</v>
@@ -2816,15 +2912,15 @@
       <c r="Q44" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="R44" s="3">
+      <c r="R44" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="S44" s="3">
         <v>1500</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>1300</v>
       </c>
-      <c r="T44" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="U44" s="3" t="s">
         <v>16</v>
       </c>
@@ -2834,62 +2930,65 @@
       <c r="W44" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X44" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>607400</v>
+        <v>625600</v>
       </c>
       <c r="E45" s="3">
-        <v>525800</v>
+        <v>617600</v>
       </c>
       <c r="F45" s="3">
-        <v>209400</v>
+        <v>534600</v>
       </c>
       <c r="G45" s="3">
-        <v>278800</v>
+        <v>212900</v>
       </c>
       <c r="H45" s="3">
-        <v>298000</v>
+        <v>283500</v>
       </c>
       <c r="I45" s="3">
-        <v>170000</v>
+        <v>303000</v>
       </c>
       <c r="J45" s="3">
+        <v>172800</v>
+      </c>
+      <c r="K45" s="3">
         <v>202600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>254300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>252000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>182300</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>143900</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>111900</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>103000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>104400</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>62300</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>58500</v>
       </c>
-      <c r="T45" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="U45" s="3" t="s">
         <v>16</v>
       </c>
@@ -2899,62 +2998,65 @@
       <c r="W45" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X45" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>5065100</v>
+        <v>4661400</v>
       </c>
       <c r="E46" s="3">
-        <v>4857300</v>
+        <v>5150000</v>
       </c>
       <c r="F46" s="3">
-        <v>2423600</v>
+        <v>4938700</v>
       </c>
       <c r="G46" s="3">
-        <v>2632500</v>
+        <v>2464200</v>
       </c>
       <c r="H46" s="3">
-        <v>2812400</v>
+        <v>2676600</v>
       </c>
       <c r="I46" s="3">
-        <v>1575700</v>
+        <v>2859500</v>
       </c>
       <c r="J46" s="3">
+        <v>1602100</v>
+      </c>
+      <c r="K46" s="3">
         <v>1589700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1675500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1630900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>959400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>951300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>655400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>727500</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>353400</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>319500</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>339400</v>
       </c>
-      <c r="T46" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="U46" s="3" t="s">
         <v>16</v>
       </c>
@@ -2964,62 +3066,65 @@
       <c r="W46" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X46" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>474300</v>
+        <v>655400</v>
       </c>
       <c r="E47" s="3">
-        <v>333800</v>
+        <v>482200</v>
       </c>
       <c r="F47" s="3">
-        <v>343800</v>
+        <v>339400</v>
       </c>
       <c r="G47" s="3">
-        <v>238500</v>
+        <v>349600</v>
       </c>
       <c r="H47" s="3">
-        <v>249800</v>
+        <v>242500</v>
       </c>
       <c r="I47" s="3">
-        <v>222700</v>
+        <v>254000</v>
       </c>
       <c r="J47" s="3">
+        <v>226400</v>
+      </c>
+      <c r="K47" s="3">
         <v>192600</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>221700</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>244600</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>186800</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>142300</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>140400</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>117600</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>106800</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>94400</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>80100</v>
       </c>
-      <c r="T47" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="U47" s="3" t="s">
         <v>16</v>
       </c>
@@ -3029,62 +3134,65 @@
       <c r="W47" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X47" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>167400</v>
+        <v>213500</v>
       </c>
       <c r="E48" s="3">
-        <v>138700</v>
+        <v>170200</v>
       </c>
       <c r="F48" s="3">
-        <v>117300</v>
+        <v>141100</v>
       </c>
       <c r="G48" s="3">
-        <v>121300</v>
+        <v>119300</v>
       </c>
       <c r="H48" s="3">
-        <v>107600</v>
+        <v>123300</v>
       </c>
       <c r="I48" s="3">
-        <v>74100</v>
+        <v>109400</v>
       </c>
       <c r="J48" s="3">
+        <v>75300</v>
+      </c>
+      <c r="K48" s="3">
         <v>79500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>73700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>69800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>55200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>57400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>44900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>35600</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>28700</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>27700</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>20000</v>
       </c>
-      <c r="T48" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="U48" s="3" t="s">
         <v>16</v>
       </c>
@@ -3094,62 +3202,65 @@
       <c r="W48" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X48" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>689300</v>
+        <v>766000</v>
       </c>
       <c r="E49" s="3">
-        <v>679400</v>
+        <v>700900</v>
       </c>
       <c r="F49" s="3">
-        <v>562400</v>
+        <v>690800</v>
       </c>
       <c r="G49" s="3">
-        <v>564200</v>
+        <v>571900</v>
       </c>
       <c r="H49" s="3">
-        <v>462000</v>
+        <v>573600</v>
       </c>
       <c r="I49" s="3">
-        <v>435300</v>
+        <v>469800</v>
       </c>
       <c r="J49" s="3">
+        <v>442600</v>
+      </c>
+      <c r="K49" s="3">
         <v>411000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>395800</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>382200</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>350600</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>342900</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>218100</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>131900</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>105700</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>70800</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>64200</v>
       </c>
-      <c r="T49" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="U49" s="3" t="s">
         <v>16</v>
       </c>
@@ -3159,8 +3270,11 @@
       <c r="W49" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X49" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3224,8 +3338,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3289,62 +3406,65 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>270100</v>
+        <v>352400</v>
       </c>
       <c r="E52" s="3">
-        <v>213000</v>
+        <v>274700</v>
       </c>
       <c r="F52" s="3">
-        <v>227600</v>
+        <v>216500</v>
       </c>
       <c r="G52" s="3">
-        <v>192400</v>
+        <v>231500</v>
       </c>
       <c r="H52" s="3">
-        <v>136300</v>
+        <v>195700</v>
       </c>
       <c r="I52" s="3">
-        <v>120700</v>
+        <v>138600</v>
       </c>
       <c r="J52" s="3">
+        <v>122700</v>
+      </c>
+      <c r="K52" s="3">
         <v>116400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>106100</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>86500</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>71700</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>29700</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>10200</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>7600</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>4400</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>3100</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>1800</v>
       </c>
-      <c r="T52" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="U52" s="3" t="s">
         <v>16</v>
       </c>
@@ -3354,8 +3474,11 @@
       <c r="W52" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X52" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3419,62 +3542,65 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>6666300</v>
+        <v>6648600</v>
       </c>
       <c r="E54" s="3">
-        <v>6222100</v>
+        <v>6778000</v>
       </c>
       <c r="F54" s="3">
-        <v>3674800</v>
+        <v>6326400</v>
       </c>
       <c r="G54" s="3">
-        <v>3748900</v>
+        <v>3736400</v>
       </c>
       <c r="H54" s="3">
-        <v>3768200</v>
+        <v>3811700</v>
       </c>
       <c r="I54" s="3">
-        <v>2428500</v>
+        <v>3831400</v>
       </c>
       <c r="J54" s="3">
+        <v>2469200</v>
+      </c>
+      <c r="K54" s="3">
         <v>2389200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>2472900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>2413900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1623700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1523500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1069000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1020200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>598900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>515500</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>505500</v>
       </c>
-      <c r="T54" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="U54" s="3" t="s">
         <v>16</v>
       </c>
@@ -3484,8 +3610,11 @@
       <c r="W54" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X54" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3509,8 +3638,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3534,62 +3664,63 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>558600</v>
+        <v>657300</v>
       </c>
       <c r="E57" s="3">
-        <v>477300</v>
+        <v>568000</v>
       </c>
       <c r="F57" s="3">
-        <v>473400</v>
+        <v>485300</v>
       </c>
       <c r="G57" s="3">
-        <v>451600</v>
+        <v>481300</v>
       </c>
       <c r="H57" s="3">
-        <v>404600</v>
+        <v>459200</v>
       </c>
       <c r="I57" s="3">
-        <v>328300</v>
+        <v>411400</v>
       </c>
       <c r="J57" s="3">
+        <v>333800</v>
+      </c>
+      <c r="K57" s="3">
         <v>293200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>296500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>262500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>216700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>189900</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>146900</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>135800</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>124500</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>88500</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>81100</v>
       </c>
-      <c r="T57" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="U57" s="3" t="s">
         <v>16</v>
       </c>
@@ -3599,44 +3730,47 @@
       <c r="W57" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X57" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>59800</v>
+        <v>146300</v>
       </c>
       <c r="E58" s="3">
-        <v>15400</v>
+        <v>60800</v>
       </c>
       <c r="F58" s="3">
-        <v>15400</v>
+        <v>15700</v>
       </c>
       <c r="G58" s="3">
-        <v>15400</v>
+        <v>15700</v>
       </c>
       <c r="H58" s="3">
-        <v>15400</v>
+        <v>15700</v>
       </c>
       <c r="I58" s="3">
-        <v>15400</v>
-      </c>
-      <c r="J58" s="3" t="s">
-        <v>16</v>
+        <v>15700</v>
+      </c>
+      <c r="J58" s="3">
+        <v>15700</v>
       </c>
       <c r="K58" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="L58" s="3">
+      <c r="L58" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M58" s="3">
         <v>15300</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>15200</v>
       </c>
-      <c r="N58" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="O58" s="3" t="s">
         <v>16</v>
       </c>
@@ -3646,8 +3780,8 @@
       <c r="Q58" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="R58" s="3">
-        <v>0</v>
+      <c r="R58" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="S58" s="3">
         <v>0</v>
@@ -3664,62 +3798,65 @@
       <c r="W58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>828800</v>
+        <v>894600</v>
       </c>
       <c r="E59" s="3">
-        <v>668600</v>
+        <v>842700</v>
       </c>
       <c r="F59" s="3">
-        <v>649400</v>
+        <v>679800</v>
       </c>
       <c r="G59" s="3">
-        <v>612400</v>
+        <v>660300</v>
       </c>
       <c r="H59" s="3">
-        <v>438500</v>
+        <v>622600</v>
       </c>
       <c r="I59" s="3">
-        <v>395800</v>
+        <v>445800</v>
       </c>
       <c r="J59" s="3">
+        <v>402400</v>
+      </c>
+      <c r="K59" s="3">
         <v>364700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>344300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>304500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>336300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>289200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>215500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>172600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>184600</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>118900</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>106700</v>
       </c>
-      <c r="T59" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="U59" s="3" t="s">
         <v>16</v>
       </c>
@@ -3729,62 +3866,65 @@
       <c r="W59" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X59" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1447200</v>
+        <v>1698100</v>
       </c>
       <c r="E60" s="3">
-        <v>1161300</v>
+        <v>1471400</v>
       </c>
       <c r="F60" s="3">
-        <v>1138200</v>
+        <v>1180800</v>
       </c>
       <c r="G60" s="3">
-        <v>1079400</v>
+        <v>1157200</v>
       </c>
       <c r="H60" s="3">
-        <v>858500</v>
+        <v>1097400</v>
       </c>
       <c r="I60" s="3">
-        <v>739500</v>
+        <v>872900</v>
       </c>
       <c r="J60" s="3">
+        <v>751900</v>
+      </c>
+      <c r="K60" s="3">
         <v>657900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>640800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>582300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>568200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>479100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>362400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>308400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>309100</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>207500</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>187800</v>
       </c>
-      <c r="T60" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="U60" s="3" t="s">
         <v>16</v>
       </c>
@@ -3794,41 +3934,44 @@
       <c r="W60" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X60" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1258700</v>
+        <v>1230000</v>
       </c>
       <c r="E61" s="3">
-        <v>1280000</v>
+        <v>1279800</v>
       </c>
       <c r="F61" s="3">
-        <v>1284300</v>
+        <v>1301400</v>
       </c>
       <c r="G61" s="3">
-        <v>1339500</v>
+        <v>1305900</v>
       </c>
       <c r="H61" s="3">
-        <v>1391600</v>
+        <v>1362000</v>
       </c>
       <c r="I61" s="3">
-        <v>534400</v>
+        <v>1414900</v>
       </c>
       <c r="J61" s="3">
+        <v>543400</v>
+      </c>
+      <c r="K61" s="3">
         <v>525800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>539700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>513200</v>
       </c>
-      <c r="M61" s="3">
-        <v>0</v>
-      </c>
       <c r="N61" s="3">
         <v>0</v>
       </c>
@@ -3859,41 +4002,44 @@
       <c r="W61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>44000</v>
+        <v>53300</v>
       </c>
       <c r="E62" s="3">
-        <v>48500</v>
+        <v>44700</v>
       </c>
       <c r="F62" s="3">
-        <v>54000</v>
+        <v>49400</v>
       </c>
       <c r="G62" s="3">
-        <v>34900</v>
+        <v>54900</v>
       </c>
       <c r="H62" s="3">
-        <v>30400</v>
+        <v>35500</v>
       </c>
       <c r="I62" s="3">
-        <v>26700</v>
+        <v>30900</v>
       </c>
       <c r="J62" s="3">
+        <v>27200</v>
+      </c>
+      <c r="K62" s="3">
         <v>29700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>31700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>26000</v>
       </c>
-      <c r="M62" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="N62" s="3" t="s">
         <v>16</v>
       </c>
@@ -3906,8 +4052,8 @@
       <c r="Q62" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="R62" s="3">
-        <v>0</v>
+      <c r="R62" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="S62" s="3">
         <v>0</v>
@@ -3924,8 +4070,11 @@
       <c r="W62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3989,8 +4138,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4054,8 +4206,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4119,62 +4274,65 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>2756900</v>
+        <v>2987300</v>
       </c>
       <c r="E66" s="3">
-        <v>2515700</v>
+        <v>2803100</v>
       </c>
       <c r="F66" s="3">
-        <v>2504500</v>
+        <v>2557800</v>
       </c>
       <c r="G66" s="3">
-        <v>2484300</v>
+        <v>2546500</v>
       </c>
       <c r="H66" s="3">
-        <v>2391600</v>
+        <v>2526000</v>
       </c>
       <c r="I66" s="3">
-        <v>1412500</v>
+        <v>2431700</v>
       </c>
       <c r="J66" s="3">
+        <v>1436100</v>
+      </c>
+      <c r="K66" s="3">
         <v>1303300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1295800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1157000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>603900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>514000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>381800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>308300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>308900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>207500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>187800</v>
       </c>
-      <c r="T66" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="U66" s="3" t="s">
         <v>16</v>
       </c>
@@ -4184,8 +4342,11 @@
       <c r="W66" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X66" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4209,8 +4370,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4274,8 +4436,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4339,8 +4504,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4387,14 +4555,14 @@
         <v>0</v>
       </c>
       <c r="R70" s="3">
+        <v>0</v>
+      </c>
+      <c r="S70" s="3">
         <v>595900</v>
       </c>
-      <c r="S70" s="3">
+      <c r="T70" s="3">
         <v>585800</v>
       </c>
-      <c r="T70" s="3">
-        <v>0</v>
-      </c>
       <c r="U70" s="3">
         <v>0</v>
       </c>
@@ -4404,8 +4572,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4469,8 +4640,11 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -4480,51 +4654,51 @@
       <c r="E72" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F72" s="3">
-        <v>-1102100</v>
-      </c>
-      <c r="G72" s="3" t="s">
-        <v>16</v>
+      <c r="F72" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G72" s="3">
+        <v>-1120600</v>
       </c>
       <c r="H72" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="I72" s="3">
-        <v>-721200</v>
+      <c r="I72" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="J72" s="3">
+        <v>-733300</v>
+      </c>
+      <c r="K72" s="3">
         <v>-636300</v>
       </c>
-      <c r="K72" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="L72" s="3" t="s">
         <v>16</v>
       </c>
       <c r="M72" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="N72" s="3">
+      <c r="N72" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="O72" s="3">
         <v>-411700</v>
       </c>
-      <c r="O72" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="P72" s="3" t="s">
         <v>16</v>
       </c>
       <c r="Q72" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="R72" s="3">
+      <c r="R72" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="S72" s="3">
         <v>-329300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-311600</v>
       </c>
-      <c r="T72" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="U72" s="3" t="s">
         <v>16</v>
       </c>
@@ -4534,8 +4708,11 @@
       <c r="W72" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X72" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4599,8 +4776,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4664,8 +4844,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4729,62 +4912,65 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>3909400</v>
+        <v>3661400</v>
       </c>
       <c r="E76" s="3">
-        <v>3706500</v>
+        <v>3974900</v>
       </c>
       <c r="F76" s="3">
-        <v>1170300</v>
+        <v>3768600</v>
       </c>
       <c r="G76" s="3">
-        <v>1264500</v>
+        <v>1189900</v>
       </c>
       <c r="H76" s="3">
-        <v>1376600</v>
+        <v>1285700</v>
       </c>
       <c r="I76" s="3">
-        <v>1016100</v>
+        <v>1399600</v>
       </c>
       <c r="J76" s="3">
+        <v>1033100</v>
+      </c>
+      <c r="K76" s="3">
         <v>1085900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1177100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1256900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1019800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1009500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>687300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>711900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>290000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-287800</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-268000</v>
       </c>
-      <c r="T76" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="U76" s="3" t="s">
         <v>16</v>
       </c>
@@ -4794,8 +4980,11 @@
       <c r="W76" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X76" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4859,143 +5048,152 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42916</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42825</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42735</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-172500</v>
+        <v>-419100</v>
       </c>
       <c r="E81" s="3">
-        <v>-139100</v>
+        <v>-175400</v>
       </c>
       <c r="F81" s="3">
-        <v>-127500</v>
+        <v>-141500</v>
       </c>
       <c r="G81" s="3">
-        <v>-166600</v>
+        <v>-129600</v>
       </c>
       <c r="H81" s="3">
-        <v>-87300</v>
+        <v>-169400</v>
       </c>
       <c r="I81" s="3">
-        <v>-82400</v>
+        <v>-88700</v>
       </c>
       <c r="J81" s="3">
+        <v>-83800</v>
+      </c>
+      <c r="K81" s="3">
         <v>-58900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-63600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-47800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-28300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-26100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-34300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-10200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-17200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-17800</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-12200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-36900</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-17500</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-65400</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-107000</v>
       </c>
     </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5019,8 +5217,9 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5033,14 +5232,14 @@
       <c r="F83" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G83" s="3" t="s">
-        <v>16</v>
+      <c r="G83" s="3">
+        <v>269500</v>
       </c>
       <c r="H83" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="I83" s="3">
-        <v>52800</v>
+      <c r="I83" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="J83" s="3" t="s">
         <v>16</v>
@@ -5060,8 +5259,8 @@
       <c r="O83" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="P83" s="3">
-        <v>0</v>
+      <c r="P83" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="Q83" s="3">
         <v>0</v>
@@ -5075,8 +5274,8 @@
       <c r="T83" s="3">
         <v>0</v>
       </c>
-      <c r="U83" s="3" t="s">
-        <v>16</v>
+      <c r="U83" s="3">
+        <v>0</v>
       </c>
       <c r="V83" s="3" t="s">
         <v>16</v>
@@ -5084,8 +5283,11 @@
       <c r="W83" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X83" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5149,8 +5351,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5214,8 +5419,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5279,8 +5487,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5344,8 +5555,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5409,8 +5623,11 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -5423,14 +5640,14 @@
       <c r="F89" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G89" s="3" t="s">
-        <v>16</v>
+      <c r="G89" s="3">
+        <v>117900</v>
       </c>
       <c r="H89" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="I89" s="3">
-        <v>44400</v>
+      <c r="I89" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="J89" s="3" t="s">
         <v>16</v>
@@ -5450,8 +5667,8 @@
       <c r="O89" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="P89" s="3">
-        <v>0</v>
+      <c r="P89" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="Q89" s="3">
         <v>0</v>
@@ -5465,8 +5682,8 @@
       <c r="T89" s="3">
         <v>0</v>
       </c>
-      <c r="U89" s="3" t="s">
-        <v>16</v>
+      <c r="U89" s="3">
+        <v>0</v>
       </c>
       <c r="V89" s="3" t="s">
         <v>16</v>
@@ -5474,8 +5691,11 @@
       <c r="W89" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X89" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5499,8 +5719,9 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5513,14 +5734,14 @@
       <c r="F91" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G91" s="3" t="s">
-        <v>16</v>
+      <c r="G91" s="3">
+        <v>-94300</v>
       </c>
       <c r="H91" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="I91" s="3">
-        <v>-10300</v>
+      <c r="I91" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="J91" s="3" t="s">
         <v>16</v>
@@ -5540,8 +5761,8 @@
       <c r="O91" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="P91" s="3">
-        <v>0</v>
+      <c r="P91" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="Q91" s="3">
         <v>0</v>
@@ -5555,8 +5776,8 @@
       <c r="T91" s="3">
         <v>0</v>
       </c>
-      <c r="U91" s="3" t="s">
-        <v>16</v>
+      <c r="U91" s="3">
+        <v>0</v>
       </c>
       <c r="V91" s="3" t="s">
         <v>16</v>
@@ -5564,8 +5785,11 @@
       <c r="W91" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X91" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5629,8 +5853,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5694,8 +5921,11 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5708,14 +5938,14 @@
       <c r="F94" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G94" s="3" t="s">
-        <v>16</v>
+      <c r="G94" s="3">
+        <v>-1394500</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="I94" s="3">
-        <v>-159700</v>
+      <c r="I94" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="J94" s="3" t="s">
         <v>16</v>
@@ -5735,8 +5965,8 @@
       <c r="O94" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="P94" s="3">
-        <v>0</v>
+      <c r="P94" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="Q94" s="3">
         <v>0</v>
@@ -5750,8 +5980,8 @@
       <c r="T94" s="3">
         <v>0</v>
       </c>
-      <c r="U94" s="3" t="s">
-        <v>16</v>
+      <c r="U94" s="3">
+        <v>0</v>
       </c>
       <c r="V94" s="3" t="s">
         <v>16</v>
@@ -5759,8 +5989,11 @@
       <c r="W94" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X94" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5784,8 +6017,9 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5849,8 +6083,11 @@
       <c r="W96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5914,8 +6151,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5979,8 +6219,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6044,8 +6287,11 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -6058,14 +6304,14 @@
       <c r="F100" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G100" s="3" t="s">
-        <v>16</v>
+      <c r="G100" s="3">
+        <v>1305000</v>
       </c>
       <c r="H100" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="I100" s="3">
-        <v>29100</v>
+      <c r="I100" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="J100" s="3" t="s">
         <v>16</v>
@@ -6085,8 +6331,8 @@
       <c r="O100" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="P100" s="3">
-        <v>0</v>
+      <c r="P100" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="Q100" s="3">
         <v>0</v>
@@ -6100,8 +6346,8 @@
       <c r="T100" s="3">
         <v>0</v>
       </c>
-      <c r="U100" s="3" t="s">
-        <v>16</v>
+      <c r="U100" s="3">
+        <v>0</v>
       </c>
       <c r="V100" s="3" t="s">
         <v>16</v>
@@ -6109,8 +6355,11 @@
       <c r="W100" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X100" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6123,14 +6372,14 @@
       <c r="F101" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G101" s="3" t="s">
-        <v>16</v>
+      <c r="G101" s="3">
+        <v>-73000</v>
       </c>
       <c r="H101" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="I101" s="3">
-        <v>6500</v>
+      <c r="I101" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="J101" s="3" t="s">
         <v>16</v>
@@ -6150,8 +6399,8 @@
       <c r="O101" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="P101" s="3">
-        <v>0</v>
+      <c r="P101" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="Q101" s="3">
         <v>0</v>
@@ -6165,8 +6414,8 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-      <c r="U101" s="3" t="s">
-        <v>16</v>
+      <c r="U101" s="3">
+        <v>0</v>
       </c>
       <c r="V101" s="3" t="s">
         <v>16</v>
@@ -6174,8 +6423,11 @@
       <c r="W101" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X101" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -6188,14 +6440,14 @@
       <c r="F102" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G102" s="3" t="s">
-        <v>16</v>
+      <c r="G102" s="3">
+        <v>-44500</v>
       </c>
       <c r="H102" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="I102" s="3">
-        <v>-79700</v>
+      <c r="I102" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="J102" s="3" t="s">
         <v>16</v>
@@ -6215,8 +6467,8 @@
       <c r="O102" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="P102" s="3">
-        <v>0</v>
+      <c r="P102" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="Q102" s="3">
         <v>0</v>
@@ -6230,13 +6482,16 @@
       <c r="T102" s="3">
         <v>0</v>
       </c>
-      <c r="U102" s="3" t="s">
-        <v>16</v>
+      <c r="U102" s="3">
+        <v>0</v>
       </c>
       <c r="V102" s="3" t="s">
         <v>16</v>
       </c>
       <c r="W102" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="X102" s="3" t="s">
         <v>16</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BILI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BILI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="92">
   <si>
     <t>BILI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,308 +665,320 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43100</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43008</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42916</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42825</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42735</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>815100</v>
+        <v>912000</v>
       </c>
       <c r="E8" s="3">
-        <v>703800</v>
+        <v>821400</v>
       </c>
       <c r="F8" s="3">
-        <v>610800</v>
+        <v>709200</v>
       </c>
       <c r="G8" s="3">
-        <v>601200</v>
+        <v>615400</v>
       </c>
       <c r="H8" s="3">
-        <v>505000</v>
+        <v>605800</v>
       </c>
       <c r="I8" s="3">
-        <v>409800</v>
+        <v>508900</v>
       </c>
       <c r="J8" s="3">
+        <v>413000</v>
+      </c>
+      <c r="K8" s="3">
         <v>362500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>309200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>290000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>234900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>208900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>167800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>151000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>147300</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>124500</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>108900</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>108000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>86500</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>61700</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>31600</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>44500</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>655700</v>
+        <v>738800</v>
       </c>
       <c r="E9" s="3">
-        <v>548900</v>
+        <v>660700</v>
       </c>
       <c r="F9" s="3">
-        <v>463900</v>
+        <v>553100</v>
       </c>
       <c r="G9" s="3">
-        <v>453400</v>
+        <v>467500</v>
       </c>
       <c r="H9" s="3">
-        <v>385800</v>
+        <v>456900</v>
       </c>
       <c r="I9" s="3">
-        <v>315200</v>
+        <v>388700</v>
       </c>
       <c r="J9" s="3">
+        <v>317700</v>
+      </c>
+      <c r="K9" s="3">
         <v>279500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>247900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>235200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>196500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>180100</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>139200</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>123800</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>111300</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>94000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>82800</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>82100</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>66100</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>52800</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>35200</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>77100</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>159500</v>
+        <v>173200</v>
       </c>
       <c r="E10" s="3">
-        <v>154800</v>
+        <v>160700</v>
       </c>
       <c r="F10" s="3">
-        <v>146800</v>
+        <v>156000</v>
       </c>
       <c r="G10" s="3">
-        <v>147800</v>
+        <v>148000</v>
       </c>
       <c r="H10" s="3">
-        <v>119200</v>
+        <v>148900</v>
       </c>
       <c r="I10" s="3">
-        <v>94600</v>
+        <v>120100</v>
       </c>
       <c r="J10" s="3">
+        <v>95300</v>
+      </c>
+      <c r="K10" s="3">
         <v>83000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>61300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>54800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>38500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>28800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>28600</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>27200</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>36000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>30600</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>26100</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>25900</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>20400</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>8900</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>-3600</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>-32700</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -991,76 +1003,80 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>123400</v>
+        <v>125800</v>
       </c>
       <c r="E12" s="3">
-        <v>105500</v>
+        <v>124400</v>
       </c>
       <c r="F12" s="3">
-        <v>90800</v>
+        <v>106300</v>
       </c>
       <c r="G12" s="3">
-        <v>75800</v>
+        <v>91500</v>
       </c>
       <c r="H12" s="3">
-        <v>62800</v>
+        <v>76400</v>
       </c>
       <c r="I12" s="3">
-        <v>51800</v>
+        <v>63300</v>
       </c>
       <c r="J12" s="3">
+        <v>52200</v>
+      </c>
+      <c r="K12" s="3">
         <v>46600</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>37800</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>38600</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>33000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>28300</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>22300</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>20500</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>18900</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>15200</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>12900</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>11100</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>9400</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>8000</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>4300</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>9000</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1127,8 +1143,11 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1195,8 +1214,11 @@
       <c r="X14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1263,8 +1285,11 @@
       <c r="X15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1286,144 +1311,151 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>1109200</v>
+        <v>1227400</v>
       </c>
       <c r="E17" s="3">
-        <v>941800</v>
+        <v>1117700</v>
       </c>
       <c r="F17" s="3">
-        <v>772200</v>
+        <v>949100</v>
       </c>
       <c r="G17" s="3">
-        <v>742600</v>
+        <v>778100</v>
       </c>
       <c r="H17" s="3">
-        <v>674600</v>
+        <v>748300</v>
       </c>
       <c r="I17" s="3">
-        <v>505300</v>
+        <v>679800</v>
       </c>
       <c r="J17" s="3">
+        <v>509200</v>
+      </c>
+      <c r="K17" s="3">
         <v>447700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>373800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>356000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>287700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>255600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>209800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>187200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>162600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>135200</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>118100</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>112700</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>94300</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>73000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>87300</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>118900</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>-294000</v>
+        <v>-315400</v>
       </c>
       <c r="E18" s="3">
-        <v>-238100</v>
+        <v>-296300</v>
       </c>
       <c r="F18" s="3">
-        <v>-161400</v>
+        <v>-239900</v>
       </c>
       <c r="G18" s="3">
-        <v>-141400</v>
+        <v>-162600</v>
       </c>
       <c r="H18" s="3">
-        <v>-169600</v>
+        <v>-142500</v>
       </c>
       <c r="I18" s="3">
-        <v>-95500</v>
+        <v>-170900</v>
       </c>
       <c r="J18" s="3">
+        <v>-96300</v>
+      </c>
+      <c r="K18" s="3">
         <v>-85200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-64700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-66000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-52800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-46700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-41900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-36300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-15300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-10700</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-9200</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-4700</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-7800</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-11300</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-55700</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-74500</v>
       </c>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1448,76 +1480,80 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>-116400</v>
+        <v>-2100</v>
       </c>
       <c r="E20" s="3">
-        <v>71400</v>
+        <v>-117300</v>
       </c>
       <c r="F20" s="3">
-        <v>26900</v>
+        <v>71900</v>
       </c>
       <c r="G20" s="3">
-        <v>17100</v>
+        <v>27100</v>
       </c>
       <c r="H20" s="3">
+        <v>17200</v>
+      </c>
+      <c r="I20" s="3">
         <v>5600</v>
       </c>
-      <c r="I20" s="3">
-        <v>11600</v>
-      </c>
       <c r="J20" s="3">
+        <v>11700</v>
+      </c>
+      <c r="K20" s="3">
         <v>4700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>8400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>6500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>9000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>18100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>15500</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>3400</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>5600</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>2800</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>1900</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>2900</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>700</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>1800</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-1900</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
@@ -1530,21 +1566,21 @@
       <c r="F21" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G21" s="3">
-        <v>145200</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>16</v>
+      <c r="G21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H21" s="3">
+        <v>146300</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="J21" s="3">
+      <c r="J21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K21" s="3">
         <v>-26800</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="L21" s="3" t="s">
         <v>16</v>
       </c>
@@ -1566,62 +1602,65 @@
       <c r="R21" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="S21" s="3">
+      <c r="S21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="T21" s="3">
         <v>37900</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>27000</v>
       </c>
-      <c r="U21" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="V21" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="W21" s="3">
+      <c r="W21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="X21" s="3">
         <v>-34100</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>-58200</v>
       </c>
     </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>7900</v>
+      </c>
+      <c r="E22" s="3">
+        <v>5800</v>
+      </c>
+      <c r="F22" s="3">
+        <v>5600</v>
+      </c>
+      <c r="G22" s="3">
+        <v>5200</v>
+      </c>
+      <c r="H22" s="3">
+        <v>5500</v>
+      </c>
+      <c r="I22" s="3">
         <v>5700</v>
       </c>
-      <c r="E22" s="3">
-        <v>5600</v>
-      </c>
-      <c r="F22" s="3">
-        <v>5200</v>
-      </c>
-      <c r="G22" s="3">
-        <v>5400</v>
-      </c>
-      <c r="H22" s="3">
-        <v>5600</v>
-      </c>
-      <c r="I22" s="3">
-        <v>3500</v>
-      </c>
       <c r="J22" s="3">
+        <v>3600</v>
+      </c>
+      <c r="K22" s="3">
         <v>2400</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>2300</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>2500</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>2400</v>
       </c>
-      <c r="N22" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="O22" s="3" t="s">
         <v>16</v>
       </c>
@@ -1634,8 +1673,8 @@
       <c r="R22" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="S22" s="3">
-        <v>0</v>
+      <c r="S22" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="T22" s="3">
         <v>0</v>
@@ -1652,129 +1691,135 @@
       <c r="X22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-416100</v>
+        <v>-325500</v>
       </c>
       <c r="E23" s="3">
-        <v>-172200</v>
+        <v>-419300</v>
       </c>
       <c r="F23" s="3">
-        <v>-139700</v>
+        <v>-173600</v>
       </c>
       <c r="G23" s="3">
-        <v>-129800</v>
+        <v>-140800</v>
       </c>
       <c r="H23" s="3">
-        <v>-169700</v>
+        <v>-130800</v>
       </c>
       <c r="I23" s="3">
-        <v>-87500</v>
+        <v>-171000</v>
       </c>
       <c r="J23" s="3">
+        <v>-88200</v>
+      </c>
+      <c r="K23" s="3">
         <v>-82800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-58600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-62000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-46200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-28500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-26400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-32900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-9700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-7800</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-7300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-1800</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-7100</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-9500</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-57600</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-74500</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>4400</v>
+        <v>5200</v>
       </c>
       <c r="E24" s="3">
+        <v>4500</v>
+      </c>
+      <c r="F24" s="3">
         <v>3400</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>2000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>2300</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>2700</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>1900</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>1500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>1100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>1300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>1900</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>1200</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>1300</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>1600</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>300</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>500</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>400</v>
-      </c>
-      <c r="T24" s="3">
-        <v>300</v>
       </c>
       <c r="U24" s="3">
         <v>300</v>
@@ -1783,13 +1828,16 @@
         <v>300</v>
       </c>
       <c r="W24" s="3">
+        <v>300</v>
+      </c>
+      <c r="X24" s="3">
         <v>500</v>
       </c>
-      <c r="X24" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1856,144 +1904,153 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-420600</v>
+        <v>-330600</v>
       </c>
       <c r="E26" s="3">
-        <v>-175600</v>
+        <v>-423800</v>
       </c>
       <c r="F26" s="3">
-        <v>-141700</v>
+        <v>-177000</v>
       </c>
       <c r="G26" s="3">
-        <v>-132100</v>
+        <v>-142800</v>
       </c>
       <c r="H26" s="3">
-        <v>-172400</v>
+        <v>-133100</v>
       </c>
       <c r="I26" s="3">
-        <v>-89400</v>
+        <v>-173700</v>
       </c>
       <c r="J26" s="3">
+        <v>-90100</v>
+      </c>
+      <c r="K26" s="3">
         <v>-84300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-59600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-63300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-48100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-29800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-27700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-34400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-10100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-8300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-7600</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-2200</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-7500</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-9800</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-58000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-74500</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-419100</v>
+        <v>-329400</v>
       </c>
       <c r="E27" s="3">
-        <v>-175400</v>
+        <v>-422300</v>
       </c>
       <c r="F27" s="3">
-        <v>-141500</v>
+        <v>-176800</v>
       </c>
       <c r="G27" s="3">
-        <v>-129600</v>
+        <v>-142500</v>
       </c>
       <c r="H27" s="3">
-        <v>-169400</v>
+        <v>-130600</v>
       </c>
       <c r="I27" s="3">
-        <v>-88700</v>
+        <v>-170700</v>
       </c>
       <c r="J27" s="3">
+        <v>-89400</v>
+      </c>
+      <c r="K27" s="3">
         <v>-83800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-58900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-63600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-47800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-28300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-26100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-34300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-10200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-17200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-17800</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-12200</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-36900</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-17500</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-65400</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-107000</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2060,8 +2117,11 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2128,8 +2188,11 @@
       <c r="X29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2196,8 +2259,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2264,144 +2330,153 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>116400</v>
+        <v>2100</v>
       </c>
       <c r="E32" s="3">
-        <v>-71400</v>
+        <v>117300</v>
       </c>
       <c r="F32" s="3">
-        <v>-26900</v>
+        <v>-71900</v>
       </c>
       <c r="G32" s="3">
-        <v>-17100</v>
+        <v>-27100</v>
       </c>
       <c r="H32" s="3">
+        <v>-17200</v>
+      </c>
+      <c r="I32" s="3">
         <v>-5600</v>
       </c>
-      <c r="I32" s="3">
-        <v>-11600</v>
-      </c>
       <c r="J32" s="3">
+        <v>-11700</v>
+      </c>
+      <c r="K32" s="3">
         <v>-4700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-8400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-6500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-9000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-18100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-15500</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-3400</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-5600</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-2800</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-1900</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-2900</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-700</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-1800</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>1900</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-419100</v>
+        <v>-329400</v>
       </c>
       <c r="E33" s="3">
-        <v>-175400</v>
+        <v>-422300</v>
       </c>
       <c r="F33" s="3">
-        <v>-141500</v>
+        <v>-176800</v>
       </c>
       <c r="G33" s="3">
-        <v>-129600</v>
+        <v>-142500</v>
       </c>
       <c r="H33" s="3">
-        <v>-169400</v>
+        <v>-130600</v>
       </c>
       <c r="I33" s="3">
-        <v>-88700</v>
+        <v>-170700</v>
       </c>
       <c r="J33" s="3">
+        <v>-89400</v>
+      </c>
+      <c r="K33" s="3">
         <v>-83800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-58900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-63600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-47800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-28300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-26100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-34300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-10200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-17200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-17800</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-12200</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-36900</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-17500</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-65400</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-107000</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2468,149 +2543,158 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-419100</v>
+        <v>-329400</v>
       </c>
       <c r="E35" s="3">
-        <v>-175400</v>
+        <v>-422300</v>
       </c>
       <c r="F35" s="3">
-        <v>-141500</v>
+        <v>-176800</v>
       </c>
       <c r="G35" s="3">
-        <v>-129600</v>
+        <v>-142500</v>
       </c>
       <c r="H35" s="3">
-        <v>-169400</v>
+        <v>-130600</v>
       </c>
       <c r="I35" s="3">
-        <v>-88700</v>
+        <v>-170700</v>
       </c>
       <c r="J35" s="3">
+        <v>-89400</v>
+      </c>
+      <c r="K35" s="3">
         <v>-83800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-58900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-63600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-47800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-28300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-26100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-34300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-10200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-17200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-17800</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-12200</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-36900</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-17500</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-65400</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-107000</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43100</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43008</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42916</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42825</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42735</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2635,8 +2719,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2661,65 +2746,66 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1639200</v>
+        <v>1186800</v>
       </c>
       <c r="E41" s="3">
-        <v>1799400</v>
+        <v>1651800</v>
       </c>
       <c r="F41" s="3">
-        <v>2755700</v>
+        <v>1813200</v>
       </c>
       <c r="G41" s="3">
-        <v>732400</v>
+        <v>2776800</v>
       </c>
       <c r="H41" s="3">
-        <v>928000</v>
+        <v>738000</v>
       </c>
       <c r="I41" s="3">
-        <v>954100</v>
+        <v>935100</v>
       </c>
       <c r="J41" s="3">
+        <v>961400</v>
+      </c>
+      <c r="K41" s="3">
         <v>695900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>764200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>652000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>711800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>412900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>514100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>337000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>520100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>150800</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>113200</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>58700</v>
       </c>
-      <c r="U41" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="V41" s="3" t="s">
         <v>16</v>
       </c>
@@ -2729,65 +2815,68 @@
       <c r="X41" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y41" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>2185600</v>
+        <v>3580100</v>
       </c>
       <c r="E42" s="3">
-        <v>2517300</v>
+        <v>2202400</v>
       </c>
       <c r="F42" s="3">
-        <v>1477300</v>
+        <v>2536600</v>
       </c>
       <c r="G42" s="3">
-        <v>1272700</v>
+        <v>1488600</v>
       </c>
       <c r="H42" s="3">
-        <v>1279400</v>
+        <v>1282400</v>
       </c>
       <c r="I42" s="3">
-        <v>1481300</v>
+        <v>1289200</v>
       </c>
       <c r="J42" s="3">
+        <v>1492700</v>
+      </c>
+      <c r="K42" s="3">
         <v>553000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>478200</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>657600</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>596400</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>278200</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>246100</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>150600</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>49900</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>32800</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>75000</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>159200</v>
       </c>
-      <c r="U42" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="V42" s="3" t="s">
         <v>16</v>
       </c>
@@ -2797,65 +2886,68 @@
       <c r="X42" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y42" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>211000</v>
+        <v>218100</v>
       </c>
       <c r="E43" s="3">
-        <v>215700</v>
+        <v>212600</v>
       </c>
       <c r="F43" s="3">
-        <v>171100</v>
+        <v>217400</v>
       </c>
       <c r="G43" s="3">
-        <v>221100</v>
+        <v>172400</v>
       </c>
       <c r="H43" s="3">
-        <v>185700</v>
+        <v>222800</v>
       </c>
       <c r="I43" s="3">
-        <v>121100</v>
+        <v>187100</v>
       </c>
       <c r="J43" s="3">
+        <v>122000</v>
+      </c>
+      <c r="K43" s="3">
         <v>173700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>144800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>111700</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>70700</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>86000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>47100</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>55900</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>54500</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>65400</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>67500</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>61600</v>
       </c>
-      <c r="U43" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="V43" s="3" t="s">
         <v>16</v>
       </c>
@@ -2865,8 +2957,11 @@
       <c r="X43" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y43" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2879,21 +2974,21 @@
       <c r="F44" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G44" s="3">
-        <v>25100</v>
-      </c>
-      <c r="H44" s="3" t="s">
-        <v>16</v>
+      <c r="G44" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H44" s="3">
+        <v>25200</v>
       </c>
       <c r="I44" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="J44" s="3">
+      <c r="J44" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K44" s="3">
         <v>6700</v>
       </c>
-      <c r="K44" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="L44" s="3" t="s">
         <v>16</v>
       </c>
@@ -2915,15 +3010,15 @@
       <c r="R44" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="S44" s="3">
+      <c r="S44" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="T44" s="3">
         <v>1500</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>1300</v>
       </c>
-      <c r="U44" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="V44" s="3" t="s">
         <v>16</v>
       </c>
@@ -2933,65 +3028,68 @@
       <c r="X44" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y44" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>625600</v>
+        <v>764900</v>
       </c>
       <c r="E45" s="3">
-        <v>617600</v>
+        <v>630400</v>
       </c>
       <c r="F45" s="3">
-        <v>534600</v>
+        <v>622300</v>
       </c>
       <c r="G45" s="3">
-        <v>212900</v>
+        <v>538700</v>
       </c>
       <c r="H45" s="3">
-        <v>283500</v>
+        <v>214600</v>
       </c>
       <c r="I45" s="3">
-        <v>303000</v>
+        <v>285700</v>
       </c>
       <c r="J45" s="3">
+        <v>305300</v>
+      </c>
+      <c r="K45" s="3">
         <v>172800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>202600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>254300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>252000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>182300</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>143900</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>111900</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>103000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>104400</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>62300</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>58500</v>
       </c>
-      <c r="U45" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="V45" s="3" t="s">
         <v>16</v>
       </c>
@@ -3001,65 +3099,68 @@
       <c r="X45" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y45" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>4661400</v>
+        <v>5749900</v>
       </c>
       <c r="E46" s="3">
-        <v>5150000</v>
+        <v>4697100</v>
       </c>
       <c r="F46" s="3">
-        <v>4938700</v>
+        <v>5189500</v>
       </c>
       <c r="G46" s="3">
-        <v>2464200</v>
+        <v>4976500</v>
       </c>
       <c r="H46" s="3">
-        <v>2676600</v>
+        <v>2483100</v>
       </c>
       <c r="I46" s="3">
-        <v>2859500</v>
+        <v>2697100</v>
       </c>
       <c r="J46" s="3">
+        <v>2881400</v>
+      </c>
+      <c r="K46" s="3">
         <v>1602100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1589700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1675500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1630900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>959400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>951300</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>655400</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>727500</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>353400</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>319500</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>339400</v>
       </c>
-      <c r="U46" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="V46" s="3" t="s">
         <v>16</v>
       </c>
@@ -3069,65 +3170,68 @@
       <c r="X46" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y46" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>655400</v>
+        <v>868100</v>
       </c>
       <c r="E47" s="3">
-        <v>482200</v>
+        <v>660400</v>
       </c>
       <c r="F47" s="3">
-        <v>339400</v>
+        <v>485900</v>
       </c>
       <c r="G47" s="3">
-        <v>349600</v>
+        <v>342000</v>
       </c>
       <c r="H47" s="3">
-        <v>242500</v>
+        <v>352300</v>
       </c>
       <c r="I47" s="3">
-        <v>254000</v>
+        <v>244300</v>
       </c>
       <c r="J47" s="3">
+        <v>256000</v>
+      </c>
+      <c r="K47" s="3">
         <v>226400</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>192600</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>221700</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>244600</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>186800</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>142300</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>140400</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>117600</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>106800</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>94400</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>80100</v>
       </c>
-      <c r="U47" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="V47" s="3" t="s">
         <v>16</v>
       </c>
@@ -3137,65 +3241,68 @@
       <c r="X47" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y47" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>213500</v>
+        <v>213000</v>
       </c>
       <c r="E48" s="3">
-        <v>170200</v>
+        <v>215200</v>
       </c>
       <c r="F48" s="3">
-        <v>141100</v>
+        <v>171500</v>
       </c>
       <c r="G48" s="3">
-        <v>119300</v>
+        <v>142200</v>
       </c>
       <c r="H48" s="3">
-        <v>123300</v>
+        <v>120200</v>
       </c>
       <c r="I48" s="3">
-        <v>109400</v>
+        <v>124300</v>
       </c>
       <c r="J48" s="3">
+        <v>110300</v>
+      </c>
+      <c r="K48" s="3">
         <v>75300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>79500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>73700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>69800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>55200</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>57400</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>44900</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>35600</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>28700</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>27700</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>20000</v>
       </c>
-      <c r="U48" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="V48" s="3" t="s">
         <v>16</v>
       </c>
@@ -3205,65 +3312,68 @@
       <c r="X48" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y48" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>766000</v>
+        <v>974000</v>
       </c>
       <c r="E49" s="3">
-        <v>700900</v>
+        <v>771900</v>
       </c>
       <c r="F49" s="3">
-        <v>690800</v>
+        <v>706200</v>
       </c>
       <c r="G49" s="3">
-        <v>571900</v>
+        <v>696100</v>
       </c>
       <c r="H49" s="3">
-        <v>573600</v>
+        <v>576300</v>
       </c>
       <c r="I49" s="3">
-        <v>469800</v>
+        <v>578000</v>
       </c>
       <c r="J49" s="3">
+        <v>473400</v>
+      </c>
+      <c r="K49" s="3">
         <v>442600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>411000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>395800</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>382200</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>350600</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>342900</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>218100</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>131900</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>105700</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>70800</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>64200</v>
       </c>
-      <c r="U49" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="V49" s="3" t="s">
         <v>16</v>
       </c>
@@ -3273,8 +3383,11 @@
       <c r="X49" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y49" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3341,8 +3454,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3409,65 +3525,68 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>352400</v>
+        <v>407000</v>
       </c>
       <c r="E52" s="3">
-        <v>274700</v>
+        <v>355100</v>
       </c>
       <c r="F52" s="3">
-        <v>216500</v>
+        <v>276800</v>
       </c>
       <c r="G52" s="3">
-        <v>231500</v>
+        <v>218200</v>
       </c>
       <c r="H52" s="3">
-        <v>195700</v>
+        <v>233200</v>
       </c>
       <c r="I52" s="3">
-        <v>138600</v>
+        <v>197200</v>
       </c>
       <c r="J52" s="3">
+        <v>139700</v>
+      </c>
+      <c r="K52" s="3">
         <v>122700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>116400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>106100</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>86500</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>71700</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>29700</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>10200</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>7600</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>4400</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>3100</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>1800</v>
       </c>
-      <c r="U52" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="V52" s="3" t="s">
         <v>16</v>
       </c>
@@ -3477,8 +3596,11 @@
       <c r="X52" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y52" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3545,65 +3667,68 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>6648600</v>
+        <v>8211900</v>
       </c>
       <c r="E54" s="3">
-        <v>6778000</v>
+        <v>6699600</v>
       </c>
       <c r="F54" s="3">
-        <v>6326400</v>
+        <v>6829900</v>
       </c>
       <c r="G54" s="3">
-        <v>3736400</v>
+        <v>6374900</v>
       </c>
       <c r="H54" s="3">
-        <v>3811700</v>
+        <v>3765000</v>
       </c>
       <c r="I54" s="3">
-        <v>3831400</v>
+        <v>3840900</v>
       </c>
       <c r="J54" s="3">
+        <v>3860700</v>
+      </c>
+      <c r="K54" s="3">
         <v>2469200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>2389200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>2472900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>2413900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1623700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1523500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1069000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1020200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>598900</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>515500</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>505500</v>
       </c>
-      <c r="U54" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="V54" s="3" t="s">
         <v>16</v>
       </c>
@@ -3613,8 +3738,11 @@
       <c r="X54" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y54" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3639,8 +3767,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3665,65 +3794,66 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>657300</v>
+        <v>688000</v>
       </c>
       <c r="E57" s="3">
-        <v>568000</v>
+        <v>662300</v>
       </c>
       <c r="F57" s="3">
-        <v>485300</v>
+        <v>572300</v>
       </c>
       <c r="G57" s="3">
-        <v>481300</v>
+        <v>489000</v>
       </c>
       <c r="H57" s="3">
-        <v>459200</v>
+        <v>485000</v>
       </c>
       <c r="I57" s="3">
-        <v>411400</v>
+        <v>462700</v>
       </c>
       <c r="J57" s="3">
+        <v>414600</v>
+      </c>
+      <c r="K57" s="3">
         <v>333800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>293200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>296500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>262500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>216700</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>189900</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>146900</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>135800</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>124500</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>88500</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>81100</v>
       </c>
-      <c r="U57" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="V57" s="3" t="s">
         <v>16</v>
       </c>
@@ -3733,47 +3863,50 @@
       <c r="X57" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y57" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>146300</v>
+        <v>194400</v>
       </c>
       <c r="E58" s="3">
-        <v>60800</v>
+        <v>147400</v>
       </c>
       <c r="F58" s="3">
+        <v>61300</v>
+      </c>
+      <c r="G58" s="3">
+        <v>15800</v>
+      </c>
+      <c r="H58" s="3">
+        <v>15800</v>
+      </c>
+      <c r="I58" s="3">
+        <v>15800</v>
+      </c>
+      <c r="J58" s="3">
+        <v>15800</v>
+      </c>
+      <c r="K58" s="3">
         <v>15700</v>
       </c>
-      <c r="G58" s="3">
-        <v>15700</v>
-      </c>
-      <c r="H58" s="3">
-        <v>15700</v>
-      </c>
-      <c r="I58" s="3">
-        <v>15700</v>
-      </c>
-      <c r="J58" s="3">
-        <v>15700</v>
-      </c>
-      <c r="K58" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="L58" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="M58" s="3">
+      <c r="M58" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N58" s="3">
         <v>15300</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>15200</v>
       </c>
-      <c r="O58" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="P58" s="3" t="s">
         <v>16</v>
       </c>
@@ -3783,8 +3916,8 @@
       <c r="R58" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="S58" s="3">
-        <v>0</v>
+      <c r="S58" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="T58" s="3">
         <v>0</v>
@@ -3801,65 +3934,68 @@
       <c r="X58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>894600</v>
+        <v>1022000</v>
       </c>
       <c r="E59" s="3">
-        <v>842700</v>
+        <v>901400</v>
       </c>
       <c r="F59" s="3">
-        <v>679800</v>
+        <v>849100</v>
       </c>
       <c r="G59" s="3">
-        <v>660300</v>
+        <v>685000</v>
       </c>
       <c r="H59" s="3">
-        <v>622600</v>
+        <v>665300</v>
       </c>
       <c r="I59" s="3">
-        <v>445800</v>
+        <v>627400</v>
       </c>
       <c r="J59" s="3">
+        <v>449200</v>
+      </c>
+      <c r="K59" s="3">
         <v>402400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>364700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>344300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>304500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>336300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>289200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>215500</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>172600</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>184600</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>118900</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>106700</v>
       </c>
-      <c r="U59" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="V59" s="3" t="s">
         <v>16</v>
       </c>
@@ -3869,65 +4005,68 @@
       <c r="X59" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y59" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1698100</v>
+        <v>1904300</v>
       </c>
       <c r="E60" s="3">
-        <v>1471400</v>
+        <v>1711200</v>
       </c>
       <c r="F60" s="3">
-        <v>1180800</v>
+        <v>1482700</v>
       </c>
       <c r="G60" s="3">
-        <v>1157200</v>
+        <v>1189800</v>
       </c>
       <c r="H60" s="3">
-        <v>1097400</v>
+        <v>1166100</v>
       </c>
       <c r="I60" s="3">
-        <v>872900</v>
+        <v>1105900</v>
       </c>
       <c r="J60" s="3">
+        <v>879600</v>
+      </c>
+      <c r="K60" s="3">
         <v>751900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>657900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>640800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>582300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>568200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>479100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>362400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>308400</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>309100</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>207500</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>187800</v>
       </c>
-      <c r="U60" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="V60" s="3" t="s">
         <v>16</v>
       </c>
@@ -3937,44 +4076,47 @@
       <c r="X60" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y60" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1230000</v>
+        <v>2805600</v>
       </c>
       <c r="E61" s="3">
-        <v>1279800</v>
+        <v>1239500</v>
       </c>
       <c r="F61" s="3">
-        <v>1301400</v>
+        <v>1289600</v>
       </c>
       <c r="G61" s="3">
-        <v>1305900</v>
+        <v>1311400</v>
       </c>
       <c r="H61" s="3">
-        <v>1362000</v>
+        <v>1315900</v>
       </c>
       <c r="I61" s="3">
-        <v>1414900</v>
+        <v>1372400</v>
       </c>
       <c r="J61" s="3">
+        <v>1425700</v>
+      </c>
+      <c r="K61" s="3">
         <v>543400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>525800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>539700</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>513200</v>
       </c>
-      <c r="N61" s="3">
-        <v>0</v>
-      </c>
       <c r="O61" s="3">
         <v>0</v>
       </c>
@@ -4005,44 +4147,47 @@
       <c r="X61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>53300</v>
+        <v>76000</v>
       </c>
       <c r="E62" s="3">
-        <v>44700</v>
+        <v>53800</v>
       </c>
       <c r="F62" s="3">
-        <v>49400</v>
+        <v>45100</v>
       </c>
       <c r="G62" s="3">
-        <v>54900</v>
+        <v>49700</v>
       </c>
       <c r="H62" s="3">
-        <v>35500</v>
+        <v>55400</v>
       </c>
       <c r="I62" s="3">
-        <v>30900</v>
+        <v>35800</v>
       </c>
       <c r="J62" s="3">
+        <v>31200</v>
+      </c>
+      <c r="K62" s="3">
         <v>27200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>29700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>31700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>26000</v>
       </c>
-      <c r="N62" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="O62" s="3" t="s">
         <v>16</v>
       </c>
@@ -4055,8 +4200,8 @@
       <c r="R62" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="S62" s="3">
-        <v>0</v>
+      <c r="S62" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="T62" s="3">
         <v>0</v>
@@ -4073,8 +4218,11 @@
       <c r="X62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4141,8 +4289,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4209,8 +4360,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4277,65 +4431,68 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>2987300</v>
+        <v>4787900</v>
       </c>
       <c r="E66" s="3">
-        <v>2803100</v>
+        <v>3010200</v>
       </c>
       <c r="F66" s="3">
-        <v>2557800</v>
+        <v>2824600</v>
       </c>
       <c r="G66" s="3">
-        <v>2546500</v>
+        <v>2577400</v>
       </c>
       <c r="H66" s="3">
-        <v>2526000</v>
+        <v>2566000</v>
       </c>
       <c r="I66" s="3">
-        <v>2431700</v>
+        <v>2545300</v>
       </c>
       <c r="J66" s="3">
+        <v>2450400</v>
+      </c>
+      <c r="K66" s="3">
         <v>1436100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1303300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1295800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1157000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>603900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>514000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>381800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>308300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>308900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>207500</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>187800</v>
       </c>
-      <c r="U66" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="V66" s="3" t="s">
         <v>16</v>
       </c>
@@ -4345,8 +4502,11 @@
       <c r="X66" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y66" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4371,8 +4531,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4439,8 +4600,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4507,8 +4671,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4558,14 +4725,14 @@
         <v>0</v>
       </c>
       <c r="S70" s="3">
+        <v>0</v>
+      </c>
+      <c r="T70" s="3">
         <v>595900</v>
       </c>
-      <c r="T70" s="3">
+      <c r="U70" s="3">
         <v>585800</v>
       </c>
-      <c r="U70" s="3">
-        <v>0</v>
-      </c>
       <c r="V70" s="3">
         <v>0</v>
       </c>
@@ -4575,8 +4742,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4643,8 +4813,11 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -4657,51 +4830,51 @@
       <c r="F72" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G72" s="3">
-        <v>-1120600</v>
-      </c>
-      <c r="H72" s="3" t="s">
-        <v>16</v>
+      <c r="G72" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H72" s="3">
+        <v>-1129200</v>
       </c>
       <c r="I72" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="J72" s="3">
+      <c r="J72" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K72" s="3">
         <v>-733300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-636300</v>
       </c>
-      <c r="L72" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="M72" s="3" t="s">
         <v>16</v>
       </c>
       <c r="N72" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="O72" s="3">
+      <c r="O72" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="P72" s="3">
         <v>-411700</v>
       </c>
-      <c r="P72" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Q72" s="3" t="s">
         <v>16</v>
       </c>
       <c r="R72" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="S72" s="3">
+      <c r="S72" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="T72" s="3">
         <v>-329300</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-311600</v>
       </c>
-      <c r="U72" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="V72" s="3" t="s">
         <v>16</v>
       </c>
@@ -4711,8 +4884,11 @@
       <c r="X72" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y72" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4779,8 +4955,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4847,8 +5026,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4915,65 +5097,68 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>3661400</v>
+        <v>3424000</v>
       </c>
       <c r="E76" s="3">
-        <v>3974900</v>
+        <v>3689400</v>
       </c>
       <c r="F76" s="3">
-        <v>3768600</v>
+        <v>4005300</v>
       </c>
       <c r="G76" s="3">
-        <v>1189900</v>
+        <v>3797500</v>
       </c>
       <c r="H76" s="3">
-        <v>1285700</v>
+        <v>1199000</v>
       </c>
       <c r="I76" s="3">
-        <v>1399600</v>
+        <v>1295600</v>
       </c>
       <c r="J76" s="3">
+        <v>1410400</v>
+      </c>
+      <c r="K76" s="3">
         <v>1033100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1085900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1177100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1256900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1019800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1009500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>687300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>711900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>290000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-287800</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-268000</v>
       </c>
-      <c r="U76" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="V76" s="3" t="s">
         <v>16</v>
       </c>
@@ -4983,8 +5168,11 @@
       <c r="X76" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y76" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5051,149 +5239,158 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43100</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43008</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42916</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42825</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42735</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-419100</v>
+        <v>-329400</v>
       </c>
       <c r="E81" s="3">
-        <v>-175400</v>
+        <v>-422300</v>
       </c>
       <c r="F81" s="3">
-        <v>-141500</v>
+        <v>-176800</v>
       </c>
       <c r="G81" s="3">
-        <v>-129600</v>
+        <v>-142500</v>
       </c>
       <c r="H81" s="3">
-        <v>-169400</v>
+        <v>-130600</v>
       </c>
       <c r="I81" s="3">
-        <v>-88700</v>
+        <v>-170700</v>
       </c>
       <c r="J81" s="3">
+        <v>-89400</v>
+      </c>
+      <c r="K81" s="3">
         <v>-83800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-58900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-63600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-47800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-28300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-26100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-34300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-10200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-17200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-17800</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-12200</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-36900</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-17500</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-65400</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-107000</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5218,8 +5415,9 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5232,11 +5430,11 @@
       <c r="F83" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G83" s="3">
-        <v>269500</v>
-      </c>
-      <c r="H83" s="3" t="s">
-        <v>16</v>
+      <c r="G83" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H83" s="3">
+        <v>271600</v>
       </c>
       <c r="I83" s="3" t="s">
         <v>16</v>
@@ -5262,8 +5460,8 @@
       <c r="P83" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="Q83" s="3">
-        <v>0</v>
+      <c r="Q83" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="R83" s="3">
         <v>0</v>
@@ -5277,8 +5475,8 @@
       <c r="U83" s="3">
         <v>0</v>
       </c>
-      <c r="V83" s="3" t="s">
-        <v>16</v>
+      <c r="V83" s="3">
+        <v>0</v>
       </c>
       <c r="W83" s="3" t="s">
         <v>16</v>
@@ -5286,8 +5484,11 @@
       <c r="X83" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y83" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5354,8 +5555,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5422,8 +5626,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5490,8 +5697,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5558,8 +5768,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5626,8 +5839,11 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -5640,11 +5856,11 @@
       <c r="F89" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G89" s="3">
-        <v>117900</v>
-      </c>
-      <c r="H89" s="3" t="s">
-        <v>16</v>
+      <c r="G89" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H89" s="3">
+        <v>118800</v>
       </c>
       <c r="I89" s="3" t="s">
         <v>16</v>
@@ -5670,8 +5886,8 @@
       <c r="P89" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="Q89" s="3">
-        <v>0</v>
+      <c r="Q89" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="R89" s="3">
         <v>0</v>
@@ -5685,8 +5901,8 @@
       <c r="U89" s="3">
         <v>0</v>
       </c>
-      <c r="V89" s="3" t="s">
-        <v>16</v>
+      <c r="V89" s="3">
+        <v>0</v>
       </c>
       <c r="W89" s="3" t="s">
         <v>16</v>
@@ -5694,8 +5910,11 @@
       <c r="X89" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y89" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5720,8 +5939,9 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5734,11 +5954,11 @@
       <c r="F91" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G91" s="3">
-        <v>-94300</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>16</v>
+      <c r="G91" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H91" s="3">
+        <v>-95000</v>
       </c>
       <c r="I91" s="3" t="s">
         <v>16</v>
@@ -5764,8 +5984,8 @@
       <c r="P91" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="Q91" s="3">
-        <v>0</v>
+      <c r="Q91" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="R91" s="3">
         <v>0</v>
@@ -5779,8 +5999,8 @@
       <c r="U91" s="3">
         <v>0</v>
       </c>
-      <c r="V91" s="3" t="s">
-        <v>16</v>
+      <c r="V91" s="3">
+        <v>0</v>
       </c>
       <c r="W91" s="3" t="s">
         <v>16</v>
@@ -5788,8 +6008,11 @@
       <c r="X91" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y91" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5856,8 +6079,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5924,8 +6150,11 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5938,11 +6167,11 @@
       <c r="F94" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G94" s="3">
-        <v>-1394500</v>
-      </c>
-      <c r="H94" s="3" t="s">
-        <v>16</v>
+      <c r="G94" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H94" s="3">
+        <v>-1405100</v>
       </c>
       <c r="I94" s="3" t="s">
         <v>16</v>
@@ -5968,8 +6197,8 @@
       <c r="P94" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="Q94" s="3">
-        <v>0</v>
+      <c r="Q94" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="R94" s="3">
         <v>0</v>
@@ -5983,8 +6212,8 @@
       <c r="U94" s="3">
         <v>0</v>
       </c>
-      <c r="V94" s="3" t="s">
-        <v>16</v>
+      <c r="V94" s="3">
+        <v>0</v>
       </c>
       <c r="W94" s="3" t="s">
         <v>16</v>
@@ -5992,8 +6221,11 @@
       <c r="X94" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y94" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6018,8 +6250,9 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6086,8 +6319,11 @@
       <c r="X96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6154,8 +6390,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6222,8 +6461,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6290,8 +6532,11 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -6304,11 +6549,11 @@
       <c r="F100" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G100" s="3">
-        <v>1305000</v>
-      </c>
-      <c r="H100" s="3" t="s">
-        <v>16</v>
+      <c r="G100" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H100" s="3">
+        <v>1315000</v>
       </c>
       <c r="I100" s="3" t="s">
         <v>16</v>
@@ -6334,8 +6579,8 @@
       <c r="P100" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="Q100" s="3">
-        <v>0</v>
+      <c r="Q100" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="R100" s="3">
         <v>0</v>
@@ -6349,8 +6594,8 @@
       <c r="U100" s="3">
         <v>0</v>
       </c>
-      <c r="V100" s="3" t="s">
-        <v>16</v>
+      <c r="V100" s="3">
+        <v>0</v>
       </c>
       <c r="W100" s="3" t="s">
         <v>16</v>
@@ -6358,8 +6603,11 @@
       <c r="X100" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y100" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6372,11 +6620,11 @@
       <c r="F101" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G101" s="3">
-        <v>-73000</v>
-      </c>
-      <c r="H101" s="3" t="s">
-        <v>16</v>
+      <c r="G101" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H101" s="3">
+        <v>-73600</v>
       </c>
       <c r="I101" s="3" t="s">
         <v>16</v>
@@ -6402,8 +6650,8 @@
       <c r="P101" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="Q101" s="3">
-        <v>0</v>
+      <c r="Q101" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="R101" s="3">
         <v>0</v>
@@ -6417,8 +6665,8 @@
       <c r="U101" s="3">
         <v>0</v>
       </c>
-      <c r="V101" s="3" t="s">
-        <v>16</v>
+      <c r="V101" s="3">
+        <v>0</v>
       </c>
       <c r="W101" s="3" t="s">
         <v>16</v>
@@ -6426,8 +6674,11 @@
       <c r="X101" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y101" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -6440,11 +6691,11 @@
       <c r="F102" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G102" s="3">
-        <v>-44500</v>
-      </c>
-      <c r="H102" s="3" t="s">
-        <v>16</v>
+      <c r="G102" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H102" s="3">
+        <v>-44900</v>
       </c>
       <c r="I102" s="3" t="s">
         <v>16</v>
@@ -6470,8 +6721,8 @@
       <c r="P102" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="Q102" s="3">
-        <v>0</v>
+      <c r="Q102" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="R102" s="3">
         <v>0</v>
@@ -6485,13 +6736,16 @@
       <c r="U102" s="3">
         <v>0</v>
       </c>
-      <c r="V102" s="3" t="s">
-        <v>16</v>
+      <c r="V102" s="3">
+        <v>0</v>
       </c>
       <c r="W102" s="3" t="s">
         <v>16</v>
       </c>
       <c r="X102" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y102" s="3" t="s">
         <v>16</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BILI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BILI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="92">
   <si>
     <t>BILI</t>
   </si>
@@ -770,25 +770,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>912000</v>
+        <v>851900</v>
       </c>
       <c r="E8" s="3">
-        <v>821400</v>
+        <v>767200</v>
       </c>
       <c r="F8" s="3">
-        <v>709200</v>
+        <v>662400</v>
       </c>
       <c r="G8" s="3">
-        <v>615400</v>
+        <v>574900</v>
       </c>
       <c r="H8" s="3">
-        <v>605800</v>
+        <v>565900</v>
       </c>
       <c r="I8" s="3">
-        <v>508900</v>
+        <v>475300</v>
       </c>
       <c r="J8" s="3">
-        <v>413000</v>
+        <v>385700</v>
       </c>
       <c r="K8" s="3">
         <v>362500</v>
@@ -841,25 +841,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>738800</v>
+        <v>690100</v>
       </c>
       <c r="E9" s="3">
-        <v>660700</v>
+        <v>617200</v>
       </c>
       <c r="F9" s="3">
-        <v>553100</v>
+        <v>516700</v>
       </c>
       <c r="G9" s="3">
-        <v>467500</v>
+        <v>436700</v>
       </c>
       <c r="H9" s="3">
-        <v>456900</v>
+        <v>426800</v>
       </c>
       <c r="I9" s="3">
-        <v>388700</v>
+        <v>363100</v>
       </c>
       <c r="J9" s="3">
-        <v>317700</v>
+        <v>296700</v>
       </c>
       <c r="K9" s="3">
         <v>279500</v>
@@ -912,25 +912,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>173200</v>
+        <v>161800</v>
       </c>
       <c r="E10" s="3">
-        <v>160700</v>
+        <v>150100</v>
       </c>
       <c r="F10" s="3">
-        <v>156000</v>
+        <v>145700</v>
       </c>
       <c r="G10" s="3">
-        <v>148000</v>
+        <v>138200</v>
       </c>
       <c r="H10" s="3">
-        <v>148900</v>
+        <v>139100</v>
       </c>
       <c r="I10" s="3">
-        <v>120100</v>
+        <v>112200</v>
       </c>
       <c r="J10" s="3">
-        <v>95300</v>
+        <v>89000</v>
       </c>
       <c r="K10" s="3">
         <v>83000</v>
@@ -1010,25 +1010,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>125800</v>
+        <v>117500</v>
       </c>
       <c r="E12" s="3">
-        <v>124400</v>
+        <v>116200</v>
       </c>
       <c r="F12" s="3">
-        <v>106300</v>
+        <v>99300</v>
       </c>
       <c r="G12" s="3">
-        <v>91500</v>
+        <v>85500</v>
       </c>
       <c r="H12" s="3">
-        <v>76400</v>
+        <v>71300</v>
       </c>
       <c r="I12" s="3">
-        <v>63300</v>
+        <v>59100</v>
       </c>
       <c r="J12" s="3">
-        <v>52200</v>
+        <v>48700</v>
       </c>
       <c r="K12" s="3">
         <v>46600</v>
@@ -1318,25 +1318,25 @@
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>1227400</v>
+        <v>1146500</v>
       </c>
       <c r="E17" s="3">
-        <v>1117700</v>
+        <v>1044000</v>
       </c>
       <c r="F17" s="3">
-        <v>949100</v>
+        <v>886500</v>
       </c>
       <c r="G17" s="3">
-        <v>778100</v>
+        <v>726800</v>
       </c>
       <c r="H17" s="3">
-        <v>748300</v>
+        <v>699000</v>
       </c>
       <c r="I17" s="3">
-        <v>679800</v>
+        <v>635000</v>
       </c>
       <c r="J17" s="3">
-        <v>509200</v>
+        <v>475600</v>
       </c>
       <c r="K17" s="3">
         <v>447700</v>
@@ -1389,25 +1389,25 @@
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>-315400</v>
+        <v>-294600</v>
       </c>
       <c r="E18" s="3">
-        <v>-296300</v>
+        <v>-276700</v>
       </c>
       <c r="F18" s="3">
-        <v>-239900</v>
+        <v>-224100</v>
       </c>
       <c r="G18" s="3">
-        <v>-162600</v>
+        <v>-151900</v>
       </c>
       <c r="H18" s="3">
-        <v>-142500</v>
+        <v>-133100</v>
       </c>
       <c r="I18" s="3">
-        <v>-170900</v>
+        <v>-159600</v>
       </c>
       <c r="J18" s="3">
-        <v>-96300</v>
+        <v>-89900</v>
       </c>
       <c r="K18" s="3">
         <v>-85200</v>
@@ -1487,25 +1487,25 @@
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>-2100</v>
+        <v>-2000</v>
       </c>
       <c r="E20" s="3">
-        <v>-117300</v>
+        <v>-109600</v>
       </c>
       <c r="F20" s="3">
-        <v>71900</v>
+        <v>67200</v>
       </c>
       <c r="G20" s="3">
-        <v>27100</v>
+        <v>25300</v>
       </c>
       <c r="H20" s="3">
-        <v>17200</v>
+        <v>16100</v>
       </c>
       <c r="I20" s="3">
-        <v>5600</v>
+        <v>5300</v>
       </c>
       <c r="J20" s="3">
-        <v>11700</v>
+        <v>10900</v>
       </c>
       <c r="K20" s="3">
         <v>4700</v>
@@ -1570,7 +1570,7 @@
         <v>16</v>
       </c>
       <c r="H21" s="3">
-        <v>146300</v>
+        <v>136700</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>16</v>
@@ -1629,25 +1629,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>7900</v>
+        <v>7400</v>
       </c>
       <c r="E22" s="3">
-        <v>5800</v>
+        <v>5400</v>
       </c>
       <c r="F22" s="3">
-        <v>5600</v>
+        <v>5200</v>
       </c>
       <c r="G22" s="3">
-        <v>5200</v>
+        <v>4900</v>
       </c>
       <c r="H22" s="3">
-        <v>5500</v>
+        <v>5100</v>
       </c>
       <c r="I22" s="3">
-        <v>5700</v>
+        <v>5300</v>
       </c>
       <c r="J22" s="3">
-        <v>3600</v>
+        <v>3300</v>
       </c>
       <c r="K22" s="3">
         <v>2400</v>
@@ -1700,25 +1700,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-325500</v>
+        <v>-304000</v>
       </c>
       <c r="E23" s="3">
-        <v>-419300</v>
+        <v>-391700</v>
       </c>
       <c r="F23" s="3">
-        <v>-173600</v>
+        <v>-162100</v>
       </c>
       <c r="G23" s="3">
-        <v>-140800</v>
+        <v>-131500</v>
       </c>
       <c r="H23" s="3">
-        <v>-130800</v>
+        <v>-122200</v>
       </c>
       <c r="I23" s="3">
-        <v>-171000</v>
+        <v>-159700</v>
       </c>
       <c r="J23" s="3">
-        <v>-88200</v>
+        <v>-82400</v>
       </c>
       <c r="K23" s="3">
         <v>-82800</v>
@@ -1771,25 +1771,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>5200</v>
+        <v>4800</v>
       </c>
       <c r="E24" s="3">
-        <v>4500</v>
+        <v>4200</v>
       </c>
       <c r="F24" s="3">
-        <v>3400</v>
+        <v>3200</v>
       </c>
       <c r="G24" s="3">
-        <v>2000</v>
+        <v>1800</v>
       </c>
       <c r="H24" s="3">
-        <v>2300</v>
+        <v>2200</v>
       </c>
       <c r="I24" s="3">
-        <v>2700</v>
+        <v>2500</v>
       </c>
       <c r="J24" s="3">
-        <v>1900</v>
+        <v>1800</v>
       </c>
       <c r="K24" s="3">
         <v>1500</v>
@@ -1913,25 +1913,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-330600</v>
+        <v>-308800</v>
       </c>
       <c r="E26" s="3">
-        <v>-423800</v>
+        <v>-395900</v>
       </c>
       <c r="F26" s="3">
-        <v>-177000</v>
+        <v>-165300</v>
       </c>
       <c r="G26" s="3">
-        <v>-142800</v>
+        <v>-133300</v>
       </c>
       <c r="H26" s="3">
-        <v>-133100</v>
+        <v>-124300</v>
       </c>
       <c r="I26" s="3">
-        <v>-173700</v>
+        <v>-162200</v>
       </c>
       <c r="J26" s="3">
-        <v>-90100</v>
+        <v>-84100</v>
       </c>
       <c r="K26" s="3">
         <v>-84300</v>
@@ -1984,25 +1984,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-329400</v>
+        <v>-307700</v>
       </c>
       <c r="E27" s="3">
-        <v>-422300</v>
+        <v>-394500</v>
       </c>
       <c r="F27" s="3">
-        <v>-176800</v>
+        <v>-165100</v>
       </c>
       <c r="G27" s="3">
-        <v>-142500</v>
+        <v>-133100</v>
       </c>
       <c r="H27" s="3">
-        <v>-130600</v>
+        <v>-122000</v>
       </c>
       <c r="I27" s="3">
-        <v>-170700</v>
+        <v>-159400</v>
       </c>
       <c r="J27" s="3">
-        <v>-89400</v>
+        <v>-83500</v>
       </c>
       <c r="K27" s="3">
         <v>-83800</v>
@@ -2339,25 +2339,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="E32" s="3">
-        <v>117300</v>
+        <v>109600</v>
       </c>
       <c r="F32" s="3">
-        <v>-71900</v>
+        <v>-67200</v>
       </c>
       <c r="G32" s="3">
-        <v>-27100</v>
+        <v>-25300</v>
       </c>
       <c r="H32" s="3">
-        <v>-17200</v>
+        <v>-16100</v>
       </c>
       <c r="I32" s="3">
-        <v>-5600</v>
+        <v>-5300</v>
       </c>
       <c r="J32" s="3">
-        <v>-11700</v>
+        <v>-10900</v>
       </c>
       <c r="K32" s="3">
         <v>-4700</v>
@@ -2410,25 +2410,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-329400</v>
+        <v>-307700</v>
       </c>
       <c r="E33" s="3">
-        <v>-422300</v>
+        <v>-394500</v>
       </c>
       <c r="F33" s="3">
-        <v>-176800</v>
+        <v>-165100</v>
       </c>
       <c r="G33" s="3">
-        <v>-142500</v>
+        <v>-133100</v>
       </c>
       <c r="H33" s="3">
-        <v>-130600</v>
+        <v>-122000</v>
       </c>
       <c r="I33" s="3">
-        <v>-170700</v>
+        <v>-159400</v>
       </c>
       <c r="J33" s="3">
-        <v>-89400</v>
+        <v>-83500</v>
       </c>
       <c r="K33" s="3">
         <v>-83800</v>
@@ -2552,25 +2552,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-329400</v>
+        <v>-307700</v>
       </c>
       <c r="E35" s="3">
-        <v>-422300</v>
+        <v>-394500</v>
       </c>
       <c r="F35" s="3">
-        <v>-176800</v>
+        <v>-165100</v>
       </c>
       <c r="G35" s="3">
-        <v>-142500</v>
+        <v>-133100</v>
       </c>
       <c r="H35" s="3">
-        <v>-130600</v>
+        <v>-122000</v>
       </c>
       <c r="I35" s="3">
-        <v>-170700</v>
+        <v>-159400</v>
       </c>
       <c r="J35" s="3">
-        <v>-89400</v>
+        <v>-83500</v>
       </c>
       <c r="K35" s="3">
         <v>-83800</v>
@@ -2753,25 +2753,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1186800</v>
+        <v>1108600</v>
       </c>
       <c r="E41" s="3">
-        <v>1651800</v>
+        <v>1542900</v>
       </c>
       <c r="F41" s="3">
-        <v>1813200</v>
+        <v>1693700</v>
       </c>
       <c r="G41" s="3">
-        <v>2776800</v>
+        <v>2593800</v>
       </c>
       <c r="H41" s="3">
-        <v>738000</v>
+        <v>689400</v>
       </c>
       <c r="I41" s="3">
-        <v>935100</v>
+        <v>873500</v>
       </c>
       <c r="J41" s="3">
-        <v>961400</v>
+        <v>898100</v>
       </c>
       <c r="K41" s="3">
         <v>695900</v>
@@ -2824,25 +2824,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>3580100</v>
+        <v>3344000</v>
       </c>
       <c r="E42" s="3">
-        <v>2202400</v>
+        <v>2057200</v>
       </c>
       <c r="F42" s="3">
-        <v>2536600</v>
+        <v>2369400</v>
       </c>
       <c r="G42" s="3">
-        <v>1488600</v>
+        <v>1390500</v>
       </c>
       <c r="H42" s="3">
-        <v>1282400</v>
+        <v>1197900</v>
       </c>
       <c r="I42" s="3">
-        <v>1289200</v>
+        <v>1204200</v>
       </c>
       <c r="J42" s="3">
-        <v>1492700</v>
+        <v>1394300</v>
       </c>
       <c r="K42" s="3">
         <v>553000</v>
@@ -2895,25 +2895,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>218100</v>
+        <v>504500</v>
       </c>
       <c r="E43" s="3">
-        <v>212600</v>
+        <v>198600</v>
       </c>
       <c r="F43" s="3">
-        <v>217400</v>
+        <v>203000</v>
       </c>
       <c r="G43" s="3">
-        <v>172400</v>
+        <v>161000</v>
       </c>
       <c r="H43" s="3">
-        <v>222800</v>
+        <v>208100</v>
       </c>
       <c r="I43" s="3">
-        <v>187100</v>
+        <v>174800</v>
       </c>
       <c r="J43" s="3">
-        <v>122000</v>
+        <v>113900</v>
       </c>
       <c r="K43" s="3">
         <v>173700</v>
@@ -2978,7 +2978,7 @@
         <v>16</v>
       </c>
       <c r="H44" s="3">
-        <v>25200</v>
+        <v>23600</v>
       </c>
       <c r="I44" s="3" t="s">
         <v>16</v>
@@ -3037,25 +3037,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>764900</v>
+        <v>413600</v>
       </c>
       <c r="E45" s="3">
-        <v>630400</v>
+        <v>588800</v>
       </c>
       <c r="F45" s="3">
-        <v>622300</v>
+        <v>581300</v>
       </c>
       <c r="G45" s="3">
-        <v>538700</v>
+        <v>503200</v>
       </c>
       <c r="H45" s="3">
-        <v>214600</v>
+        <v>200400</v>
       </c>
       <c r="I45" s="3">
-        <v>285700</v>
+        <v>266800</v>
       </c>
       <c r="J45" s="3">
-        <v>305300</v>
+        <v>285200</v>
       </c>
       <c r="K45" s="3">
         <v>172800</v>
@@ -3108,25 +3108,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>5749900</v>
+        <v>5370800</v>
       </c>
       <c r="E46" s="3">
-        <v>4697100</v>
+        <v>4387500</v>
       </c>
       <c r="F46" s="3">
-        <v>5189500</v>
+        <v>4847400</v>
       </c>
       <c r="G46" s="3">
-        <v>4976500</v>
+        <v>4648500</v>
       </c>
       <c r="H46" s="3">
-        <v>2483100</v>
+        <v>2319400</v>
       </c>
       <c r="I46" s="3">
-        <v>2697100</v>
+        <v>2519300</v>
       </c>
       <c r="J46" s="3">
-        <v>2881400</v>
+        <v>2691500</v>
       </c>
       <c r="K46" s="3">
         <v>1602100</v>
@@ -3179,25 +3179,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>868100</v>
+        <v>810900</v>
       </c>
       <c r="E47" s="3">
-        <v>660400</v>
+        <v>616900</v>
       </c>
       <c r="F47" s="3">
-        <v>485900</v>
+        <v>453900</v>
       </c>
       <c r="G47" s="3">
-        <v>342000</v>
+        <v>319400</v>
       </c>
       <c r="H47" s="3">
-        <v>352300</v>
+        <v>329000</v>
       </c>
       <c r="I47" s="3">
-        <v>244300</v>
+        <v>228200</v>
       </c>
       <c r="J47" s="3">
-        <v>256000</v>
+        <v>239100</v>
       </c>
       <c r="K47" s="3">
         <v>226400</v>
@@ -3250,25 +3250,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>213000</v>
+        <v>199000</v>
       </c>
       <c r="E48" s="3">
-        <v>215200</v>
+        <v>201000</v>
       </c>
       <c r="F48" s="3">
-        <v>171500</v>
+        <v>160200</v>
       </c>
       <c r="G48" s="3">
-        <v>142200</v>
+        <v>132800</v>
       </c>
       <c r="H48" s="3">
-        <v>120200</v>
+        <v>112300</v>
       </c>
       <c r="I48" s="3">
-        <v>124300</v>
+        <v>116100</v>
       </c>
       <c r="J48" s="3">
-        <v>110300</v>
+        <v>103000</v>
       </c>
       <c r="K48" s="3">
         <v>75300</v>
@@ -3321,25 +3321,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>974000</v>
+        <v>909800</v>
       </c>
       <c r="E49" s="3">
-        <v>771900</v>
+        <v>721000</v>
       </c>
       <c r="F49" s="3">
-        <v>706200</v>
+        <v>659700</v>
       </c>
       <c r="G49" s="3">
-        <v>696100</v>
+        <v>650200</v>
       </c>
       <c r="H49" s="3">
-        <v>576300</v>
+        <v>538300</v>
       </c>
       <c r="I49" s="3">
-        <v>578000</v>
+        <v>539900</v>
       </c>
       <c r="J49" s="3">
-        <v>473400</v>
+        <v>442200</v>
       </c>
       <c r="K49" s="3">
         <v>442600</v>
@@ -3534,25 +3534,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>407000</v>
+        <v>380100</v>
       </c>
       <c r="E52" s="3">
-        <v>355100</v>
+        <v>331700</v>
       </c>
       <c r="F52" s="3">
-        <v>276800</v>
+        <v>258500</v>
       </c>
       <c r="G52" s="3">
-        <v>218200</v>
+        <v>203800</v>
       </c>
       <c r="H52" s="3">
-        <v>233200</v>
+        <v>217900</v>
       </c>
       <c r="I52" s="3">
-        <v>197200</v>
+        <v>184200</v>
       </c>
       <c r="J52" s="3">
-        <v>139700</v>
+        <v>130500</v>
       </c>
       <c r="K52" s="3">
         <v>122700</v>
@@ -3676,25 +3676,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>8211900</v>
+        <v>7670600</v>
       </c>
       <c r="E54" s="3">
-        <v>6699600</v>
+        <v>6257900</v>
       </c>
       <c r="F54" s="3">
-        <v>6829900</v>
+        <v>6379700</v>
       </c>
       <c r="G54" s="3">
-        <v>6374900</v>
+        <v>5954600</v>
       </c>
       <c r="H54" s="3">
-        <v>3765000</v>
+        <v>3516800</v>
       </c>
       <c r="I54" s="3">
-        <v>3840900</v>
+        <v>3587700</v>
       </c>
       <c r="J54" s="3">
-        <v>3860700</v>
+        <v>3606200</v>
       </c>
       <c r="K54" s="3">
         <v>2469200</v>
@@ -3801,25 +3801,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>688000</v>
+        <v>642600</v>
       </c>
       <c r="E57" s="3">
-        <v>662300</v>
+        <v>618700</v>
       </c>
       <c r="F57" s="3">
-        <v>572300</v>
+        <v>534600</v>
       </c>
       <c r="G57" s="3">
-        <v>489000</v>
+        <v>456800</v>
       </c>
       <c r="H57" s="3">
-        <v>485000</v>
+        <v>453000</v>
       </c>
       <c r="I57" s="3">
-        <v>462700</v>
+        <v>432200</v>
       </c>
       <c r="J57" s="3">
-        <v>414600</v>
+        <v>387200</v>
       </c>
       <c r="K57" s="3">
         <v>333800</v>
@@ -3872,25 +3872,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>194400</v>
+        <v>181600</v>
       </c>
       <c r="E58" s="3">
-        <v>147400</v>
+        <v>137700</v>
       </c>
       <c r="F58" s="3">
-        <v>61300</v>
+        <v>57200</v>
       </c>
       <c r="G58" s="3">
-        <v>15800</v>
+        <v>14700</v>
       </c>
       <c r="H58" s="3">
-        <v>15800</v>
+        <v>14700</v>
       </c>
       <c r="I58" s="3">
-        <v>15800</v>
+        <v>14700</v>
       </c>
       <c r="J58" s="3">
-        <v>15800</v>
+        <v>14700</v>
       </c>
       <c r="K58" s="3">
         <v>15700</v>
@@ -3943,25 +3943,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1022000</v>
+        <v>954600</v>
       </c>
       <c r="E59" s="3">
-        <v>901400</v>
+        <v>842000</v>
       </c>
       <c r="F59" s="3">
-        <v>849100</v>
+        <v>793100</v>
       </c>
       <c r="G59" s="3">
-        <v>685000</v>
+        <v>639900</v>
       </c>
       <c r="H59" s="3">
-        <v>665300</v>
+        <v>621500</v>
       </c>
       <c r="I59" s="3">
-        <v>627400</v>
+        <v>586000</v>
       </c>
       <c r="J59" s="3">
-        <v>449200</v>
+        <v>419600</v>
       </c>
       <c r="K59" s="3">
         <v>402400</v>
@@ -4014,25 +4014,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1904300</v>
+        <v>1778800</v>
       </c>
       <c r="E60" s="3">
-        <v>1711200</v>
+        <v>1598300</v>
       </c>
       <c r="F60" s="3">
-        <v>1482700</v>
+        <v>1385000</v>
       </c>
       <c r="G60" s="3">
-        <v>1189800</v>
+        <v>1111400</v>
       </c>
       <c r="H60" s="3">
-        <v>1166100</v>
+        <v>1089200</v>
       </c>
       <c r="I60" s="3">
-        <v>1105900</v>
+        <v>1033000</v>
       </c>
       <c r="J60" s="3">
-        <v>879600</v>
+        <v>821600</v>
       </c>
       <c r="K60" s="3">
         <v>751900</v>
@@ -4085,25 +4085,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>2805600</v>
+        <v>2620700</v>
       </c>
       <c r="E61" s="3">
-        <v>1239500</v>
+        <v>1157700</v>
       </c>
       <c r="F61" s="3">
-        <v>1289600</v>
+        <v>1204600</v>
       </c>
       <c r="G61" s="3">
-        <v>1311400</v>
+        <v>1224900</v>
       </c>
       <c r="H61" s="3">
-        <v>1315900</v>
+        <v>1229100</v>
       </c>
       <c r="I61" s="3">
-        <v>1372400</v>
+        <v>1282000</v>
       </c>
       <c r="J61" s="3">
-        <v>1425700</v>
+        <v>1331800</v>
       </c>
       <c r="K61" s="3">
         <v>543400</v>
@@ -4156,25 +4156,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>76000</v>
+        <v>71000</v>
       </c>
       <c r="E62" s="3">
-        <v>53800</v>
+        <v>50200</v>
       </c>
       <c r="F62" s="3">
-        <v>45100</v>
+        <v>42100</v>
       </c>
       <c r="G62" s="3">
-        <v>49700</v>
+        <v>46500</v>
       </c>
       <c r="H62" s="3">
-        <v>55400</v>
+        <v>51700</v>
       </c>
       <c r="I62" s="3">
-        <v>35800</v>
+        <v>33400</v>
       </c>
       <c r="J62" s="3">
-        <v>31200</v>
+        <v>29100</v>
       </c>
       <c r="K62" s="3">
         <v>27200</v>
@@ -4440,25 +4440,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>4787900</v>
+        <v>4472300</v>
       </c>
       <c r="E66" s="3">
-        <v>3010200</v>
+        <v>2811700</v>
       </c>
       <c r="F66" s="3">
-        <v>2824600</v>
+        <v>2638400</v>
       </c>
       <c r="G66" s="3">
-        <v>2577400</v>
+        <v>2407500</v>
       </c>
       <c r="H66" s="3">
-        <v>2566000</v>
+        <v>2396900</v>
       </c>
       <c r="I66" s="3">
-        <v>2545300</v>
+        <v>2377500</v>
       </c>
       <c r="J66" s="3">
-        <v>2450400</v>
+        <v>2288800</v>
       </c>
       <c r="K66" s="3">
         <v>1436100</v>
@@ -4821,8 +4821,8 @@
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D72" s="3" t="s">
-        <v>16</v>
+      <c r="D72" s="3">
+        <v>-2055200</v>
       </c>
       <c r="E72" s="3" t="s">
         <v>16</v>
@@ -4834,7 +4834,7 @@
         <v>16</v>
       </c>
       <c r="H72" s="3">
-        <v>-1129200</v>
+        <v>-1054700</v>
       </c>
       <c r="I72" s="3" t="s">
         <v>16</v>
@@ -5106,25 +5106,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>3424000</v>
+        <v>3198300</v>
       </c>
       <c r="E76" s="3">
-        <v>3689400</v>
+        <v>3446200</v>
       </c>
       <c r="F76" s="3">
-        <v>4005300</v>
+        <v>3741300</v>
       </c>
       <c r="G76" s="3">
-        <v>3797500</v>
+        <v>3547100</v>
       </c>
       <c r="H76" s="3">
-        <v>1199000</v>
+        <v>1120000</v>
       </c>
       <c r="I76" s="3">
-        <v>1295600</v>
+        <v>1210200</v>
       </c>
       <c r="J76" s="3">
-        <v>1410400</v>
+        <v>1317400</v>
       </c>
       <c r="K76" s="3">
         <v>1033100</v>
@@ -5324,25 +5324,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-329400</v>
+        <v>-307700</v>
       </c>
       <c r="E81" s="3">
-        <v>-422300</v>
+        <v>-394500</v>
       </c>
       <c r="F81" s="3">
-        <v>-176800</v>
+        <v>-165100</v>
       </c>
       <c r="G81" s="3">
-        <v>-142500</v>
+        <v>-133100</v>
       </c>
       <c r="H81" s="3">
-        <v>-130600</v>
+        <v>-122000</v>
       </c>
       <c r="I81" s="3">
-        <v>-170700</v>
+        <v>-159400</v>
       </c>
       <c r="J81" s="3">
-        <v>-89400</v>
+        <v>-83500</v>
       </c>
       <c r="K81" s="3">
         <v>-83800</v>
@@ -5434,7 +5434,7 @@
         <v>16</v>
       </c>
       <c r="H83" s="3">
-        <v>271600</v>
+        <v>253700</v>
       </c>
       <c r="I83" s="3" t="s">
         <v>16</v>
@@ -5860,7 +5860,7 @@
         <v>16</v>
       </c>
       <c r="H89" s="3">
-        <v>118800</v>
+        <v>111000</v>
       </c>
       <c r="I89" s="3" t="s">
         <v>16</v>
@@ -5958,7 +5958,7 @@
         <v>16</v>
       </c>
       <c r="H91" s="3">
-        <v>-95000</v>
+        <v>-88700</v>
       </c>
       <c r="I91" s="3" t="s">
         <v>16</v>
@@ -6171,7 +6171,7 @@
         <v>16</v>
       </c>
       <c r="H94" s="3">
-        <v>-1405100</v>
+        <v>-1312500</v>
       </c>
       <c r="I94" s="3" t="s">
         <v>16</v>
@@ -6553,7 +6553,7 @@
         <v>16</v>
       </c>
       <c r="H100" s="3">
-        <v>1315000</v>
+        <v>1228300</v>
       </c>
       <c r="I100" s="3" t="s">
         <v>16</v>
@@ -6624,7 +6624,7 @@
         <v>16</v>
       </c>
       <c r="H101" s="3">
-        <v>-73600</v>
+        <v>-68700</v>
       </c>
       <c r="I101" s="3" t="s">
         <v>16</v>
@@ -6695,7 +6695,7 @@
         <v>16</v>
       </c>
       <c r="H102" s="3">
-        <v>-44900</v>
+        <v>-41900</v>
       </c>
       <c r="I102" s="3" t="s">
         <v>16</v>

--- a/AAII_Financials/Quarterly/BILI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BILI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="92">
   <si>
     <t>BILI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,320 +665,333 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43373</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43281</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43190</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43100</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43008</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42916</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42825</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42735</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>851900</v>
+        <v>738100</v>
       </c>
       <c r="E8" s="3">
-        <v>767200</v>
+        <v>844200</v>
       </c>
       <c r="F8" s="3">
-        <v>662400</v>
+        <v>760300</v>
       </c>
       <c r="G8" s="3">
-        <v>574900</v>
+        <v>656400</v>
       </c>
       <c r="H8" s="3">
-        <v>565900</v>
+        <v>569700</v>
       </c>
       <c r="I8" s="3">
-        <v>475300</v>
+        <v>560800</v>
       </c>
       <c r="J8" s="3">
+        <v>471000</v>
+      </c>
+      <c r="K8" s="3">
         <v>385700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>362500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>309200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>290000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>234900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>208900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>167800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>151000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>147300</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>124500</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>108900</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>108000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>86500</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>61700</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>31600</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>44500</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>690100</v>
+        <v>620200</v>
       </c>
       <c r="E9" s="3">
-        <v>617200</v>
+        <v>683900</v>
       </c>
       <c r="F9" s="3">
-        <v>516700</v>
+        <v>611600</v>
       </c>
       <c r="G9" s="3">
-        <v>436700</v>
+        <v>512000</v>
       </c>
       <c r="H9" s="3">
-        <v>426800</v>
+        <v>432700</v>
       </c>
       <c r="I9" s="3">
-        <v>363100</v>
+        <v>422900</v>
       </c>
       <c r="J9" s="3">
+        <v>359800</v>
+      </c>
+      <c r="K9" s="3">
         <v>296700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>279500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>247900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>235200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>196500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>180100</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>139200</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>123800</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>111300</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>94000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>82800</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>82100</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>66100</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>52800</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>35200</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>77100</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>161800</v>
+        <v>117900</v>
       </c>
       <c r="E10" s="3">
-        <v>150100</v>
+        <v>160300</v>
       </c>
       <c r="F10" s="3">
-        <v>145700</v>
+        <v>148700</v>
       </c>
       <c r="G10" s="3">
-        <v>138200</v>
+        <v>144400</v>
       </c>
       <c r="H10" s="3">
-        <v>139100</v>
+        <v>137000</v>
       </c>
       <c r="I10" s="3">
-        <v>112200</v>
+        <v>137900</v>
       </c>
       <c r="J10" s="3">
+        <v>111200</v>
+      </c>
+      <c r="K10" s="3">
         <v>89000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>83000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>61300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>54800</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>38500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>28800</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>28600</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>27200</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>36000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>30600</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>26100</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>25900</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>20400</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>8900</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>-3600</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>-32700</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1004,79 +1017,83 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>117500</v>
+        <v>147300</v>
       </c>
       <c r="E12" s="3">
-        <v>116200</v>
+        <v>116500</v>
       </c>
       <c r="F12" s="3">
-        <v>99300</v>
+        <v>115100</v>
       </c>
       <c r="G12" s="3">
-        <v>85500</v>
+        <v>98400</v>
       </c>
       <c r="H12" s="3">
-        <v>71300</v>
+        <v>84700</v>
       </c>
       <c r="I12" s="3">
-        <v>59100</v>
+        <v>70700</v>
       </c>
       <c r="J12" s="3">
+        <v>58600</v>
+      </c>
+      <c r="K12" s="3">
         <v>48700</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>46600</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>37800</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>38600</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>33000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>28300</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>22300</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>20500</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>18900</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>15200</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>12900</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>11100</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>9400</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>8000</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>4300</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>9000</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1146,8 +1163,11 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1217,8 +1237,11 @@
       <c r="Y14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1288,8 +1311,11 @@
       <c r="Y15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1312,150 +1338,157 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>1146500</v>
+        <v>1028800</v>
       </c>
       <c r="E17" s="3">
-        <v>1044000</v>
+        <v>1136200</v>
       </c>
       <c r="F17" s="3">
-        <v>886500</v>
+        <v>1034600</v>
       </c>
       <c r="G17" s="3">
-        <v>726800</v>
+        <v>878500</v>
       </c>
       <c r="H17" s="3">
-        <v>699000</v>
+        <v>720200</v>
       </c>
       <c r="I17" s="3">
-        <v>635000</v>
+        <v>692700</v>
       </c>
       <c r="J17" s="3">
+        <v>629200</v>
+      </c>
+      <c r="K17" s="3">
         <v>475600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>447700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>373800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>356000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>287700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>255600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>209800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>187200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>162600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>135200</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>118100</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>112700</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>94300</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>73000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>87300</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>118900</v>
       </c>
     </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>-294600</v>
+        <v>-290700</v>
       </c>
       <c r="E18" s="3">
-        <v>-276700</v>
+        <v>-292000</v>
       </c>
       <c r="F18" s="3">
-        <v>-224100</v>
+        <v>-274200</v>
       </c>
       <c r="G18" s="3">
-        <v>-151900</v>
+        <v>-222000</v>
       </c>
       <c r="H18" s="3">
-        <v>-133100</v>
+        <v>-150500</v>
       </c>
       <c r="I18" s="3">
-        <v>-159600</v>
+        <v>-131900</v>
       </c>
       <c r="J18" s="3">
+        <v>-158200</v>
+      </c>
+      <c r="K18" s="3">
         <v>-89900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-85200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-64700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-66000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-52800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-46700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-41900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-36300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-15300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-10700</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-9200</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-4700</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-7800</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-11300</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-55700</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-74500</v>
       </c>
     </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1481,79 +1514,83 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>-29400</v>
+      </c>
+      <c r="E20" s="3">
         <v>-2000</v>
       </c>
-      <c r="E20" s="3">
-        <v>-109600</v>
-      </c>
       <c r="F20" s="3">
-        <v>67200</v>
+        <v>-108600</v>
       </c>
       <c r="G20" s="3">
-        <v>25300</v>
+        <v>66600</v>
       </c>
       <c r="H20" s="3">
-        <v>16100</v>
+        <v>25100</v>
       </c>
       <c r="I20" s="3">
-        <v>5300</v>
+        <v>15900</v>
       </c>
       <c r="J20" s="3">
+        <v>5200</v>
+      </c>
+      <c r="K20" s="3">
         <v>10900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>4700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>8400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>6500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>9000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>18100</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>15500</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>3400</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>5600</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>2800</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>1900</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>2900</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>700</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>1800</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-1900</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
@@ -1569,21 +1606,21 @@
       <c r="G21" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H21" s="3">
-        <v>136700</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>16</v>
+      <c r="H21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I21" s="3">
+        <v>135400</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="K21" s="3">
+      <c r="K21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L21" s="3">
         <v>-26800</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="M21" s="3" t="s">
         <v>16</v>
       </c>
@@ -1605,65 +1642,68 @@
       <c r="S21" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="T21" s="3">
+      <c r="T21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="U21" s="3">
         <v>37900</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>27000</v>
       </c>
-      <c r="V21" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="W21" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="X21" s="3">
+      <c r="X21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y21" s="3">
         <v>-34100</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>-58200</v>
       </c>
     </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>7400</v>
+        <v>9100</v>
       </c>
       <c r="E22" s="3">
-        <v>5400</v>
+        <v>7300</v>
       </c>
       <c r="F22" s="3">
+        <v>5300</v>
+      </c>
+      <c r="G22" s="3">
         <v>5200</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>4900</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>5100</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>5300</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>3300</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>2400</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>2300</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>2500</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>2400</v>
       </c>
-      <c r="O22" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="P22" s="3" t="s">
         <v>16</v>
       </c>
@@ -1676,8 +1716,8 @@
       <c r="S22" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="T22" s="3">
-        <v>0</v>
+      <c r="T22" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="U22" s="3">
         <v>0</v>
@@ -1694,135 +1734,141 @@
       <c r="Y22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-304000</v>
+        <v>-329200</v>
       </c>
       <c r="E23" s="3">
-        <v>-391700</v>
+        <v>-301300</v>
       </c>
       <c r="F23" s="3">
-        <v>-162100</v>
+        <v>-388100</v>
       </c>
       <c r="G23" s="3">
-        <v>-131500</v>
+        <v>-160600</v>
       </c>
       <c r="H23" s="3">
-        <v>-122200</v>
+        <v>-130300</v>
       </c>
       <c r="I23" s="3">
-        <v>-159700</v>
+        <v>-121100</v>
       </c>
       <c r="J23" s="3">
+        <v>-158200</v>
+      </c>
+      <c r="K23" s="3">
         <v>-82400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-82800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-58600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-62000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-46200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-28500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-26400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-32900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-9700</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-7800</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-7300</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-1800</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-7100</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-9500</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-57600</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-74500</v>
       </c>
     </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>4300</v>
+      </c>
+      <c r="E24" s="3">
         <v>4800</v>
       </c>
-      <c r="E24" s="3">
-        <v>4200</v>
-      </c>
       <c r="F24" s="3">
+        <v>4100</v>
+      </c>
+      <c r="G24" s="3">
         <v>3200</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>1800</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>2200</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>2500</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>1800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>1500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>1100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>1300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>1900</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>1200</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>1300</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>1600</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>300</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>500</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>400</v>
-      </c>
-      <c r="U24" s="3">
-        <v>300</v>
       </c>
       <c r="V24" s="3">
         <v>300</v>
@@ -1831,13 +1877,16 @@
         <v>300</v>
       </c>
       <c r="X24" s="3">
+        <v>300</v>
+      </c>
+      <c r="Y24" s="3">
         <v>500</v>
       </c>
-      <c r="Y24" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1907,150 +1956,159 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-308800</v>
+        <v>-333600</v>
       </c>
       <c r="E26" s="3">
-        <v>-395900</v>
+        <v>-306000</v>
       </c>
       <c r="F26" s="3">
-        <v>-165300</v>
+        <v>-392300</v>
       </c>
       <c r="G26" s="3">
-        <v>-133300</v>
+        <v>-163800</v>
       </c>
       <c r="H26" s="3">
-        <v>-124300</v>
+        <v>-132100</v>
       </c>
       <c r="I26" s="3">
-        <v>-162200</v>
+        <v>-123200</v>
       </c>
       <c r="J26" s="3">
+        <v>-160800</v>
+      </c>
+      <c r="K26" s="3">
         <v>-84100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-84300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-59600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-63300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-48100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-29800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-27700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-34400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-10100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-8300</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-7600</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-2200</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-7500</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-9800</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-58000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-74500</v>
       </c>
     </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-307700</v>
+        <v>-333200</v>
       </c>
       <c r="E27" s="3">
-        <v>-394500</v>
+        <v>-304900</v>
       </c>
       <c r="F27" s="3">
-        <v>-165100</v>
+        <v>-390900</v>
       </c>
       <c r="G27" s="3">
-        <v>-133100</v>
+        <v>-163600</v>
       </c>
       <c r="H27" s="3">
-        <v>-122000</v>
+        <v>-131900</v>
       </c>
       <c r="I27" s="3">
-        <v>-159400</v>
+        <v>-120900</v>
       </c>
       <c r="J27" s="3">
+        <v>-158000</v>
+      </c>
+      <c r="K27" s="3">
         <v>-83500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-83800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-58900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-63600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-47800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-28300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-26100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-34300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-10200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-17200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-17800</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-12200</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-36900</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-17500</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-65400</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-107000</v>
       </c>
     </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2120,8 +2178,11 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2191,8 +2252,11 @@
       <c r="Y29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2262,8 +2326,11 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2333,150 +2400,159 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>29400</v>
+      </c>
+      <c r="E32" s="3">
         <v>2000</v>
       </c>
-      <c r="E32" s="3">
-        <v>109600</v>
-      </c>
       <c r="F32" s="3">
-        <v>-67200</v>
+        <v>108600</v>
       </c>
       <c r="G32" s="3">
-        <v>-25300</v>
+        <v>-66600</v>
       </c>
       <c r="H32" s="3">
-        <v>-16100</v>
+        <v>-25100</v>
       </c>
       <c r="I32" s="3">
-        <v>-5300</v>
+        <v>-15900</v>
       </c>
       <c r="J32" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="K32" s="3">
         <v>-10900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-4700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-8400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-6500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-9000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-18100</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-15500</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-3400</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-5600</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-2800</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-1900</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-2900</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-700</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-1800</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>1900</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-307700</v>
+        <v>-333200</v>
       </c>
       <c r="E33" s="3">
-        <v>-394500</v>
+        <v>-304900</v>
       </c>
       <c r="F33" s="3">
-        <v>-165100</v>
+        <v>-390900</v>
       </c>
       <c r="G33" s="3">
-        <v>-133100</v>
+        <v>-163600</v>
       </c>
       <c r="H33" s="3">
-        <v>-122000</v>
+        <v>-131900</v>
       </c>
       <c r="I33" s="3">
-        <v>-159400</v>
+        <v>-120900</v>
       </c>
       <c r="J33" s="3">
+        <v>-158000</v>
+      </c>
+      <c r="K33" s="3">
         <v>-83500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-83800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-58900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-63600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-47800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-28300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-26100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-34300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-10200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-17200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-17800</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-12200</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-36900</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-17500</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-65400</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-107000</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2546,155 +2622,164 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-307700</v>
+        <v>-333200</v>
       </c>
       <c r="E35" s="3">
-        <v>-394500</v>
+        <v>-304900</v>
       </c>
       <c r="F35" s="3">
-        <v>-165100</v>
+        <v>-390900</v>
       </c>
       <c r="G35" s="3">
-        <v>-133100</v>
+        <v>-163600</v>
       </c>
       <c r="H35" s="3">
-        <v>-122000</v>
+        <v>-131900</v>
       </c>
       <c r="I35" s="3">
-        <v>-159400</v>
+        <v>-120900</v>
       </c>
       <c r="J35" s="3">
+        <v>-158000</v>
+      </c>
+      <c r="K35" s="3">
         <v>-83500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-83800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-58900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-63600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-47800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-28300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-26100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-34300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-10200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-17200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-17800</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-12200</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-36900</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-17500</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-65400</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-107000</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43373</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43281</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43190</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43100</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43008</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42916</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42825</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42735</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2720,8 +2805,9 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2747,68 +2833,69 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1108600</v>
+        <v>741500</v>
       </c>
       <c r="E41" s="3">
-        <v>1542900</v>
+        <v>1098600</v>
       </c>
       <c r="F41" s="3">
-        <v>1693700</v>
+        <v>1529000</v>
       </c>
       <c r="G41" s="3">
-        <v>2593800</v>
+        <v>1678400</v>
       </c>
       <c r="H41" s="3">
-        <v>689400</v>
+        <v>2570400</v>
       </c>
       <c r="I41" s="3">
-        <v>873500</v>
+        <v>683100</v>
       </c>
       <c r="J41" s="3">
+        <v>865600</v>
+      </c>
+      <c r="K41" s="3">
         <v>898100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>695900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>764200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>652000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>711800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>412900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>514100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>337000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>520100</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>150800</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>113200</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>58700</v>
       </c>
-      <c r="V41" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="W41" s="3" t="s">
         <v>16</v>
       </c>
@@ -2818,68 +2905,71 @@
       <c r="Y41" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z41" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>3344000</v>
+        <v>2869700</v>
       </c>
       <c r="E42" s="3">
-        <v>2057200</v>
+        <v>3313900</v>
       </c>
       <c r="F42" s="3">
-        <v>2369400</v>
+        <v>2038600</v>
       </c>
       <c r="G42" s="3">
-        <v>1390500</v>
+        <v>2348000</v>
       </c>
       <c r="H42" s="3">
-        <v>1197900</v>
+        <v>1377900</v>
       </c>
       <c r="I42" s="3">
-        <v>1204200</v>
+        <v>1187100</v>
       </c>
       <c r="J42" s="3">
+        <v>1193300</v>
+      </c>
+      <c r="K42" s="3">
         <v>1394300</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>553000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>478200</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>657600</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>596400</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>278200</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>246100</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>150600</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>49900</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>32800</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>75000</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>159200</v>
       </c>
-      <c r="V42" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="W42" s="3" t="s">
         <v>16</v>
       </c>
@@ -2889,68 +2979,71 @@
       <c r="Y42" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z42" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>504500</v>
+        <v>186100</v>
       </c>
       <c r="E43" s="3">
-        <v>198600</v>
+        <v>500000</v>
       </c>
       <c r="F43" s="3">
-        <v>203000</v>
+        <v>196800</v>
       </c>
       <c r="G43" s="3">
-        <v>161000</v>
+        <v>201200</v>
       </c>
       <c r="H43" s="3">
-        <v>208100</v>
+        <v>159600</v>
       </c>
       <c r="I43" s="3">
-        <v>174800</v>
+        <v>206300</v>
       </c>
       <c r="J43" s="3">
+        <v>173200</v>
+      </c>
+      <c r="K43" s="3">
         <v>113900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>173700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>144800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>111700</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>70700</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>86000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>47100</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>55900</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>54500</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>65400</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>67500</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>61600</v>
       </c>
-      <c r="V43" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="W43" s="3" t="s">
         <v>16</v>
       </c>
@@ -2960,8 +3053,11 @@
       <c r="Y43" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z43" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2977,21 +3073,21 @@
       <c r="G44" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H44" s="3">
-        <v>23600</v>
-      </c>
-      <c r="I44" s="3" t="s">
-        <v>16</v>
+      <c r="H44" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I44" s="3">
+        <v>23400</v>
       </c>
       <c r="J44" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="K44" s="3">
+      <c r="K44" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L44" s="3">
         <v>6700</v>
       </c>
-      <c r="L44" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="M44" s="3" t="s">
         <v>16</v>
       </c>
@@ -3013,15 +3109,15 @@
       <c r="S44" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="T44" s="3">
+      <c r="T44" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="U44" s="3">
         <v>1500</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>1300</v>
       </c>
-      <c r="V44" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="W44" s="3" t="s">
         <v>16</v>
       </c>
@@ -3031,68 +3127,71 @@
       <c r="Y44" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z44" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>413600</v>
+        <v>689300</v>
       </c>
       <c r="E45" s="3">
-        <v>588800</v>
+        <v>409900</v>
       </c>
       <c r="F45" s="3">
-        <v>581300</v>
+        <v>583500</v>
       </c>
       <c r="G45" s="3">
-        <v>503200</v>
+        <v>576000</v>
       </c>
       <c r="H45" s="3">
-        <v>200400</v>
+        <v>498600</v>
       </c>
       <c r="I45" s="3">
-        <v>266800</v>
+        <v>198600</v>
       </c>
       <c r="J45" s="3">
+        <v>264400</v>
+      </c>
+      <c r="K45" s="3">
         <v>285200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>172800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>202600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>254300</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>252000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>182300</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>143900</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>111900</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>103000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>104400</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>62300</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>58500</v>
       </c>
-      <c r="V45" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="W45" s="3" t="s">
         <v>16</v>
       </c>
@@ -3102,68 +3201,71 @@
       <c r="Y45" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z45" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>5370800</v>
+        <v>4486700</v>
       </c>
       <c r="E46" s="3">
-        <v>4387500</v>
+        <v>5322300</v>
       </c>
       <c r="F46" s="3">
-        <v>4847400</v>
+        <v>4347900</v>
       </c>
       <c r="G46" s="3">
-        <v>4648500</v>
+        <v>4803600</v>
       </c>
       <c r="H46" s="3">
-        <v>2319400</v>
+        <v>4606500</v>
       </c>
       <c r="I46" s="3">
-        <v>2519300</v>
+        <v>2298400</v>
       </c>
       <c r="J46" s="3">
+        <v>2496600</v>
+      </c>
+      <c r="K46" s="3">
         <v>2691500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1602100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1589700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1675500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1630900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>959400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>951300</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>655400</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>727500</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>353400</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>319500</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>339400</v>
       </c>
-      <c r="V46" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="W46" s="3" t="s">
         <v>16</v>
       </c>
@@ -3173,68 +3275,71 @@
       <c r="Y46" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z46" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>810900</v>
+        <v>868400</v>
       </c>
       <c r="E47" s="3">
-        <v>616900</v>
+        <v>803500</v>
       </c>
       <c r="F47" s="3">
-        <v>453900</v>
+        <v>611300</v>
       </c>
       <c r="G47" s="3">
-        <v>319400</v>
+        <v>449800</v>
       </c>
       <c r="H47" s="3">
-        <v>329000</v>
+        <v>316500</v>
       </c>
       <c r="I47" s="3">
-        <v>228200</v>
+        <v>326100</v>
       </c>
       <c r="J47" s="3">
+        <v>226200</v>
+      </c>
+      <c r="K47" s="3">
         <v>239100</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>226400</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>192600</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>221700</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>244600</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>186800</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>142300</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>140400</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>117600</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>106800</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>94400</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>80100</v>
       </c>
-      <c r="V47" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="W47" s="3" t="s">
         <v>16</v>
       </c>
@@ -3244,68 +3349,71 @@
       <c r="Y47" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z47" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>199000</v>
+        <v>190300</v>
       </c>
       <c r="E48" s="3">
-        <v>201000</v>
+        <v>197200</v>
       </c>
       <c r="F48" s="3">
-        <v>160200</v>
+        <v>199200</v>
       </c>
       <c r="G48" s="3">
-        <v>132800</v>
+        <v>158800</v>
       </c>
       <c r="H48" s="3">
-        <v>112300</v>
+        <v>131600</v>
       </c>
       <c r="I48" s="3">
-        <v>116100</v>
+        <v>111300</v>
       </c>
       <c r="J48" s="3">
+        <v>115000</v>
+      </c>
+      <c r="K48" s="3">
         <v>103000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>75300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>79500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>73700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>69800</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>55200</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>57400</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>44900</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>35600</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>28700</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>27700</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>20000</v>
       </c>
-      <c r="V48" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="W48" s="3" t="s">
         <v>16</v>
       </c>
@@ -3315,68 +3423,71 @@
       <c r="Y48" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z48" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>909800</v>
+        <v>1022500</v>
       </c>
       <c r="E49" s="3">
-        <v>721000</v>
+        <v>901600</v>
       </c>
       <c r="F49" s="3">
-        <v>659700</v>
+        <v>714500</v>
       </c>
       <c r="G49" s="3">
-        <v>650200</v>
+        <v>653700</v>
       </c>
       <c r="H49" s="3">
-        <v>538300</v>
+        <v>644300</v>
       </c>
       <c r="I49" s="3">
-        <v>539900</v>
+        <v>533400</v>
       </c>
       <c r="J49" s="3">
+        <v>535100</v>
+      </c>
+      <c r="K49" s="3">
         <v>442200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>442600</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>411000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>395800</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>382200</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>350600</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>342900</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>218100</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>131900</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>105700</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>70800</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>64200</v>
       </c>
-      <c r="V49" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="W49" s="3" t="s">
         <v>16</v>
       </c>
@@ -3386,8 +3497,11 @@
       <c r="Y49" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z49" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3457,8 +3571,11 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3528,68 +3645,71 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>380100</v>
+        <v>428000</v>
       </c>
       <c r="E52" s="3">
-        <v>331700</v>
+        <v>376700</v>
       </c>
       <c r="F52" s="3">
-        <v>258500</v>
+        <v>328700</v>
       </c>
       <c r="G52" s="3">
-        <v>203800</v>
+        <v>256200</v>
       </c>
       <c r="H52" s="3">
-        <v>217900</v>
+        <v>202000</v>
       </c>
       <c r="I52" s="3">
-        <v>184200</v>
+        <v>215900</v>
       </c>
       <c r="J52" s="3">
+        <v>182500</v>
+      </c>
+      <c r="K52" s="3">
         <v>130500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>122700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>116400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>106100</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>86500</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>71700</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>29700</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>10200</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>7600</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>4400</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>3100</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>1800</v>
       </c>
-      <c r="V52" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="W52" s="3" t="s">
         <v>16</v>
       </c>
@@ -3599,8 +3719,11 @@
       <c r="Y52" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z52" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3670,68 +3793,71 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>7670600</v>
+        <v>6995900</v>
       </c>
       <c r="E54" s="3">
-        <v>6257900</v>
+        <v>7601300</v>
       </c>
       <c r="F54" s="3">
-        <v>6379700</v>
+        <v>6201500</v>
       </c>
       <c r="G54" s="3">
-        <v>5954600</v>
+        <v>6322100</v>
       </c>
       <c r="H54" s="3">
-        <v>3516800</v>
+        <v>5900900</v>
       </c>
       <c r="I54" s="3">
-        <v>3587700</v>
+        <v>3485100</v>
       </c>
       <c r="J54" s="3">
+        <v>3555300</v>
+      </c>
+      <c r="K54" s="3">
         <v>3606200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>2469200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>2389200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>2472900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>2413900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1623700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1523500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1069000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1020200</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>598900</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>515500</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>505500</v>
       </c>
-      <c r="V54" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="W54" s="3" t="s">
         <v>16</v>
       </c>
@@ -3741,8 +3867,11 @@
       <c r="Y54" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z54" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3768,8 +3897,9 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3795,68 +3925,69 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>642600</v>
+        <v>628200</v>
       </c>
       <c r="E57" s="3">
-        <v>618700</v>
+        <v>636800</v>
       </c>
       <c r="F57" s="3">
-        <v>534600</v>
+        <v>613100</v>
       </c>
       <c r="G57" s="3">
-        <v>456800</v>
+        <v>529800</v>
       </c>
       <c r="H57" s="3">
-        <v>453000</v>
+        <v>452600</v>
       </c>
       <c r="I57" s="3">
-        <v>432200</v>
+        <v>448900</v>
       </c>
       <c r="J57" s="3">
+        <v>428300</v>
+      </c>
+      <c r="K57" s="3">
         <v>387200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>333800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>293200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>296500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>262500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>216700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>189900</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>146900</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>135800</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>124500</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>88500</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>81100</v>
       </c>
-      <c r="V57" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="W57" s="3" t="s">
         <v>16</v>
       </c>
@@ -3866,50 +3997,53 @@
       <c r="Y57" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z57" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>181600</v>
+        <v>217900</v>
       </c>
       <c r="E58" s="3">
-        <v>137700</v>
+        <v>179900</v>
       </c>
       <c r="F58" s="3">
-        <v>57200</v>
+        <v>136400</v>
       </c>
       <c r="G58" s="3">
+        <v>56700</v>
+      </c>
+      <c r="H58" s="3">
+        <v>14600</v>
+      </c>
+      <c r="I58" s="3">
+        <v>14600</v>
+      </c>
+      <c r="J58" s="3">
+        <v>14600</v>
+      </c>
+      <c r="K58" s="3">
         <v>14700</v>
       </c>
-      <c r="H58" s="3">
-        <v>14700</v>
-      </c>
-      <c r="I58" s="3">
-        <v>14700</v>
-      </c>
-      <c r="J58" s="3">
-        <v>14700</v>
-      </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>15700</v>
       </c>
-      <c r="L58" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="M58" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="N58" s="3">
+      <c r="N58" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="O58" s="3">
         <v>15300</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>15200</v>
       </c>
-      <c r="P58" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Q58" s="3" t="s">
         <v>16</v>
       </c>
@@ -3919,8 +4053,8 @@
       <c r="S58" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="T58" s="3">
-        <v>0</v>
+      <c r="T58" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="U58" s="3">
         <v>0</v>
@@ -3937,68 +4071,71 @@
       <c r="Y58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>954600</v>
+        <v>809300</v>
       </c>
       <c r="E59" s="3">
-        <v>842000</v>
+        <v>946000</v>
       </c>
       <c r="F59" s="3">
-        <v>793100</v>
+        <v>834400</v>
       </c>
       <c r="G59" s="3">
-        <v>639900</v>
+        <v>786000</v>
       </c>
       <c r="H59" s="3">
-        <v>621500</v>
+        <v>634100</v>
       </c>
       <c r="I59" s="3">
-        <v>586000</v>
+        <v>615800</v>
       </c>
       <c r="J59" s="3">
+        <v>580800</v>
+      </c>
+      <c r="K59" s="3">
         <v>419600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>402400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>364700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>344300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>304500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>336300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>289200</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>215500</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>172600</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>184600</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>118900</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>106700</v>
       </c>
-      <c r="V59" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="W59" s="3" t="s">
         <v>16</v>
       </c>
@@ -4008,68 +4145,71 @@
       <c r="Y59" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z59" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1778800</v>
+        <v>1655400</v>
       </c>
       <c r="E60" s="3">
-        <v>1598300</v>
+        <v>1762700</v>
       </c>
       <c r="F60" s="3">
-        <v>1385000</v>
+        <v>1583900</v>
       </c>
       <c r="G60" s="3">
-        <v>1111400</v>
+        <v>1372500</v>
       </c>
       <c r="H60" s="3">
-        <v>1089200</v>
+        <v>1101300</v>
       </c>
       <c r="I60" s="3">
-        <v>1033000</v>
+        <v>1079400</v>
       </c>
       <c r="J60" s="3">
+        <v>1023600</v>
+      </c>
+      <c r="K60" s="3">
         <v>821600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>751900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>657900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>640800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>582300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>568200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>479100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>362400</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>308400</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>309100</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>207500</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>187800</v>
       </c>
-      <c r="V60" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="W60" s="3" t="s">
         <v>16</v>
       </c>
@@ -4079,47 +4219,50 @@
       <c r="Y60" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z60" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>2620700</v>
+        <v>2401100</v>
       </c>
       <c r="E61" s="3">
-        <v>1157700</v>
+        <v>2597000</v>
       </c>
       <c r="F61" s="3">
-        <v>1204600</v>
+        <v>1147300</v>
       </c>
       <c r="G61" s="3">
-        <v>1224900</v>
+        <v>1193700</v>
       </c>
       <c r="H61" s="3">
-        <v>1229100</v>
+        <v>1213900</v>
       </c>
       <c r="I61" s="3">
-        <v>1282000</v>
+        <v>1218000</v>
       </c>
       <c r="J61" s="3">
+        <v>1270400</v>
+      </c>
+      <c r="K61" s="3">
         <v>1331800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>543400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>525800</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>539700</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>513200</v>
       </c>
-      <c r="O61" s="3">
-        <v>0</v>
-      </c>
       <c r="P61" s="3">
         <v>0</v>
       </c>
@@ -4150,47 +4293,50 @@
       <c r="Y61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>71000</v>
+        <v>95900</v>
       </c>
       <c r="E62" s="3">
-        <v>50200</v>
+        <v>70400</v>
       </c>
       <c r="F62" s="3">
-        <v>42100</v>
+        <v>49800</v>
       </c>
       <c r="G62" s="3">
-        <v>46500</v>
+        <v>41700</v>
       </c>
       <c r="H62" s="3">
-        <v>51700</v>
+        <v>46000</v>
       </c>
       <c r="I62" s="3">
-        <v>33400</v>
+        <v>51200</v>
       </c>
       <c r="J62" s="3">
+        <v>33100</v>
+      </c>
+      <c r="K62" s="3">
         <v>29100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>27200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>29700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>31700</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>26000</v>
       </c>
-      <c r="O62" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="P62" s="3" t="s">
         <v>16</v>
       </c>
@@ -4203,8 +4349,8 @@
       <c r="S62" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="T62" s="3">
-        <v>0</v>
+      <c r="T62" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="U62" s="3">
         <v>0</v>
@@ -4221,8 +4367,11 @@
       <c r="Y62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4292,8 +4441,11 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4363,8 +4515,11 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4434,68 +4589,71 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>4472300</v>
+        <v>4153900</v>
       </c>
       <c r="E66" s="3">
-        <v>2811700</v>
+        <v>4431900</v>
       </c>
       <c r="F66" s="3">
-        <v>2638400</v>
+        <v>2786400</v>
       </c>
       <c r="G66" s="3">
-        <v>2407500</v>
+        <v>2614600</v>
       </c>
       <c r="H66" s="3">
-        <v>2396900</v>
+        <v>2385800</v>
       </c>
       <c r="I66" s="3">
-        <v>2377500</v>
+        <v>2375200</v>
       </c>
       <c r="J66" s="3">
+        <v>2356100</v>
+      </c>
+      <c r="K66" s="3">
         <v>2288800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1436100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1303300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1295800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1157000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>603900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>514000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>381800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>308300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>308900</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>207500</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>187800</v>
       </c>
-      <c r="V66" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="W66" s="3" t="s">
         <v>16</v>
       </c>
@@ -4505,8 +4663,11 @@
       <c r="Y66" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z66" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4532,8 +4693,9 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4603,8 +4765,11 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4674,8 +4839,11 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4728,14 +4896,14 @@
         <v>0</v>
       </c>
       <c r="T70" s="3">
+        <v>0</v>
+      </c>
+      <c r="U70" s="3">
         <v>595900</v>
       </c>
-      <c r="U70" s="3">
+      <c r="V70" s="3">
         <v>585800</v>
       </c>
-      <c r="V70" s="3">
-        <v>0</v>
-      </c>
       <c r="W70" s="3">
         <v>0</v>
       </c>
@@ -4745,8 +4913,11 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4816,16 +4987,19 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D72" s="3">
-        <v>-2055200</v>
-      </c>
-      <c r="E72" s="3" t="s">
-        <v>16</v>
+      <c r="D72" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-2036600</v>
       </c>
       <c r="F72" s="3" t="s">
         <v>16</v>
@@ -4833,51 +5007,51 @@
       <c r="G72" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H72" s="3">
-        <v>-1054700</v>
-      </c>
-      <c r="I72" s="3" t="s">
-        <v>16</v>
+      <c r="H72" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I72" s="3">
+        <v>-1045200</v>
       </c>
       <c r="J72" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="K72" s="3">
+      <c r="K72" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L72" s="3">
         <v>-733300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-636300</v>
       </c>
-      <c r="M72" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="N72" s="3" t="s">
         <v>16</v>
       </c>
       <c r="O72" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="P72" s="3">
+      <c r="P72" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q72" s="3">
         <v>-411700</v>
       </c>
-      <c r="Q72" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="R72" s="3" t="s">
         <v>16</v>
       </c>
       <c r="S72" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="T72" s="3">
+      <c r="T72" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="U72" s="3">
         <v>-329300</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-311600</v>
       </c>
-      <c r="V72" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="W72" s="3" t="s">
         <v>16</v>
       </c>
@@ -4887,8 +5061,11 @@
       <c r="Y72" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z72" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4958,8 +5135,11 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5029,8 +5209,11 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5100,68 +5283,71 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>3198300</v>
+        <v>2842000</v>
       </c>
       <c r="E76" s="3">
-        <v>3446200</v>
+        <v>3169400</v>
       </c>
       <c r="F76" s="3">
-        <v>3741300</v>
+        <v>3415100</v>
       </c>
       <c r="G76" s="3">
-        <v>3547100</v>
+        <v>3707500</v>
       </c>
       <c r="H76" s="3">
-        <v>1120000</v>
+        <v>3515100</v>
       </c>
       <c r="I76" s="3">
-        <v>1210200</v>
+        <v>1109900</v>
       </c>
       <c r="J76" s="3">
+        <v>1199200</v>
+      </c>
+      <c r="K76" s="3">
         <v>1317400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1033100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1085900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1177100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1256900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1019800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1009500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>687300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>711900</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>290000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-287800</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>-268000</v>
       </c>
-      <c r="V76" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="W76" s="3" t="s">
         <v>16</v>
       </c>
@@ -5171,8 +5357,11 @@
       <c r="Y76" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z76" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5242,155 +5431,164 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43373</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43281</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43190</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43100</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43008</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42916</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42825</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42735</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-307700</v>
+        <v>-333200</v>
       </c>
       <c r="E81" s="3">
-        <v>-394500</v>
+        <v>-304900</v>
       </c>
       <c r="F81" s="3">
-        <v>-165100</v>
+        <v>-390900</v>
       </c>
       <c r="G81" s="3">
-        <v>-133100</v>
+        <v>-163600</v>
       </c>
       <c r="H81" s="3">
-        <v>-122000</v>
+        <v>-131900</v>
       </c>
       <c r="I81" s="3">
-        <v>-159400</v>
+        <v>-120900</v>
       </c>
       <c r="J81" s="3">
+        <v>-158000</v>
+      </c>
+      <c r="K81" s="3">
         <v>-83500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-83800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-58900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-63600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-47800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-28300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-26100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-34300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-10200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-17200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-17800</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-12200</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-36900</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-17500</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-65400</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-107000</v>
       </c>
     </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5416,8 +5614,9 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5433,11 +5632,11 @@
       <c r="G83" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H83" s="3">
-        <v>253700</v>
-      </c>
-      <c r="I83" s="3" t="s">
-        <v>16</v>
+      <c r="H83" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I83" s="3">
+        <v>251400</v>
       </c>
       <c r="J83" s="3" t="s">
         <v>16</v>
@@ -5463,8 +5662,8 @@
       <c r="Q83" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="R83" s="3">
-        <v>0</v>
+      <c r="R83" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="S83" s="3">
         <v>0</v>
@@ -5478,8 +5677,8 @@
       <c r="V83" s="3">
         <v>0</v>
       </c>
-      <c r="W83" s="3" t="s">
-        <v>16</v>
+      <c r="W83" s="3">
+        <v>0</v>
       </c>
       <c r="X83" s="3" t="s">
         <v>16</v>
@@ -5487,8 +5686,11 @@
       <c r="Y83" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z83" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5558,8 +5760,11 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5629,8 +5834,11 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5700,8 +5908,11 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5771,8 +5982,11 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5842,8 +6056,11 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -5859,11 +6076,11 @@
       <c r="G89" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H89" s="3">
-        <v>111000</v>
-      </c>
-      <c r="I89" s="3" t="s">
-        <v>16</v>
+      <c r="H89" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I89" s="3">
+        <v>110000</v>
       </c>
       <c r="J89" s="3" t="s">
         <v>16</v>
@@ -5889,8 +6106,8 @@
       <c r="Q89" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="R89" s="3">
-        <v>0</v>
+      <c r="R89" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="S89" s="3">
         <v>0</v>
@@ -5904,8 +6121,8 @@
       <c r="V89" s="3">
         <v>0</v>
       </c>
-      <c r="W89" s="3" t="s">
-        <v>16</v>
+      <c r="W89" s="3">
+        <v>0</v>
       </c>
       <c r="X89" s="3" t="s">
         <v>16</v>
@@ -5913,8 +6130,11 @@
       <c r="Y89" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z89" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5940,8 +6160,9 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5957,11 +6178,11 @@
       <c r="G91" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H91" s="3">
-        <v>-88700</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>16</v>
+      <c r="H91" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I91" s="3">
+        <v>-87900</v>
       </c>
       <c r="J91" s="3" t="s">
         <v>16</v>
@@ -5987,8 +6208,8 @@
       <c r="Q91" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="R91" s="3">
-        <v>0</v>
+      <c r="R91" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="S91" s="3">
         <v>0</v>
@@ -6002,8 +6223,8 @@
       <c r="V91" s="3">
         <v>0</v>
       </c>
-      <c r="W91" s="3" t="s">
-        <v>16</v>
+      <c r="W91" s="3">
+        <v>0</v>
       </c>
       <c r="X91" s="3" t="s">
         <v>16</v>
@@ -6011,8 +6232,11 @@
       <c r="Y91" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z91" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6082,8 +6306,11 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6153,8 +6380,11 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6170,11 +6400,11 @@
       <c r="G94" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H94" s="3">
-        <v>-1312500</v>
-      </c>
-      <c r="I94" s="3" t="s">
-        <v>16</v>
+      <c r="H94" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I94" s="3">
+        <v>-1300700</v>
       </c>
       <c r="J94" s="3" t="s">
         <v>16</v>
@@ -6200,8 +6430,8 @@
       <c r="Q94" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="R94" s="3">
-        <v>0</v>
+      <c r="R94" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="S94" s="3">
         <v>0</v>
@@ -6215,8 +6445,8 @@
       <c r="V94" s="3">
         <v>0</v>
       </c>
-      <c r="W94" s="3" t="s">
-        <v>16</v>
+      <c r="W94" s="3">
+        <v>0</v>
       </c>
       <c r="X94" s="3" t="s">
         <v>16</v>
@@ -6224,8 +6454,11 @@
       <c r="Y94" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z94" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6251,8 +6484,9 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6322,8 +6556,11 @@
       <c r="Y96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6393,8 +6630,11 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6464,8 +6704,11 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6535,8 +6778,11 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -6552,11 +6798,11 @@
       <c r="G100" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H100" s="3">
-        <v>1228300</v>
-      </c>
-      <c r="I100" s="3" t="s">
-        <v>16</v>
+      <c r="H100" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I100" s="3">
+        <v>1217200</v>
       </c>
       <c r="J100" s="3" t="s">
         <v>16</v>
@@ -6582,8 +6828,8 @@
       <c r="Q100" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="R100" s="3">
-        <v>0</v>
+      <c r="R100" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="S100" s="3">
         <v>0</v>
@@ -6597,8 +6843,8 @@
       <c r="V100" s="3">
         <v>0</v>
       </c>
-      <c r="W100" s="3" t="s">
-        <v>16</v>
+      <c r="W100" s="3">
+        <v>0</v>
       </c>
       <c r="X100" s="3" t="s">
         <v>16</v>
@@ -6606,8 +6852,11 @@
       <c r="Y100" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z100" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6623,11 +6872,11 @@
       <c r="G101" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H101" s="3">
-        <v>-68700</v>
-      </c>
-      <c r="I101" s="3" t="s">
-        <v>16</v>
+      <c r="H101" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I101" s="3">
+        <v>-68100</v>
       </c>
       <c r="J101" s="3" t="s">
         <v>16</v>
@@ -6653,8 +6902,8 @@
       <c r="Q101" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="R101" s="3">
-        <v>0</v>
+      <c r="R101" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="S101" s="3">
         <v>0</v>
@@ -6668,8 +6917,8 @@
       <c r="V101" s="3">
         <v>0</v>
       </c>
-      <c r="W101" s="3" t="s">
-        <v>16</v>
+      <c r="W101" s="3">
+        <v>0</v>
       </c>
       <c r="X101" s="3" t="s">
         <v>16</v>
@@ -6677,8 +6926,11 @@
       <c r="Y101" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z101" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -6694,11 +6946,11 @@
       <c r="G102" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H102" s="3">
-        <v>-41900</v>
-      </c>
-      <c r="I102" s="3" t="s">
-        <v>16</v>
+      <c r="H102" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I102" s="3">
+        <v>-41600</v>
       </c>
       <c r="J102" s="3" t="s">
         <v>16</v>
@@ -6724,8 +6976,8 @@
       <c r="Q102" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="R102" s="3">
-        <v>0</v>
+      <c r="R102" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="S102" s="3">
         <v>0</v>
@@ -6739,13 +6991,16 @@
       <c r="V102" s="3">
         <v>0</v>
       </c>
-      <c r="W102" s="3" t="s">
-        <v>16</v>
+      <c r="W102" s="3">
+        <v>0</v>
       </c>
       <c r="X102" s="3" t="s">
         <v>16</v>
       </c>
       <c r="Y102" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z102" s="3" t="s">
         <v>16</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BILI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BILI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="92">
   <si>
     <t>BILI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Z102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,333 +665,346 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43100</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43008</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42916</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42825</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42735</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>738100</v>
+        <v>683300</v>
       </c>
       <c r="E8" s="3">
-        <v>844200</v>
+        <v>703500</v>
       </c>
       <c r="F8" s="3">
-        <v>760300</v>
+        <v>804700</v>
       </c>
       <c r="G8" s="3">
-        <v>656400</v>
+        <v>724800</v>
       </c>
       <c r="H8" s="3">
-        <v>569700</v>
+        <v>625700</v>
       </c>
       <c r="I8" s="3">
-        <v>560800</v>
+        <v>543000</v>
       </c>
       <c r="J8" s="3">
+        <v>534500</v>
+      </c>
+      <c r="K8" s="3">
         <v>471000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>385700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>362500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>309200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>290000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>234900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>208900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>167800</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>151000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>147300</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>124500</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>108900</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>108000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>86500</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>61700</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>31600</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>44500</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>620200</v>
+        <v>580600</v>
       </c>
       <c r="E9" s="3">
-        <v>683900</v>
+        <v>591200</v>
       </c>
       <c r="F9" s="3">
-        <v>611600</v>
+        <v>651900</v>
       </c>
       <c r="G9" s="3">
-        <v>512000</v>
+        <v>583000</v>
       </c>
       <c r="H9" s="3">
-        <v>432700</v>
+        <v>488100</v>
       </c>
       <c r="I9" s="3">
-        <v>422900</v>
+        <v>412500</v>
       </c>
       <c r="J9" s="3">
+        <v>403100</v>
+      </c>
+      <c r="K9" s="3">
         <v>359800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>296700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>279500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>247900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>235200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>196500</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>180100</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>139200</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>123800</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>111300</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>94000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>82800</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>82100</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>66100</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>52800</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>35200</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>77100</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>117900</v>
+        <v>102800</v>
       </c>
       <c r="E10" s="3">
-        <v>160300</v>
+        <v>112400</v>
       </c>
       <c r="F10" s="3">
-        <v>148700</v>
+        <v>152800</v>
       </c>
       <c r="G10" s="3">
-        <v>144400</v>
+        <v>141800</v>
       </c>
       <c r="H10" s="3">
-        <v>137000</v>
+        <v>137700</v>
       </c>
       <c r="I10" s="3">
-        <v>137900</v>
+        <v>130600</v>
       </c>
       <c r="J10" s="3">
+        <v>131400</v>
+      </c>
+      <c r="K10" s="3">
         <v>111200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>89000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>83000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>61300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>54800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>38500</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>28800</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>28600</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>27200</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>36000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>30600</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>26100</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>25900</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>20400</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>8900</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>-3600</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>-32700</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1018,82 +1031,86 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>147300</v>
+        <v>157500</v>
       </c>
       <c r="E12" s="3">
-        <v>116500</v>
+        <v>140400</v>
       </c>
       <c r="F12" s="3">
-        <v>115100</v>
+        <v>111000</v>
       </c>
       <c r="G12" s="3">
-        <v>98400</v>
+        <v>109700</v>
       </c>
       <c r="H12" s="3">
-        <v>84700</v>
+        <v>93800</v>
       </c>
       <c r="I12" s="3">
-        <v>70700</v>
+        <v>80800</v>
       </c>
       <c r="J12" s="3">
+        <v>67400</v>
+      </c>
+      <c r="K12" s="3">
         <v>58600</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>48700</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>46600</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>37800</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>38600</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>33000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>28300</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>22300</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>20500</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>18900</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>15200</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>12900</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>11100</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>9400</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>8000</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>4300</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>9000</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1166,8 +1183,11 @@
       <c r="Z13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1240,8 +1260,11 @@
       <c r="Z14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1314,8 +1337,11 @@
       <c r="Z15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1339,156 +1365,163 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-    </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>1028800</v>
+        <v>988300</v>
       </c>
       <c r="E17" s="3">
-        <v>1136200</v>
+        <v>980700</v>
       </c>
       <c r="F17" s="3">
-        <v>1034600</v>
+        <v>1083000</v>
       </c>
       <c r="G17" s="3">
-        <v>878500</v>
+        <v>986200</v>
       </c>
       <c r="H17" s="3">
-        <v>720200</v>
+        <v>837400</v>
       </c>
       <c r="I17" s="3">
-        <v>692700</v>
+        <v>686500</v>
       </c>
       <c r="J17" s="3">
+        <v>660300</v>
+      </c>
+      <c r="K17" s="3">
         <v>629200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>475600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>447700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>373800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>356000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>287700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>255600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>209800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>187200</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>162600</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>135200</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>118100</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>112700</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>94300</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>73000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>87300</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>118900</v>
       </c>
     </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>-290700</v>
+        <v>-305000</v>
       </c>
       <c r="E18" s="3">
-        <v>-292000</v>
+        <v>-277100</v>
       </c>
       <c r="F18" s="3">
-        <v>-274200</v>
+        <v>-278300</v>
       </c>
       <c r="G18" s="3">
-        <v>-222000</v>
+        <v>-261400</v>
       </c>
       <c r="H18" s="3">
-        <v>-150500</v>
+        <v>-211700</v>
       </c>
       <c r="I18" s="3">
-        <v>-131900</v>
+        <v>-143500</v>
       </c>
       <c r="J18" s="3">
+        <v>-125800</v>
+      </c>
+      <c r="K18" s="3">
         <v>-158200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-89900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-85200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-64700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-66000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-52800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-46700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-41900</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-36300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-15300</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-10700</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-9200</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-4700</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-7800</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-11300</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-55700</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>-74500</v>
       </c>
     </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1515,82 +1548,86 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-    </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>-29400</v>
+        <v>37400</v>
       </c>
       <c r="E20" s="3">
-        <v>-2000</v>
+        <v>-28000</v>
       </c>
       <c r="F20" s="3">
-        <v>-108600</v>
+        <v>-1900</v>
       </c>
       <c r="G20" s="3">
-        <v>66600</v>
+        <v>-103500</v>
       </c>
       <c r="H20" s="3">
-        <v>25100</v>
+        <v>63500</v>
       </c>
       <c r="I20" s="3">
-        <v>15900</v>
+        <v>23900</v>
       </c>
       <c r="J20" s="3">
+        <v>15200</v>
+      </c>
+      <c r="K20" s="3">
         <v>5200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>10900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>4700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>8400</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>6500</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>9000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>18100</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>15500</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>3400</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>5600</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>2800</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>1900</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>2900</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>700</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>1800</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-1900</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
@@ -1609,21 +1646,21 @@
       <c r="H21" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="I21" s="3">
-        <v>135400</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>16</v>
+      <c r="I21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J21" s="3">
+        <v>129100</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="L21" s="3">
+      <c r="L21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M21" s="3">
         <v>-26800</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="N21" s="3" t="s">
         <v>16</v>
       </c>
@@ -1645,68 +1682,71 @@
       <c r="T21" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="U21" s="3">
+      <c r="U21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="V21" s="3">
         <v>37900</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>27000</v>
       </c>
-      <c r="W21" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="X21" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Y21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z21" s="3">
         <v>-34100</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>-58200</v>
       </c>
     </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>9100</v>
+        <v>8500</v>
       </c>
       <c r="E22" s="3">
-        <v>7300</v>
+        <v>8700</v>
       </c>
       <c r="F22" s="3">
+        <v>7000</v>
+      </c>
+      <c r="G22" s="3">
+        <v>5100</v>
+      </c>
+      <c r="H22" s="3">
+        <v>5000</v>
+      </c>
+      <c r="I22" s="3">
+        <v>4600</v>
+      </c>
+      <c r="J22" s="3">
+        <v>4800</v>
+      </c>
+      <c r="K22" s="3">
         <v>5300</v>
       </c>
-      <c r="G22" s="3">
-        <v>5200</v>
-      </c>
-      <c r="H22" s="3">
-        <v>4900</v>
-      </c>
-      <c r="I22" s="3">
-        <v>5100</v>
-      </c>
-      <c r="J22" s="3">
-        <v>5300</v>
-      </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>3300</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>2400</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>2300</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>2500</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>2400</v>
       </c>
-      <c r="P22" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Q22" s="3" t="s">
         <v>16</v>
       </c>
@@ -1719,8 +1759,8 @@
       <c r="T22" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="U22" s="3">
-        <v>0</v>
+      <c r="U22" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="V22" s="3">
         <v>0</v>
@@ -1737,141 +1777,147 @@
       <c r="Z22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-329200</v>
+        <v>-276100</v>
       </c>
       <c r="E23" s="3">
-        <v>-301300</v>
+        <v>-313800</v>
       </c>
       <c r="F23" s="3">
-        <v>-388100</v>
+        <v>-287200</v>
       </c>
       <c r="G23" s="3">
-        <v>-160600</v>
+        <v>-370000</v>
       </c>
       <c r="H23" s="3">
-        <v>-130300</v>
+        <v>-153100</v>
       </c>
       <c r="I23" s="3">
-        <v>-121100</v>
+        <v>-124200</v>
       </c>
       <c r="J23" s="3">
+        <v>-115400</v>
+      </c>
+      <c r="K23" s="3">
         <v>-158200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-82400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-82800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-58600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-62000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-46200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-28500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-26400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-32900</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-9700</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-7800</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-7300</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-1800</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-7100</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-9500</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-57600</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-74500</v>
       </c>
     </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>4300</v>
+        <v>3700</v>
       </c>
       <c r="E24" s="3">
-        <v>4800</v>
+        <v>4100</v>
       </c>
       <c r="F24" s="3">
-        <v>4100</v>
+        <v>4600</v>
       </c>
       <c r="G24" s="3">
-        <v>3200</v>
+        <v>3900</v>
       </c>
       <c r="H24" s="3">
+        <v>3000</v>
+      </c>
+      <c r="I24" s="3">
+        <v>1700</v>
+      </c>
+      <c r="J24" s="3">
+        <v>2100</v>
+      </c>
+      <c r="K24" s="3">
+        <v>2500</v>
+      </c>
+      <c r="L24" s="3">
         <v>1800</v>
       </c>
-      <c r="I24" s="3">
-        <v>2200</v>
-      </c>
-      <c r="J24" s="3">
-        <v>2500</v>
-      </c>
-      <c r="K24" s="3">
-        <v>1800</v>
-      </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>1500</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>1100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>1300</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>1900</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>1200</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>1300</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>1600</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>300</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>500</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>400</v>
-      </c>
-      <c r="V24" s="3">
-        <v>300</v>
       </c>
       <c r="W24" s="3">
         <v>300</v>
@@ -1880,13 +1926,16 @@
         <v>300</v>
       </c>
       <c r="Y24" s="3">
+        <v>300</v>
+      </c>
+      <c r="Z24" s="3">
         <v>500</v>
       </c>
-      <c r="Z24" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1959,156 +2008,165 @@
       <c r="Z25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-333600</v>
+        <v>-279900</v>
       </c>
       <c r="E26" s="3">
-        <v>-306000</v>
+        <v>-318000</v>
       </c>
       <c r="F26" s="3">
-        <v>-392300</v>
+        <v>-291700</v>
       </c>
       <c r="G26" s="3">
-        <v>-163800</v>
+        <v>-373900</v>
       </c>
       <c r="H26" s="3">
-        <v>-132100</v>
+        <v>-156200</v>
       </c>
       <c r="I26" s="3">
-        <v>-123200</v>
+        <v>-126000</v>
       </c>
       <c r="J26" s="3">
+        <v>-117400</v>
+      </c>
+      <c r="K26" s="3">
         <v>-160800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-84100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-84300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-59600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-63300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-48100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-29800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-27700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-34400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-10100</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-8300</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-7600</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-2200</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-7500</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-9800</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-58000</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-74500</v>
       </c>
     </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-333200</v>
+        <v>-279400</v>
       </c>
       <c r="E27" s="3">
-        <v>-304900</v>
+        <v>-317700</v>
       </c>
       <c r="F27" s="3">
-        <v>-390900</v>
+        <v>-290700</v>
       </c>
       <c r="G27" s="3">
-        <v>-163600</v>
+        <v>-372600</v>
       </c>
       <c r="H27" s="3">
-        <v>-131900</v>
+        <v>-156000</v>
       </c>
       <c r="I27" s="3">
-        <v>-120900</v>
+        <v>-125800</v>
       </c>
       <c r="J27" s="3">
+        <v>-115200</v>
+      </c>
+      <c r="K27" s="3">
         <v>-158000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-83500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-83800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-58900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-63600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-47800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-28300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-26100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-34300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-10200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-17200</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-17800</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-12200</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-36900</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-17500</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-65400</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-107000</v>
       </c>
     </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2181,8 +2239,11 @@
       <c r="Z28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2255,8 +2316,11 @@
       <c r="Z29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2329,8 +2393,11 @@
       <c r="Z30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2403,156 +2470,165 @@
       <c r="Z31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>29400</v>
+        <v>-37400</v>
       </c>
       <c r="E32" s="3">
-        <v>2000</v>
+        <v>28000</v>
       </c>
       <c r="F32" s="3">
-        <v>108600</v>
+        <v>1900</v>
       </c>
       <c r="G32" s="3">
-        <v>-66600</v>
+        <v>103500</v>
       </c>
       <c r="H32" s="3">
-        <v>-25100</v>
+        <v>-63500</v>
       </c>
       <c r="I32" s="3">
-        <v>-15900</v>
+        <v>-23900</v>
       </c>
       <c r="J32" s="3">
+        <v>-15200</v>
+      </c>
+      <c r="K32" s="3">
         <v>-5200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-10900</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-4700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-8400</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-6500</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-9000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-18100</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-15500</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-3400</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-5600</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-2800</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-1900</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-2900</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-700</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-1800</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>1900</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-333200</v>
+        <v>-279400</v>
       </c>
       <c r="E33" s="3">
-        <v>-304900</v>
+        <v>-317700</v>
       </c>
       <c r="F33" s="3">
-        <v>-390900</v>
+        <v>-290700</v>
       </c>
       <c r="G33" s="3">
-        <v>-163600</v>
+        <v>-372600</v>
       </c>
       <c r="H33" s="3">
-        <v>-131900</v>
+        <v>-156000</v>
       </c>
       <c r="I33" s="3">
-        <v>-120900</v>
+        <v>-125800</v>
       </c>
       <c r="J33" s="3">
+        <v>-115200</v>
+      </c>
+      <c r="K33" s="3">
         <v>-158000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-83500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-83800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-58900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-63600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-47800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-28300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-26100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-34300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-10200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-17200</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-17800</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-12200</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-36900</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-17500</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-65400</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-107000</v>
       </c>
     </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2625,161 +2701,170 @@
       <c r="Z34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-333200</v>
+        <v>-279400</v>
       </c>
       <c r="E35" s="3">
-        <v>-304900</v>
+        <v>-317700</v>
       </c>
       <c r="F35" s="3">
-        <v>-390900</v>
+        <v>-290700</v>
       </c>
       <c r="G35" s="3">
-        <v>-163600</v>
+        <v>-372600</v>
       </c>
       <c r="H35" s="3">
-        <v>-131900</v>
+        <v>-156000</v>
       </c>
       <c r="I35" s="3">
-        <v>-120900</v>
+        <v>-125800</v>
       </c>
       <c r="J35" s="3">
+        <v>-115200</v>
+      </c>
+      <c r="K35" s="3">
         <v>-158000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-83500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-83800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-58900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-63600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-47800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-28300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-26100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-34300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-10200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-17200</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-17800</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-12200</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-36900</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-17500</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-65400</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-107000</v>
       </c>
     </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43100</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43008</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42916</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42825</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42735</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2806,8 +2891,9 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2834,71 +2920,72 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>741500</v>
+        <v>486000</v>
       </c>
       <c r="E41" s="3">
-        <v>1098600</v>
+        <v>706900</v>
       </c>
       <c r="F41" s="3">
-        <v>1529000</v>
+        <v>1047200</v>
       </c>
       <c r="G41" s="3">
-        <v>1678400</v>
+        <v>1457500</v>
       </c>
       <c r="H41" s="3">
-        <v>2570400</v>
+        <v>1599900</v>
       </c>
       <c r="I41" s="3">
-        <v>683100</v>
+        <v>2450200</v>
       </c>
       <c r="J41" s="3">
+        <v>651200</v>
+      </c>
+      <c r="K41" s="3">
         <v>865600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>898100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>695900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>764200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>652000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>711800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>412900</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>514100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>337000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>520100</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>150800</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>113200</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>58700</v>
       </c>
-      <c r="W41" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="X41" s="3" t="s">
         <v>16</v>
       </c>
@@ -2908,71 +2995,74 @@
       <c r="Z41" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA41" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>2869700</v>
+        <v>2982500</v>
       </c>
       <c r="E42" s="3">
-        <v>3313900</v>
+        <v>2735500</v>
       </c>
       <c r="F42" s="3">
-        <v>2038600</v>
+        <v>3158900</v>
       </c>
       <c r="G42" s="3">
-        <v>2348000</v>
+        <v>1943300</v>
       </c>
       <c r="H42" s="3">
-        <v>1377900</v>
+        <v>2238100</v>
       </c>
       <c r="I42" s="3">
-        <v>1187100</v>
+        <v>1313500</v>
       </c>
       <c r="J42" s="3">
+        <v>1131500</v>
+      </c>
+      <c r="K42" s="3">
         <v>1193300</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>1394300</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>553000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>478200</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>657600</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>596400</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>278200</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>246100</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>150600</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>49900</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>32800</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>75000</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>159200</v>
       </c>
-      <c r="W42" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="X42" s="3" t="s">
         <v>16</v>
       </c>
@@ -2982,71 +3072,74 @@
       <c r="Z42" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA42" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>186100</v>
+        <v>199100</v>
       </c>
       <c r="E43" s="3">
-        <v>500000</v>
+        <v>177400</v>
       </c>
       <c r="F43" s="3">
-        <v>196800</v>
+        <v>476600</v>
       </c>
       <c r="G43" s="3">
-        <v>201200</v>
+        <v>187600</v>
       </c>
       <c r="H43" s="3">
-        <v>159600</v>
+        <v>191800</v>
       </c>
       <c r="I43" s="3">
-        <v>206300</v>
+        <v>152100</v>
       </c>
       <c r="J43" s="3">
+        <v>196600</v>
+      </c>
+      <c r="K43" s="3">
         <v>173200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>113900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>173700</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>144800</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>111700</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>70700</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>86000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>47100</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>55900</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>54500</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>65400</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>67500</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>61600</v>
       </c>
-      <c r="W43" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="X43" s="3" t="s">
         <v>16</v>
       </c>
@@ -3056,8 +3149,11 @@
       <c r="Z43" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA43" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3076,21 +3172,21 @@
       <c r="H44" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="I44" s="3">
-        <v>23400</v>
-      </c>
-      <c r="J44" s="3" t="s">
-        <v>16</v>
+      <c r="I44" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J44" s="3">
+        <v>22300</v>
       </c>
       <c r="K44" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="L44" s="3">
+      <c r="L44" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M44" s="3">
         <v>6700</v>
       </c>
-      <c r="M44" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="N44" s="3" t="s">
         <v>16</v>
       </c>
@@ -3112,15 +3208,15 @@
       <c r="T44" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="U44" s="3">
+      <c r="U44" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="V44" s="3">
         <v>1500</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>1300</v>
       </c>
-      <c r="W44" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="X44" s="3" t="s">
         <v>16</v>
       </c>
@@ -3130,71 +3226,74 @@
       <c r="Z44" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA44" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>689300</v>
+        <v>558000</v>
       </c>
       <c r="E45" s="3">
-        <v>409900</v>
+        <v>657000</v>
       </c>
       <c r="F45" s="3">
-        <v>583500</v>
+        <v>390700</v>
       </c>
       <c r="G45" s="3">
-        <v>576000</v>
+        <v>556200</v>
       </c>
       <c r="H45" s="3">
-        <v>498600</v>
+        <v>549100</v>
       </c>
       <c r="I45" s="3">
-        <v>198600</v>
+        <v>475300</v>
       </c>
       <c r="J45" s="3">
+        <v>189300</v>
+      </c>
+      <c r="K45" s="3">
         <v>264400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>285200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>172800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>202600</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>254300</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>252000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>182300</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>143900</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>111900</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>103000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>104400</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>62300</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>58500</v>
       </c>
-      <c r="W45" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="X45" s="3" t="s">
         <v>16</v>
       </c>
@@ -3204,71 +3303,74 @@
       <c r="Z45" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA45" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>4486700</v>
+        <v>4225600</v>
       </c>
       <c r="E46" s="3">
-        <v>5322300</v>
+        <v>4276800</v>
       </c>
       <c r="F46" s="3">
-        <v>4347900</v>
+        <v>5073400</v>
       </c>
       <c r="G46" s="3">
-        <v>4803600</v>
+        <v>4144500</v>
       </c>
       <c r="H46" s="3">
-        <v>4606500</v>
+        <v>4578900</v>
       </c>
       <c r="I46" s="3">
-        <v>2298400</v>
+        <v>4391100</v>
       </c>
       <c r="J46" s="3">
+        <v>2190900</v>
+      </c>
+      <c r="K46" s="3">
         <v>2496600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>2691500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1602100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1589700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1675500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1630900</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>959400</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>951300</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>655400</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>727500</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>353400</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>319500</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>339400</v>
       </c>
-      <c r="W46" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="X46" s="3" t="s">
         <v>16</v>
       </c>
@@ -3278,71 +3380,74 @@
       <c r="Z46" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA46" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>868400</v>
+        <v>884500</v>
       </c>
       <c r="E47" s="3">
-        <v>803500</v>
+        <v>827800</v>
       </c>
       <c r="F47" s="3">
-        <v>611300</v>
+        <v>766000</v>
       </c>
       <c r="G47" s="3">
-        <v>449800</v>
+        <v>582700</v>
       </c>
       <c r="H47" s="3">
-        <v>316500</v>
+        <v>428800</v>
       </c>
       <c r="I47" s="3">
-        <v>326100</v>
+        <v>301700</v>
       </c>
       <c r="J47" s="3">
+        <v>310800</v>
+      </c>
+      <c r="K47" s="3">
         <v>226200</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>239100</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>226400</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>192600</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>221700</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>244600</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>186800</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>142300</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>140400</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>117600</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>106800</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>94400</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>80100</v>
       </c>
-      <c r="W47" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="X47" s="3" t="s">
         <v>16</v>
       </c>
@@ -3352,71 +3457,74 @@
       <c r="Z47" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA47" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>190300</v>
+        <v>206300</v>
       </c>
       <c r="E48" s="3">
-        <v>197200</v>
+        <v>181400</v>
       </c>
       <c r="F48" s="3">
-        <v>199200</v>
+        <v>188000</v>
       </c>
       <c r="G48" s="3">
-        <v>158800</v>
+        <v>189800</v>
       </c>
       <c r="H48" s="3">
-        <v>131600</v>
+        <v>151300</v>
       </c>
       <c r="I48" s="3">
-        <v>111300</v>
+        <v>125400</v>
       </c>
       <c r="J48" s="3">
+        <v>106100</v>
+      </c>
+      <c r="K48" s="3">
         <v>115000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>103000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>75300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>79500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>73700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>69800</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>55200</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>57400</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>44900</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>35600</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>28700</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>27700</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>20000</v>
       </c>
-      <c r="W48" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="X48" s="3" t="s">
         <v>16</v>
       </c>
@@ -3426,71 +3534,74 @@
       <c r="Z48" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA48" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1022500</v>
+        <v>1017400</v>
       </c>
       <c r="E49" s="3">
-        <v>901600</v>
+        <v>974700</v>
       </c>
       <c r="F49" s="3">
-        <v>714500</v>
+        <v>859400</v>
       </c>
       <c r="G49" s="3">
-        <v>653700</v>
+        <v>681100</v>
       </c>
       <c r="H49" s="3">
-        <v>644300</v>
+        <v>623200</v>
       </c>
       <c r="I49" s="3">
-        <v>533400</v>
+        <v>614200</v>
       </c>
       <c r="J49" s="3">
+        <v>508500</v>
+      </c>
+      <c r="K49" s="3">
         <v>535100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>442200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>442600</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>411000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>395800</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>382200</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>350600</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>342900</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>218100</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>131900</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>105700</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>70800</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>64200</v>
       </c>
-      <c r="W49" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="X49" s="3" t="s">
         <v>16</v>
       </c>
@@ -3500,8 +3611,11 @@
       <c r="Z49" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA49" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3574,8 +3688,11 @@
       <c r="Z50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3648,71 +3765,74 @@
       <c r="Z51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>428000</v>
+        <v>417900</v>
       </c>
       <c r="E52" s="3">
-        <v>376700</v>
+        <v>408000</v>
       </c>
       <c r="F52" s="3">
-        <v>328700</v>
+        <v>359100</v>
       </c>
       <c r="G52" s="3">
-        <v>256200</v>
+        <v>313300</v>
       </c>
       <c r="H52" s="3">
-        <v>202000</v>
+        <v>244200</v>
       </c>
       <c r="I52" s="3">
-        <v>215900</v>
+        <v>192500</v>
       </c>
       <c r="J52" s="3">
+        <v>205800</v>
+      </c>
+      <c r="K52" s="3">
         <v>182500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>130500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>122700</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>116400</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>106100</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>86500</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>71700</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>29700</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>10200</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>7600</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>4400</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>3100</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>1800</v>
       </c>
-      <c r="W52" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="X52" s="3" t="s">
         <v>16</v>
       </c>
@@ -3722,8 +3842,11 @@
       <c r="Z52" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA52" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3796,71 +3919,74 @@
       <c r="Z53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>6995900</v>
+        <v>6751700</v>
       </c>
       <c r="E54" s="3">
-        <v>7601300</v>
+        <v>6668700</v>
       </c>
       <c r="F54" s="3">
-        <v>6201500</v>
+        <v>7245800</v>
       </c>
       <c r="G54" s="3">
-        <v>6322100</v>
+        <v>5911400</v>
       </c>
       <c r="H54" s="3">
-        <v>5900900</v>
+        <v>6026400</v>
       </c>
       <c r="I54" s="3">
-        <v>3485100</v>
+        <v>5624900</v>
       </c>
       <c r="J54" s="3">
+        <v>3322100</v>
+      </c>
+      <c r="K54" s="3">
         <v>3555300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>3606200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>2469200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>2389200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>2472900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>2413900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1623700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1523500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1069000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1020200</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>598900</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>515500</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>505500</v>
       </c>
-      <c r="W54" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="X54" s="3" t="s">
         <v>16</v>
       </c>
@@ -3870,8 +3996,11 @@
       <c r="Z54" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA54" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3898,8 +4027,9 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
-    </row>
-    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3926,71 +4056,72 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
-    </row>
-    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>628200</v>
+        <v>765700</v>
       </c>
       <c r="E57" s="3">
-        <v>636800</v>
+        <v>598800</v>
       </c>
       <c r="F57" s="3">
-        <v>613100</v>
+        <v>607000</v>
       </c>
       <c r="G57" s="3">
-        <v>529800</v>
+        <v>584400</v>
       </c>
       <c r="H57" s="3">
-        <v>452600</v>
+        <v>505000</v>
       </c>
       <c r="I57" s="3">
-        <v>448900</v>
+        <v>431500</v>
       </c>
       <c r="J57" s="3">
+        <v>427900</v>
+      </c>
+      <c r="K57" s="3">
         <v>428300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>387200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>333800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>293200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>296500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>262500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>216700</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>189900</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>146900</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>135800</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>124500</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>88500</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>81100</v>
       </c>
-      <c r="W57" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="X57" s="3" t="s">
         <v>16</v>
       </c>
@@ -4000,53 +4131,56 @@
       <c r="Z57" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA57" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>217900</v>
+        <v>201700</v>
       </c>
       <c r="E58" s="3">
-        <v>179900</v>
+        <v>207700</v>
       </c>
       <c r="F58" s="3">
-        <v>136400</v>
+        <v>171500</v>
       </c>
       <c r="G58" s="3">
-        <v>56700</v>
+        <v>130100</v>
       </c>
       <c r="H58" s="3">
+        <v>54100</v>
+      </c>
+      <c r="I58" s="3">
+        <v>13900</v>
+      </c>
+      <c r="J58" s="3">
+        <v>13900</v>
+      </c>
+      <c r="K58" s="3">
         <v>14600</v>
       </c>
-      <c r="I58" s="3">
-        <v>14600</v>
-      </c>
-      <c r="J58" s="3">
-        <v>14600</v>
-      </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>14700</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>15700</v>
       </c>
-      <c r="M58" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="N58" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="O58" s="3">
+      <c r="O58" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="P58" s="3">
         <v>15300</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>15200</v>
       </c>
-      <c r="Q58" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="R58" s="3" t="s">
         <v>16</v>
       </c>
@@ -4056,8 +4190,8 @@
       <c r="T58" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="U58" s="3">
-        <v>0</v>
+      <c r="U58" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="V58" s="3">
         <v>0</v>
@@ -4074,71 +4208,74 @@
       <c r="Z58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>809300</v>
+        <v>840900</v>
       </c>
       <c r="E59" s="3">
-        <v>946000</v>
+        <v>771400</v>
       </c>
       <c r="F59" s="3">
-        <v>834400</v>
+        <v>901700</v>
       </c>
       <c r="G59" s="3">
-        <v>786000</v>
+        <v>795400</v>
       </c>
       <c r="H59" s="3">
-        <v>634100</v>
+        <v>749200</v>
       </c>
       <c r="I59" s="3">
-        <v>615800</v>
+        <v>604400</v>
       </c>
       <c r="J59" s="3">
+        <v>587000</v>
+      </c>
+      <c r="K59" s="3">
         <v>580800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>419600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>402400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>364700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>344300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>304500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>336300</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>289200</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>215500</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>172600</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>184600</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>118900</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>106700</v>
       </c>
-      <c r="W59" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="X59" s="3" t="s">
         <v>16</v>
       </c>
@@ -4148,71 +4285,74 @@
       <c r="Z59" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA59" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1655400</v>
+        <v>1808300</v>
       </c>
       <c r="E60" s="3">
-        <v>1762700</v>
+        <v>1577900</v>
       </c>
       <c r="F60" s="3">
-        <v>1583900</v>
+        <v>1680300</v>
       </c>
       <c r="G60" s="3">
-        <v>1372500</v>
+        <v>1509800</v>
       </c>
       <c r="H60" s="3">
-        <v>1101300</v>
+        <v>1308300</v>
       </c>
       <c r="I60" s="3">
-        <v>1079400</v>
+        <v>1049800</v>
       </c>
       <c r="J60" s="3">
+        <v>1028900</v>
+      </c>
+      <c r="K60" s="3">
         <v>1023600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>821600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>751900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>657900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>640800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>582300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>568200</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>479100</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>362400</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>308400</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>309100</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>207500</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>187800</v>
       </c>
-      <c r="W60" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="X60" s="3" t="s">
         <v>16</v>
       </c>
@@ -4222,50 +4362,53 @@
       <c r="Z60" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA60" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>2401100</v>
+        <v>2355600</v>
       </c>
       <c r="E61" s="3">
-        <v>2597000</v>
+        <v>2288800</v>
       </c>
       <c r="F61" s="3">
-        <v>1147300</v>
+        <v>2475500</v>
       </c>
       <c r="G61" s="3">
-        <v>1193700</v>
+        <v>1093600</v>
       </c>
       <c r="H61" s="3">
-        <v>1213900</v>
+        <v>1137900</v>
       </c>
       <c r="I61" s="3">
-        <v>1218000</v>
+        <v>1157100</v>
       </c>
       <c r="J61" s="3">
+        <v>1161100</v>
+      </c>
+      <c r="K61" s="3">
         <v>1270400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1331800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>543400</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>525800</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>539700</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>513200</v>
       </c>
-      <c r="P61" s="3">
-        <v>0</v>
-      </c>
       <c r="Q61" s="3">
         <v>0</v>
       </c>
@@ -4296,50 +4439,53 @@
       <c r="Z61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>95900</v>
+        <v>90100</v>
       </c>
       <c r="E62" s="3">
-        <v>70400</v>
+        <v>91400</v>
       </c>
       <c r="F62" s="3">
-        <v>49800</v>
+        <v>67100</v>
       </c>
       <c r="G62" s="3">
-        <v>41700</v>
+        <v>47400</v>
       </c>
       <c r="H62" s="3">
-        <v>46000</v>
+        <v>39800</v>
       </c>
       <c r="I62" s="3">
-        <v>51200</v>
+        <v>43900</v>
       </c>
       <c r="J62" s="3">
+        <v>48900</v>
+      </c>
+      <c r="K62" s="3">
         <v>33100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>29100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>27200</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>29700</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>31700</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>26000</v>
       </c>
-      <c r="P62" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Q62" s="3" t="s">
         <v>16</v>
       </c>
@@ -4352,8 +4498,8 @@
       <c r="T62" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="U62" s="3">
-        <v>0</v>
+      <c r="U62" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="V62" s="3">
         <v>0</v>
@@ -4370,8 +4516,11 @@
       <c r="Z62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4444,8 +4593,11 @@
       <c r="Z63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4518,8 +4670,11 @@
       <c r="Z64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4592,71 +4747,74 @@
       <c r="Z65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>4153900</v>
+        <v>4255000</v>
       </c>
       <c r="E66" s="3">
-        <v>4431900</v>
+        <v>3959600</v>
       </c>
       <c r="F66" s="3">
-        <v>2786400</v>
+        <v>4224600</v>
       </c>
       <c r="G66" s="3">
-        <v>2614600</v>
+        <v>2656000</v>
       </c>
       <c r="H66" s="3">
-        <v>2385800</v>
+        <v>2492300</v>
       </c>
       <c r="I66" s="3">
-        <v>2375200</v>
+        <v>2274200</v>
       </c>
       <c r="J66" s="3">
+        <v>2264100</v>
+      </c>
+      <c r="K66" s="3">
         <v>2356100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2288800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1436100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1303300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1295800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1157000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>603900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>514000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>381800</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>308300</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>308900</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>207500</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>187800</v>
       </c>
-      <c r="W66" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="X66" s="3" t="s">
         <v>16</v>
       </c>
@@ -4666,8 +4824,11 @@
       <c r="Z66" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA66" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4694,8 +4855,9 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
-    </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4768,8 +4930,11 @@
       <c r="Z68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4842,8 +5007,11 @@
       <c r="Z69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4899,14 +5067,14 @@
         <v>0</v>
       </c>
       <c r="U70" s="3">
+        <v>0</v>
+      </c>
+      <c r="V70" s="3">
         <v>595900</v>
       </c>
-      <c r="V70" s="3">
+      <c r="W70" s="3">
         <v>585800</v>
       </c>
-      <c r="W70" s="3">
-        <v>0</v>
-      </c>
       <c r="X70" s="3">
         <v>0</v>
       </c>
@@ -4916,8 +5084,11 @@
       <c r="Z70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4990,19 +5161,22 @@
       <c r="Z71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E72" s="3">
-        <v>-2036600</v>
-      </c>
-      <c r="F72" s="3" t="s">
-        <v>16</v>
+      <c r="E72" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F72" s="3">
+        <v>-1941400</v>
       </c>
       <c r="G72" s="3" t="s">
         <v>16</v>
@@ -5010,51 +5184,51 @@
       <c r="H72" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="I72" s="3">
-        <v>-1045200</v>
-      </c>
-      <c r="J72" s="3" t="s">
-        <v>16</v>
+      <c r="I72" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J72" s="3">
+        <v>-996300</v>
       </c>
       <c r="K72" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="L72" s="3">
+      <c r="L72" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M72" s="3">
         <v>-733300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-636300</v>
       </c>
-      <c r="N72" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="O72" s="3" t="s">
         <v>16</v>
       </c>
       <c r="P72" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="Q72" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="R72" s="3">
         <v>-411700</v>
       </c>
-      <c r="R72" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="S72" s="3" t="s">
         <v>16</v>
       </c>
       <c r="T72" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="U72" s="3">
+      <c r="U72" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="V72" s="3">
         <v>-329300</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-311600</v>
       </c>
-      <c r="W72" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="X72" s="3" t="s">
         <v>16</v>
       </c>
@@ -5064,8 +5238,11 @@
       <c r="Z72" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA72" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5138,8 +5315,11 @@
       <c r="Z73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5212,8 +5392,11 @@
       <c r="Z74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5286,71 +5469,74 @@
       <c r="Z75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2842000</v>
+        <v>2496700</v>
       </c>
       <c r="E76" s="3">
-        <v>3169400</v>
+        <v>2709100</v>
       </c>
       <c r="F76" s="3">
-        <v>3415100</v>
+        <v>3021200</v>
       </c>
       <c r="G76" s="3">
-        <v>3707500</v>
+        <v>3255400</v>
       </c>
       <c r="H76" s="3">
-        <v>3515100</v>
+        <v>3534100</v>
       </c>
       <c r="I76" s="3">
-        <v>1109900</v>
+        <v>3350700</v>
       </c>
       <c r="J76" s="3">
+        <v>1057900</v>
+      </c>
+      <c r="K76" s="3">
         <v>1199200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1317400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1033100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1085900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1177100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1256900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1019800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1009500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>687300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>711900</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>290000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>-287800</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>-268000</v>
       </c>
-      <c r="W76" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="X76" s="3" t="s">
         <v>16</v>
       </c>
@@ -5360,8 +5546,11 @@
       <c r="Z76" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA76" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5434,161 +5623,170 @@
       <c r="Z77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43100</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43008</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42916</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42825</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42735</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-333200</v>
+        <v>-279400</v>
       </c>
       <c r="E81" s="3">
-        <v>-304900</v>
+        <v>-317700</v>
       </c>
       <c r="F81" s="3">
-        <v>-390900</v>
+        <v>-290700</v>
       </c>
       <c r="G81" s="3">
-        <v>-163600</v>
+        <v>-372600</v>
       </c>
       <c r="H81" s="3">
-        <v>-131900</v>
+        <v>-156000</v>
       </c>
       <c r="I81" s="3">
-        <v>-120900</v>
+        <v>-125800</v>
       </c>
       <c r="J81" s="3">
+        <v>-115200</v>
+      </c>
+      <c r="K81" s="3">
         <v>-158000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-83500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-83800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-58900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-63600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-47800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-28300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-26100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-34300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-10200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-17200</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-17800</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-12200</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-36900</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-17500</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-65400</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-107000</v>
       </c>
     </row>
-    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5615,31 +5813,32 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
-    </row>
-    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E83" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F83" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G83" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H83" s="3" t="s">
-        <v>16</v>
+      <c r="D83" s="3">
+        <v>0</v>
+      </c>
+      <c r="E83" s="3">
+        <v>0</v>
+      </c>
+      <c r="F83" s="3">
+        <v>0</v>
+      </c>
+      <c r="G83" s="3">
+        <v>0</v>
+      </c>
+      <c r="H83" s="3">
+        <v>0</v>
       </c>
       <c r="I83" s="3">
-        <v>251400</v>
-      </c>
-      <c r="J83" s="3" t="s">
-        <v>16</v>
+        <v>0</v>
+      </c>
+      <c r="J83" s="3">
+        <v>0</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>16</v>
@@ -5665,8 +5864,8 @@
       <c r="R83" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="S83" s="3">
-        <v>0</v>
+      <c r="S83" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="T83" s="3">
         <v>0</v>
@@ -5680,8 +5879,8 @@
       <c r="W83" s="3">
         <v>0</v>
       </c>
-      <c r="X83" s="3" t="s">
-        <v>16</v>
+      <c r="X83" s="3">
+        <v>0</v>
       </c>
       <c r="Y83" s="3" t="s">
         <v>16</v>
@@ -5689,8 +5888,11 @@
       <c r="Z83" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA83" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5763,8 +5965,11 @@
       <c r="Z84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5837,8 +6042,11 @@
       <c r="Z85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5911,8 +6119,11 @@
       <c r="Z86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5985,8 +6196,11 @@
       <c r="Z87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6059,31 +6273,34 @@
       <c r="Z88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E89" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F89" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G89" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H89" s="3" t="s">
-        <v>16</v>
+      <c r="D89" s="3">
+        <v>0</v>
+      </c>
+      <c r="E89" s="3">
+        <v>0</v>
+      </c>
+      <c r="F89" s="3">
+        <v>0</v>
+      </c>
+      <c r="G89" s="3">
+        <v>0</v>
+      </c>
+      <c r="H89" s="3">
+        <v>0</v>
       </c>
       <c r="I89" s="3">
-        <v>110000</v>
-      </c>
-      <c r="J89" s="3" t="s">
-        <v>16</v>
+        <v>0</v>
+      </c>
+      <c r="J89" s="3">
+        <v>0</v>
       </c>
       <c r="K89" s="3" t="s">
         <v>16</v>
@@ -6109,8 +6326,8 @@
       <c r="R89" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="S89" s="3">
-        <v>0</v>
+      <c r="S89" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="T89" s="3">
         <v>0</v>
@@ -6124,8 +6341,8 @@
       <c r="W89" s="3">
         <v>0</v>
       </c>
-      <c r="X89" s="3" t="s">
-        <v>16</v>
+      <c r="X89" s="3">
+        <v>0</v>
       </c>
       <c r="Y89" s="3" t="s">
         <v>16</v>
@@ -6133,8 +6350,11 @@
       <c r="Z89" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA89" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6161,31 +6381,32 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
-    </row>
-    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G91" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>16</v>
+      <c r="D91" s="3">
+        <v>0</v>
+      </c>
+      <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
+        <v>0</v>
       </c>
       <c r="I91" s="3">
-        <v>-87900</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>16</v>
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
+        <v>0</v>
       </c>
       <c r="K91" s="3" t="s">
         <v>16</v>
@@ -6211,8 +6432,8 @@
       <c r="R91" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="S91" s="3">
-        <v>0</v>
+      <c r="S91" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="T91" s="3">
         <v>0</v>
@@ -6226,8 +6447,8 @@
       <c r="W91" s="3">
         <v>0</v>
       </c>
-      <c r="X91" s="3" t="s">
-        <v>16</v>
+      <c r="X91" s="3">
+        <v>0</v>
       </c>
       <c r="Y91" s="3" t="s">
         <v>16</v>
@@ -6235,8 +6456,11 @@
       <c r="Z91" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA91" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6309,8 +6533,11 @@
       <c r="Z92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6383,31 +6610,34 @@
       <c r="Z93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E94" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F94" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G94" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H94" s="3" t="s">
-        <v>16</v>
+      <c r="D94" s="3">
+        <v>0</v>
+      </c>
+      <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
+        <v>0</v>
       </c>
       <c r="I94" s="3">
-        <v>-1300700</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>16</v>
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
+        <v>0</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>16</v>
@@ -6433,8 +6663,8 @@
       <c r="R94" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="S94" s="3">
-        <v>0</v>
+      <c r="S94" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="T94" s="3">
         <v>0</v>
@@ -6448,8 +6678,8 @@
       <c r="W94" s="3">
         <v>0</v>
       </c>
-      <c r="X94" s="3" t="s">
-        <v>16</v>
+      <c r="X94" s="3">
+        <v>0</v>
       </c>
       <c r="Y94" s="3" t="s">
         <v>16</v>
@@ -6457,8 +6687,11 @@
       <c r="Z94" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA94" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6485,8 +6718,9 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
-    </row>
-    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6559,8 +6793,11 @@
       <c r="Z96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6633,8 +6870,11 @@
       <c r="Z97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6707,8 +6947,11 @@
       <c r="Z98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6781,31 +7024,34 @@
       <c r="Z99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E100" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F100" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G100" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H100" s="3" t="s">
-        <v>16</v>
+      <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
+        <v>0</v>
       </c>
       <c r="I100" s="3">
-        <v>1217200</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>16</v>
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
+        <v>0</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>16</v>
@@ -6831,8 +7077,8 @@
       <c r="R100" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="S100" s="3">
-        <v>0</v>
+      <c r="S100" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="T100" s="3">
         <v>0</v>
@@ -6846,8 +7092,8 @@
       <c r="W100" s="3">
         <v>0</v>
       </c>
-      <c r="X100" s="3" t="s">
-        <v>16</v>
+      <c r="X100" s="3">
+        <v>0</v>
       </c>
       <c r="Y100" s="3" t="s">
         <v>16</v>
@@ -6855,31 +7101,34 @@
       <c r="Z100" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA100" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E101" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F101" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G101" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H101" s="3" t="s">
-        <v>16</v>
+      <c r="D101" s="3">
+        <v>0</v>
+      </c>
+      <c r="E101" s="3">
+        <v>0</v>
+      </c>
+      <c r="F101" s="3">
+        <v>0</v>
+      </c>
+      <c r="G101" s="3">
+        <v>0</v>
+      </c>
+      <c r="H101" s="3">
+        <v>0</v>
       </c>
       <c r="I101" s="3">
-        <v>-68100</v>
-      </c>
-      <c r="J101" s="3" t="s">
-        <v>16</v>
+        <v>0</v>
+      </c>
+      <c r="J101" s="3">
+        <v>0</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>16</v>
@@ -6905,8 +7154,8 @@
       <c r="R101" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="S101" s="3">
-        <v>0</v>
+      <c r="S101" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="T101" s="3">
         <v>0</v>
@@ -6920,8 +7169,8 @@
       <c r="W101" s="3">
         <v>0</v>
       </c>
-      <c r="X101" s="3" t="s">
-        <v>16</v>
+      <c r="X101" s="3">
+        <v>0</v>
       </c>
       <c r="Y101" s="3" t="s">
         <v>16</v>
@@ -6929,31 +7178,34 @@
       <c r="Z101" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA101" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E102" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F102" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G102" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H102" s="3" t="s">
-        <v>16</v>
+      <c r="D102" s="3">
+        <v>0</v>
+      </c>
+      <c r="E102" s="3">
+        <v>0</v>
+      </c>
+      <c r="F102" s="3">
+        <v>0</v>
+      </c>
+      <c r="G102" s="3">
+        <v>0</v>
+      </c>
+      <c r="H102" s="3">
+        <v>0</v>
       </c>
       <c r="I102" s="3">
-        <v>-41600</v>
-      </c>
-      <c r="J102" s="3" t="s">
-        <v>16</v>
+        <v>0</v>
+      </c>
+      <c r="J102" s="3">
+        <v>0</v>
       </c>
       <c r="K102" s="3" t="s">
         <v>16</v>
@@ -6979,8 +7231,8 @@
       <c r="R102" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="S102" s="3">
-        <v>0</v>
+      <c r="S102" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="T102" s="3">
         <v>0</v>
@@ -6994,13 +7246,16 @@
       <c r="W102" s="3">
         <v>0</v>
       </c>
-      <c r="X102" s="3" t="s">
-        <v>16</v>
+      <c r="X102" s="3">
+        <v>0</v>
       </c>
       <c r="Y102" s="3" t="s">
         <v>16</v>
       </c>
       <c r="Z102" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA102" s="3" t="s">
         <v>16</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BILI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BILI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="92">
   <si>
     <t>BILI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AC102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,346 +665,371 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>43100</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>43008</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>42916</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>42825</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AB7" s="2">
         <v>42735</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AC7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>683300</v>
+        <v>882200</v>
       </c>
       <c r="E8" s="3">
-        <v>703500</v>
+        <v>832100</v>
       </c>
       <c r="F8" s="3">
-        <v>804700</v>
+        <v>705000</v>
       </c>
       <c r="G8" s="3">
-        <v>724800</v>
+        <v>725900</v>
       </c>
       <c r="H8" s="3">
-        <v>625700</v>
+        <v>830200</v>
       </c>
       <c r="I8" s="3">
+        <v>747800</v>
+      </c>
+      <c r="J8" s="3">
+        <v>645600</v>
+      </c>
+      <c r="K8" s="3">
         <v>543000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>534500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>471000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>385700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>362500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>309200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>290000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>234900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>208900</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>167800</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>151000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>147300</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>124500</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>108900</v>
       </c>
-      <c r="W8" s="3">
+      <c r="Y8" s="3">
         <v>108000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Z8" s="3">
         <v>86500</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="AA8" s="3">
         <v>61700</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AB8" s="3">
         <v>31600</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AC8" s="3">
         <v>44500</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>580600</v>
+        <v>702700</v>
       </c>
       <c r="E9" s="3">
-        <v>591200</v>
+        <v>680700</v>
       </c>
       <c r="F9" s="3">
-        <v>651900</v>
+        <v>599000</v>
       </c>
       <c r="G9" s="3">
-        <v>583000</v>
+        <v>609900</v>
       </c>
       <c r="H9" s="3">
-        <v>488100</v>
+        <v>672600</v>
       </c>
       <c r="I9" s="3">
+        <v>601500</v>
+      </c>
+      <c r="J9" s="3">
+        <v>503600</v>
+      </c>
+      <c r="K9" s="3">
         <v>412500</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>403100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>359800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>296700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>279500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>247900</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>235200</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>196500</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>180100</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>139200</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>123800</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>111300</v>
       </c>
-      <c r="U9" s="3">
+      <c r="W9" s="3">
         <v>94000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="X9" s="3">
         <v>82800</v>
       </c>
-      <c r="W9" s="3">
+      <c r="Y9" s="3">
         <v>82100</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Z9" s="3">
         <v>66100</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="AA9" s="3">
         <v>52800</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AB9" s="3">
         <v>35200</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AC9" s="3">
         <v>77100</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>102800</v>
+        <v>179500</v>
       </c>
       <c r="E10" s="3">
-        <v>112400</v>
+        <v>151400</v>
       </c>
       <c r="F10" s="3">
-        <v>152800</v>
+        <v>106000</v>
       </c>
       <c r="G10" s="3">
-        <v>141800</v>
+        <v>115900</v>
       </c>
       <c r="H10" s="3">
-        <v>137700</v>
+        <v>157700</v>
       </c>
       <c r="I10" s="3">
+        <v>146300</v>
+      </c>
+      <c r="J10" s="3">
+        <v>142000</v>
+      </c>
+      <c r="K10" s="3">
         <v>130600</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>131400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>111200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>89000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>83000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>61300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>54800</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>38500</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>28800</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>28600</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>27200</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <v>36000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="W10" s="3">
         <v>30600</v>
       </c>
-      <c r="V10" s="3">
+      <c r="X10" s="3">
         <v>26100</v>
       </c>
-      <c r="W10" s="3">
+      <c r="Y10" s="3">
         <v>25900</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Z10" s="3">
         <v>20400</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="AA10" s="3">
         <v>8900</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AB10" s="3">
         <v>-3600</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AC10" s="3">
         <v>-32700</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1032,85 +1057,93 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+      <c r="AC11" s="3"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>157500</v>
+        <v>214500</v>
       </c>
       <c r="E12" s="3">
-        <v>140400</v>
+        <v>162400</v>
       </c>
       <c r="F12" s="3">
-        <v>111000</v>
+        <v>162500</v>
       </c>
       <c r="G12" s="3">
-        <v>109700</v>
+        <v>144900</v>
       </c>
       <c r="H12" s="3">
-        <v>93800</v>
+        <v>114600</v>
       </c>
       <c r="I12" s="3">
+        <v>113200</v>
+      </c>
+      <c r="J12" s="3">
+        <v>96800</v>
+      </c>
+      <c r="K12" s="3">
         <v>80800</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>67400</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>58600</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>48700</v>
       </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
         <v>46600</v>
       </c>
-      <c r="N12" s="3">
+      <c r="P12" s="3">
         <v>37800</v>
       </c>
-      <c r="O12" s="3">
+      <c r="Q12" s="3">
         <v>38600</v>
       </c>
-      <c r="P12" s="3">
+      <c r="R12" s="3">
         <v>33000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="S12" s="3">
         <v>28300</v>
       </c>
-      <c r="R12" s="3">
+      <c r="T12" s="3">
         <v>22300</v>
       </c>
-      <c r="S12" s="3">
+      <c r="U12" s="3">
         <v>20500</v>
       </c>
-      <c r="T12" s="3">
+      <c r="V12" s="3">
         <v>18900</v>
       </c>
-      <c r="U12" s="3">
+      <c r="W12" s="3">
         <v>15200</v>
       </c>
-      <c r="V12" s="3">
+      <c r="X12" s="3">
         <v>12900</v>
       </c>
-      <c r="W12" s="3">
+      <c r="Y12" s="3">
         <v>11100</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Z12" s="3">
         <v>9400</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="AA12" s="3">
         <v>8000</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AB12" s="3">
         <v>4300</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AC12" s="3">
         <v>9000</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1186,31 +1219,37 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
+        <v>-121000</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
@@ -1263,8 +1302,14 @@
       <c r="AA14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1340,8 +1385,14 @@
       <c r="AA15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1366,162 +1417,176 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+      <c r="AC16" s="3"/>
+    </row>
+    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>988300</v>
+        <v>1095400</v>
       </c>
       <c r="E17" s="3">
-        <v>980700</v>
+        <v>1097600</v>
       </c>
       <c r="F17" s="3">
-        <v>1083000</v>
+        <v>1019700</v>
       </c>
       <c r="G17" s="3">
-        <v>986200</v>
+        <v>1011800</v>
       </c>
       <c r="H17" s="3">
-        <v>837400</v>
+        <v>1117400</v>
       </c>
       <c r="I17" s="3">
+        <v>1017500</v>
+      </c>
+      <c r="J17" s="3">
+        <v>864000</v>
+      </c>
+      <c r="K17" s="3">
         <v>686500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>660300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>629200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>475600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>447700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>373800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>356000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>287700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>255600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>209800</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>187200</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>162600</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>135200</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>118100</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>112700</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Z17" s="3">
         <v>94300</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="AA17" s="3">
         <v>73000</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AB17" s="3">
         <v>87300</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AC17" s="3">
         <v>118900</v>
       </c>
     </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>-305000</v>
+        <v>-213200</v>
       </c>
       <c r="E18" s="3">
-        <v>-277100</v>
+        <v>-265500</v>
       </c>
       <c r="F18" s="3">
-        <v>-278300</v>
+        <v>-314700</v>
       </c>
       <c r="G18" s="3">
-        <v>-261400</v>
+        <v>-285900</v>
       </c>
       <c r="H18" s="3">
-        <v>-211700</v>
+        <v>-287200</v>
       </c>
       <c r="I18" s="3">
+        <v>-269700</v>
+      </c>
+      <c r="J18" s="3">
+        <v>-218400</v>
+      </c>
+      <c r="K18" s="3">
         <v>-143500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-125800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-158200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-89900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-85200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-64700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-66000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-52800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>-46700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>-41900</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>-36300</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>-15300</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>-10700</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>-9200</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>-4700</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Z18" s="3">
         <v>-7800</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="AA18" s="3">
         <v>-11300</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AB18" s="3">
         <v>-55700</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AC18" s="3">
         <v>-74500</v>
       </c>
     </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1549,85 +1614,93 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+      <c r="AC19" s="3"/>
+    </row>
+    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>37400</v>
+        <v>10200</v>
       </c>
       <c r="E20" s="3">
-        <v>-28000</v>
+        <v>32100</v>
       </c>
       <c r="F20" s="3">
+        <v>38600</v>
+      </c>
+      <c r="G20" s="3">
+        <v>-28900</v>
+      </c>
+      <c r="H20" s="3">
         <v>-1900</v>
       </c>
-      <c r="G20" s="3">
-        <v>-103500</v>
-      </c>
-      <c r="H20" s="3">
-        <v>63500</v>
-      </c>
       <c r="I20" s="3">
+        <v>-106800</v>
+      </c>
+      <c r="J20" s="3">
+        <v>65500</v>
+      </c>
+      <c r="K20" s="3">
         <v>23900</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>15200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>5200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>10900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>4700</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>8400</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>6500</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>9000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>18100</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>15500</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>3400</v>
       </c>
-      <c r="T20" s="3">
+      <c r="V20" s="3">
         <v>5600</v>
       </c>
-      <c r="U20" s="3">
+      <c r="W20" s="3">
         <v>2800</v>
       </c>
-      <c r="V20" s="3">
+      <c r="X20" s="3">
         <v>1900</v>
       </c>
-      <c r="W20" s="3">
+      <c r="Y20" s="3">
         <v>2900</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Z20" s="3">
         <v>700</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="AA20" s="3">
         <v>1800</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AB20" s="3">
         <v>-1900</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AC20" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
@@ -1649,24 +1722,24 @@
       <c r="I21" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="J21" s="3">
+      <c r="J21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L21" s="3">
         <v>129100</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L21" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="M21" s="3">
+      <c r="M21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="O21" s="3">
         <v>-26800</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="O21" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="P21" s="3" t="s">
         <v>16</v>
       </c>
@@ -1685,74 +1758,80 @@
       <c r="U21" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="V21" s="3">
+      <c r="V21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="W21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="X21" s="3">
         <v>37900</v>
       </c>
-      <c r="W21" s="3">
+      <c r="Y21" s="3">
         <v>27000</v>
       </c>
-      <c r="X21" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="Y21" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="Z21" s="3">
+      <c r="Z21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AB21" s="3">
         <v>-34100</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AC21" s="3">
         <v>-58200</v>
       </c>
     </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>8500</v>
+        <v>9100</v>
       </c>
       <c r="E22" s="3">
-        <v>8700</v>
+        <v>9200</v>
       </c>
       <c r="F22" s="3">
-        <v>7000</v>
+        <v>8800</v>
       </c>
       <c r="G22" s="3">
+        <v>9000</v>
+      </c>
+      <c r="H22" s="3">
+        <v>7200</v>
+      </c>
+      <c r="I22" s="3">
+        <v>5200</v>
+      </c>
+      <c r="J22" s="3">
         <v>5100</v>
       </c>
-      <c r="H22" s="3">
-        <v>5000</v>
-      </c>
-      <c r="I22" s="3">
+      <c r="K22" s="3">
         <v>4600</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>4800</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>5300</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>3300</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>2400</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>2300</v>
       </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>2500</v>
       </c>
-      <c r="P22" s="3">
+      <c r="R22" s="3">
         <v>2400</v>
       </c>
-      <c r="Q22" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="R22" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="S22" s="3" t="s">
         <v>16</v>
       </c>
@@ -1762,11 +1841,11 @@
       <c r="U22" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="V22" s="3">
-        <v>0</v>
-      </c>
-      <c r="W22" s="3">
-        <v>0</v>
+      <c r="V22" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="W22" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="X22" s="3">
         <v>0</v>
@@ -1780,162 +1859,180 @@
       <c r="AA22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-276100</v>
+        <v>-212100</v>
       </c>
       <c r="E23" s="3">
-        <v>-313800</v>
+        <v>-242600</v>
       </c>
       <c r="F23" s="3">
-        <v>-287200</v>
+        <v>-284900</v>
       </c>
       <c r="G23" s="3">
-        <v>-370000</v>
+        <v>-323800</v>
       </c>
       <c r="H23" s="3">
-        <v>-153100</v>
+        <v>-296300</v>
       </c>
       <c r="I23" s="3">
+        <v>-381700</v>
+      </c>
+      <c r="J23" s="3">
+        <v>-158000</v>
+      </c>
+      <c r="K23" s="3">
         <v>-124200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-115400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-158200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-82400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-82800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-58600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-62000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-46200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-28500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>-26400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>-32900</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>-9700</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>-7800</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>-7300</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>-1800</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Z23" s="3">
         <v>-7100</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="AA23" s="3">
         <v>-9500</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AB23" s="3">
         <v>-57600</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AC23" s="3">
         <v>-74500</v>
       </c>
     </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>3700</v>
+        <v>2900</v>
       </c>
       <c r="E24" s="3">
+        <v>3900</v>
+      </c>
+      <c r="F24" s="3">
+        <v>3900</v>
+      </c>
+      <c r="G24" s="3">
+        <v>4300</v>
+      </c>
+      <c r="H24" s="3">
+        <v>4700</v>
+      </c>
+      <c r="I24" s="3">
         <v>4100</v>
       </c>
-      <c r="F24" s="3">
-        <v>4600</v>
-      </c>
-      <c r="G24" s="3">
-        <v>3900</v>
-      </c>
-      <c r="H24" s="3">
-        <v>3000</v>
-      </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
+        <v>3100</v>
+      </c>
+      <c r="K24" s="3">
         <v>1700</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>2100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>2500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>1800</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>1500</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>1100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>1300</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>1900</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>1200</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>1300</v>
       </c>
-      <c r="S24" s="3">
+      <c r="U24" s="3">
         <v>1600</v>
       </c>
-      <c r="T24" s="3">
+      <c r="V24" s="3">
         <v>300</v>
       </c>
-      <c r="U24" s="3">
+      <c r="W24" s="3">
         <v>500</v>
       </c>
-      <c r="V24" s="3">
+      <c r="X24" s="3">
         <v>400</v>
-      </c>
-      <c r="W24" s="3">
-        <v>300</v>
-      </c>
-      <c r="X24" s="3">
-        <v>300</v>
       </c>
       <c r="Y24" s="3">
         <v>300</v>
       </c>
       <c r="Z24" s="3">
+        <v>300</v>
+      </c>
+      <c r="AA24" s="3">
+        <v>300</v>
+      </c>
+      <c r="AB24" s="3">
         <v>500</v>
       </c>
-      <c r="AA24" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AC24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2011,162 +2108,180 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-279900</v>
+        <v>-215000</v>
       </c>
       <c r="E26" s="3">
-        <v>-318000</v>
+        <v>-246500</v>
       </c>
       <c r="F26" s="3">
-        <v>-291700</v>
+        <v>-288700</v>
       </c>
       <c r="G26" s="3">
-        <v>-373900</v>
+        <v>-328000</v>
       </c>
       <c r="H26" s="3">
-        <v>-156200</v>
+        <v>-301000</v>
       </c>
       <c r="I26" s="3">
+        <v>-385800</v>
+      </c>
+      <c r="J26" s="3">
+        <v>-161100</v>
+      </c>
+      <c r="K26" s="3">
         <v>-126000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-117400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-160800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-84100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-84300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-59600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-63300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-48100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-29800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>-27700</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>-34400</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>-10100</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>-8300</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>-7600</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>-2200</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Z26" s="3">
         <v>-7500</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="AA26" s="3">
         <v>-9800</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AB26" s="3">
         <v>-58000</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AC26" s="3">
         <v>-74500</v>
       </c>
     </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-279400</v>
+        <v>-214700</v>
       </c>
       <c r="E27" s="3">
-        <v>-317700</v>
+        <v>-246100</v>
       </c>
       <c r="F27" s="3">
-        <v>-290700</v>
+        <v>-288200</v>
       </c>
       <c r="G27" s="3">
-        <v>-372600</v>
+        <v>-327700</v>
       </c>
       <c r="H27" s="3">
-        <v>-156000</v>
+        <v>-299900</v>
       </c>
       <c r="I27" s="3">
+        <v>-384500</v>
+      </c>
+      <c r="J27" s="3">
+        <v>-160900</v>
+      </c>
+      <c r="K27" s="3">
         <v>-125800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-115200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-158000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-83500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-83800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-58900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-63600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-47800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-28300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>-26100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>-34300</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>-10200</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>-17200</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>-17800</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>-12200</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Z27" s="3">
         <v>-36900</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="AA27" s="3">
         <v>-17500</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AB27" s="3">
         <v>-65400</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AC27" s="3">
         <v>-107000</v>
       </c>
     </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2242,8 +2357,14 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2319,8 +2440,14 @@
       <c r="AA29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2396,8 +2523,14 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2473,162 +2606,180 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-37400</v>
+        <v>-10200</v>
       </c>
       <c r="E32" s="3">
-        <v>28000</v>
+        <v>-32100</v>
       </c>
       <c r="F32" s="3">
+        <v>-38600</v>
+      </c>
+      <c r="G32" s="3">
+        <v>28900</v>
+      </c>
+      <c r="H32" s="3">
         <v>1900</v>
       </c>
-      <c r="G32" s="3">
-        <v>103500</v>
-      </c>
-      <c r="H32" s="3">
-        <v>-63500</v>
-      </c>
       <c r="I32" s="3">
+        <v>106800</v>
+      </c>
+      <c r="J32" s="3">
+        <v>-65500</v>
+      </c>
+      <c r="K32" s="3">
         <v>-23900</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-15200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-5200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-10900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-4700</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-8400</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>-6500</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>-9000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>-18100</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>-15500</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>-3400</v>
       </c>
-      <c r="T32" s="3">
+      <c r="V32" s="3">
         <v>-5600</v>
       </c>
-      <c r="U32" s="3">
+      <c r="W32" s="3">
         <v>-2800</v>
       </c>
-      <c r="V32" s="3">
+      <c r="X32" s="3">
         <v>-1900</v>
       </c>
-      <c r="W32" s="3">
+      <c r="Y32" s="3">
         <v>-2900</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Z32" s="3">
         <v>-700</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="AA32" s="3">
         <v>-1800</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AB32" s="3">
         <v>1900</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AC32" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-279400</v>
+        <v>-214700</v>
       </c>
       <c r="E33" s="3">
-        <v>-317700</v>
+        <v>-246100</v>
       </c>
       <c r="F33" s="3">
-        <v>-290700</v>
+        <v>-288200</v>
       </c>
       <c r="G33" s="3">
-        <v>-372600</v>
+        <v>-327700</v>
       </c>
       <c r="H33" s="3">
-        <v>-156000</v>
+        <v>-299900</v>
       </c>
       <c r="I33" s="3">
+        <v>-384500</v>
+      </c>
+      <c r="J33" s="3">
+        <v>-160900</v>
+      </c>
+      <c r="K33" s="3">
         <v>-125800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-115200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-158000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-83500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-83800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-58900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-63600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-47800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-28300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>-26100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>-34300</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>-10200</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>-17200</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>-17800</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>-12200</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Z33" s="3">
         <v>-36900</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="AA33" s="3">
         <v>-17500</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AB33" s="3">
         <v>-65400</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AC33" s="3">
         <v>-107000</v>
       </c>
     </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2704,167 +2855,185 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-279400</v>
+        <v>-214700</v>
       </c>
       <c r="E35" s="3">
-        <v>-317700</v>
+        <v>-246100</v>
       </c>
       <c r="F35" s="3">
-        <v>-290700</v>
+        <v>-288200</v>
       </c>
       <c r="G35" s="3">
-        <v>-372600</v>
+        <v>-327700</v>
       </c>
       <c r="H35" s="3">
-        <v>-156000</v>
+        <v>-299900</v>
       </c>
       <c r="I35" s="3">
+        <v>-384500</v>
+      </c>
+      <c r="J35" s="3">
+        <v>-160900</v>
+      </c>
+      <c r="K35" s="3">
         <v>-125800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-115200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-158000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-83500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-83800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-58900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-63600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-47800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-28300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>-26100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>-34300</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>-10200</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>-17200</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>-17800</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>-12200</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Z35" s="3">
         <v>-36900</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="AA35" s="3">
         <v>-17500</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AB35" s="3">
         <v>-65400</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AC35" s="3">
         <v>-107000</v>
       </c>
     </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>43100</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>43008</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>42916</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>42825</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AB38" s="2">
         <v>42735</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AC38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2892,8 +3061,10 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+      <c r="AC39" s="3"/>
+    </row>
+    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2921,278 +3092,298 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+      <c r="AC40" s="3"/>
+    </row>
+    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>486000</v>
+        <v>1461000</v>
       </c>
       <c r="E41" s="3">
-        <v>706900</v>
+        <v>785000</v>
       </c>
       <c r="F41" s="3">
-        <v>1047200</v>
+        <v>501400</v>
       </c>
       <c r="G41" s="3">
-        <v>1457500</v>
+        <v>729300</v>
       </c>
       <c r="H41" s="3">
-        <v>1599900</v>
+        <v>1080500</v>
       </c>
       <c r="I41" s="3">
+        <v>1503700</v>
+      </c>
+      <c r="J41" s="3">
+        <v>1650700</v>
+      </c>
+      <c r="K41" s="3">
         <v>2450200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>651200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>865600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>898100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>695900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>764200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>652000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>711800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>412900</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>514100</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>337000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>520100</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>150800</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>113200</v>
       </c>
-      <c r="W41" s="3">
+      <c r="Y41" s="3">
         <v>58700</v>
       </c>
-      <c r="X41" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="Y41" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Z41" s="3" t="s">
         <v>16</v>
       </c>
       <c r="AA41" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB41" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC41" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>2982500</v>
+        <v>1348800</v>
       </c>
       <c r="E42" s="3">
-        <v>2735500</v>
+        <v>2653400</v>
       </c>
       <c r="F42" s="3">
-        <v>3158900</v>
+        <v>3077200</v>
       </c>
       <c r="G42" s="3">
-        <v>1943300</v>
+        <v>2822400</v>
       </c>
       <c r="H42" s="3">
-        <v>2238100</v>
+        <v>3259200</v>
       </c>
       <c r="I42" s="3">
+        <v>2005000</v>
+      </c>
+      <c r="J42" s="3">
+        <v>2309200</v>
+      </c>
+      <c r="K42" s="3">
         <v>1313500</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>1131500</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>1193300</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>1394300</v>
       </c>
-      <c r="M42" s="3">
+      <c r="O42" s="3">
         <v>553000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="P42" s="3">
         <v>478200</v>
       </c>
-      <c r="O42" s="3">
+      <c r="Q42" s="3">
         <v>657600</v>
       </c>
-      <c r="P42" s="3">
+      <c r="R42" s="3">
         <v>596400</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="S42" s="3">
         <v>278200</v>
       </c>
-      <c r="R42" s="3">
+      <c r="T42" s="3">
         <v>246100</v>
       </c>
-      <c r="S42" s="3">
+      <c r="U42" s="3">
         <v>150600</v>
       </c>
-      <c r="T42" s="3">
+      <c r="V42" s="3">
         <v>49900</v>
       </c>
-      <c r="U42" s="3">
+      <c r="W42" s="3">
         <v>32800</v>
       </c>
-      <c r="V42" s="3">
+      <c r="X42" s="3">
         <v>75000</v>
       </c>
-      <c r="W42" s="3">
+      <c r="Y42" s="3">
         <v>159200</v>
       </c>
-      <c r="X42" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="Y42" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Z42" s="3" t="s">
         <v>16</v>
       </c>
       <c r="AA42" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB42" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC42" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>199100</v>
+        <v>190800</v>
       </c>
       <c r="E43" s="3">
-        <v>177400</v>
+        <v>186400</v>
       </c>
       <c r="F43" s="3">
-        <v>476600</v>
+        <v>205400</v>
       </c>
       <c r="G43" s="3">
-        <v>187600</v>
+        <v>183100</v>
       </c>
       <c r="H43" s="3">
-        <v>191800</v>
+        <v>491700</v>
       </c>
       <c r="I43" s="3">
+        <v>193500</v>
+      </c>
+      <c r="J43" s="3">
+        <v>197900</v>
+      </c>
+      <c r="K43" s="3">
         <v>152100</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>196600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>173200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>113900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>173700</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>144800</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>111700</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>70700</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>86000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>47100</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>55900</v>
       </c>
-      <c r="T43" s="3">
+      <c r="V43" s="3">
         <v>54500</v>
       </c>
-      <c r="U43" s="3">
+      <c r="W43" s="3">
         <v>65400</v>
       </c>
-      <c r="V43" s="3">
+      <c r="X43" s="3">
         <v>67500</v>
       </c>
-      <c r="W43" s="3">
+      <c r="Y43" s="3">
         <v>61600</v>
       </c>
-      <c r="X43" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="Y43" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Z43" s="3" t="s">
         <v>16</v>
       </c>
       <c r="AA43" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB43" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC43" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D44" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G44" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H44" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I44" s="3" t="s">
-        <v>16</v>
+      <c r="D44" s="3">
+        <v>0</v>
+      </c>
+      <c r="E44" s="3">
+        <v>0</v>
+      </c>
+      <c r="F44" s="3">
+        <v>0</v>
+      </c>
+      <c r="G44" s="3">
+        <v>0</v>
+      </c>
+      <c r="H44" s="3">
+        <v>0</v>
+      </c>
+      <c r="I44" s="3">
+        <v>0</v>
       </c>
       <c r="J44" s="3">
+        <v>0</v>
+      </c>
+      <c r="K44" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L44" s="3">
         <v>22300</v>
       </c>
-      <c r="K44" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L44" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="M44" s="3">
+      <c r="M44" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N44" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="O44" s="3">
         <v>6700</v>
       </c>
-      <c r="N44" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="O44" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="P44" s="3" t="s">
         <v>16</v>
       </c>
@@ -3211,411 +3402,447 @@
       <c r="U44" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="V44" s="3">
+      <c r="V44" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="W44" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="X44" s="3">
         <v>1500</v>
       </c>
-      <c r="W44" s="3">
+      <c r="Y44" s="3">
         <v>1300</v>
       </c>
-      <c r="X44" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="Y44" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Z44" s="3" t="s">
         <v>16</v>
       </c>
       <c r="AA44" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB44" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC44" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>558000</v>
+        <v>511300</v>
       </c>
       <c r="E45" s="3">
-        <v>657000</v>
+        <v>590400</v>
       </c>
       <c r="F45" s="3">
-        <v>390700</v>
+        <v>575700</v>
       </c>
       <c r="G45" s="3">
-        <v>556200</v>
+        <v>677900</v>
       </c>
       <c r="H45" s="3">
-        <v>549100</v>
+        <v>403100</v>
       </c>
       <c r="I45" s="3">
+        <v>573900</v>
+      </c>
+      <c r="J45" s="3">
+        <v>566500</v>
+      </c>
+      <c r="K45" s="3">
         <v>475300</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>189300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>264400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>285200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>172800</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>202600</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>254300</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>252000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>182300</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>143900</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>111900</v>
       </c>
-      <c r="T45" s="3">
+      <c r="V45" s="3">
         <v>103000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="W45" s="3">
         <v>104400</v>
       </c>
-      <c r="V45" s="3">
+      <c r="X45" s="3">
         <v>62300</v>
       </c>
-      <c r="W45" s="3">
+      <c r="Y45" s="3">
         <v>58500</v>
       </c>
-      <c r="X45" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="Y45" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Z45" s="3" t="s">
         <v>16</v>
       </c>
       <c r="AA45" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB45" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC45" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>4225600</v>
+        <v>3511900</v>
       </c>
       <c r="E46" s="3">
-        <v>4276800</v>
+        <v>4215300</v>
       </c>
       <c r="F46" s="3">
-        <v>5073400</v>
+        <v>4359800</v>
       </c>
       <c r="G46" s="3">
-        <v>4144500</v>
+        <v>4412600</v>
       </c>
       <c r="H46" s="3">
-        <v>4578900</v>
+        <v>5234500</v>
       </c>
       <c r="I46" s="3">
+        <v>4276100</v>
+      </c>
+      <c r="J46" s="3">
+        <v>4724300</v>
+      </c>
+      <c r="K46" s="3">
         <v>4391100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>2190900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>2496600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>2691500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>1602100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>1589700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>1675500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>1630900</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>959400</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>951300</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>655400</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>727500</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>353400</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>319500</v>
       </c>
-      <c r="W46" s="3">
+      <c r="Y46" s="3">
         <v>339400</v>
       </c>
-      <c r="X46" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="Y46" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Z46" s="3" t="s">
         <v>16</v>
       </c>
       <c r="AA46" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB46" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC46" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>884500</v>
+        <v>811600</v>
       </c>
       <c r="E47" s="3">
-        <v>827800</v>
+        <v>848500</v>
       </c>
       <c r="F47" s="3">
-        <v>766000</v>
+        <v>912600</v>
       </c>
       <c r="G47" s="3">
-        <v>582700</v>
+        <v>854100</v>
       </c>
       <c r="H47" s="3">
-        <v>428800</v>
+        <v>790300</v>
       </c>
       <c r="I47" s="3">
+        <v>601200</v>
+      </c>
+      <c r="J47" s="3">
+        <v>442400</v>
+      </c>
+      <c r="K47" s="3">
         <v>301700</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>310800</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>226200</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>239100</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>226400</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>192600</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>221700</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>244600</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="S47" s="3">
         <v>186800</v>
       </c>
-      <c r="R47" s="3">
+      <c r="T47" s="3">
         <v>142300</v>
       </c>
-      <c r="S47" s="3">
+      <c r="U47" s="3">
         <v>140400</v>
       </c>
-      <c r="T47" s="3">
+      <c r="V47" s="3">
         <v>117600</v>
       </c>
-      <c r="U47" s="3">
+      <c r="W47" s="3">
         <v>106800</v>
       </c>
-      <c r="V47" s="3">
+      <c r="X47" s="3">
         <v>94400</v>
       </c>
-      <c r="W47" s="3">
+      <c r="Y47" s="3">
         <v>80100</v>
       </c>
-      <c r="X47" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="Y47" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Z47" s="3" t="s">
         <v>16</v>
       </c>
       <c r="AA47" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB47" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC47" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>206300</v>
+        <v>176200</v>
       </c>
       <c r="E48" s="3">
-        <v>181400</v>
+        <v>198600</v>
       </c>
       <c r="F48" s="3">
-        <v>188000</v>
+        <v>212800</v>
       </c>
       <c r="G48" s="3">
-        <v>189800</v>
+        <v>187200</v>
       </c>
       <c r="H48" s="3">
-        <v>151300</v>
+        <v>193900</v>
       </c>
       <c r="I48" s="3">
+        <v>195900</v>
+      </c>
+      <c r="J48" s="3">
+        <v>156200</v>
+      </c>
+      <c r="K48" s="3">
         <v>125400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>106100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>115000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>103000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>75300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>79500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>73700</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>69800</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>55200</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>57400</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>44900</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>35600</v>
       </c>
-      <c r="U48" s="3">
+      <c r="W48" s="3">
         <v>28700</v>
       </c>
-      <c r="V48" s="3">
+      <c r="X48" s="3">
         <v>27700</v>
       </c>
-      <c r="W48" s="3">
+      <c r="Y48" s="3">
         <v>20000</v>
       </c>
-      <c r="X48" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="Y48" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Z48" s="3" t="s">
         <v>16</v>
       </c>
       <c r="AA48" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB48" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC48" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1017400</v>
+        <v>1012800</v>
       </c>
       <c r="E49" s="3">
-        <v>974700</v>
+        <v>1049800</v>
       </c>
       <c r="F49" s="3">
-        <v>859400</v>
+        <v>1049700</v>
       </c>
       <c r="G49" s="3">
-        <v>681100</v>
+        <v>1005600</v>
       </c>
       <c r="H49" s="3">
-        <v>623200</v>
+        <v>886700</v>
       </c>
       <c r="I49" s="3">
+        <v>702700</v>
+      </c>
+      <c r="J49" s="3">
+        <v>642900</v>
+      </c>
+      <c r="K49" s="3">
         <v>614200</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>508500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>535100</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>442200</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>442600</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>411000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>395800</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>382200</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>350600</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>342900</v>
       </c>
-      <c r="S49" s="3">
+      <c r="U49" s="3">
         <v>218100</v>
       </c>
-      <c r="T49" s="3">
+      <c r="V49" s="3">
         <v>131900</v>
       </c>
-      <c r="U49" s="3">
+      <c r="W49" s="3">
         <v>105700</v>
       </c>
-      <c r="V49" s="3">
+      <c r="X49" s="3">
         <v>70800</v>
       </c>
-      <c r="W49" s="3">
+      <c r="Y49" s="3">
         <v>64200</v>
       </c>
-      <c r="X49" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="Y49" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Z49" s="3" t="s">
         <v>16</v>
       </c>
       <c r="AA49" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB49" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC49" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3691,8 +3918,14 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3768,85 +4001,97 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>417900</v>
+        <v>495100</v>
       </c>
       <c r="E52" s="3">
-        <v>408000</v>
+        <v>524200</v>
       </c>
       <c r="F52" s="3">
-        <v>359100</v>
+        <v>431200</v>
       </c>
       <c r="G52" s="3">
-        <v>313300</v>
+        <v>420900</v>
       </c>
       <c r="H52" s="3">
-        <v>244200</v>
+        <v>370500</v>
       </c>
       <c r="I52" s="3">
+        <v>323200</v>
+      </c>
+      <c r="J52" s="3">
+        <v>252000</v>
+      </c>
+      <c r="K52" s="3">
         <v>192500</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>205800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>182500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>130500</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>122700</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>116400</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>106100</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>86500</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>71700</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>29700</v>
       </c>
-      <c r="S52" s="3">
+      <c r="U52" s="3">
         <v>10200</v>
       </c>
-      <c r="T52" s="3">
+      <c r="V52" s="3">
         <v>7600</v>
       </c>
-      <c r="U52" s="3">
+      <c r="W52" s="3">
         <v>4400</v>
       </c>
-      <c r="V52" s="3">
+      <c r="X52" s="3">
         <v>3100</v>
       </c>
-      <c r="W52" s="3">
+      <c r="Y52" s="3">
         <v>1800</v>
       </c>
-      <c r="X52" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="Y52" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Z52" s="3" t="s">
         <v>16</v>
       </c>
       <c r="AA52" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB52" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC52" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3922,85 +4167,97 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>6751700</v>
+        <v>6007700</v>
       </c>
       <c r="E54" s="3">
-        <v>6668700</v>
+        <v>6836400</v>
       </c>
       <c r="F54" s="3">
-        <v>7245800</v>
+        <v>6966100</v>
       </c>
       <c r="G54" s="3">
-        <v>5911400</v>
+        <v>6880400</v>
       </c>
       <c r="H54" s="3">
-        <v>6026400</v>
+        <v>7475900</v>
       </c>
       <c r="I54" s="3">
+        <v>6099100</v>
+      </c>
+      <c r="J54" s="3">
+        <v>6217800</v>
+      </c>
+      <c r="K54" s="3">
         <v>5624900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>3322100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>3555300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>3606200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>2469200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>2389200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>2472900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>2413900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>1623700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>1523500</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>1069000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>1020200</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>598900</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>515500</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>505500</v>
       </c>
-      <c r="X54" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="Y54" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Z54" s="3" t="s">
         <v>16</v>
       </c>
       <c r="AA54" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB54" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC54" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4028,8 +4285,10 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+      <c r="AC55" s="3"/>
+    </row>
+    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4057,147 +4316,155 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+      <c r="AC56" s="3"/>
+    </row>
+    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>765700</v>
+        <v>616400</v>
       </c>
       <c r="E57" s="3">
-        <v>598800</v>
+        <v>679500</v>
       </c>
       <c r="F57" s="3">
-        <v>607000</v>
+        <v>790100</v>
       </c>
       <c r="G57" s="3">
-        <v>584400</v>
+        <v>617800</v>
       </c>
       <c r="H57" s="3">
-        <v>505000</v>
+        <v>626300</v>
       </c>
       <c r="I57" s="3">
+        <v>603000</v>
+      </c>
+      <c r="J57" s="3">
+        <v>521000</v>
+      </c>
+      <c r="K57" s="3">
         <v>431500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>427900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>428300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>387200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>333800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>293200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>296500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>262500</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>216700</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>189900</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>146900</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>135800</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>124500</v>
       </c>
-      <c r="V57" s="3">
+      <c r="X57" s="3">
         <v>88500</v>
       </c>
-      <c r="W57" s="3">
+      <c r="Y57" s="3">
         <v>81100</v>
       </c>
-      <c r="X57" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="Y57" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Z57" s="3" t="s">
         <v>16</v>
       </c>
       <c r="AA57" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB57" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC57" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>201700</v>
+        <v>951000</v>
       </c>
       <c r="E58" s="3">
-        <v>207700</v>
+        <v>998700</v>
       </c>
       <c r="F58" s="3">
-        <v>171500</v>
+        <v>208100</v>
       </c>
       <c r="G58" s="3">
-        <v>130100</v>
+        <v>214300</v>
       </c>
       <c r="H58" s="3">
-        <v>54100</v>
+        <v>177000</v>
       </c>
       <c r="I58" s="3">
+        <v>134200</v>
+      </c>
+      <c r="J58" s="3">
+        <v>55800</v>
+      </c>
+      <c r="K58" s="3">
         <v>13900</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>13900</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>14600</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>14700</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>15700</v>
       </c>
-      <c r="N58" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="O58" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="P58" s="3">
+      <c r="P58" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q58" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="R58" s="3">
         <v>15300</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>15200</v>
       </c>
-      <c r="R58" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="S58" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="T58" s="3" t="s">
         <v>16</v>
       </c>
       <c r="U58" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="V58" s="3">
-        <v>0</v>
-      </c>
-      <c r="W58" s="3">
-        <v>0</v>
+      <c r="V58" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="W58" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="X58" s="3">
         <v>0</v>
@@ -4211,210 +4478,228 @@
       <c r="AA58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB58" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>840900</v>
+        <v>887600</v>
       </c>
       <c r="E59" s="3">
-        <v>771400</v>
+        <v>896900</v>
       </c>
       <c r="F59" s="3">
-        <v>901700</v>
+        <v>867600</v>
       </c>
       <c r="G59" s="3">
-        <v>795400</v>
+        <v>795900</v>
       </c>
       <c r="H59" s="3">
-        <v>749200</v>
+        <v>930400</v>
       </c>
       <c r="I59" s="3">
+        <v>820600</v>
+      </c>
+      <c r="J59" s="3">
+        <v>773000</v>
+      </c>
+      <c r="K59" s="3">
         <v>604400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>587000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>580800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>419600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>402400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>364700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>344300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>304500</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>336300</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>289200</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>215500</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>172600</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>184600</v>
       </c>
-      <c r="V59" s="3">
+      <c r="X59" s="3">
         <v>118900</v>
       </c>
-      <c r="W59" s="3">
+      <c r="Y59" s="3">
         <v>106700</v>
       </c>
-      <c r="X59" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="Y59" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Z59" s="3" t="s">
         <v>16</v>
       </c>
       <c r="AA59" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB59" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC59" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1808300</v>
+        <v>2455000</v>
       </c>
       <c r="E60" s="3">
-        <v>1577900</v>
+        <v>2575000</v>
       </c>
       <c r="F60" s="3">
-        <v>1680300</v>
+        <v>1865800</v>
       </c>
       <c r="G60" s="3">
-        <v>1509800</v>
+        <v>1628000</v>
       </c>
       <c r="H60" s="3">
-        <v>1308300</v>
+        <v>1733600</v>
       </c>
       <c r="I60" s="3">
+        <v>1557800</v>
+      </c>
+      <c r="J60" s="3">
+        <v>1349800</v>
+      </c>
+      <c r="K60" s="3">
         <v>1049800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>1028900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>1023600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>821600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>751900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>657900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>640800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>582300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>568200</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>479100</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>362400</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>308400</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>309100</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>207500</v>
       </c>
-      <c r="W60" s="3">
+      <c r="Y60" s="3">
         <v>187800</v>
       </c>
-      <c r="X60" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="Y60" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Z60" s="3" t="s">
         <v>16</v>
       </c>
       <c r="AA60" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB60" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC60" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>2355600</v>
+        <v>1247100</v>
       </c>
       <c r="E61" s="3">
-        <v>2288800</v>
+        <v>1766800</v>
       </c>
       <c r="F61" s="3">
-        <v>2475500</v>
+        <v>2430400</v>
       </c>
       <c r="G61" s="3">
-        <v>1093600</v>
+        <v>2361500</v>
       </c>
       <c r="H61" s="3">
-        <v>1137900</v>
+        <v>2554200</v>
       </c>
       <c r="I61" s="3">
+        <v>1128400</v>
+      </c>
+      <c r="J61" s="3">
+        <v>1174000</v>
+      </c>
+      <c r="K61" s="3">
         <v>1157100</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>1161100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>1270400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>1331800</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>543400</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>525800</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>539700</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>513200</v>
       </c>
-      <c r="Q61" s="3">
-        <v>0</v>
-      </c>
-      <c r="R61" s="3">
-        <v>0</v>
-      </c>
       <c r="S61" s="3">
         <v>0</v>
       </c>
@@ -4442,56 +4727,62 @@
       <c r="AA61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>90100</v>
+        <v>117000</v>
       </c>
       <c r="E62" s="3">
-        <v>91400</v>
+        <v>118600</v>
       </c>
       <c r="F62" s="3">
-        <v>67100</v>
+        <v>93000</v>
       </c>
       <c r="G62" s="3">
-        <v>47400</v>
+        <v>94300</v>
       </c>
       <c r="H62" s="3">
-        <v>39800</v>
+        <v>69200</v>
       </c>
       <c r="I62" s="3">
+        <v>48900</v>
+      </c>
+      <c r="J62" s="3">
+        <v>41000</v>
+      </c>
+      <c r="K62" s="3">
         <v>43900</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>48900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>33100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>29100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>27200</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>29700</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>31700</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>26000</v>
       </c>
-      <c r="Q62" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="R62" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="S62" s="3" t="s">
         <v>16</v>
       </c>
@@ -4501,11 +4792,11 @@
       <c r="U62" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="V62" s="3">
-        <v>0</v>
-      </c>
-      <c r="W62" s="3">
-        <v>0</v>
+      <c r="V62" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="W62" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="X62" s="3">
         <v>0</v>
@@ -4519,8 +4810,14 @@
       <c r="AA62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB62" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4596,8 +4893,14 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4673,8 +4976,14 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4750,85 +5059,97 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>4255000</v>
+        <v>3819200</v>
       </c>
       <c r="E66" s="3">
-        <v>3959600</v>
+        <v>4461000</v>
       </c>
       <c r="F66" s="3">
-        <v>4224600</v>
+        <v>4390100</v>
       </c>
       <c r="G66" s="3">
-        <v>2656000</v>
+        <v>4085300</v>
       </c>
       <c r="H66" s="3">
-        <v>2492300</v>
+        <v>4358800</v>
       </c>
       <c r="I66" s="3">
+        <v>2740400</v>
+      </c>
+      <c r="J66" s="3">
+        <v>2571400</v>
+      </c>
+      <c r="K66" s="3">
         <v>2274200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>2264100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>2356100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>2288800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>1436100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>1303300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>1295800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>1157000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>603900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>514000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>381800</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>308300</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>308900</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>207500</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>187800</v>
       </c>
-      <c r="X66" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="Y66" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Z66" s="3" t="s">
         <v>16</v>
       </c>
       <c r="AA66" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB66" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC66" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4856,8 +5177,10 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+      <c r="AC67" s="3"/>
+    </row>
+    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4933,8 +5256,14 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5010,8 +5339,14 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5070,25 +5405,31 @@
         <v>0</v>
       </c>
       <c r="V70" s="3">
+        <v>0</v>
+      </c>
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+      <c r="X70" s="3">
         <v>595900</v>
       </c>
-      <c r="W70" s="3">
+      <c r="Y70" s="3">
         <v>585800</v>
       </c>
-      <c r="X70" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y70" s="3">
-        <v>0</v>
-      </c>
       <c r="Z70" s="3">
         <v>0</v>
       </c>
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5164,8 +5505,14 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -5175,74 +5522,80 @@
       <c r="E72" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F72" s="3">
-        <v>-1941400</v>
+      <c r="F72" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="G72" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H72" s="3" t="s">
-        <v>16</v>
+      <c r="H72" s="3">
+        <v>-2003000</v>
       </c>
       <c r="I72" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="J72" s="3">
+      <c r="J72" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K72" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L72" s="3">
         <v>-996300</v>
       </c>
-      <c r="K72" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L72" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="M72" s="3">
+      <c r="M72" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N72" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="O72" s="3">
         <v>-733300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-636300</v>
       </c>
-      <c r="O72" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="P72" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Q72" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="R72" s="3">
+      <c r="R72" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="S72" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="T72" s="3">
         <v>-411700</v>
       </c>
-      <c r="S72" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="T72" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="U72" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="V72" s="3">
+      <c r="V72" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="W72" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="X72" s="3">
         <v>-329300</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>-311600</v>
       </c>
-      <c r="X72" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="Y72" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Z72" s="3" t="s">
         <v>16</v>
       </c>
       <c r="AA72" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB72" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC72" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5318,8 +5671,14 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5395,8 +5754,14 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5472,85 +5837,97 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2496700</v>
+        <v>2188500</v>
       </c>
       <c r="E76" s="3">
-        <v>2709100</v>
+        <v>2375400</v>
       </c>
       <c r="F76" s="3">
-        <v>3021200</v>
+        <v>2576000</v>
       </c>
       <c r="G76" s="3">
-        <v>3255400</v>
+        <v>2795100</v>
       </c>
       <c r="H76" s="3">
-        <v>3534100</v>
+        <v>3117100</v>
       </c>
       <c r="I76" s="3">
+        <v>3358800</v>
+      </c>
+      <c r="J76" s="3">
+        <v>3646300</v>
+      </c>
+      <c r="K76" s="3">
         <v>3350700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>1057900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>1199200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>1317400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>1033100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>1085900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>1177100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>1256900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>1019800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>1009500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>687300</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>711900</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>290000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>-287800</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>-268000</v>
       </c>
-      <c r="X76" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="Y76" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Z76" s="3" t="s">
         <v>16</v>
       </c>
       <c r="AA76" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB76" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC76" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5626,167 +6003,185 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>43100</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>43008</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>42916</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>42825</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AB80" s="2">
         <v>42735</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AC80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-279400</v>
+        <v>-214700</v>
       </c>
       <c r="E81" s="3">
-        <v>-317700</v>
+        <v>-246100</v>
       </c>
       <c r="F81" s="3">
-        <v>-290700</v>
+        <v>-288200</v>
       </c>
       <c r="G81" s="3">
-        <v>-372600</v>
+        <v>-327700</v>
       </c>
       <c r="H81" s="3">
-        <v>-156000</v>
+        <v>-299900</v>
       </c>
       <c r="I81" s="3">
+        <v>-384500</v>
+      </c>
+      <c r="J81" s="3">
+        <v>-160900</v>
+      </c>
+      <c r="K81" s="3">
         <v>-125800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-115200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-158000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-83500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-83800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-58900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-63600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-47800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-28300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>-26100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>-34300</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>-10200</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>-17200</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>-17800</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>-12200</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Z81" s="3">
         <v>-36900</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="AA81" s="3">
         <v>-17500</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AB81" s="3">
         <v>-65400</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AC81" s="3">
         <v>-107000</v>
       </c>
     </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5814,8 +6209,10 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+      <c r="AC82" s="3"/>
+    </row>
+    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5840,11 +6237,11 @@
       <c r="J83" s="3">
         <v>0</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L83" s="3" t="s">
-        <v>16</v>
+      <c r="K83" s="3">
+        <v>0</v>
+      </c>
+      <c r="L83" s="3">
+        <v>0</v>
       </c>
       <c r="M83" s="3" t="s">
         <v>16</v>
@@ -5867,11 +6264,11 @@
       <c r="S83" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="T83" s="3">
-        <v>0</v>
-      </c>
-      <c r="U83" s="3">
-        <v>0</v>
+      <c r="T83" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="U83" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="V83" s="3">
         <v>0</v>
@@ -5882,17 +6279,23 @@
       <c r="X83" s="3">
         <v>0</v>
       </c>
-      <c r="Y83" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="Z83" s="3" t="s">
-        <v>16</v>
+      <c r="Y83" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z83" s="3">
+        <v>0</v>
       </c>
       <c r="AA83" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB83" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC83" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5968,8 +6371,14 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6045,8 +6454,14 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6122,8 +6537,14 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6199,8 +6620,14 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6276,8 +6703,14 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -6302,11 +6735,11 @@
       <c r="J89" s="3">
         <v>0</v>
       </c>
-      <c r="K89" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L89" s="3" t="s">
-        <v>16</v>
+      <c r="K89" s="3">
+        <v>0</v>
+      </c>
+      <c r="L89" s="3">
+        <v>0</v>
       </c>
       <c r="M89" s="3" t="s">
         <v>16</v>
@@ -6329,11 +6762,11 @@
       <c r="S89" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="T89" s="3">
-        <v>0</v>
-      </c>
-      <c r="U89" s="3">
-        <v>0</v>
+      <c r="T89" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="U89" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="V89" s="3">
         <v>0</v>
@@ -6344,17 +6777,23 @@
       <c r="X89" s="3">
         <v>0</v>
       </c>
-      <c r="Y89" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="Z89" s="3" t="s">
-        <v>16</v>
+      <c r="Y89" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z89" s="3">
+        <v>0</v>
       </c>
       <c r="AA89" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB89" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC89" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6382,8 +6821,10 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+      <c r="AC90" s="3"/>
+    </row>
+    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6408,11 +6849,11 @@
       <c r="J91" s="3">
         <v>0</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L91" s="3" t="s">
-        <v>16</v>
+      <c r="K91" s="3">
+        <v>0</v>
+      </c>
+      <c r="L91" s="3">
+        <v>0</v>
       </c>
       <c r="M91" s="3" t="s">
         <v>16</v>
@@ -6435,11 +6876,11 @@
       <c r="S91" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="T91" s="3">
-        <v>0</v>
-      </c>
-      <c r="U91" s="3">
-        <v>0</v>
+      <c r="T91" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="U91" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="V91" s="3">
         <v>0</v>
@@ -6450,17 +6891,23 @@
       <c r="X91" s="3">
         <v>0</v>
       </c>
-      <c r="Y91" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="Z91" s="3" t="s">
-        <v>16</v>
+      <c r="Y91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z91" s="3">
+        <v>0</v>
       </c>
       <c r="AA91" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB91" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC91" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6536,8 +6983,14 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6613,8 +7066,14 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6639,11 +7098,11 @@
       <c r="J94" s="3">
         <v>0</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L94" s="3" t="s">
-        <v>16</v>
+      <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3">
+        <v>0</v>
       </c>
       <c r="M94" s="3" t="s">
         <v>16</v>
@@ -6666,11 +7125,11 @@
       <c r="S94" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="T94" s="3">
-        <v>0</v>
-      </c>
-      <c r="U94" s="3">
-        <v>0</v>
+      <c r="T94" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="U94" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="V94" s="3">
         <v>0</v>
@@ -6681,17 +7140,23 @@
       <c r="X94" s="3">
         <v>0</v>
       </c>
-      <c r="Y94" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="Z94" s="3" t="s">
-        <v>16</v>
+      <c r="Y94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z94" s="3">
+        <v>0</v>
       </c>
       <c r="AA94" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB94" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC94" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6719,8 +7184,10 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+      <c r="AC95" s="3"/>
+    </row>
+    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6796,8 +7263,14 @@
       <c r="AA96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6873,8 +7346,14 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6950,8 +7429,14 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7027,8 +7512,14 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -7053,11 +7544,11 @@
       <c r="J100" s="3">
         <v>0</v>
       </c>
-      <c r="K100" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L100" s="3" t="s">
-        <v>16</v>
+      <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
+        <v>0</v>
       </c>
       <c r="M100" s="3" t="s">
         <v>16</v>
@@ -7080,11 +7571,11 @@
       <c r="S100" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="T100" s="3">
-        <v>0</v>
-      </c>
-      <c r="U100" s="3">
-        <v>0</v>
+      <c r="T100" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="U100" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="V100" s="3">
         <v>0</v>
@@ -7095,17 +7586,23 @@
       <c r="X100" s="3">
         <v>0</v>
       </c>
-      <c r="Y100" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="Z100" s="3" t="s">
-        <v>16</v>
+      <c r="Y100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z100" s="3">
+        <v>0</v>
       </c>
       <c r="AA100" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB100" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC100" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7130,11 +7627,11 @@
       <c r="J101" s="3">
         <v>0</v>
       </c>
-      <c r="K101" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L101" s="3" t="s">
-        <v>16</v>
+      <c r="K101" s="3">
+        <v>0</v>
+      </c>
+      <c r="L101" s="3">
+        <v>0</v>
       </c>
       <c r="M101" s="3" t="s">
         <v>16</v>
@@ -7157,11 +7654,11 @@
       <c r="S101" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="T101" s="3">
-        <v>0</v>
-      </c>
-      <c r="U101" s="3">
-        <v>0</v>
+      <c r="T101" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="U101" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="V101" s="3">
         <v>0</v>
@@ -7172,17 +7669,23 @@
       <c r="X101" s="3">
         <v>0</v>
       </c>
-      <c r="Y101" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="Z101" s="3" t="s">
-        <v>16</v>
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z101" s="3">
+        <v>0</v>
       </c>
       <c r="AA101" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB101" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC101" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -7207,11 +7710,11 @@
       <c r="J102" s="3">
         <v>0</v>
       </c>
-      <c r="K102" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L102" s="3" t="s">
-        <v>16</v>
+      <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3">
+        <v>0</v>
       </c>
       <c r="M102" s="3" t="s">
         <v>16</v>
@@ -7234,11 +7737,11 @@
       <c r="S102" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="T102" s="3">
-        <v>0</v>
-      </c>
-      <c r="U102" s="3">
-        <v>0</v>
+      <c r="T102" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="U102" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="V102" s="3">
         <v>0</v>
@@ -7249,13 +7752,19 @@
       <c r="X102" s="3">
         <v>0</v>
       </c>
-      <c r="Y102" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="Z102" s="3" t="s">
-        <v>16</v>
+      <c r="Y102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z102" s="3">
+        <v>0</v>
       </c>
       <c r="AA102" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AB102" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC102" s="3" t="s">
         <v>16</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BILI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BILI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="92">
   <si>
     <t>BILI</t>
   </si>
@@ -785,25 +785,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>882200</v>
+        <v>873200</v>
       </c>
       <c r="E8" s="3">
-        <v>832100</v>
+        <v>823600</v>
       </c>
       <c r="F8" s="3">
-        <v>705000</v>
+        <v>697800</v>
       </c>
       <c r="G8" s="3">
-        <v>725900</v>
+        <v>718400</v>
       </c>
       <c r="H8" s="3">
-        <v>830200</v>
+        <v>821700</v>
       </c>
       <c r="I8" s="3">
-        <v>747800</v>
+        <v>740100</v>
       </c>
       <c r="J8" s="3">
-        <v>645600</v>
+        <v>639000</v>
       </c>
       <c r="K8" s="3">
         <v>543000</v>
@@ -868,25 +868,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>702700</v>
+        <v>695500</v>
       </c>
       <c r="E9" s="3">
-        <v>680700</v>
+        <v>673700</v>
       </c>
       <c r="F9" s="3">
-        <v>599000</v>
+        <v>592900</v>
       </c>
       <c r="G9" s="3">
-        <v>609900</v>
+        <v>603700</v>
       </c>
       <c r="H9" s="3">
-        <v>672600</v>
+        <v>665700</v>
       </c>
       <c r="I9" s="3">
-        <v>601500</v>
+        <v>595300</v>
       </c>
       <c r="J9" s="3">
-        <v>503600</v>
+        <v>498400</v>
       </c>
       <c r="K9" s="3">
         <v>412500</v>
@@ -951,25 +951,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>179500</v>
+        <v>177600</v>
       </c>
       <c r="E10" s="3">
-        <v>151400</v>
+        <v>149900</v>
       </c>
       <c r="F10" s="3">
-        <v>106000</v>
+        <v>104900</v>
       </c>
       <c r="G10" s="3">
-        <v>115900</v>
+        <v>114700</v>
       </c>
       <c r="H10" s="3">
-        <v>157700</v>
+        <v>156100</v>
       </c>
       <c r="I10" s="3">
-        <v>146300</v>
+        <v>144800</v>
       </c>
       <c r="J10" s="3">
-        <v>142000</v>
+        <v>140600</v>
       </c>
       <c r="K10" s="3">
         <v>130600</v>
@@ -1065,25 +1065,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>214500</v>
+        <v>212300</v>
       </c>
       <c r="E12" s="3">
-        <v>162400</v>
+        <v>160800</v>
       </c>
       <c r="F12" s="3">
-        <v>162500</v>
+        <v>160900</v>
       </c>
       <c r="G12" s="3">
-        <v>144900</v>
+        <v>143400</v>
       </c>
       <c r="H12" s="3">
-        <v>114600</v>
+        <v>113400</v>
       </c>
       <c r="I12" s="3">
-        <v>113200</v>
+        <v>112100</v>
       </c>
       <c r="J12" s="3">
-        <v>96800</v>
+        <v>95800</v>
       </c>
       <c r="K12" s="3">
         <v>80800</v>
@@ -1231,7 +1231,7 @@
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>-121000</v>
+        <v>-187400</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>16</v>
@@ -1425,25 +1425,25 @@
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>1095400</v>
+        <v>1016500</v>
       </c>
       <c r="E17" s="3">
-        <v>1097600</v>
+        <v>1086400</v>
       </c>
       <c r="F17" s="3">
-        <v>1019700</v>
+        <v>1009300</v>
       </c>
       <c r="G17" s="3">
-        <v>1011800</v>
+        <v>1001400</v>
       </c>
       <c r="H17" s="3">
-        <v>1117400</v>
+        <v>1106000</v>
       </c>
       <c r="I17" s="3">
-        <v>1017500</v>
+        <v>1007100</v>
       </c>
       <c r="J17" s="3">
-        <v>864000</v>
+        <v>855100</v>
       </c>
       <c r="K17" s="3">
         <v>686500</v>
@@ -1508,25 +1508,25 @@
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>-213200</v>
+        <v>-143400</v>
       </c>
       <c r="E18" s="3">
-        <v>-265500</v>
+        <v>-262800</v>
       </c>
       <c r="F18" s="3">
-        <v>-314700</v>
+        <v>-311500</v>
       </c>
       <c r="G18" s="3">
-        <v>-285900</v>
+        <v>-283000</v>
       </c>
       <c r="H18" s="3">
-        <v>-287200</v>
+        <v>-284200</v>
       </c>
       <c r="I18" s="3">
-        <v>-269700</v>
+        <v>-267000</v>
       </c>
       <c r="J18" s="3">
-        <v>-218400</v>
+        <v>-216100</v>
       </c>
       <c r="K18" s="3">
         <v>-143500</v>
@@ -1622,25 +1622,25 @@
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>10200</v>
+        <v>-57500</v>
       </c>
       <c r="E20" s="3">
-        <v>32100</v>
+        <v>31800</v>
       </c>
       <c r="F20" s="3">
-        <v>38600</v>
+        <v>38200</v>
       </c>
       <c r="G20" s="3">
-        <v>-28900</v>
+        <v>-28600</v>
       </c>
       <c r="H20" s="3">
         <v>-1900</v>
       </c>
       <c r="I20" s="3">
-        <v>-106800</v>
+        <v>-105700</v>
       </c>
       <c r="J20" s="3">
-        <v>65500</v>
+        <v>64800</v>
       </c>
       <c r="K20" s="3">
         <v>23900</v>
@@ -1788,19 +1788,19 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>9000</v>
+      </c>
+      <c r="E22" s="3">
         <v>9100</v>
       </c>
-      <c r="E22" s="3">
-        <v>9200</v>
-      </c>
       <c r="F22" s="3">
-        <v>8800</v>
+        <v>8700</v>
       </c>
       <c r="G22" s="3">
-        <v>9000</v>
+        <v>8900</v>
       </c>
       <c r="H22" s="3">
-        <v>7200</v>
+        <v>7100</v>
       </c>
       <c r="I22" s="3">
         <v>5200</v>
@@ -1871,25 +1871,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-212100</v>
+        <v>-209900</v>
       </c>
       <c r="E23" s="3">
-        <v>-242600</v>
+        <v>-240100</v>
       </c>
       <c r="F23" s="3">
-        <v>-284900</v>
+        <v>-282000</v>
       </c>
       <c r="G23" s="3">
-        <v>-323800</v>
+        <v>-320500</v>
       </c>
       <c r="H23" s="3">
-        <v>-296300</v>
+        <v>-293300</v>
       </c>
       <c r="I23" s="3">
-        <v>-381700</v>
+        <v>-377800</v>
       </c>
       <c r="J23" s="3">
-        <v>-158000</v>
+        <v>-156400</v>
       </c>
       <c r="K23" s="3">
         <v>-124200</v>
@@ -1957,19 +1957,19 @@
         <v>2900</v>
       </c>
       <c r="E24" s="3">
-        <v>3900</v>
+        <v>3800</v>
       </c>
       <c r="F24" s="3">
-        <v>3900</v>
+        <v>3800</v>
       </c>
       <c r="G24" s="3">
-        <v>4300</v>
+        <v>4200</v>
       </c>
       <c r="H24" s="3">
         <v>4700</v>
       </c>
       <c r="I24" s="3">
-        <v>4100</v>
+        <v>4000</v>
       </c>
       <c r="J24" s="3">
         <v>3100</v>
@@ -2120,25 +2120,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-215000</v>
+        <v>-212800</v>
       </c>
       <c r="E26" s="3">
-        <v>-246500</v>
+        <v>-243900</v>
       </c>
       <c r="F26" s="3">
-        <v>-288700</v>
+        <v>-285800</v>
       </c>
       <c r="G26" s="3">
-        <v>-328000</v>
+        <v>-324700</v>
       </c>
       <c r="H26" s="3">
-        <v>-301000</v>
+        <v>-297900</v>
       </c>
       <c r="I26" s="3">
-        <v>-385800</v>
+        <v>-381900</v>
       </c>
       <c r="J26" s="3">
-        <v>-161100</v>
+        <v>-159500</v>
       </c>
       <c r="K26" s="3">
         <v>-126000</v>
@@ -2203,25 +2203,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-214700</v>
+        <v>-212500</v>
       </c>
       <c r="E27" s="3">
-        <v>-246100</v>
+        <v>-243600</v>
       </c>
       <c r="F27" s="3">
-        <v>-288200</v>
+        <v>-285300</v>
       </c>
       <c r="G27" s="3">
-        <v>-327700</v>
+        <v>-324400</v>
       </c>
       <c r="H27" s="3">
-        <v>-299900</v>
+        <v>-296800</v>
       </c>
       <c r="I27" s="3">
-        <v>-384500</v>
+        <v>-380500</v>
       </c>
       <c r="J27" s="3">
-        <v>-160900</v>
+        <v>-159300</v>
       </c>
       <c r="K27" s="3">
         <v>-125800</v>
@@ -2618,25 +2618,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-10200</v>
+        <v>57500</v>
       </c>
       <c r="E32" s="3">
-        <v>-32100</v>
+        <v>-31800</v>
       </c>
       <c r="F32" s="3">
-        <v>-38600</v>
+        <v>-38200</v>
       </c>
       <c r="G32" s="3">
-        <v>28900</v>
+        <v>28600</v>
       </c>
       <c r="H32" s="3">
         <v>1900</v>
       </c>
       <c r="I32" s="3">
-        <v>106800</v>
+        <v>105700</v>
       </c>
       <c r="J32" s="3">
-        <v>-65500</v>
+        <v>-64800</v>
       </c>
       <c r="K32" s="3">
         <v>-23900</v>
@@ -2701,25 +2701,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-214700</v>
+        <v>-212500</v>
       </c>
       <c r="E33" s="3">
-        <v>-246100</v>
+        <v>-243600</v>
       </c>
       <c r="F33" s="3">
-        <v>-288200</v>
+        <v>-285300</v>
       </c>
       <c r="G33" s="3">
-        <v>-327700</v>
+        <v>-324400</v>
       </c>
       <c r="H33" s="3">
-        <v>-299900</v>
+        <v>-296800</v>
       </c>
       <c r="I33" s="3">
-        <v>-384500</v>
+        <v>-380500</v>
       </c>
       <c r="J33" s="3">
-        <v>-160900</v>
+        <v>-159300</v>
       </c>
       <c r="K33" s="3">
         <v>-125800</v>
@@ -2867,25 +2867,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-214700</v>
+        <v>-212500</v>
       </c>
       <c r="E35" s="3">
-        <v>-246100</v>
+        <v>-243600</v>
       </c>
       <c r="F35" s="3">
-        <v>-288200</v>
+        <v>-285300</v>
       </c>
       <c r="G35" s="3">
-        <v>-327700</v>
+        <v>-324400</v>
       </c>
       <c r="H35" s="3">
-        <v>-299900</v>
+        <v>-296800</v>
       </c>
       <c r="I35" s="3">
-        <v>-384500</v>
+        <v>-380500</v>
       </c>
       <c r="J35" s="3">
-        <v>-160900</v>
+        <v>-159300</v>
       </c>
       <c r="K35" s="3">
         <v>-125800</v>
@@ -3100,25 +3100,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1461000</v>
+        <v>1446000</v>
       </c>
       <c r="E41" s="3">
-        <v>785000</v>
+        <v>777000</v>
       </c>
       <c r="F41" s="3">
-        <v>501400</v>
+        <v>496300</v>
       </c>
       <c r="G41" s="3">
-        <v>729300</v>
+        <v>721800</v>
       </c>
       <c r="H41" s="3">
-        <v>1080500</v>
+        <v>1069400</v>
       </c>
       <c r="I41" s="3">
-        <v>1503700</v>
+        <v>1488300</v>
       </c>
       <c r="J41" s="3">
-        <v>1650700</v>
+        <v>1633800</v>
       </c>
       <c r="K41" s="3">
         <v>2450200</v>
@@ -3183,25 +3183,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>1348800</v>
+        <v>1335000</v>
       </c>
       <c r="E42" s="3">
-        <v>2653400</v>
+        <v>2626200</v>
       </c>
       <c r="F42" s="3">
-        <v>3077200</v>
+        <v>3045700</v>
       </c>
       <c r="G42" s="3">
-        <v>2822400</v>
+        <v>2793500</v>
       </c>
       <c r="H42" s="3">
-        <v>3259200</v>
+        <v>3225800</v>
       </c>
       <c r="I42" s="3">
-        <v>2005000</v>
+        <v>1984500</v>
       </c>
       <c r="J42" s="3">
-        <v>2309200</v>
+        <v>2285600</v>
       </c>
       <c r="K42" s="3">
         <v>1313500</v>
@@ -3266,25 +3266,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>190800</v>
+        <v>415600</v>
       </c>
       <c r="E43" s="3">
-        <v>186400</v>
+        <v>184500</v>
       </c>
       <c r="F43" s="3">
-        <v>205400</v>
+        <v>203300</v>
       </c>
       <c r="G43" s="3">
-        <v>183100</v>
+        <v>181200</v>
       </c>
       <c r="H43" s="3">
-        <v>491700</v>
+        <v>486700</v>
       </c>
       <c r="I43" s="3">
-        <v>193500</v>
+        <v>191500</v>
       </c>
       <c r="J43" s="3">
-        <v>197900</v>
+        <v>195900</v>
       </c>
       <c r="K43" s="3">
         <v>152100</v>
@@ -3432,25 +3432,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>511300</v>
+        <v>279400</v>
       </c>
       <c r="E45" s="3">
-        <v>590400</v>
+        <v>584400</v>
       </c>
       <c r="F45" s="3">
-        <v>575700</v>
+        <v>569800</v>
       </c>
       <c r="G45" s="3">
-        <v>677900</v>
+        <v>671000</v>
       </c>
       <c r="H45" s="3">
-        <v>403100</v>
+        <v>399000</v>
       </c>
       <c r="I45" s="3">
-        <v>573900</v>
+        <v>568000</v>
       </c>
       <c r="J45" s="3">
-        <v>566500</v>
+        <v>560700</v>
       </c>
       <c r="K45" s="3">
         <v>475300</v>
@@ -3515,25 +3515,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>3511900</v>
+        <v>3476000</v>
       </c>
       <c r="E46" s="3">
-        <v>4215300</v>
+        <v>4172100</v>
       </c>
       <c r="F46" s="3">
-        <v>4359800</v>
+        <v>4315200</v>
       </c>
       <c r="G46" s="3">
-        <v>4412600</v>
+        <v>4367500</v>
       </c>
       <c r="H46" s="3">
-        <v>5234500</v>
+        <v>5180900</v>
       </c>
       <c r="I46" s="3">
-        <v>4276100</v>
+        <v>4232300</v>
       </c>
       <c r="J46" s="3">
-        <v>4724300</v>
+        <v>4676000</v>
       </c>
       <c r="K46" s="3">
         <v>4391100</v>
@@ -3598,25 +3598,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>811600</v>
+        <v>803300</v>
       </c>
       <c r="E47" s="3">
-        <v>848500</v>
+        <v>839800</v>
       </c>
       <c r="F47" s="3">
-        <v>912600</v>
+        <v>903300</v>
       </c>
       <c r="G47" s="3">
-        <v>854100</v>
+        <v>845400</v>
       </c>
       <c r="H47" s="3">
-        <v>790300</v>
+        <v>782200</v>
       </c>
       <c r="I47" s="3">
-        <v>601200</v>
+        <v>595100</v>
       </c>
       <c r="J47" s="3">
-        <v>442400</v>
+        <v>437900</v>
       </c>
       <c r="K47" s="3">
         <v>301700</v>
@@ -3681,25 +3681,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>176200</v>
+        <v>174400</v>
       </c>
       <c r="E48" s="3">
-        <v>198600</v>
+        <v>196600</v>
       </c>
       <c r="F48" s="3">
-        <v>212800</v>
+        <v>210600</v>
       </c>
       <c r="G48" s="3">
-        <v>187200</v>
+        <v>185200</v>
       </c>
       <c r="H48" s="3">
+        <v>191900</v>
+      </c>
+      <c r="I48" s="3">
         <v>193900</v>
       </c>
-      <c r="I48" s="3">
-        <v>195900</v>
-      </c>
       <c r="J48" s="3">
-        <v>156200</v>
+        <v>154600</v>
       </c>
       <c r="K48" s="3">
         <v>125400</v>
@@ -3764,25 +3764,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1012800</v>
+        <v>1002400</v>
       </c>
       <c r="E49" s="3">
-        <v>1049800</v>
+        <v>1039100</v>
       </c>
       <c r="F49" s="3">
-        <v>1049700</v>
+        <v>1038900</v>
       </c>
       <c r="G49" s="3">
-        <v>1005600</v>
+        <v>995300</v>
       </c>
       <c r="H49" s="3">
-        <v>886700</v>
+        <v>877600</v>
       </c>
       <c r="I49" s="3">
-        <v>702700</v>
+        <v>695500</v>
       </c>
       <c r="J49" s="3">
-        <v>642900</v>
+        <v>636400</v>
       </c>
       <c r="K49" s="3">
         <v>614200</v>
@@ -4013,25 +4013,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>495100</v>
+        <v>490100</v>
       </c>
       <c r="E52" s="3">
-        <v>524200</v>
+        <v>518800</v>
       </c>
       <c r="F52" s="3">
-        <v>431200</v>
+        <v>426800</v>
       </c>
       <c r="G52" s="3">
-        <v>420900</v>
+        <v>416600</v>
       </c>
       <c r="H52" s="3">
-        <v>370500</v>
+        <v>366700</v>
       </c>
       <c r="I52" s="3">
-        <v>323200</v>
+        <v>319900</v>
       </c>
       <c r="J52" s="3">
-        <v>252000</v>
+        <v>249400</v>
       </c>
       <c r="K52" s="3">
         <v>192500</v>
@@ -4179,25 +4179,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>6007700</v>
+        <v>5946200</v>
       </c>
       <c r="E54" s="3">
-        <v>6836400</v>
+        <v>6766400</v>
       </c>
       <c r="F54" s="3">
-        <v>6966100</v>
+        <v>6894800</v>
       </c>
       <c r="G54" s="3">
-        <v>6880400</v>
+        <v>6810000</v>
       </c>
       <c r="H54" s="3">
-        <v>7475900</v>
+        <v>7399400</v>
       </c>
       <c r="I54" s="3">
-        <v>6099100</v>
+        <v>6036700</v>
       </c>
       <c r="J54" s="3">
-        <v>6217800</v>
+        <v>6154100</v>
       </c>
       <c r="K54" s="3">
         <v>5624900</v>
@@ -4324,25 +4324,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>616400</v>
+        <v>610100</v>
       </c>
       <c r="E57" s="3">
-        <v>679500</v>
+        <v>672500</v>
       </c>
       <c r="F57" s="3">
-        <v>790100</v>
+        <v>782000</v>
       </c>
       <c r="G57" s="3">
-        <v>617800</v>
+        <v>611500</v>
       </c>
       <c r="H57" s="3">
-        <v>626300</v>
+        <v>619900</v>
       </c>
       <c r="I57" s="3">
-        <v>603000</v>
+        <v>596800</v>
       </c>
       <c r="J57" s="3">
-        <v>521000</v>
+        <v>515700</v>
       </c>
       <c r="K57" s="3">
         <v>431500</v>
@@ -4407,25 +4407,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>951000</v>
+        <v>941200</v>
       </c>
       <c r="E58" s="3">
-        <v>998700</v>
+        <v>988500</v>
       </c>
       <c r="F58" s="3">
-        <v>208100</v>
+        <v>206000</v>
       </c>
       <c r="G58" s="3">
-        <v>214300</v>
+        <v>212100</v>
       </c>
       <c r="H58" s="3">
-        <v>177000</v>
+        <v>175100</v>
       </c>
       <c r="I58" s="3">
-        <v>134200</v>
+        <v>132800</v>
       </c>
       <c r="J58" s="3">
-        <v>55800</v>
+        <v>55200</v>
       </c>
       <c r="K58" s="3">
         <v>13900</v>
@@ -4490,25 +4490,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>887600</v>
+        <v>878500</v>
       </c>
       <c r="E59" s="3">
-        <v>896900</v>
+        <v>887700</v>
       </c>
       <c r="F59" s="3">
-        <v>867600</v>
+        <v>858700</v>
       </c>
       <c r="G59" s="3">
-        <v>795900</v>
+        <v>787800</v>
       </c>
       <c r="H59" s="3">
-        <v>930400</v>
+        <v>920800</v>
       </c>
       <c r="I59" s="3">
-        <v>820600</v>
+        <v>812200</v>
       </c>
       <c r="J59" s="3">
-        <v>773000</v>
+        <v>765100</v>
       </c>
       <c r="K59" s="3">
         <v>604400</v>
@@ -4573,25 +4573,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>2455000</v>
+        <v>2429800</v>
       </c>
       <c r="E60" s="3">
-        <v>2575000</v>
+        <v>2548700</v>
       </c>
       <c r="F60" s="3">
-        <v>1865800</v>
+        <v>1846700</v>
       </c>
       <c r="G60" s="3">
-        <v>1628000</v>
+        <v>1611400</v>
       </c>
       <c r="H60" s="3">
-        <v>1733600</v>
+        <v>1715900</v>
       </c>
       <c r="I60" s="3">
-        <v>1557800</v>
+        <v>1541800</v>
       </c>
       <c r="J60" s="3">
-        <v>1349800</v>
+        <v>1336000</v>
       </c>
       <c r="K60" s="3">
         <v>1049800</v>
@@ -4656,25 +4656,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1247100</v>
+        <v>1234300</v>
       </c>
       <c r="E61" s="3">
-        <v>1766800</v>
+        <v>1748700</v>
       </c>
       <c r="F61" s="3">
-        <v>2430400</v>
+        <v>2405500</v>
       </c>
       <c r="G61" s="3">
-        <v>2361500</v>
+        <v>2337300</v>
       </c>
       <c r="H61" s="3">
-        <v>2554200</v>
+        <v>2528000</v>
       </c>
       <c r="I61" s="3">
-        <v>1128400</v>
+        <v>1116800</v>
       </c>
       <c r="J61" s="3">
-        <v>1174000</v>
+        <v>1162000</v>
       </c>
       <c r="K61" s="3">
         <v>1157100</v>
@@ -4739,25 +4739,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>117000</v>
+        <v>115800</v>
       </c>
       <c r="E62" s="3">
-        <v>118600</v>
+        <v>117400</v>
       </c>
       <c r="F62" s="3">
-        <v>93000</v>
+        <v>92000</v>
       </c>
       <c r="G62" s="3">
-        <v>94300</v>
+        <v>93400</v>
       </c>
       <c r="H62" s="3">
-        <v>69200</v>
+        <v>68500</v>
       </c>
       <c r="I62" s="3">
-        <v>48900</v>
+        <v>48400</v>
       </c>
       <c r="J62" s="3">
-        <v>41000</v>
+        <v>40600</v>
       </c>
       <c r="K62" s="3">
         <v>43900</v>
@@ -5071,25 +5071,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>3819200</v>
+        <v>3780200</v>
       </c>
       <c r="E66" s="3">
-        <v>4461000</v>
+        <v>4415300</v>
       </c>
       <c r="F66" s="3">
-        <v>4390100</v>
+        <v>4345200</v>
       </c>
       <c r="G66" s="3">
-        <v>4085300</v>
+        <v>4043500</v>
       </c>
       <c r="H66" s="3">
-        <v>4358800</v>
+        <v>4314200</v>
       </c>
       <c r="I66" s="3">
-        <v>2740400</v>
+        <v>2712300</v>
       </c>
       <c r="J66" s="3">
-        <v>2571400</v>
+        <v>2545100</v>
       </c>
       <c r="K66" s="3">
         <v>2274200</v>
@@ -5516,8 +5516,8 @@
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D72" s="3" t="s">
-        <v>16</v>
+      <c r="D72" s="3">
+        <v>-3048200</v>
       </c>
       <c r="E72" s="3" t="s">
         <v>16</v>
@@ -5529,7 +5529,7 @@
         <v>16</v>
       </c>
       <c r="H72" s="3">
-        <v>-2003000</v>
+        <v>-1982500</v>
       </c>
       <c r="I72" s="3" t="s">
         <v>16</v>
@@ -5849,25 +5849,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2188500</v>
+        <v>2166100</v>
       </c>
       <c r="E76" s="3">
-        <v>2375400</v>
+        <v>2351100</v>
       </c>
       <c r="F76" s="3">
-        <v>2576000</v>
+        <v>2549600</v>
       </c>
       <c r="G76" s="3">
-        <v>2795100</v>
+        <v>2766500</v>
       </c>
       <c r="H76" s="3">
-        <v>3117100</v>
+        <v>3085200</v>
       </c>
       <c r="I76" s="3">
-        <v>3358800</v>
+        <v>3324400</v>
       </c>
       <c r="J76" s="3">
-        <v>3646300</v>
+        <v>3609000</v>
       </c>
       <c r="K76" s="3">
         <v>3350700</v>
@@ -6103,25 +6103,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-214700</v>
+        <v>-212500</v>
       </c>
       <c r="E81" s="3">
-        <v>-246100</v>
+        <v>-243600</v>
       </c>
       <c r="F81" s="3">
-        <v>-288200</v>
+        <v>-285300</v>
       </c>
       <c r="G81" s="3">
-        <v>-327700</v>
+        <v>-324400</v>
       </c>
       <c r="H81" s="3">
-        <v>-299900</v>
+        <v>-296800</v>
       </c>
       <c r="I81" s="3">
-        <v>-384500</v>
+        <v>-380500</v>
       </c>
       <c r="J81" s="3">
-        <v>-160900</v>
+        <v>-159300</v>
       </c>
       <c r="K81" s="3">
         <v>-125800</v>

--- a/AAII_Financials/Quarterly/BILI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BILI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="92">
   <si>
     <t>BILI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AC102"/>
+  <dimension ref="A5:AE102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,371 +665,397 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43465</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43373</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>43281</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>43190</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>43100</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>43008</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AB7" s="2">
         <v>42916</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AC7" s="2">
         <v>42825</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AD7" s="2">
         <v>42735</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AE7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>873200</v>
+        <v>730800</v>
       </c>
       <c r="E8" s="3">
-        <v>823600</v>
+        <v>698500</v>
       </c>
       <c r="F8" s="3">
-        <v>697800</v>
+        <v>846300</v>
       </c>
       <c r="G8" s="3">
-        <v>718400</v>
+        <v>798300</v>
       </c>
       <c r="H8" s="3">
-        <v>821700</v>
+        <v>676300</v>
       </c>
       <c r="I8" s="3">
+        <v>696400</v>
+      </c>
+      <c r="J8" s="3">
+        <v>796500</v>
+      </c>
+      <c r="K8" s="3">
         <v>740100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>639000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>543000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>534500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>471000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>385700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>362500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>309200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>290000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>234900</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>208900</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>167800</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>151000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>147300</v>
       </c>
-      <c r="W8" s="3">
+      <c r="Y8" s="3">
         <v>124500</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Z8" s="3">
         <v>108900</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="AA8" s="3">
         <v>108000</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AB8" s="3">
         <v>86500</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AC8" s="3">
         <v>61700</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AD8" s="3">
         <v>31600</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AE8" s="3">
         <v>44500</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>695500</v>
+        <v>561700</v>
       </c>
       <c r="E9" s="3">
-        <v>673700</v>
+        <v>546400</v>
       </c>
       <c r="F9" s="3">
-        <v>592900</v>
+        <v>674100</v>
       </c>
       <c r="G9" s="3">
-        <v>603700</v>
+        <v>653000</v>
       </c>
       <c r="H9" s="3">
-        <v>665700</v>
+        <v>574600</v>
       </c>
       <c r="I9" s="3">
+        <v>585100</v>
+      </c>
+      <c r="J9" s="3">
+        <v>645200</v>
+      </c>
+      <c r="K9" s="3">
         <v>595300</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>498400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>412500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>403100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>359800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>296700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>279500</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>247900</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>235200</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>196500</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>180100</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>139200</v>
       </c>
-      <c r="U9" s="3">
+      <c r="W9" s="3">
         <v>123800</v>
       </c>
-      <c r="V9" s="3">
+      <c r="X9" s="3">
         <v>111300</v>
       </c>
-      <c r="W9" s="3">
+      <c r="Y9" s="3">
         <v>94000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Z9" s="3">
         <v>82800</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="AA9" s="3">
         <v>82100</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AB9" s="3">
         <v>66100</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AC9" s="3">
         <v>52800</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AD9" s="3">
         <v>35200</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AE9" s="3">
         <v>77100</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>177600</v>
+        <v>169100</v>
       </c>
       <c r="E10" s="3">
-        <v>149900</v>
+        <v>152100</v>
       </c>
       <c r="F10" s="3">
-        <v>104900</v>
+        <v>172200</v>
       </c>
       <c r="G10" s="3">
-        <v>114700</v>
+        <v>145300</v>
       </c>
       <c r="H10" s="3">
-        <v>156100</v>
+        <v>101700</v>
       </c>
       <c r="I10" s="3">
+        <v>111200</v>
+      </c>
+      <c r="J10" s="3">
+        <v>151300</v>
+      </c>
+      <c r="K10" s="3">
         <v>144800</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>140600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>130600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>131400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>111200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>89000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>83000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>61300</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>54800</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>38500</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>28800</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <v>28600</v>
       </c>
-      <c r="U10" s="3">
+      <c r="W10" s="3">
         <v>27200</v>
       </c>
-      <c r="V10" s="3">
+      <c r="X10" s="3">
         <v>36000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="Y10" s="3">
         <v>30600</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Z10" s="3">
         <v>26100</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="AA10" s="3">
         <v>25900</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AB10" s="3">
         <v>20400</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AC10" s="3">
         <v>8900</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AD10" s="3">
         <v>-3600</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AE10" s="3">
         <v>-32700</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1059,91 +1085,99 @@
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD11" s="3"/>
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>212300</v>
+        <v>144300</v>
       </c>
       <c r="E12" s="3">
-        <v>160800</v>
+        <v>141500</v>
       </c>
       <c r="F12" s="3">
-        <v>160900</v>
+        <v>205800</v>
       </c>
       <c r="G12" s="3">
-        <v>143400</v>
+        <v>155800</v>
       </c>
       <c r="H12" s="3">
-        <v>113400</v>
+        <v>155900</v>
       </c>
       <c r="I12" s="3">
+        <v>139000</v>
+      </c>
+      <c r="J12" s="3">
+        <v>109900</v>
+      </c>
+      <c r="K12" s="3">
         <v>112100</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>95800</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>80800</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>67400</v>
       </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
         <v>58600</v>
       </c>
-      <c r="N12" s="3">
+      <c r="P12" s="3">
         <v>48700</v>
       </c>
-      <c r="O12" s="3">
+      <c r="Q12" s="3">
         <v>46600</v>
       </c>
-      <c r="P12" s="3">
+      <c r="R12" s="3">
         <v>37800</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="S12" s="3">
         <v>38600</v>
       </c>
-      <c r="R12" s="3">
+      <c r="T12" s="3">
         <v>33000</v>
       </c>
-      <c r="S12" s="3">
+      <c r="U12" s="3">
         <v>28300</v>
       </c>
-      <c r="T12" s="3">
+      <c r="V12" s="3">
         <v>22300</v>
       </c>
-      <c r="U12" s="3">
+      <c r="W12" s="3">
         <v>20500</v>
       </c>
-      <c r="V12" s="3">
+      <c r="X12" s="3">
         <v>18900</v>
       </c>
-      <c r="W12" s="3">
+      <c r="Y12" s="3">
         <v>15200</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Z12" s="3">
         <v>12900</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="AA12" s="3">
         <v>11100</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AB12" s="3">
         <v>9400</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AC12" s="3">
         <v>8000</v>
       </c>
-      <c r="AB12" s="3">
+      <c r="AD12" s="3">
         <v>4300</v>
       </c>
-      <c r="AC12" s="3">
+      <c r="AE12" s="3">
         <v>9000</v>
       </c>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1225,19 +1259,25 @@
       <c r="AC13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>-187400</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>16</v>
+        <v>7400</v>
+      </c>
+      <c r="E14" s="3">
+        <v>-46400</v>
+      </c>
+      <c r="F14" s="3">
+        <v>-181700</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>16</v>
@@ -1251,11 +1291,11 @@
       <c r="J14" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="M14" s="3">
         <v>0</v>
@@ -1308,8 +1348,14 @@
       <c r="AC14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1391,8 +1437,14 @@
       <c r="AC15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1419,174 +1471,188 @@
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
-    </row>
-    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD16" s="3"/>
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>1016500</v>
+        <v>914300</v>
       </c>
       <c r="E17" s="3">
-        <v>1086400</v>
+        <v>841500</v>
       </c>
       <c r="F17" s="3">
-        <v>1009300</v>
+        <v>985300</v>
       </c>
       <c r="G17" s="3">
-        <v>1001400</v>
+        <v>1053000</v>
       </c>
       <c r="H17" s="3">
-        <v>1106000</v>
+        <v>978200</v>
       </c>
       <c r="I17" s="3">
+        <v>970600</v>
+      </c>
+      <c r="J17" s="3">
+        <v>1072000</v>
+      </c>
+      <c r="K17" s="3">
         <v>1007100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>855100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>686500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>660300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>629200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>475600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>447700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>373800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>356000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>287700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>255600</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>209800</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>187200</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>162600</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>135200</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Z17" s="3">
         <v>118100</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="AA17" s="3">
         <v>112700</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AB17" s="3">
         <v>94300</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AC17" s="3">
         <v>73000</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AD17" s="3">
         <v>87300</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AE17" s="3">
         <v>118900</v>
       </c>
     </row>
-    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>-143400</v>
+        <v>-183500</v>
       </c>
       <c r="E18" s="3">
-        <v>-262800</v>
+        <v>-143000</v>
       </c>
       <c r="F18" s="3">
-        <v>-311500</v>
+        <v>-139000</v>
       </c>
       <c r="G18" s="3">
-        <v>-283000</v>
+        <v>-254700</v>
       </c>
       <c r="H18" s="3">
-        <v>-284200</v>
+        <v>-301900</v>
       </c>
       <c r="I18" s="3">
+        <v>-274300</v>
+      </c>
+      <c r="J18" s="3">
+        <v>-275500</v>
+      </c>
+      <c r="K18" s="3">
         <v>-267000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-216100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-143500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-125800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-158200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-89900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-85200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-64700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>-66000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>-52800</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>-46700</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>-41900</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>-36300</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>-15300</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>-10700</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Z18" s="3">
         <v>-9200</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="AA18" s="3">
         <v>-4700</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AB18" s="3">
         <v>-7800</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AC18" s="3">
         <v>-11300</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AD18" s="3">
         <v>-55700</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AE18" s="3">
         <v>-74500</v>
       </c>
     </row>
-    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1616,91 +1682,99 @@
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
-    </row>
-    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD19" s="3"/>
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>-57500</v>
+        <v>-19900</v>
       </c>
       <c r="E20" s="3">
-        <v>31800</v>
+        <v>68600</v>
       </c>
       <c r="F20" s="3">
-        <v>38200</v>
+        <v>-55700</v>
       </c>
       <c r="G20" s="3">
-        <v>-28600</v>
+        <v>30800</v>
       </c>
       <c r="H20" s="3">
+        <v>37000</v>
+      </c>
+      <c r="I20" s="3">
+        <v>-27700</v>
+      </c>
+      <c r="J20" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="K20" s="3">
+        <v>-105700</v>
+      </c>
+      <c r="L20" s="3">
+        <v>64800</v>
+      </c>
+      <c r="M20" s="3">
+        <v>23900</v>
+      </c>
+      <c r="N20" s="3">
+        <v>15200</v>
+      </c>
+      <c r="O20" s="3">
+        <v>5200</v>
+      </c>
+      <c r="P20" s="3">
+        <v>10900</v>
+      </c>
+      <c r="Q20" s="3">
+        <v>4700</v>
+      </c>
+      <c r="R20" s="3">
+        <v>8400</v>
+      </c>
+      <c r="S20" s="3">
+        <v>6500</v>
+      </c>
+      <c r="T20" s="3">
+        <v>9000</v>
+      </c>
+      <c r="U20" s="3">
+        <v>18100</v>
+      </c>
+      <c r="V20" s="3">
+        <v>15500</v>
+      </c>
+      <c r="W20" s="3">
+        <v>3400</v>
+      </c>
+      <c r="X20" s="3">
+        <v>5600</v>
+      </c>
+      <c r="Y20" s="3">
+        <v>2800</v>
+      </c>
+      <c r="Z20" s="3">
+        <v>1900</v>
+      </c>
+      <c r="AA20" s="3">
+        <v>2900</v>
+      </c>
+      <c r="AB20" s="3">
+        <v>700</v>
+      </c>
+      <c r="AC20" s="3">
+        <v>1800</v>
+      </c>
+      <c r="AD20" s="3">
         <v>-1900</v>
       </c>
-      <c r="I20" s="3">
-        <v>-105700</v>
-      </c>
-      <c r="J20" s="3">
-        <v>64800</v>
-      </c>
-      <c r="K20" s="3">
-        <v>23900</v>
-      </c>
-      <c r="L20" s="3">
-        <v>15200</v>
-      </c>
-      <c r="M20" s="3">
-        <v>5200</v>
-      </c>
-      <c r="N20" s="3">
-        <v>10900</v>
-      </c>
-      <c r="O20" s="3">
-        <v>4700</v>
-      </c>
-      <c r="P20" s="3">
-        <v>8400</v>
-      </c>
-      <c r="Q20" s="3">
-        <v>6500</v>
-      </c>
-      <c r="R20" s="3">
-        <v>9000</v>
-      </c>
-      <c r="S20" s="3">
-        <v>18100</v>
-      </c>
-      <c r="T20" s="3">
-        <v>15500</v>
-      </c>
-      <c r="U20" s="3">
-        <v>3400</v>
-      </c>
-      <c r="V20" s="3">
-        <v>5600</v>
-      </c>
-      <c r="W20" s="3">
-        <v>2800</v>
-      </c>
-      <c r="X20" s="3">
-        <v>1900</v>
-      </c>
-      <c r="Y20" s="3">
-        <v>2900</v>
-      </c>
-      <c r="Z20" s="3">
-        <v>700</v>
-      </c>
-      <c r="AA20" s="3">
-        <v>1800</v>
-      </c>
-      <c r="AB20" s="3">
-        <v>-1900</v>
-      </c>
-      <c r="AC20" s="3">
+      <c r="AE20" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
@@ -1728,24 +1802,24 @@
       <c r="K21" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="L21" s="3">
+      <c r="L21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N21" s="3">
         <v>129100</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="N21" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="O21" s="3">
+      <c r="O21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="P21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q21" s="3">
         <v>-26800</v>
       </c>
-      <c r="P21" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q21" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="R21" s="3" t="s">
         <v>16</v>
       </c>
@@ -1764,80 +1838,86 @@
       <c r="W21" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="X21" s="3">
+      <c r="X21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z21" s="3">
         <v>37900</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="AA21" s="3">
         <v>27000</v>
       </c>
-      <c r="Z21" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="AA21" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="AB21" s="3">
+      <c r="AB21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AD21" s="3">
         <v>-34100</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AE21" s="3">
         <v>-58200</v>
       </c>
     </row>
-    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>9000</v>
+        <v>6600</v>
       </c>
       <c r="E22" s="3">
-        <v>9100</v>
+        <v>8000</v>
       </c>
       <c r="F22" s="3">
-        <v>8700</v>
+        <v>8800</v>
       </c>
       <c r="G22" s="3">
-        <v>8900</v>
+        <v>8800</v>
       </c>
       <c r="H22" s="3">
-        <v>7100</v>
+        <v>8400</v>
       </c>
       <c r="I22" s="3">
+        <v>8600</v>
+      </c>
+      <c r="J22" s="3">
+        <v>6900</v>
+      </c>
+      <c r="K22" s="3">
         <v>5200</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>5100</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>4600</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>4800</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>5300</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>3300</v>
       </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>2400</v>
       </c>
-      <c r="P22" s="3">
+      <c r="R22" s="3">
         <v>2300</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="S22" s="3">
         <v>2500</v>
       </c>
-      <c r="R22" s="3">
+      <c r="T22" s="3">
         <v>2400</v>
       </c>
-      <c r="S22" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="T22" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="U22" s="3" t="s">
         <v>16</v>
       </c>
@@ -1847,11 +1927,11 @@
       <c r="W22" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="X22" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y22" s="3">
-        <v>0</v>
+      <c r="X22" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y22" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="Z22" s="3">
         <v>0</v>
@@ -1865,174 +1945,192 @@
       <c r="AC22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-209900</v>
+        <v>-210000</v>
       </c>
       <c r="E23" s="3">
-        <v>-240100</v>
+        <v>-82400</v>
       </c>
       <c r="F23" s="3">
-        <v>-282000</v>
+        <v>-203400</v>
       </c>
       <c r="G23" s="3">
-        <v>-320500</v>
+        <v>-232700</v>
       </c>
       <c r="H23" s="3">
-        <v>-293300</v>
+        <v>-273300</v>
       </c>
       <c r="I23" s="3">
+        <v>-310600</v>
+      </c>
+      <c r="J23" s="3">
+        <v>-284200</v>
+      </c>
+      <c r="K23" s="3">
         <v>-377800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-156400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-124200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-115400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-158200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-82400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-82800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-58600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-62000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>-46200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>-28500</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>-26400</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>-32900</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>-9700</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>-7800</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Z23" s="3">
         <v>-7300</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="AA23" s="3">
         <v>-1800</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AB23" s="3">
         <v>-7100</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AC23" s="3">
         <v>-9500</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AD23" s="3">
         <v>-57600</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AE23" s="3">
         <v>-74500</v>
       </c>
     </row>
-    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>2900</v>
+        <v>3300</v>
       </c>
       <c r="E24" s="3">
-        <v>3800</v>
+        <v>4400</v>
       </c>
       <c r="F24" s="3">
-        <v>3800</v>
+        <v>2800</v>
       </c>
       <c r="G24" s="3">
-        <v>4200</v>
+        <v>3700</v>
       </c>
       <c r="H24" s="3">
-        <v>4700</v>
+        <v>3700</v>
       </c>
       <c r="I24" s="3">
+        <v>4100</v>
+      </c>
+      <c r="J24" s="3">
+        <v>4500</v>
+      </c>
+      <c r="K24" s="3">
         <v>4000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>3100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>1700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>2100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>2500</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>1800</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>1500</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>1100</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>1300</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>1900</v>
       </c>
-      <c r="S24" s="3">
+      <c r="U24" s="3">
         <v>1200</v>
       </c>
-      <c r="T24" s="3">
+      <c r="V24" s="3">
         <v>1300</v>
       </c>
-      <c r="U24" s="3">
+      <c r="W24" s="3">
         <v>1600</v>
       </c>
-      <c r="V24" s="3">
+      <c r="X24" s="3">
         <v>300</v>
       </c>
-      <c r="W24" s="3">
+      <c r="Y24" s="3">
         <v>500</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Z24" s="3">
         <v>400</v>
-      </c>
-      <c r="Y24" s="3">
-        <v>300</v>
-      </c>
-      <c r="Z24" s="3">
-        <v>300</v>
       </c>
       <c r="AA24" s="3">
         <v>300</v>
       </c>
       <c r="AB24" s="3">
+        <v>300</v>
+      </c>
+      <c r="AC24" s="3">
+        <v>300</v>
+      </c>
+      <c r="AD24" s="3">
         <v>500</v>
       </c>
-      <c r="AC24" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AE24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2114,174 +2212,192 @@
       <c r="AC25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-212800</v>
+        <v>-213300</v>
       </c>
       <c r="E26" s="3">
-        <v>-243900</v>
+        <v>-86800</v>
       </c>
       <c r="F26" s="3">
-        <v>-285800</v>
+        <v>-206300</v>
       </c>
       <c r="G26" s="3">
-        <v>-324700</v>
+        <v>-236400</v>
       </c>
       <c r="H26" s="3">
-        <v>-297900</v>
+        <v>-277000</v>
       </c>
       <c r="I26" s="3">
+        <v>-314700</v>
+      </c>
+      <c r="J26" s="3">
+        <v>-288800</v>
+      </c>
+      <c r="K26" s="3">
         <v>-381900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-159500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-126000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-117400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-160800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-84100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-84300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-59600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-63300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>-48100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>-29800</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>-27700</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>-34400</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>-10100</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>-8300</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Z26" s="3">
         <v>-7600</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="AA26" s="3">
         <v>-2200</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AB26" s="3">
         <v>-7500</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AC26" s="3">
         <v>-9800</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AD26" s="3">
         <v>-58000</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AE26" s="3">
         <v>-74500</v>
       </c>
     </row>
-    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-212500</v>
+        <v>-213100</v>
       </c>
       <c r="E27" s="3">
-        <v>-243600</v>
+        <v>-86500</v>
       </c>
       <c r="F27" s="3">
-        <v>-285300</v>
+        <v>-205900</v>
       </c>
       <c r="G27" s="3">
-        <v>-324400</v>
+        <v>-236100</v>
       </c>
       <c r="H27" s="3">
-        <v>-296800</v>
+        <v>-276500</v>
       </c>
       <c r="I27" s="3">
+        <v>-314400</v>
+      </c>
+      <c r="J27" s="3">
+        <v>-287700</v>
+      </c>
+      <c r="K27" s="3">
         <v>-380500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-159300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-125800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-115200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-158000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-83500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-83800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-58900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-63600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>-47800</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>-28300</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>-26100</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>-34300</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>-10200</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>-17200</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Z27" s="3">
         <v>-17800</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="AA27" s="3">
         <v>-12200</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AB27" s="3">
         <v>-36900</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AC27" s="3">
         <v>-17500</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AD27" s="3">
         <v>-65400</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AE27" s="3">
         <v>-107000</v>
       </c>
     </row>
-    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2363,8 +2479,14 @@
       <c r="AC28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2446,8 +2568,14 @@
       <c r="AC29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2529,8 +2657,14 @@
       <c r="AC30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2612,174 +2746,192 @@
       <c r="AC31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>57500</v>
+        <v>19900</v>
       </c>
       <c r="E32" s="3">
-        <v>-31800</v>
+        <v>-68600</v>
       </c>
       <c r="F32" s="3">
-        <v>-38200</v>
+        <v>55700</v>
       </c>
       <c r="G32" s="3">
-        <v>28600</v>
+        <v>-30800</v>
       </c>
       <c r="H32" s="3">
+        <v>-37000</v>
+      </c>
+      <c r="I32" s="3">
+        <v>27700</v>
+      </c>
+      <c r="J32" s="3">
+        <v>1800</v>
+      </c>
+      <c r="K32" s="3">
+        <v>105700</v>
+      </c>
+      <c r="L32" s="3">
+        <v>-64800</v>
+      </c>
+      <c r="M32" s="3">
+        <v>-23900</v>
+      </c>
+      <c r="N32" s="3">
+        <v>-15200</v>
+      </c>
+      <c r="O32" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="P32" s="3">
+        <v>-10900</v>
+      </c>
+      <c r="Q32" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="R32" s="3">
+        <v>-8400</v>
+      </c>
+      <c r="S32" s="3">
+        <v>-6500</v>
+      </c>
+      <c r="T32" s="3">
+        <v>-9000</v>
+      </c>
+      <c r="U32" s="3">
+        <v>-18100</v>
+      </c>
+      <c r="V32" s="3">
+        <v>-15500</v>
+      </c>
+      <c r="W32" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="X32" s="3">
+        <v>-5600</v>
+      </c>
+      <c r="Y32" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="Z32" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="AA32" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="AB32" s="3">
+        <v>-700</v>
+      </c>
+      <c r="AC32" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="AD32" s="3">
         <v>1900</v>
       </c>
-      <c r="I32" s="3">
-        <v>105700</v>
-      </c>
-      <c r="J32" s="3">
-        <v>-64800</v>
-      </c>
-      <c r="K32" s="3">
-        <v>-23900</v>
-      </c>
-      <c r="L32" s="3">
-        <v>-15200</v>
-      </c>
-      <c r="M32" s="3">
-        <v>-5200</v>
-      </c>
-      <c r="N32" s="3">
-        <v>-10900</v>
-      </c>
-      <c r="O32" s="3">
-        <v>-4700</v>
-      </c>
-      <c r="P32" s="3">
-        <v>-8400</v>
-      </c>
-      <c r="Q32" s="3">
-        <v>-6500</v>
-      </c>
-      <c r="R32" s="3">
-        <v>-9000</v>
-      </c>
-      <c r="S32" s="3">
-        <v>-18100</v>
-      </c>
-      <c r="T32" s="3">
-        <v>-15500</v>
-      </c>
-      <c r="U32" s="3">
-        <v>-3400</v>
-      </c>
-      <c r="V32" s="3">
-        <v>-5600</v>
-      </c>
-      <c r="W32" s="3">
-        <v>-2800</v>
-      </c>
-      <c r="X32" s="3">
-        <v>-1900</v>
-      </c>
-      <c r="Y32" s="3">
-        <v>-2900</v>
-      </c>
-      <c r="Z32" s="3">
-        <v>-700</v>
-      </c>
-      <c r="AA32" s="3">
-        <v>-1800</v>
-      </c>
-      <c r="AB32" s="3">
-        <v>1900</v>
-      </c>
-      <c r="AC32" s="3">
+      <c r="AE32" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-212500</v>
+        <v>-213100</v>
       </c>
       <c r="E33" s="3">
-        <v>-243600</v>
+        <v>-86500</v>
       </c>
       <c r="F33" s="3">
-        <v>-285300</v>
+        <v>-205900</v>
       </c>
       <c r="G33" s="3">
-        <v>-324400</v>
+        <v>-236100</v>
       </c>
       <c r="H33" s="3">
-        <v>-296800</v>
+        <v>-276500</v>
       </c>
       <c r="I33" s="3">
+        <v>-314400</v>
+      </c>
+      <c r="J33" s="3">
+        <v>-287700</v>
+      </c>
+      <c r="K33" s="3">
         <v>-380500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-159300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-125800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-115200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-158000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-83500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-83800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-58900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-63600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>-47800</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>-28300</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>-26100</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>-34300</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>-10200</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>-17200</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Z33" s="3">
         <v>-17800</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="AA33" s="3">
         <v>-12200</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AB33" s="3">
         <v>-36900</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AC33" s="3">
         <v>-17500</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AD33" s="3">
         <v>-65400</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AE33" s="3">
         <v>-107000</v>
       </c>
     </row>
-    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2861,179 +3013,197 @@
       <c r="AC34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-212500</v>
+        <v>-213100</v>
       </c>
       <c r="E35" s="3">
-        <v>-243600</v>
+        <v>-86500</v>
       </c>
       <c r="F35" s="3">
-        <v>-285300</v>
+        <v>-205900</v>
       </c>
       <c r="G35" s="3">
-        <v>-324400</v>
+        <v>-236100</v>
       </c>
       <c r="H35" s="3">
-        <v>-296800</v>
+        <v>-276500</v>
       </c>
       <c r="I35" s="3">
+        <v>-314400</v>
+      </c>
+      <c r="J35" s="3">
+        <v>-287700</v>
+      </c>
+      <c r="K35" s="3">
         <v>-380500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-159300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-125800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-115200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-158000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-83500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-83800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-58900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-63600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>-47800</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>-28300</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>-26100</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>-34300</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>-10200</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>-17200</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Z35" s="3">
         <v>-17800</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="AA35" s="3">
         <v>-12200</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AB35" s="3">
         <v>-36900</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AC35" s="3">
         <v>-17500</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AD35" s="3">
         <v>-65400</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AE35" s="3">
         <v>-107000</v>
       </c>
     </row>
-    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43465</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43373</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>43281</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>43190</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>43100</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>43008</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AB38" s="2">
         <v>42916</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AC38" s="2">
         <v>42825</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AD38" s="2">
         <v>42735</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AE38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3063,8 +3233,10 @@
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
-    </row>
-    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD39" s="3"/>
+      <c r="AE39" s="3"/>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3094,257 +3266,277 @@
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
-    </row>
-    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD40" s="3"/>
+      <c r="AE40" s="3"/>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1446000</v>
+        <v>783500</v>
       </c>
       <c r="E41" s="3">
-        <v>777000</v>
+        <v>1407800</v>
       </c>
       <c r="F41" s="3">
-        <v>496300</v>
+        <v>1401600</v>
       </c>
       <c r="G41" s="3">
-        <v>721800</v>
+        <v>753100</v>
       </c>
       <c r="H41" s="3">
-        <v>1069400</v>
+        <v>481100</v>
       </c>
       <c r="I41" s="3">
+        <v>699600</v>
+      </c>
+      <c r="J41" s="3">
+        <v>1036500</v>
+      </c>
+      <c r="K41" s="3">
         <v>1488300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>1633800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>2450200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>651200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>865600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>898100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>695900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>764200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>652000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>711800</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>412900</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>514100</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>337000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>520100</v>
       </c>
-      <c r="W41" s="3">
+      <c r="Y41" s="3">
         <v>150800</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Z41" s="3">
         <v>113200</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="AA41" s="3">
         <v>58700</v>
       </c>
-      <c r="Z41" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="AA41" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="AB41" s="3" t="s">
         <v>16</v>
       </c>
       <c r="AC41" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD41" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE41" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>1335000</v>
+        <v>1186500</v>
       </c>
       <c r="E42" s="3">
-        <v>2626200</v>
+        <v>1263200</v>
       </c>
       <c r="F42" s="3">
-        <v>3045700</v>
+        <v>1294000</v>
       </c>
       <c r="G42" s="3">
-        <v>2793500</v>
+        <v>2545500</v>
       </c>
       <c r="H42" s="3">
-        <v>3225800</v>
+        <v>2952100</v>
       </c>
       <c r="I42" s="3">
+        <v>2707600</v>
+      </c>
+      <c r="J42" s="3">
+        <v>3126600</v>
+      </c>
+      <c r="K42" s="3">
         <v>1984500</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>2285600</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>1313500</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>1131500</v>
       </c>
-      <c r="M42" s="3">
+      <c r="O42" s="3">
         <v>1193300</v>
       </c>
-      <c r="N42" s="3">
+      <c r="P42" s="3">
         <v>1394300</v>
       </c>
-      <c r="O42" s="3">
+      <c r="Q42" s="3">
         <v>553000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="R42" s="3">
         <v>478200</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="S42" s="3">
         <v>657600</v>
       </c>
-      <c r="R42" s="3">
+      <c r="T42" s="3">
         <v>596400</v>
       </c>
-      <c r="S42" s="3">
+      <c r="U42" s="3">
         <v>278200</v>
       </c>
-      <c r="T42" s="3">
+      <c r="V42" s="3">
         <v>246100</v>
       </c>
-      <c r="U42" s="3">
+      <c r="W42" s="3">
         <v>150600</v>
       </c>
-      <c r="V42" s="3">
+      <c r="X42" s="3">
         <v>49900</v>
       </c>
-      <c r="W42" s="3">
+      <c r="Y42" s="3">
         <v>32800</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Z42" s="3">
         <v>75000</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="AA42" s="3">
         <v>159200</v>
       </c>
-      <c r="Z42" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="AA42" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="AB42" s="3" t="s">
         <v>16</v>
       </c>
       <c r="AC42" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD42" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE42" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>415600</v>
+        <v>188500</v>
       </c>
       <c r="E43" s="3">
-        <v>184500</v>
+        <v>175400</v>
       </c>
       <c r="F43" s="3">
-        <v>203300</v>
+        <v>402800</v>
       </c>
       <c r="G43" s="3">
-        <v>181200</v>
+        <v>178800</v>
       </c>
       <c r="H43" s="3">
-        <v>486700</v>
+        <v>197100</v>
       </c>
       <c r="I43" s="3">
+        <v>175600</v>
+      </c>
+      <c r="J43" s="3">
+        <v>471700</v>
+      </c>
+      <c r="K43" s="3">
         <v>191500</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>195900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>152100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>196600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>173200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>113900</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>173700</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>144800</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>111700</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>70700</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>86000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="V43" s="3">
         <v>47100</v>
       </c>
-      <c r="U43" s="3">
+      <c r="W43" s="3">
         <v>55900</v>
       </c>
-      <c r="V43" s="3">
+      <c r="X43" s="3">
         <v>54500</v>
       </c>
-      <c r="W43" s="3">
+      <c r="Y43" s="3">
         <v>65400</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Z43" s="3">
         <v>67500</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="AA43" s="3">
         <v>61600</v>
       </c>
-      <c r="Z43" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="AA43" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="AB43" s="3" t="s">
         <v>16</v>
       </c>
       <c r="AC43" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD43" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE43" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3369,27 +3561,27 @@
       <c r="J44" s="3">
         <v>0</v>
       </c>
-      <c r="K44" s="3" t="s">
-        <v>16</v>
+      <c r="K44" s="3">
+        <v>0</v>
       </c>
       <c r="L44" s="3">
+        <v>0</v>
+      </c>
+      <c r="M44" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N44" s="3">
         <v>22300</v>
       </c>
-      <c r="M44" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="N44" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="O44" s="3">
+      <c r="O44" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="P44" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q44" s="3">
         <v>6700</v>
       </c>
-      <c r="P44" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q44" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="R44" s="3" t="s">
         <v>16</v>
       </c>
@@ -3408,441 +3600,477 @@
       <c r="W44" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="X44" s="3">
+      <c r="X44" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y44" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z44" s="3">
         <v>1500</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="AA44" s="3">
         <v>1300</v>
       </c>
-      <c r="Z44" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="AA44" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="AB44" s="3" t="s">
         <v>16</v>
       </c>
       <c r="AC44" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD44" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE44" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>279400</v>
+        <v>419400</v>
       </c>
       <c r="E45" s="3">
-        <v>584400</v>
+        <v>455400</v>
       </c>
       <c r="F45" s="3">
-        <v>569800</v>
+        <v>270800</v>
       </c>
       <c r="G45" s="3">
-        <v>671000</v>
+        <v>566400</v>
       </c>
       <c r="H45" s="3">
-        <v>399000</v>
+        <v>552300</v>
       </c>
       <c r="I45" s="3">
+        <v>650300</v>
+      </c>
+      <c r="J45" s="3">
+        <v>386800</v>
+      </c>
+      <c r="K45" s="3">
         <v>568000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>560700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>475300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>189300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>264400</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>285200</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>172800</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>202600</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>254300</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>252000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>182300</v>
       </c>
-      <c r="T45" s="3">
+      <c r="V45" s="3">
         <v>143900</v>
       </c>
-      <c r="U45" s="3">
+      <c r="W45" s="3">
         <v>111900</v>
       </c>
-      <c r="V45" s="3">
+      <c r="X45" s="3">
         <v>103000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="Y45" s="3">
         <v>104400</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Z45" s="3">
         <v>62300</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="AA45" s="3">
         <v>58500</v>
       </c>
-      <c r="Z45" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="AA45" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="AB45" s="3" t="s">
         <v>16</v>
       </c>
       <c r="AC45" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD45" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE45" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>3476000</v>
+        <v>2578000</v>
       </c>
       <c r="E46" s="3">
-        <v>4172100</v>
+        <v>3301800</v>
       </c>
       <c r="F46" s="3">
-        <v>4315200</v>
+        <v>3369100</v>
       </c>
       <c r="G46" s="3">
-        <v>4367500</v>
+        <v>4043900</v>
       </c>
       <c r="H46" s="3">
-        <v>5180900</v>
+        <v>4182500</v>
       </c>
       <c r="I46" s="3">
+        <v>4233200</v>
+      </c>
+      <c r="J46" s="3">
+        <v>5021600</v>
+      </c>
+      <c r="K46" s="3">
         <v>4232300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>4676000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>4391100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>2190900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>2496600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>2691500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>1602100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>1589700</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>1675500</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>1630900</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>959400</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>951300</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>655400</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>727500</v>
       </c>
-      <c r="W46" s="3">
+      <c r="Y46" s="3">
         <v>353400</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Z46" s="3">
         <v>319500</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="AA46" s="3">
         <v>339400</v>
       </c>
-      <c r="Z46" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="AA46" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="AB46" s="3" t="s">
         <v>16</v>
       </c>
       <c r="AC46" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD46" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE46" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>803300</v>
+        <v>719700</v>
       </c>
       <c r="E47" s="3">
-        <v>839800</v>
+        <v>787700</v>
       </c>
       <c r="F47" s="3">
-        <v>903300</v>
+        <v>778600</v>
       </c>
       <c r="G47" s="3">
-        <v>845400</v>
+        <v>814000</v>
       </c>
       <c r="H47" s="3">
-        <v>782200</v>
+        <v>875500</v>
       </c>
       <c r="I47" s="3">
+        <v>819400</v>
+      </c>
+      <c r="J47" s="3">
+        <v>758100</v>
+      </c>
+      <c r="K47" s="3">
         <v>595100</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>437900</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>301700</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>310800</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>226200</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>239100</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>226400</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>192600</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="S47" s="3">
         <v>221700</v>
       </c>
-      <c r="R47" s="3">
+      <c r="T47" s="3">
         <v>244600</v>
       </c>
-      <c r="S47" s="3">
+      <c r="U47" s="3">
         <v>186800</v>
       </c>
-      <c r="T47" s="3">
+      <c r="V47" s="3">
         <v>142300</v>
       </c>
-      <c r="U47" s="3">
+      <c r="W47" s="3">
         <v>140400</v>
       </c>
-      <c r="V47" s="3">
+      <c r="X47" s="3">
         <v>117600</v>
       </c>
-      <c r="W47" s="3">
+      <c r="Y47" s="3">
         <v>106800</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Z47" s="3">
         <v>94400</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="AA47" s="3">
         <v>80100</v>
       </c>
-      <c r="Z47" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="AA47" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="AB47" s="3" t="s">
         <v>16</v>
       </c>
       <c r="AC47" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD47" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE47" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>174400</v>
+        <v>128100</v>
       </c>
       <c r="E48" s="3">
-        <v>196600</v>
+        <v>144200</v>
       </c>
       <c r="F48" s="3">
-        <v>210600</v>
+        <v>169100</v>
       </c>
       <c r="G48" s="3">
-        <v>185200</v>
+        <v>190600</v>
       </c>
       <c r="H48" s="3">
-        <v>191900</v>
+        <v>204200</v>
       </c>
       <c r="I48" s="3">
+        <v>179500</v>
+      </c>
+      <c r="J48" s="3">
+        <v>186000</v>
+      </c>
+      <c r="K48" s="3">
         <v>193900</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>154600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>125400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>106100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>115000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>103000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>75300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>79500</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>73700</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>69800</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>55200</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>57400</v>
       </c>
-      <c r="U48" s="3">
+      <c r="W48" s="3">
         <v>44900</v>
       </c>
-      <c r="V48" s="3">
+      <c r="X48" s="3">
         <v>35600</v>
       </c>
-      <c r="W48" s="3">
+      <c r="Y48" s="3">
         <v>28700</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Z48" s="3">
         <v>27700</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="AA48" s="3">
         <v>20000</v>
       </c>
-      <c r="Z48" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="AA48" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="AB48" s="3" t="s">
         <v>16</v>
       </c>
       <c r="AC48" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD48" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE48" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1002400</v>
+        <v>920100</v>
       </c>
       <c r="E49" s="3">
-        <v>1039100</v>
+        <v>936800</v>
       </c>
       <c r="F49" s="3">
-        <v>1038900</v>
+        <v>971600</v>
       </c>
       <c r="G49" s="3">
-        <v>995300</v>
+        <v>1007100</v>
       </c>
       <c r="H49" s="3">
-        <v>877600</v>
+        <v>1007000</v>
       </c>
       <c r="I49" s="3">
+        <v>964700</v>
+      </c>
+      <c r="J49" s="3">
+        <v>850600</v>
+      </c>
+      <c r="K49" s="3">
         <v>695500</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>636400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>614200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>508500</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>535100</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>442200</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>442600</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>411000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>395800</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>382200</v>
       </c>
-      <c r="S49" s="3">
+      <c r="U49" s="3">
         <v>350600</v>
       </c>
-      <c r="T49" s="3">
+      <c r="V49" s="3">
         <v>342900</v>
       </c>
-      <c r="U49" s="3">
+      <c r="W49" s="3">
         <v>218100</v>
       </c>
-      <c r="V49" s="3">
+      <c r="X49" s="3">
         <v>131900</v>
       </c>
-      <c r="W49" s="3">
+      <c r="Y49" s="3">
         <v>105700</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Z49" s="3">
         <v>70800</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="AA49" s="3">
         <v>64200</v>
       </c>
-      <c r="Z49" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="AA49" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="AB49" s="3" t="s">
         <v>16</v>
       </c>
       <c r="AC49" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD49" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE49" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3924,8 +4152,14 @@
       <c r="AC50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4007,91 +4241,103 @@
       <c r="AC51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>490100</v>
+        <v>462000</v>
       </c>
       <c r="E52" s="3">
-        <v>518800</v>
+        <v>475300</v>
       </c>
       <c r="F52" s="3">
-        <v>426800</v>
+        <v>475000</v>
       </c>
       <c r="G52" s="3">
-        <v>416600</v>
+        <v>502900</v>
       </c>
       <c r="H52" s="3">
-        <v>366700</v>
+        <v>413700</v>
       </c>
       <c r="I52" s="3">
+        <v>403800</v>
+      </c>
+      <c r="J52" s="3">
+        <v>355400</v>
+      </c>
+      <c r="K52" s="3">
         <v>319900</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>249400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>192500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>205800</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>182500</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>130500</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>122700</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>116400</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>106100</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>86500</v>
       </c>
-      <c r="S52" s="3">
+      <c r="U52" s="3">
         <v>71700</v>
       </c>
-      <c r="T52" s="3">
+      <c r="V52" s="3">
         <v>29700</v>
       </c>
-      <c r="U52" s="3">
+      <c r="W52" s="3">
         <v>10200</v>
       </c>
-      <c r="V52" s="3">
+      <c r="X52" s="3">
         <v>7600</v>
       </c>
-      <c r="W52" s="3">
+      <c r="Y52" s="3">
         <v>4400</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Z52" s="3">
         <v>3100</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="AA52" s="3">
         <v>1800</v>
       </c>
-      <c r="Z52" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="AA52" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="AB52" s="3" t="s">
         <v>16</v>
       </c>
       <c r="AC52" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD52" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE52" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4173,91 +4419,103 @@
       <c r="AC53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>5946200</v>
+        <v>4807900</v>
       </c>
       <c r="E54" s="3">
-        <v>6766400</v>
+        <v>5645800</v>
       </c>
       <c r="F54" s="3">
-        <v>6894800</v>
+        <v>5763400</v>
       </c>
       <c r="G54" s="3">
-        <v>6810000</v>
+        <v>6558400</v>
       </c>
       <c r="H54" s="3">
-        <v>7399400</v>
+        <v>6682800</v>
       </c>
       <c r="I54" s="3">
+        <v>6600700</v>
+      </c>
+      <c r="J54" s="3">
+        <v>7171900</v>
+      </c>
+      <c r="K54" s="3">
         <v>6036700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>6154100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>5624900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>3322100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>3555300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>3606200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>2469200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>2389200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>2472900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>2413900</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>1623700</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>1523500</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>1069000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>1020200</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>598900</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Z54" s="3">
         <v>515500</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="AA54" s="3">
         <v>505500</v>
       </c>
-      <c r="Z54" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="AA54" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="AB54" s="3" t="s">
         <v>16</v>
       </c>
       <c r="AC54" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD54" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE54" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4287,8 +4545,10 @@
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
-    </row>
-    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD55" s="3"/>
+      <c r="AE55" s="3"/>
+    </row>
+    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4318,159 +4578,167 @@
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
-    </row>
-    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD56" s="3"/>
+      <c r="AE56" s="3"/>
+    </row>
+    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>610100</v>
+        <v>574800</v>
       </c>
       <c r="E57" s="3">
-        <v>672500</v>
+        <v>606300</v>
       </c>
       <c r="F57" s="3">
-        <v>782000</v>
+        <v>591300</v>
       </c>
       <c r="G57" s="3">
-        <v>611500</v>
+        <v>651800</v>
       </c>
       <c r="H57" s="3">
-        <v>619900</v>
+        <v>757900</v>
       </c>
       <c r="I57" s="3">
+        <v>592700</v>
+      </c>
+      <c r="J57" s="3">
+        <v>600800</v>
+      </c>
+      <c r="K57" s="3">
         <v>596800</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>515700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>431500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>427900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>428300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>387200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>333800</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>293200</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>296500</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>262500</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>216700</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>189900</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>146900</v>
       </c>
-      <c r="V57" s="3">
+      <c r="X57" s="3">
         <v>135800</v>
       </c>
-      <c r="W57" s="3">
+      <c r="Y57" s="3">
         <v>124500</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Z57" s="3">
         <v>88500</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="AA57" s="3">
         <v>81100</v>
       </c>
-      <c r="Z57" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="AA57" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="AB57" s="3" t="s">
         <v>16</v>
       </c>
       <c r="AC57" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD57" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE57" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>941200</v>
+        <v>635400</v>
       </c>
       <c r="E58" s="3">
-        <v>988500</v>
+        <v>944000</v>
       </c>
       <c r="F58" s="3">
-        <v>206000</v>
+        <v>912300</v>
       </c>
       <c r="G58" s="3">
-        <v>212100</v>
+        <v>958100</v>
       </c>
       <c r="H58" s="3">
-        <v>175100</v>
+        <v>199600</v>
       </c>
       <c r="I58" s="3">
+        <v>205600</v>
+      </c>
+      <c r="J58" s="3">
+        <v>169800</v>
+      </c>
+      <c r="K58" s="3">
         <v>132800</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>55200</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>13900</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>13900</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>14600</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>14700</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>15700</v>
       </c>
-      <c r="P58" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q58" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="R58" s="3">
+      <c r="R58" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="S58" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="T58" s="3">
         <v>15300</v>
       </c>
-      <c r="S58" s="3">
+      <c r="U58" s="3">
         <v>15200</v>
       </c>
-      <c r="T58" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="U58" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="V58" s="3" t="s">
         <v>16</v>
       </c>
       <c r="W58" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="X58" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y58" s="3">
-        <v>0</v>
+      <c r="X58" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y58" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="Z58" s="3">
         <v>0</v>
@@ -4484,228 +4752,246 @@
       <c r="AC58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD58" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>878500</v>
+        <v>784800</v>
       </c>
       <c r="E59" s="3">
-        <v>887700</v>
+        <v>750700</v>
       </c>
       <c r="F59" s="3">
-        <v>858700</v>
+        <v>851500</v>
       </c>
       <c r="G59" s="3">
-        <v>787800</v>
+        <v>860400</v>
       </c>
       <c r="H59" s="3">
-        <v>920800</v>
+        <v>832300</v>
       </c>
       <c r="I59" s="3">
+        <v>763600</v>
+      </c>
+      <c r="J59" s="3">
+        <v>892500</v>
+      </c>
+      <c r="K59" s="3">
         <v>812200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>765100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>604400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>587000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>580800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>419600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>402400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>364700</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>344300</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>304500</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>336300</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>289200</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>215500</v>
       </c>
-      <c r="V59" s="3">
+      <c r="X59" s="3">
         <v>172600</v>
       </c>
-      <c r="W59" s="3">
+      <c r="Y59" s="3">
         <v>184600</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Z59" s="3">
         <v>118900</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="AA59" s="3">
         <v>106700</v>
       </c>
-      <c r="Z59" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="AA59" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="AB59" s="3" t="s">
         <v>16</v>
       </c>
       <c r="AC59" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD59" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE59" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>2429800</v>
+        <v>1995000</v>
       </c>
       <c r="E60" s="3">
-        <v>2548700</v>
+        <v>2301000</v>
       </c>
       <c r="F60" s="3">
-        <v>1846700</v>
+        <v>2355100</v>
       </c>
       <c r="G60" s="3">
-        <v>1611400</v>
+        <v>2470300</v>
       </c>
       <c r="H60" s="3">
-        <v>1715900</v>
+        <v>1789900</v>
       </c>
       <c r="I60" s="3">
+        <v>1561800</v>
+      </c>
+      <c r="J60" s="3">
+        <v>1663100</v>
+      </c>
+      <c r="K60" s="3">
         <v>1541800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>1336000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>1049800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>1028900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>1023600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>821600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>751900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>657900</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>640800</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>582300</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>568200</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>479100</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>362400</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>308400</v>
       </c>
-      <c r="W60" s="3">
+      <c r="Y60" s="3">
         <v>309100</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Z60" s="3">
         <v>207500</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="AA60" s="3">
         <v>187800</v>
       </c>
-      <c r="Z60" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="AA60" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="AB60" s="3" t="s">
         <v>16</v>
       </c>
       <c r="AC60" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD60" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE60" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1234300</v>
+        <v>440600</v>
       </c>
       <c r="E61" s="3">
-        <v>1748700</v>
+        <v>820900</v>
       </c>
       <c r="F61" s="3">
-        <v>2405500</v>
+        <v>1196400</v>
       </c>
       <c r="G61" s="3">
-        <v>2337300</v>
+        <v>1694900</v>
       </c>
       <c r="H61" s="3">
-        <v>2528000</v>
+        <v>2331600</v>
       </c>
       <c r="I61" s="3">
+        <v>2265500</v>
+      </c>
+      <c r="J61" s="3">
+        <v>2450300</v>
+      </c>
+      <c r="K61" s="3">
         <v>1116800</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>1162000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>1157100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>1161100</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>1270400</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>1331800</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>543400</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>525800</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>539700</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>513200</v>
       </c>
-      <c r="S61" s="3">
-        <v>0</v>
-      </c>
-      <c r="T61" s="3">
-        <v>0</v>
-      </c>
       <c r="U61" s="3">
         <v>0</v>
       </c>
@@ -4733,62 +5019,68 @@
       <c r="AC61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>115800</v>
+        <v>94500</v>
       </c>
       <c r="E62" s="3">
-        <v>117400</v>
+        <v>100800</v>
       </c>
       <c r="F62" s="3">
-        <v>92000</v>
+        <v>112200</v>
       </c>
       <c r="G62" s="3">
-        <v>93400</v>
+        <v>113800</v>
       </c>
       <c r="H62" s="3">
-        <v>68500</v>
+        <v>89200</v>
       </c>
       <c r="I62" s="3">
+        <v>90500</v>
+      </c>
+      <c r="J62" s="3">
+        <v>66400</v>
+      </c>
+      <c r="K62" s="3">
         <v>48400</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>40600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>43900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>48900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>33100</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>29100</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>27200</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>29700</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>31700</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>26000</v>
       </c>
-      <c r="S62" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="T62" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="U62" s="3" t="s">
         <v>16</v>
       </c>
@@ -4798,11 +5090,11 @@
       <c r="W62" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="X62" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y62" s="3">
-        <v>0</v>
+      <c r="X62" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y62" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="Z62" s="3">
         <v>0</v>
@@ -4816,8 +5108,14 @@
       <c r="AC62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD62" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4899,8 +5197,14 @@
       <c r="AC63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4982,8 +5286,14 @@
       <c r="AC64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5065,91 +5375,103 @@
       <c r="AC65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>3780200</v>
+        <v>2529800</v>
       </c>
       <c r="E66" s="3">
-        <v>4415300</v>
+        <v>3222600</v>
       </c>
       <c r="F66" s="3">
-        <v>4345200</v>
+        <v>3663900</v>
       </c>
       <c r="G66" s="3">
-        <v>4043500</v>
+        <v>4279600</v>
       </c>
       <c r="H66" s="3">
-        <v>4314200</v>
+        <v>4211600</v>
       </c>
       <c r="I66" s="3">
+        <v>3919200</v>
+      </c>
+      <c r="J66" s="3">
+        <v>4181600</v>
+      </c>
+      <c r="K66" s="3">
         <v>2712300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>2545100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>2274200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>2264100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>2356100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>2288800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>1436100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>1303300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>1295800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>1157000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>603900</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>514000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>381800</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>308300</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>308900</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Z66" s="3">
         <v>207500</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="AA66" s="3">
         <v>187800</v>
       </c>
-      <c r="Z66" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="AA66" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="AB66" s="3" t="s">
         <v>16</v>
       </c>
       <c r="AC66" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD66" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE66" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5179,8 +5501,10 @@
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
-    </row>
-    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD67" s="3"/>
+      <c r="AE67" s="3"/>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5262,8 +5586,14 @@
       <c r="AC68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5345,8 +5675,14 @@
       <c r="AC69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5411,25 +5747,31 @@
         <v>0</v>
       </c>
       <c r="X70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z70" s="3">
         <v>595900</v>
       </c>
-      <c r="Y70" s="3">
+      <c r="AA70" s="3">
         <v>585800</v>
       </c>
-      <c r="Z70" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA70" s="3">
-        <v>0</v>
-      </c>
       <c r="AB70" s="3">
         <v>0</v>
       </c>
       <c r="AC70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5511,91 +5853,103 @@
       <c r="AC71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D72" s="3">
-        <v>-3048200</v>
+      <c r="D72" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="E72" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F72" s="3" t="s">
-        <v>16</v>
+      <c r="F72" s="3">
+        <v>-2954500</v>
       </c>
       <c r="G72" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H72" s="3">
-        <v>-1982500</v>
+      <c r="H72" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="I72" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="J72" s="3" t="s">
-        <v>16</v>
+      <c r="J72" s="3">
+        <v>-1921600</v>
       </c>
       <c r="K72" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="L72" s="3">
+      <c r="L72" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M72" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N72" s="3">
         <v>-996300</v>
       </c>
-      <c r="M72" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="N72" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="O72" s="3">
+      <c r="O72" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="P72" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q72" s="3">
         <v>-733300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-636300</v>
       </c>
-      <c r="Q72" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="R72" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="S72" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="T72" s="3">
+      <c r="T72" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="U72" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="V72" s="3">
         <v>-411700</v>
       </c>
-      <c r="U72" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="V72" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="W72" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="X72" s="3">
+      <c r="X72" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y72" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z72" s="3">
         <v>-329300</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="AA72" s="3">
         <v>-311600</v>
       </c>
-      <c r="Z72" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="AA72" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="AB72" s="3" t="s">
         <v>16</v>
       </c>
       <c r="AC72" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD72" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE72" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5677,8 +6031,14 @@
       <c r="AC73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5760,8 +6120,14 @@
       <c r="AC74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5843,91 +6209,103 @@
       <c r="AC75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2166100</v>
+        <v>2278100</v>
       </c>
       <c r="E76" s="3">
-        <v>2351100</v>
+        <v>2423300</v>
       </c>
       <c r="F76" s="3">
-        <v>2549600</v>
+        <v>2099500</v>
       </c>
       <c r="G76" s="3">
-        <v>2766500</v>
+        <v>2278800</v>
       </c>
       <c r="H76" s="3">
-        <v>3085200</v>
+        <v>2471200</v>
       </c>
       <c r="I76" s="3">
+        <v>2681400</v>
+      </c>
+      <c r="J76" s="3">
+        <v>2990300</v>
+      </c>
+      <c r="K76" s="3">
         <v>3324400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>3609000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>3350700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>1057900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>1199200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>1317400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>1033100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>1085900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>1177100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>1256900</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>1019800</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>1009500</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>687300</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>711900</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>290000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>-287800</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="AA76" s="3">
         <v>-268000</v>
       </c>
-      <c r="Z76" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="AA76" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="AB76" s="3" t="s">
         <v>16</v>
       </c>
       <c r="AC76" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD76" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE76" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6009,179 +6387,197 @@
       <c r="AC77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43465</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43373</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>43281</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>43190</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>43100</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>43008</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AB80" s="2">
         <v>42916</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AC80" s="2">
         <v>42825</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AD80" s="2">
         <v>42735</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AE80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-212500</v>
+        <v>-213100</v>
       </c>
       <c r="E81" s="3">
-        <v>-243600</v>
+        <v>-86500</v>
       </c>
       <c r="F81" s="3">
-        <v>-285300</v>
+        <v>-205900</v>
       </c>
       <c r="G81" s="3">
-        <v>-324400</v>
+        <v>-236100</v>
       </c>
       <c r="H81" s="3">
-        <v>-296800</v>
+        <v>-276500</v>
       </c>
       <c r="I81" s="3">
+        <v>-314400</v>
+      </c>
+      <c r="J81" s="3">
+        <v>-287700</v>
+      </c>
+      <c r="K81" s="3">
         <v>-380500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-159300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-125800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-115200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-158000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-83500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-83800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-58900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-63600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>-47800</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>-28300</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>-26100</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>-34300</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>-10200</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>-17200</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Z81" s="3">
         <v>-17800</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="AA81" s="3">
         <v>-12200</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AB81" s="3">
         <v>-36900</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AC81" s="3">
         <v>-17500</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AD81" s="3">
         <v>-65400</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AE81" s="3">
         <v>-107000</v>
       </c>
     </row>
-    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6211,8 +6607,10 @@
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
-    </row>
-    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD82" s="3"/>
+      <c r="AE82" s="3"/>
+    </row>
+    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6243,11 +6641,11 @@
       <c r="L83" s="3">
         <v>0</v>
       </c>
-      <c r="M83" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="N83" s="3" t="s">
-        <v>16</v>
+      <c r="M83" s="3">
+        <v>0</v>
+      </c>
+      <c r="N83" s="3">
+        <v>0</v>
       </c>
       <c r="O83" s="3" t="s">
         <v>16</v>
@@ -6270,11 +6668,11 @@
       <c r="U83" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="V83" s="3">
-        <v>0</v>
-      </c>
-      <c r="W83" s="3">
-        <v>0</v>
+      <c r="V83" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="W83" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="X83" s="3">
         <v>0</v>
@@ -6285,17 +6683,23 @@
       <c r="Z83" s="3">
         <v>0</v>
       </c>
-      <c r="AA83" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="AB83" s="3" t="s">
-        <v>16</v>
+      <c r="AA83" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB83" s="3">
+        <v>0</v>
       </c>
       <c r="AC83" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD83" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE83" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6377,8 +6781,14 @@
       <c r="AC84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6460,8 +6870,14 @@
       <c r="AC85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6543,8 +6959,14 @@
       <c r="AC86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6626,8 +7048,14 @@
       <c r="AC87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6709,8 +7137,14 @@
       <c r="AC88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -6741,11 +7175,11 @@
       <c r="L89" s="3">
         <v>0</v>
       </c>
-      <c r="M89" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="N89" s="3" t="s">
-        <v>16</v>
+      <c r="M89" s="3">
+        <v>0</v>
+      </c>
+      <c r="N89" s="3">
+        <v>0</v>
       </c>
       <c r="O89" s="3" t="s">
         <v>16</v>
@@ -6768,11 +7202,11 @@
       <c r="U89" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="V89" s="3">
-        <v>0</v>
-      </c>
-      <c r="W89" s="3">
-        <v>0</v>
+      <c r="V89" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="W89" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="X89" s="3">
         <v>0</v>
@@ -6783,17 +7217,23 @@
       <c r="Z89" s="3">
         <v>0</v>
       </c>
-      <c r="AA89" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="AB89" s="3" t="s">
-        <v>16</v>
+      <c r="AA89" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB89" s="3">
+        <v>0</v>
       </c>
       <c r="AC89" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD89" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE89" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6823,8 +7263,10 @@
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
-    </row>
-    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD90" s="3"/>
+      <c r="AE90" s="3"/>
+    </row>
+    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6855,11 +7297,11 @@
       <c r="L91" s="3">
         <v>0</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="N91" s="3" t="s">
-        <v>16</v>
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3">
+        <v>0</v>
       </c>
       <c r="O91" s="3" t="s">
         <v>16</v>
@@ -6882,11 +7324,11 @@
       <c r="U91" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="V91" s="3">
-        <v>0</v>
-      </c>
-      <c r="W91" s="3">
-        <v>0</v>
+      <c r="V91" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="W91" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="X91" s="3">
         <v>0</v>
@@ -6897,17 +7339,23 @@
       <c r="Z91" s="3">
         <v>0</v>
       </c>
-      <c r="AA91" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="AB91" s="3" t="s">
-        <v>16</v>
+      <c r="AA91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB91" s="3">
+        <v>0</v>
       </c>
       <c r="AC91" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD91" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE91" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6989,8 +7437,14 @@
       <c r="AC92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7072,8 +7526,14 @@
       <c r="AC93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -7104,11 +7564,11 @@
       <c r="L94" s="3">
         <v>0</v>
       </c>
-      <c r="M94" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="N94" s="3" t="s">
-        <v>16</v>
+      <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3">
+        <v>0</v>
       </c>
       <c r="O94" s="3" t="s">
         <v>16</v>
@@ -7131,11 +7591,11 @@
       <c r="U94" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="V94" s="3">
-        <v>0</v>
-      </c>
-      <c r="W94" s="3">
-        <v>0</v>
+      <c r="V94" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="W94" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="X94" s="3">
         <v>0</v>
@@ -7146,17 +7606,23 @@
       <c r="Z94" s="3">
         <v>0</v>
       </c>
-      <c r="AA94" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="AB94" s="3" t="s">
-        <v>16</v>
+      <c r="AA94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB94" s="3">
+        <v>0</v>
       </c>
       <c r="AC94" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD94" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE94" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7186,8 +7652,10 @@
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
-    </row>
-    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD95" s="3"/>
+      <c r="AE95" s="3"/>
+    </row>
+    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7269,8 +7737,14 @@
       <c r="AC96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7352,8 +7826,14 @@
       <c r="AC97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7435,8 +7915,14 @@
       <c r="AC98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7518,8 +8004,14 @@
       <c r="AC99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -7550,11 +8042,11 @@
       <c r="L100" s="3">
         <v>0</v>
       </c>
-      <c r="M100" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="N100" s="3" t="s">
-        <v>16</v>
+      <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
+        <v>0</v>
       </c>
       <c r="O100" s="3" t="s">
         <v>16</v>
@@ -7577,11 +8069,11 @@
       <c r="U100" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="V100" s="3">
-        <v>0</v>
-      </c>
-      <c r="W100" s="3">
-        <v>0</v>
+      <c r="V100" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="W100" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="X100" s="3">
         <v>0</v>
@@ -7592,17 +8084,23 @@
       <c r="Z100" s="3">
         <v>0</v>
       </c>
-      <c r="AA100" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="AB100" s="3" t="s">
-        <v>16</v>
+      <c r="AA100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB100" s="3">
+        <v>0</v>
       </c>
       <c r="AC100" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD100" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE100" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7633,11 +8131,11 @@
       <c r="L101" s="3">
         <v>0</v>
       </c>
-      <c r="M101" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="N101" s="3" t="s">
-        <v>16</v>
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3">
+        <v>0</v>
       </c>
       <c r="O101" s="3" t="s">
         <v>16</v>
@@ -7660,11 +8158,11 @@
       <c r="U101" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="V101" s="3">
-        <v>0</v>
-      </c>
-      <c r="W101" s="3">
-        <v>0</v>
+      <c r="V101" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="W101" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="X101" s="3">
         <v>0</v>
@@ -7675,17 +8173,23 @@
       <c r="Z101" s="3">
         <v>0</v>
       </c>
-      <c r="AA101" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="AB101" s="3" t="s">
-        <v>16</v>
+      <c r="AA101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB101" s="3">
+        <v>0</v>
       </c>
       <c r="AC101" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD101" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE101" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -7716,11 +8220,11 @@
       <c r="L102" s="3">
         <v>0</v>
       </c>
-      <c r="M102" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="N102" s="3" t="s">
-        <v>16</v>
+      <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3">
+        <v>0</v>
       </c>
       <c r="O102" s="3" t="s">
         <v>16</v>
@@ -7743,11 +8247,11 @@
       <c r="U102" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="V102" s="3">
-        <v>0</v>
-      </c>
-      <c r="W102" s="3">
-        <v>0</v>
+      <c r="V102" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="W102" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="X102" s="3">
         <v>0</v>
@@ -7758,13 +8262,19 @@
       <c r="Z102" s="3">
         <v>0</v>
       </c>
-      <c r="AA102" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="AB102" s="3" t="s">
-        <v>16</v>
+      <c r="AA102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB102" s="3">
+        <v>0</v>
       </c>
       <c r="AC102" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AD102" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE102" s="3" t="s">
         <v>16</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BILI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BILI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="92">
   <si>
     <t>BILI</t>
   </si>
@@ -793,25 +793,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>730800</v>
+        <v>732400</v>
       </c>
       <c r="E8" s="3">
-        <v>698500</v>
+        <v>700000</v>
       </c>
       <c r="F8" s="3">
-        <v>846300</v>
+        <v>848200</v>
       </c>
       <c r="G8" s="3">
-        <v>798300</v>
+        <v>800000</v>
       </c>
       <c r="H8" s="3">
-        <v>676300</v>
+        <v>677800</v>
       </c>
       <c r="I8" s="3">
-        <v>696400</v>
+        <v>697900</v>
       </c>
       <c r="J8" s="3">
-        <v>796500</v>
+        <v>798200</v>
       </c>
       <c r="K8" s="3">
         <v>740100</v>
@@ -882,25 +882,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>561700</v>
+        <v>562900</v>
       </c>
       <c r="E9" s="3">
-        <v>546400</v>
+        <v>547600</v>
       </c>
       <c r="F9" s="3">
-        <v>674100</v>
+        <v>675600</v>
       </c>
       <c r="G9" s="3">
-        <v>653000</v>
+        <v>654400</v>
       </c>
       <c r="H9" s="3">
-        <v>574600</v>
+        <v>575900</v>
       </c>
       <c r="I9" s="3">
-        <v>585100</v>
+        <v>586400</v>
       </c>
       <c r="J9" s="3">
-        <v>645200</v>
+        <v>646600</v>
       </c>
       <c r="K9" s="3">
         <v>595300</v>
@@ -971,25 +971,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>169100</v>
+        <v>169500</v>
       </c>
       <c r="E10" s="3">
-        <v>152100</v>
+        <v>152400</v>
       </c>
       <c r="F10" s="3">
-        <v>172200</v>
+        <v>172500</v>
       </c>
       <c r="G10" s="3">
-        <v>145300</v>
+        <v>145600</v>
       </c>
       <c r="H10" s="3">
-        <v>101700</v>
+        <v>101900</v>
       </c>
       <c r="I10" s="3">
-        <v>111200</v>
+        <v>111500</v>
       </c>
       <c r="J10" s="3">
-        <v>151300</v>
+        <v>151600</v>
       </c>
       <c r="K10" s="3">
         <v>144800</v>
@@ -1093,25 +1093,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>144300</v>
+        <v>144600</v>
       </c>
       <c r="E12" s="3">
-        <v>141500</v>
+        <v>141800</v>
       </c>
       <c r="F12" s="3">
-        <v>205800</v>
+        <v>206300</v>
       </c>
       <c r="G12" s="3">
-        <v>155800</v>
+        <v>156200</v>
       </c>
       <c r="H12" s="3">
-        <v>155900</v>
+        <v>156300</v>
       </c>
       <c r="I12" s="3">
-        <v>139000</v>
+        <v>139300</v>
       </c>
       <c r="J12" s="3">
-        <v>109900</v>
+        <v>110100</v>
       </c>
       <c r="K12" s="3">
         <v>112100</v>
@@ -1271,13 +1271,13 @@
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>7400</v>
+        <v>7500</v>
       </c>
       <c r="E14" s="3">
-        <v>-46400</v>
+        <v>-46500</v>
       </c>
       <c r="F14" s="3">
-        <v>-181700</v>
+        <v>-182100</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>16</v>
@@ -1479,25 +1479,25 @@
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>914300</v>
+        <v>916300</v>
       </c>
       <c r="E17" s="3">
-        <v>841500</v>
+        <v>843400</v>
       </c>
       <c r="F17" s="3">
-        <v>985300</v>
+        <v>987400</v>
       </c>
       <c r="G17" s="3">
-        <v>1053000</v>
+        <v>1055300</v>
       </c>
       <c r="H17" s="3">
-        <v>978200</v>
+        <v>980400</v>
       </c>
       <c r="I17" s="3">
-        <v>970600</v>
+        <v>972800</v>
       </c>
       <c r="J17" s="3">
-        <v>1072000</v>
+        <v>1074300</v>
       </c>
       <c r="K17" s="3">
         <v>1007100</v>
@@ -1568,25 +1568,25 @@
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>-183500</v>
+        <v>-183900</v>
       </c>
       <c r="E18" s="3">
-        <v>-143000</v>
+        <v>-143400</v>
       </c>
       <c r="F18" s="3">
-        <v>-139000</v>
+        <v>-139300</v>
       </c>
       <c r="G18" s="3">
-        <v>-254700</v>
+        <v>-255300</v>
       </c>
       <c r="H18" s="3">
-        <v>-301900</v>
+        <v>-302500</v>
       </c>
       <c r="I18" s="3">
-        <v>-274300</v>
+        <v>-274900</v>
       </c>
       <c r="J18" s="3">
-        <v>-275500</v>
+        <v>-276100</v>
       </c>
       <c r="K18" s="3">
         <v>-267000</v>
@@ -1690,22 +1690,22 @@
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>-19900</v>
+        <v>-20000</v>
       </c>
       <c r="E20" s="3">
-        <v>68600</v>
+        <v>68800</v>
       </c>
       <c r="F20" s="3">
-        <v>-55700</v>
+        <v>-55800</v>
       </c>
       <c r="G20" s="3">
-        <v>30800</v>
+        <v>30900</v>
       </c>
       <c r="H20" s="3">
-        <v>37000</v>
+        <v>37100</v>
       </c>
       <c r="I20" s="3">
-        <v>-27700</v>
+        <v>-27800</v>
       </c>
       <c r="J20" s="3">
         <v>-1800</v>
@@ -1784,8 +1784,8 @@
       <c r="E21" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F21" s="3" t="s">
-        <v>16</v>
+      <c r="F21" s="3">
+        <v>-78600</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>16</v>
@@ -1796,8 +1796,8 @@
       <c r="I21" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="J21" s="3" t="s">
-        <v>16</v>
+      <c r="J21" s="3">
+        <v>59200</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>16</v>
@@ -1957,25 +1957,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-210000</v>
+        <v>-210500</v>
       </c>
       <c r="E23" s="3">
-        <v>-82400</v>
+        <v>-82600</v>
       </c>
       <c r="F23" s="3">
-        <v>-203400</v>
+        <v>-203900</v>
       </c>
       <c r="G23" s="3">
-        <v>-232700</v>
+        <v>-233200</v>
       </c>
       <c r="H23" s="3">
-        <v>-273300</v>
+        <v>-273900</v>
       </c>
       <c r="I23" s="3">
-        <v>-310600</v>
+        <v>-311300</v>
       </c>
       <c r="J23" s="3">
-        <v>-284200</v>
+        <v>-284900</v>
       </c>
       <c r="K23" s="3">
         <v>-377800</v>
@@ -2224,25 +2224,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-213300</v>
+        <v>-213800</v>
       </c>
       <c r="E26" s="3">
-        <v>-86800</v>
+        <v>-86900</v>
       </c>
       <c r="F26" s="3">
-        <v>-206300</v>
+        <v>-206700</v>
       </c>
       <c r="G26" s="3">
-        <v>-236400</v>
+        <v>-237000</v>
       </c>
       <c r="H26" s="3">
-        <v>-277000</v>
+        <v>-277600</v>
       </c>
       <c r="I26" s="3">
-        <v>-314700</v>
+        <v>-315400</v>
       </c>
       <c r="J26" s="3">
-        <v>-288800</v>
+        <v>-289400</v>
       </c>
       <c r="K26" s="3">
         <v>-381900</v>
@@ -2313,25 +2313,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-213100</v>
+        <v>-213600</v>
       </c>
       <c r="E27" s="3">
-        <v>-86500</v>
+        <v>-86700</v>
       </c>
       <c r="F27" s="3">
-        <v>-205900</v>
+        <v>-206400</v>
       </c>
       <c r="G27" s="3">
-        <v>-236100</v>
+        <v>-236600</v>
       </c>
       <c r="H27" s="3">
-        <v>-276500</v>
+        <v>-277100</v>
       </c>
       <c r="I27" s="3">
-        <v>-314400</v>
+        <v>-315100</v>
       </c>
       <c r="J27" s="3">
-        <v>-287700</v>
+        <v>-288300</v>
       </c>
       <c r="K27" s="3">
         <v>-380500</v>
@@ -2758,22 +2758,22 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>19900</v>
+        <v>20000</v>
       </c>
       <c r="E32" s="3">
-        <v>-68600</v>
+        <v>-68800</v>
       </c>
       <c r="F32" s="3">
-        <v>55700</v>
+        <v>55800</v>
       </c>
       <c r="G32" s="3">
-        <v>-30800</v>
+        <v>-30900</v>
       </c>
       <c r="H32" s="3">
-        <v>-37000</v>
+        <v>-37100</v>
       </c>
       <c r="I32" s="3">
-        <v>27700</v>
+        <v>27800</v>
       </c>
       <c r="J32" s="3">
         <v>1800</v>
@@ -2847,25 +2847,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-213100</v>
+        <v>-213600</v>
       </c>
       <c r="E33" s="3">
-        <v>-86500</v>
+        <v>-86700</v>
       </c>
       <c r="F33" s="3">
-        <v>-205900</v>
+        <v>-206400</v>
       </c>
       <c r="G33" s="3">
-        <v>-236100</v>
+        <v>-236600</v>
       </c>
       <c r="H33" s="3">
-        <v>-276500</v>
+        <v>-277100</v>
       </c>
       <c r="I33" s="3">
-        <v>-314400</v>
+        <v>-315100</v>
       </c>
       <c r="J33" s="3">
-        <v>-287700</v>
+        <v>-288300</v>
       </c>
       <c r="K33" s="3">
         <v>-380500</v>
@@ -3025,25 +3025,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-213100</v>
+        <v>-213600</v>
       </c>
       <c r="E35" s="3">
-        <v>-86500</v>
+        <v>-86700</v>
       </c>
       <c r="F35" s="3">
-        <v>-205900</v>
+        <v>-206400</v>
       </c>
       <c r="G35" s="3">
-        <v>-236100</v>
+        <v>-236600</v>
       </c>
       <c r="H35" s="3">
-        <v>-276500</v>
+        <v>-277100</v>
       </c>
       <c r="I35" s="3">
-        <v>-314400</v>
+        <v>-315100</v>
       </c>
       <c r="J35" s="3">
-        <v>-287700</v>
+        <v>-288300</v>
       </c>
       <c r="K35" s="3">
         <v>-380500</v>
@@ -3274,25 +3274,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>783500</v>
+        <v>785200</v>
       </c>
       <c r="E41" s="3">
-        <v>1407800</v>
+        <v>1410900</v>
       </c>
       <c r="F41" s="3">
-        <v>1401600</v>
+        <v>1404600</v>
       </c>
       <c r="G41" s="3">
-        <v>753100</v>
+        <v>754800</v>
       </c>
       <c r="H41" s="3">
-        <v>481100</v>
+        <v>482100</v>
       </c>
       <c r="I41" s="3">
-        <v>699600</v>
+        <v>701200</v>
       </c>
       <c r="J41" s="3">
-        <v>1036500</v>
+        <v>1038800</v>
       </c>
       <c r="K41" s="3">
         <v>1488300</v>
@@ -3363,25 +3363,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>1186500</v>
+        <v>1189100</v>
       </c>
       <c r="E42" s="3">
-        <v>1263200</v>
+        <v>1265900</v>
       </c>
       <c r="F42" s="3">
-        <v>1294000</v>
+        <v>1296800</v>
       </c>
       <c r="G42" s="3">
-        <v>2545500</v>
+        <v>2551000</v>
       </c>
       <c r="H42" s="3">
-        <v>2952100</v>
+        <v>2958500</v>
       </c>
       <c r="I42" s="3">
-        <v>2707600</v>
+        <v>2713500</v>
       </c>
       <c r="J42" s="3">
-        <v>3126600</v>
+        <v>3133500</v>
       </c>
       <c r="K42" s="3">
         <v>1984500</v>
@@ -3452,25 +3452,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>188500</v>
+        <v>188900</v>
       </c>
       <c r="E43" s="3">
-        <v>175400</v>
+        <v>175800</v>
       </c>
       <c r="F43" s="3">
-        <v>402800</v>
+        <v>403700</v>
       </c>
       <c r="G43" s="3">
-        <v>178800</v>
+        <v>179200</v>
       </c>
       <c r="H43" s="3">
-        <v>197100</v>
+        <v>197500</v>
       </c>
       <c r="I43" s="3">
-        <v>175600</v>
+        <v>176000</v>
       </c>
       <c r="J43" s="3">
-        <v>471700</v>
+        <v>472700</v>
       </c>
       <c r="K43" s="3">
         <v>191500</v>
@@ -3630,25 +3630,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>419400</v>
+        <v>420300</v>
       </c>
       <c r="E45" s="3">
-        <v>455400</v>
+        <v>456400</v>
       </c>
       <c r="F45" s="3">
-        <v>270800</v>
+        <v>271400</v>
       </c>
       <c r="G45" s="3">
-        <v>566400</v>
+        <v>567600</v>
       </c>
       <c r="H45" s="3">
-        <v>552300</v>
+        <v>553500</v>
       </c>
       <c r="I45" s="3">
-        <v>650300</v>
+        <v>651700</v>
       </c>
       <c r="J45" s="3">
-        <v>386800</v>
+        <v>387600</v>
       </c>
       <c r="K45" s="3">
         <v>568000</v>
@@ -3719,25 +3719,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>2578000</v>
+        <v>2583600</v>
       </c>
       <c r="E46" s="3">
-        <v>3301800</v>
+        <v>3309000</v>
       </c>
       <c r="F46" s="3">
-        <v>3369100</v>
+        <v>3376500</v>
       </c>
       <c r="G46" s="3">
-        <v>4043900</v>
+        <v>4052700</v>
       </c>
       <c r="H46" s="3">
-        <v>4182500</v>
+        <v>4191600</v>
       </c>
       <c r="I46" s="3">
-        <v>4233200</v>
+        <v>4242400</v>
       </c>
       <c r="J46" s="3">
-        <v>5021600</v>
+        <v>5032600</v>
       </c>
       <c r="K46" s="3">
         <v>4232300</v>
@@ -3808,25 +3808,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>719700</v>
+        <v>721300</v>
       </c>
       <c r="E47" s="3">
-        <v>787700</v>
+        <v>789400</v>
       </c>
       <c r="F47" s="3">
-        <v>778600</v>
+        <v>780300</v>
       </c>
       <c r="G47" s="3">
-        <v>814000</v>
+        <v>815800</v>
       </c>
       <c r="H47" s="3">
-        <v>875500</v>
+        <v>877400</v>
       </c>
       <c r="I47" s="3">
-        <v>819400</v>
+        <v>821200</v>
       </c>
       <c r="J47" s="3">
-        <v>758100</v>
+        <v>759800</v>
       </c>
       <c r="K47" s="3">
         <v>595100</v>
@@ -3897,25 +3897,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>128100</v>
+        <v>128400</v>
       </c>
       <c r="E48" s="3">
-        <v>144200</v>
+        <v>144500</v>
       </c>
       <c r="F48" s="3">
-        <v>169100</v>
+        <v>169400</v>
       </c>
       <c r="G48" s="3">
-        <v>190600</v>
+        <v>191000</v>
       </c>
       <c r="H48" s="3">
-        <v>204200</v>
+        <v>204600</v>
       </c>
       <c r="I48" s="3">
-        <v>179500</v>
+        <v>179900</v>
       </c>
       <c r="J48" s="3">
-        <v>186000</v>
+        <v>186400</v>
       </c>
       <c r="K48" s="3">
         <v>193900</v>
@@ -3986,25 +3986,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>920100</v>
+        <v>922100</v>
       </c>
       <c r="E49" s="3">
-        <v>936800</v>
+        <v>938900</v>
       </c>
       <c r="F49" s="3">
-        <v>971600</v>
+        <v>973700</v>
       </c>
       <c r="G49" s="3">
-        <v>1007100</v>
+        <v>1009300</v>
       </c>
       <c r="H49" s="3">
-        <v>1007000</v>
+        <v>1009200</v>
       </c>
       <c r="I49" s="3">
-        <v>964700</v>
+        <v>966800</v>
       </c>
       <c r="J49" s="3">
-        <v>850600</v>
+        <v>852500</v>
       </c>
       <c r="K49" s="3">
         <v>695500</v>
@@ -4253,25 +4253,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>462000</v>
+        <v>463100</v>
       </c>
       <c r="E52" s="3">
-        <v>475300</v>
+        <v>476300</v>
       </c>
       <c r="F52" s="3">
-        <v>475000</v>
+        <v>476000</v>
       </c>
       <c r="G52" s="3">
-        <v>502900</v>
+        <v>503900</v>
       </c>
       <c r="H52" s="3">
-        <v>413700</v>
+        <v>414600</v>
       </c>
       <c r="I52" s="3">
-        <v>403800</v>
+        <v>404700</v>
       </c>
       <c r="J52" s="3">
-        <v>355400</v>
+        <v>356200</v>
       </c>
       <c r="K52" s="3">
         <v>319900</v>
@@ -4431,25 +4431,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>4807900</v>
+        <v>4818400</v>
       </c>
       <c r="E54" s="3">
-        <v>5645800</v>
+        <v>5658100</v>
       </c>
       <c r="F54" s="3">
-        <v>5763400</v>
+        <v>5776000</v>
       </c>
       <c r="G54" s="3">
-        <v>6558400</v>
+        <v>6572700</v>
       </c>
       <c r="H54" s="3">
-        <v>6682800</v>
+        <v>6697400</v>
       </c>
       <c r="I54" s="3">
-        <v>6600700</v>
+        <v>6615000</v>
       </c>
       <c r="J54" s="3">
-        <v>7171900</v>
+        <v>7187500</v>
       </c>
       <c r="K54" s="3">
         <v>6036700</v>
@@ -4586,25 +4586,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>574800</v>
+        <v>576000</v>
       </c>
       <c r="E57" s="3">
-        <v>606300</v>
+        <v>607600</v>
       </c>
       <c r="F57" s="3">
-        <v>591300</v>
+        <v>592600</v>
       </c>
       <c r="G57" s="3">
-        <v>651800</v>
+        <v>653200</v>
       </c>
       <c r="H57" s="3">
-        <v>757900</v>
+        <v>759600</v>
       </c>
       <c r="I57" s="3">
-        <v>592700</v>
+        <v>594000</v>
       </c>
       <c r="J57" s="3">
-        <v>600800</v>
+        <v>602200</v>
       </c>
       <c r="K57" s="3">
         <v>596800</v>
@@ -4675,25 +4675,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>635400</v>
+        <v>636800</v>
       </c>
       <c r="E58" s="3">
-        <v>944000</v>
+        <v>946100</v>
       </c>
       <c r="F58" s="3">
-        <v>912300</v>
+        <v>914300</v>
       </c>
       <c r="G58" s="3">
-        <v>958100</v>
+        <v>960200</v>
       </c>
       <c r="H58" s="3">
-        <v>199600</v>
+        <v>200100</v>
       </c>
       <c r="I58" s="3">
-        <v>205600</v>
+        <v>206000</v>
       </c>
       <c r="J58" s="3">
-        <v>169800</v>
+        <v>170100</v>
       </c>
       <c r="K58" s="3">
         <v>132800</v>
@@ -4764,25 +4764,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>784800</v>
+        <v>786500</v>
       </c>
       <c r="E59" s="3">
-        <v>750700</v>
+        <v>752300</v>
       </c>
       <c r="F59" s="3">
-        <v>851500</v>
+        <v>853400</v>
       </c>
       <c r="G59" s="3">
-        <v>860400</v>
+        <v>862300</v>
       </c>
       <c r="H59" s="3">
-        <v>832300</v>
+        <v>834100</v>
       </c>
       <c r="I59" s="3">
-        <v>763600</v>
+        <v>765200</v>
       </c>
       <c r="J59" s="3">
-        <v>892500</v>
+        <v>894500</v>
       </c>
       <c r="K59" s="3">
         <v>812200</v>
@@ -4853,25 +4853,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1995000</v>
+        <v>1999300</v>
       </c>
       <c r="E60" s="3">
-        <v>2301000</v>
+        <v>2306000</v>
       </c>
       <c r="F60" s="3">
-        <v>2355100</v>
+        <v>2360300</v>
       </c>
       <c r="G60" s="3">
-        <v>2470300</v>
+        <v>2475700</v>
       </c>
       <c r="H60" s="3">
-        <v>1789900</v>
+        <v>1793800</v>
       </c>
       <c r="I60" s="3">
-        <v>1561800</v>
+        <v>1565200</v>
       </c>
       <c r="J60" s="3">
-        <v>1663100</v>
+        <v>1666800</v>
       </c>
       <c r="K60" s="3">
         <v>1541800</v>
@@ -4942,25 +4942,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>440600</v>
+        <v>441500</v>
       </c>
       <c r="E61" s="3">
-        <v>820900</v>
+        <v>822700</v>
       </c>
       <c r="F61" s="3">
-        <v>1196400</v>
+        <v>1199000</v>
       </c>
       <c r="G61" s="3">
-        <v>1694900</v>
+        <v>1698600</v>
       </c>
       <c r="H61" s="3">
-        <v>2331600</v>
+        <v>2336700</v>
       </c>
       <c r="I61" s="3">
-        <v>2265500</v>
+        <v>2270400</v>
       </c>
       <c r="J61" s="3">
-        <v>2450300</v>
+        <v>2455600</v>
       </c>
       <c r="K61" s="3">
         <v>1116800</v>
@@ -5031,25 +5031,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>94500</v>
+        <v>94700</v>
       </c>
       <c r="E62" s="3">
-        <v>100800</v>
+        <v>101000</v>
       </c>
       <c r="F62" s="3">
-        <v>112200</v>
+        <v>112500</v>
       </c>
       <c r="G62" s="3">
-        <v>113800</v>
+        <v>114000</v>
       </c>
       <c r="H62" s="3">
-        <v>89200</v>
+        <v>89400</v>
       </c>
       <c r="I62" s="3">
-        <v>90500</v>
+        <v>90700</v>
       </c>
       <c r="J62" s="3">
-        <v>66400</v>
+        <v>66600</v>
       </c>
       <c r="K62" s="3">
         <v>48400</v>
@@ -5387,25 +5387,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>2529800</v>
+        <v>2535300</v>
       </c>
       <c r="E66" s="3">
-        <v>3222600</v>
+        <v>3229600</v>
       </c>
       <c r="F66" s="3">
-        <v>3663900</v>
+        <v>3671900</v>
       </c>
       <c r="G66" s="3">
-        <v>4279600</v>
+        <v>4288900</v>
       </c>
       <c r="H66" s="3">
-        <v>4211600</v>
+        <v>4220800</v>
       </c>
       <c r="I66" s="3">
-        <v>3919200</v>
+        <v>3927800</v>
       </c>
       <c r="J66" s="3">
-        <v>4181600</v>
+        <v>4190700</v>
       </c>
       <c r="K66" s="3">
         <v>2712300</v>
@@ -5871,7 +5871,7 @@
         <v>16</v>
       </c>
       <c r="F72" s="3">
-        <v>-2954500</v>
+        <v>-2960900</v>
       </c>
       <c r="G72" s="3" t="s">
         <v>16</v>
@@ -5883,7 +5883,7 @@
         <v>16</v>
       </c>
       <c r="J72" s="3">
-        <v>-1921600</v>
+        <v>-1925800</v>
       </c>
       <c r="K72" s="3" t="s">
         <v>16</v>
@@ -6221,25 +6221,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2278100</v>
+        <v>2283100</v>
       </c>
       <c r="E76" s="3">
-        <v>2423300</v>
+        <v>2428500</v>
       </c>
       <c r="F76" s="3">
-        <v>2099500</v>
+        <v>2104000</v>
       </c>
       <c r="G76" s="3">
-        <v>2278800</v>
+        <v>2283800</v>
       </c>
       <c r="H76" s="3">
-        <v>2471200</v>
+        <v>2476600</v>
       </c>
       <c r="I76" s="3">
-        <v>2681400</v>
+        <v>2687300</v>
       </c>
       <c r="J76" s="3">
-        <v>2990300</v>
+        <v>2996800</v>
       </c>
       <c r="K76" s="3">
         <v>3324400</v>
@@ -6493,25 +6493,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-213100</v>
+        <v>-213600</v>
       </c>
       <c r="E81" s="3">
-        <v>-86500</v>
+        <v>-86700</v>
       </c>
       <c r="F81" s="3">
-        <v>-205900</v>
+        <v>-206400</v>
       </c>
       <c r="G81" s="3">
-        <v>-236100</v>
+        <v>-236600</v>
       </c>
       <c r="H81" s="3">
-        <v>-276500</v>
+        <v>-277100</v>
       </c>
       <c r="I81" s="3">
-        <v>-314400</v>
+        <v>-315100</v>
       </c>
       <c r="J81" s="3">
-        <v>-287700</v>
+        <v>-288300</v>
       </c>
       <c r="K81" s="3">
         <v>-380500</v>
@@ -6614,26 +6614,26 @@
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3">
-        <v>0</v>
-      </c>
-      <c r="E83" s="3">
-        <v>0</v>
+      <c r="D83" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="F83" s="3">
-        <v>0</v>
-      </c>
-      <c r="G83" s="3">
-        <v>0</v>
-      </c>
-      <c r="H83" s="3">
-        <v>0</v>
-      </c>
-      <c r="I83" s="3">
-        <v>0</v>
+        <v>116500</v>
+      </c>
+      <c r="G83" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H83" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I83" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="J83" s="3">
-        <v>0</v>
+        <v>337200</v>
       </c>
       <c r="K83" s="3">
         <v>0</v>
@@ -7148,26 +7148,26 @@
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3">
-        <v>0</v>
-      </c>
-      <c r="E89" s="3">
-        <v>0</v>
+      <c r="D89" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="F89" s="3">
-        <v>0</v>
-      </c>
-      <c r="G89" s="3">
-        <v>0</v>
-      </c>
-      <c r="H89" s="3">
-        <v>0</v>
-      </c>
-      <c r="I89" s="3">
-        <v>0</v>
+        <v>-97700</v>
+      </c>
+      <c r="G89" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H89" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I89" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="J89" s="3">
-        <v>0</v>
+        <v>-365500</v>
       </c>
       <c r="K89" s="3">
         <v>0</v>
@@ -7271,13 +7271,13 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
+        <v>-519000</v>
       </c>
       <c r="E91" s="3">
-        <v>0</v>
+        <v>-2219300</v>
       </c>
       <c r="F91" s="3">
-        <v>0</v>
+        <v>-1068200</v>
       </c>
       <c r="G91" s="3">
         <v>0</v>
@@ -7537,26 +7537,26 @@
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3">
-        <v>0</v>
-      </c>
-      <c r="E94" s="3">
-        <v>0</v>
+      <c r="D94" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="F94" s="3">
-        <v>0</v>
-      </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
-      <c r="I94" s="3">
-        <v>0</v>
+        <v>1135300</v>
+      </c>
+      <c r="G94" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H94" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I94" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="J94" s="3">
-        <v>0</v>
+        <v>-3393700</v>
       </c>
       <c r="K94" s="3">
         <v>0</v>
@@ -8015,26 +8015,26 @@
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3">
-        <v>0</v>
-      </c>
-      <c r="E100" s="3">
-        <v>0</v>
+      <c r="D100" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E100" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="F100" s="3">
-        <v>0</v>
-      </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
-      <c r="I100" s="3">
-        <v>0</v>
+        <v>-385000</v>
+      </c>
+      <c r="G100" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H100" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I100" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="J100" s="3">
-        <v>0</v>
+        <v>4196100</v>
       </c>
       <c r="K100" s="3">
         <v>0</v>
@@ -8104,26 +8104,26 @@
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3">
-        <v>0</v>
-      </c>
-      <c r="E101" s="3">
-        <v>0</v>
+      <c r="D101" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E101" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="F101" s="3">
-        <v>0</v>
-      </c>
-      <c r="G101" s="3">
-        <v>0</v>
-      </c>
-      <c r="H101" s="3">
-        <v>0</v>
-      </c>
-      <c r="I101" s="3">
-        <v>0</v>
+        <v>-700</v>
+      </c>
+      <c r="G101" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H101" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I101" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="J101" s="3">
-        <v>0</v>
+        <v>-44100</v>
       </c>
       <c r="K101" s="3">
         <v>0</v>
@@ -8193,26 +8193,26 @@
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3">
-        <v>0</v>
-      </c>
-      <c r="E102" s="3">
-        <v>0</v>
+      <c r="D102" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E102" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="F102" s="3">
-        <v>0</v>
-      </c>
-      <c r="G102" s="3">
-        <v>0</v>
-      </c>
-      <c r="H102" s="3">
-        <v>0</v>
-      </c>
-      <c r="I102" s="3">
-        <v>0</v>
+        <v>651900</v>
+      </c>
+      <c r="G102" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H102" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I102" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="J102" s="3">
-        <v>0</v>
+        <v>392800</v>
       </c>
       <c r="K102" s="3">
         <v>0</v>
